--- a/030_設計ドキュメント/020_サンプル/030_インタフェース設計/外部インタフェース設計書(その他)_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/030_インタフェース設計/外部インタフェース設計書(その他)_サンプル.xlsx
@@ -3066,7 +3066,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="429">
+  <cellXfs count="428">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3522,46 +3522,157 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3615,137 +3726,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3756,45 +3774,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3804,6 +3783,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3816,12 +3855,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3849,59 +3882,77 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3909,22 +3960,91 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3936,9 +4056,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3963,24 +4080,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3990,15 +4089,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -4023,146 +4113,11 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4176,6 +4131,24 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4184,29 +4157,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4217,6 +4178,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -4226,41 +4196,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -8126,12 +8123,12 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="193">
+      <c r="I25" s="186">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43336</v>
       </c>
-      <c r="J25" s="193"/>
-      <c r="K25" s="193"/>
+      <c r="J25" s="186"/>
+      <c r="K25" s="186"/>
       <c r="L25" s="83"/>
     </row>
     <row r="26" spans="2:19" ht="13.5" customHeight="1">
@@ -8763,155 +8760,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="194" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="222" t="s">
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="206" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="231" t="s">
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="197" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="232"/>
-      <c r="Q1" s="232"/>
-      <c r="R1" s="233"/>
-      <c r="S1" s="240" t="s">
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="209" t="s">
         <v>206</v>
       </c>
-      <c r="T1" s="241"/>
-      <c r="U1" s="241"/>
-      <c r="V1" s="241"/>
-      <c r="W1" s="241"/>
-      <c r="X1" s="241"/>
-      <c r="Y1" s="241"/>
-      <c r="Z1" s="242"/>
-      <c r="AA1" s="228" t="s">
+      <c r="T1" s="210"/>
+      <c r="U1" s="210"/>
+      <c r="V1" s="210"/>
+      <c r="W1" s="210"/>
+      <c r="X1" s="210"/>
+      <c r="Y1" s="210"/>
+      <c r="Z1" s="211"/>
+      <c r="AA1" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="AB1" s="230"/>
-      <c r="AC1" s="212" t="str">
+      <c r="AB1" s="196"/>
+      <c r="AC1" s="218" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="213"/>
-      <c r="AE1" s="213"/>
-      <c r="AF1" s="214"/>
-      <c r="AG1" s="215">
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="221">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="216"/>
-      <c r="AI1" s="217"/>
+      <c r="AH1" s="222"/>
+      <c r="AI1" s="223"/>
       <c r="AK1" s="72"/>
       <c r="AL1" s="72"/>
       <c r="AM1" s="72"/>
       <c r="AN1" s="73"/>
     </row>
     <row r="2" spans="1:40" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="194" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="222" t="s">
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="206" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
-      <c r="M2" s="223"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="234"/>
-      <c r="P2" s="235"/>
-      <c r="Q2" s="235"/>
-      <c r="R2" s="236"/>
-      <c r="S2" s="243"/>
-      <c r="T2" s="244"/>
-      <c r="U2" s="244"/>
-      <c r="V2" s="244"/>
-      <c r="W2" s="244"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="244"/>
-      <c r="Z2" s="245"/>
-      <c r="AA2" s="228" t="s">
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="212"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="213"/>
+      <c r="X2" s="213"/>
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="194" t="s">
         <v>76</v>
       </c>
-      <c r="AB2" s="230"/>
-      <c r="AC2" s="225" t="str">
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="224" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="226"/>
-      <c r="AE2" s="226"/>
-      <c r="AF2" s="227"/>
-      <c r="AG2" s="215" t="str">
+      <c r="AD2" s="225"/>
+      <c r="AE2" s="225"/>
+      <c r="AF2" s="226"/>
+      <c r="AG2" s="221" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="216"/>
-      <c r="AI2" s="217"/>
+      <c r="AH2" s="222"/>
+      <c r="AI2" s="223"/>
       <c r="AK2" s="72"/>
       <c r="AL2" s="72"/>
       <c r="AM2" s="72"/>
       <c r="AN2" s="72"/>
     </row>
     <row r="3" spans="1:40" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="228" t="s">
+      <c r="A3" s="194" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="229"/>
-      <c r="C3" s="229"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="222" t="s">
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="206" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="224"/>
-      <c r="O3" s="237"/>
-      <c r="P3" s="238"/>
-      <c r="Q3" s="238"/>
-      <c r="R3" s="239"/>
-      <c r="S3" s="246"/>
-      <c r="T3" s="247"/>
-      <c r="U3" s="247"/>
-      <c r="V3" s="247"/>
-      <c r="W3" s="247"/>
-      <c r="X3" s="247"/>
-      <c r="Y3" s="247"/>
-      <c r="Z3" s="248"/>
-      <c r="AA3" s="228"/>
-      <c r="AB3" s="230"/>
-      <c r="AC3" s="212"/>
-      <c r="AD3" s="213"/>
-      <c r="AE3" s="213"/>
-      <c r="AF3" s="214"/>
-      <c r="AG3" s="215"/>
-      <c r="AH3" s="216"/>
-      <c r="AI3" s="217"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="215"/>
+      <c r="T3" s="216"/>
+      <c r="U3" s="216"/>
+      <c r="V3" s="216"/>
+      <c r="W3" s="216"/>
+      <c r="X3" s="216"/>
+      <c r="Y3" s="216"/>
+      <c r="Z3" s="217"/>
+      <c r="AA3" s="194"/>
+      <c r="AB3" s="196"/>
+      <c r="AC3" s="218"/>
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="220"/>
+      <c r="AG3" s="221"/>
+      <c r="AH3" s="222"/>
+      <c r="AI3" s="223"/>
       <c r="AK3" s="72"/>
       <c r="AL3" s="72"/>
       <c r="AM3" s="72"/>
@@ -8958,291 +8955,291 @@
       <c r="A7" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="218" t="s">
+      <c r="B7" s="227" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="219"/>
-      <c r="D7" s="218" t="s">
+      <c r="C7" s="228"/>
+      <c r="D7" s="227" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="220"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="218" t="s">
+      <c r="E7" s="229"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="220"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="221" t="s">
+      <c r="H7" s="229"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="230" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="220"/>
-      <c r="L7" s="220"/>
-      <c r="M7" s="220"/>
-      <c r="N7" s="220"/>
-      <c r="O7" s="220"/>
-      <c r="P7" s="219"/>
-      <c r="Q7" s="218" t="s">
+      <c r="K7" s="229"/>
+      <c r="L7" s="229"/>
+      <c r="M7" s="229"/>
+      <c r="N7" s="229"/>
+      <c r="O7" s="229"/>
+      <c r="P7" s="228"/>
+      <c r="Q7" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="220"/>
-      <c r="S7" s="220"/>
-      <c r="T7" s="220"/>
-      <c r="U7" s="220"/>
-      <c r="V7" s="220"/>
-      <c r="W7" s="220"/>
-      <c r="X7" s="220"/>
-      <c r="Y7" s="220"/>
-      <c r="Z7" s="220"/>
-      <c r="AA7" s="220"/>
-      <c r="AB7" s="220"/>
-      <c r="AC7" s="220"/>
-      <c r="AD7" s="220"/>
-      <c r="AE7" s="219"/>
-      <c r="AF7" s="218" t="s">
+      <c r="R7" s="229"/>
+      <c r="S7" s="229"/>
+      <c r="T7" s="229"/>
+      <c r="U7" s="229"/>
+      <c r="V7" s="229"/>
+      <c r="W7" s="229"/>
+      <c r="X7" s="229"/>
+      <c r="Y7" s="229"/>
+      <c r="Z7" s="229"/>
+      <c r="AA7" s="229"/>
+      <c r="AB7" s="229"/>
+      <c r="AC7" s="229"/>
+      <c r="AD7" s="229"/>
+      <c r="AE7" s="228"/>
+      <c r="AF7" s="227" t="s">
         <v>6</v>
       </c>
-      <c r="AG7" s="220"/>
-      <c r="AH7" s="220"/>
-      <c r="AI7" s="219"/>
+      <c r="AG7" s="229"/>
+      <c r="AH7" s="229"/>
+      <c r="AI7" s="228"/>
       <c r="AJ7" s="66"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="67">
         <v>1</v>
       </c>
-      <c r="B8" s="203" t="s">
+      <c r="B8" s="240" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="204"/>
-      <c r="D8" s="205">
+      <c r="C8" s="241"/>
+      <c r="D8" s="242">
         <v>43336</v>
       </c>
-      <c r="E8" s="206"/>
-      <c r="F8" s="207"/>
-      <c r="G8" s="203" t="s">
+      <c r="E8" s="243"/>
+      <c r="F8" s="244"/>
+      <c r="G8" s="240" t="s">
         <v>134</v>
       </c>
-      <c r="H8" s="208"/>
-      <c r="I8" s="204"/>
-      <c r="J8" s="209" t="s">
+      <c r="H8" s="245"/>
+      <c r="I8" s="241"/>
+      <c r="J8" s="246" t="s">
         <v>135</v>
       </c>
-      <c r="K8" s="210"/>
-      <c r="L8" s="210"/>
-      <c r="M8" s="210"/>
-      <c r="N8" s="210"/>
-      <c r="O8" s="210"/>
-      <c r="P8" s="211"/>
-      <c r="Q8" s="209" t="s">
+      <c r="K8" s="247"/>
+      <c r="L8" s="247"/>
+      <c r="M8" s="247"/>
+      <c r="N8" s="247"/>
+      <c r="O8" s="247"/>
+      <c r="P8" s="248"/>
+      <c r="Q8" s="246" t="s">
         <v>136</v>
       </c>
-      <c r="R8" s="210"/>
-      <c r="S8" s="210"/>
-      <c r="T8" s="210"/>
-      <c r="U8" s="210"/>
-      <c r="V8" s="210"/>
-      <c r="W8" s="210"/>
-      <c r="X8" s="210"/>
-      <c r="Y8" s="210"/>
-      <c r="Z8" s="210"/>
-      <c r="AA8" s="210"/>
-      <c r="AB8" s="210"/>
-      <c r="AC8" s="210"/>
-      <c r="AD8" s="210"/>
-      <c r="AE8" s="211"/>
-      <c r="AF8" s="249" t="s">
+      <c r="R8" s="247"/>
+      <c r="S8" s="247"/>
+      <c r="T8" s="247"/>
+      <c r="U8" s="247"/>
+      <c r="V8" s="247"/>
+      <c r="W8" s="247"/>
+      <c r="X8" s="247"/>
+      <c r="Y8" s="247"/>
+      <c r="Z8" s="247"/>
+      <c r="AA8" s="247"/>
+      <c r="AB8" s="247"/>
+      <c r="AC8" s="247"/>
+      <c r="AD8" s="247"/>
+      <c r="AE8" s="248"/>
+      <c r="AF8" s="191" t="s">
         <v>137</v>
       </c>
-      <c r="AG8" s="250"/>
-      <c r="AH8" s="250"/>
-      <c r="AI8" s="251"/>
+      <c r="AG8" s="192"/>
+      <c r="AH8" s="192"/>
+      <c r="AI8" s="193"/>
       <c r="AJ8" s="66"/>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1">
       <c r="A9" s="68"/>
-      <c r="B9" s="194"/>
-      <c r="C9" s="195"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="197"/>
-      <c r="F9" s="198"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="199"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="200"/>
-      <c r="K9" s="201"/>
-      <c r="L9" s="201"/>
-      <c r="M9" s="201"/>
-      <c r="N9" s="201"/>
-      <c r="O9" s="201"/>
-      <c r="P9" s="202"/>
-      <c r="Q9" s="200"/>
-      <c r="R9" s="201"/>
-      <c r="S9" s="201"/>
-      <c r="T9" s="201"/>
-      <c r="U9" s="201"/>
-      <c r="V9" s="201"/>
-      <c r="W9" s="201"/>
-      <c r="X9" s="201"/>
-      <c r="Y9" s="201"/>
-      <c r="Z9" s="201"/>
-      <c r="AA9" s="201"/>
-      <c r="AB9" s="201"/>
-      <c r="AC9" s="201"/>
-      <c r="AD9" s="201"/>
-      <c r="AE9" s="202"/>
-      <c r="AF9" s="252"/>
-      <c r="AG9" s="253"/>
-      <c r="AH9" s="253"/>
-      <c r="AI9" s="254"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="232"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="235"/>
+      <c r="G9" s="231"/>
+      <c r="H9" s="236"/>
+      <c r="I9" s="232"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="238"/>
+      <c r="L9" s="238"/>
+      <c r="M9" s="238"/>
+      <c r="N9" s="238"/>
+      <c r="O9" s="238"/>
+      <c r="P9" s="239"/>
+      <c r="Q9" s="237"/>
+      <c r="R9" s="238"/>
+      <c r="S9" s="238"/>
+      <c r="T9" s="238"/>
+      <c r="U9" s="238"/>
+      <c r="V9" s="238"/>
+      <c r="W9" s="238"/>
+      <c r="X9" s="238"/>
+      <c r="Y9" s="238"/>
+      <c r="Z9" s="238"/>
+      <c r="AA9" s="238"/>
+      <c r="AB9" s="238"/>
+      <c r="AC9" s="238"/>
+      <c r="AD9" s="238"/>
+      <c r="AE9" s="239"/>
+      <c r="AF9" s="187"/>
+      <c r="AG9" s="188"/>
+      <c r="AH9" s="188"/>
+      <c r="AI9" s="189"/>
       <c r="AJ9" s="12"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1">
       <c r="A10" s="68"/>
-      <c r="B10" s="194"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="197"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="199"/>
-      <c r="I10" s="195"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="201"/>
-      <c r="L10" s="201"/>
-      <c r="M10" s="201"/>
-      <c r="N10" s="201"/>
-      <c r="O10" s="201"/>
-      <c r="P10" s="202"/>
-      <c r="Q10" s="200"/>
-      <c r="R10" s="201"/>
-      <c r="S10" s="201"/>
-      <c r="T10" s="201"/>
-      <c r="U10" s="201"/>
-      <c r="V10" s="201"/>
-      <c r="W10" s="201"/>
-      <c r="X10" s="201"/>
-      <c r="Y10" s="201"/>
-      <c r="Z10" s="201"/>
-      <c r="AA10" s="201"/>
-      <c r="AB10" s="201"/>
-      <c r="AC10" s="201"/>
-      <c r="AD10" s="201"/>
-      <c r="AE10" s="202"/>
-      <c r="AF10" s="252"/>
-      <c r="AG10" s="253"/>
-      <c r="AH10" s="253"/>
-      <c r="AI10" s="254"/>
+      <c r="B10" s="231"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="235"/>
+      <c r="G10" s="231"/>
+      <c r="H10" s="236"/>
+      <c r="I10" s="232"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="238"/>
+      <c r="L10" s="238"/>
+      <c r="M10" s="238"/>
+      <c r="N10" s="238"/>
+      <c r="O10" s="238"/>
+      <c r="P10" s="239"/>
+      <c r="Q10" s="237"/>
+      <c r="R10" s="238"/>
+      <c r="S10" s="238"/>
+      <c r="T10" s="238"/>
+      <c r="U10" s="238"/>
+      <c r="V10" s="238"/>
+      <c r="W10" s="238"/>
+      <c r="X10" s="238"/>
+      <c r="Y10" s="238"/>
+      <c r="Z10" s="238"/>
+      <c r="AA10" s="238"/>
+      <c r="AB10" s="238"/>
+      <c r="AC10" s="238"/>
+      <c r="AD10" s="238"/>
+      <c r="AE10" s="239"/>
+      <c r="AF10" s="187"/>
+      <c r="AG10" s="188"/>
+      <c r="AH10" s="188"/>
+      <c r="AI10" s="189"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1">
       <c r="A11" s="68"/>
-      <c r="B11" s="194"/>
-      <c r="C11" s="195"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="197"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="194"/>
-      <c r="H11" s="199"/>
-      <c r="I11" s="195"/>
-      <c r="J11" s="200"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="201"/>
-      <c r="M11" s="201"/>
-      <c r="N11" s="201"/>
-      <c r="O11" s="201"/>
-      <c r="P11" s="202"/>
-      <c r="Q11" s="200"/>
-      <c r="R11" s="201"/>
-      <c r="S11" s="201"/>
-      <c r="T11" s="201"/>
-      <c r="U11" s="201"/>
-      <c r="V11" s="201"/>
-      <c r="W11" s="201"/>
-      <c r="X11" s="201"/>
-      <c r="Y11" s="201"/>
-      <c r="Z11" s="201"/>
-      <c r="AA11" s="201"/>
-      <c r="AB11" s="201"/>
-      <c r="AC11" s="201"/>
-      <c r="AD11" s="201"/>
-      <c r="AE11" s="202"/>
-      <c r="AF11" s="252"/>
-      <c r="AG11" s="253"/>
-      <c r="AH11" s="253"/>
-      <c r="AI11" s="254"/>
+      <c r="B11" s="231"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="231"/>
+      <c r="H11" s="236"/>
+      <c r="I11" s="232"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="238"/>
+      <c r="L11" s="238"/>
+      <c r="M11" s="238"/>
+      <c r="N11" s="238"/>
+      <c r="O11" s="238"/>
+      <c r="P11" s="239"/>
+      <c r="Q11" s="237"/>
+      <c r="R11" s="238"/>
+      <c r="S11" s="238"/>
+      <c r="T11" s="238"/>
+      <c r="U11" s="238"/>
+      <c r="V11" s="238"/>
+      <c r="W11" s="238"/>
+      <c r="X11" s="238"/>
+      <c r="Y11" s="238"/>
+      <c r="Z11" s="238"/>
+      <c r="AA11" s="238"/>
+      <c r="AB11" s="238"/>
+      <c r="AC11" s="238"/>
+      <c r="AD11" s="238"/>
+      <c r="AE11" s="239"/>
+      <c r="AF11" s="187"/>
+      <c r="AG11" s="188"/>
+      <c r="AH11" s="188"/>
+      <c r="AI11" s="189"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1">
       <c r="A12" s="68"/>
-      <c r="B12" s="194"/>
-      <c r="C12" s="195"/>
-      <c r="D12" s="196"/>
-      <c r="E12" s="197"/>
-      <c r="F12" s="198"/>
-      <c r="G12" s="194"/>
-      <c r="H12" s="199"/>
-      <c r="I12" s="195"/>
-      <c r="J12" s="200"/>
-      <c r="K12" s="201"/>
-      <c r="L12" s="201"/>
-      <c r="M12" s="201"/>
-      <c r="N12" s="201"/>
-      <c r="O12" s="201"/>
-      <c r="P12" s="202"/>
-      <c r="Q12" s="200"/>
-      <c r="R12" s="201"/>
-      <c r="S12" s="201"/>
-      <c r="T12" s="201"/>
-      <c r="U12" s="201"/>
-      <c r="V12" s="201"/>
-      <c r="W12" s="201"/>
-      <c r="X12" s="201"/>
-      <c r="Y12" s="201"/>
-      <c r="Z12" s="201"/>
-      <c r="AA12" s="201"/>
-      <c r="AB12" s="201"/>
-      <c r="AC12" s="201"/>
-      <c r="AD12" s="201"/>
-      <c r="AE12" s="202"/>
-      <c r="AF12" s="252"/>
-      <c r="AG12" s="253"/>
-      <c r="AH12" s="253"/>
-      <c r="AI12" s="254"/>
+      <c r="B12" s="231"/>
+      <c r="C12" s="232"/>
+      <c r="D12" s="233"/>
+      <c r="E12" s="234"/>
+      <c r="F12" s="235"/>
+      <c r="G12" s="231"/>
+      <c r="H12" s="236"/>
+      <c r="I12" s="232"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="238"/>
+      <c r="L12" s="238"/>
+      <c r="M12" s="238"/>
+      <c r="N12" s="238"/>
+      <c r="O12" s="238"/>
+      <c r="P12" s="239"/>
+      <c r="Q12" s="237"/>
+      <c r="R12" s="238"/>
+      <c r="S12" s="238"/>
+      <c r="T12" s="238"/>
+      <c r="U12" s="238"/>
+      <c r="V12" s="238"/>
+      <c r="W12" s="238"/>
+      <c r="X12" s="238"/>
+      <c r="Y12" s="238"/>
+      <c r="Z12" s="238"/>
+      <c r="AA12" s="238"/>
+      <c r="AB12" s="238"/>
+      <c r="AC12" s="238"/>
+      <c r="AD12" s="238"/>
+      <c r="AE12" s="239"/>
+      <c r="AF12" s="187"/>
+      <c r="AG12" s="188"/>
+      <c r="AH12" s="188"/>
+      <c r="AI12" s="189"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1">
       <c r="A13" s="68"/>
-      <c r="B13" s="194"/>
-      <c r="C13" s="195"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="197"/>
-      <c r="F13" s="198"/>
-      <c r="G13" s="194"/>
-      <c r="H13" s="199"/>
-      <c r="I13" s="195"/>
-      <c r="J13" s="200"/>
-      <c r="K13" s="201"/>
-      <c r="L13" s="201"/>
-      <c r="M13" s="201"/>
-      <c r="N13" s="201"/>
-      <c r="O13" s="201"/>
-      <c r="P13" s="202"/>
-      <c r="Q13" s="200"/>
-      <c r="R13" s="201"/>
-      <c r="S13" s="201"/>
-      <c r="T13" s="201"/>
-      <c r="U13" s="201"/>
-      <c r="V13" s="201"/>
-      <c r="W13" s="201"/>
-      <c r="X13" s="201"/>
-      <c r="Y13" s="201"/>
-      <c r="Z13" s="201"/>
-      <c r="AA13" s="201"/>
-      <c r="AB13" s="201"/>
-      <c r="AC13" s="201"/>
-      <c r="AD13" s="201"/>
-      <c r="AE13" s="202"/>
-      <c r="AF13" s="252"/>
-      <c r="AG13" s="253"/>
-      <c r="AH13" s="253"/>
-      <c r="AI13" s="254"/>
+      <c r="B13" s="231"/>
+      <c r="C13" s="232"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="235"/>
+      <c r="G13" s="231"/>
+      <c r="H13" s="236"/>
+      <c r="I13" s="232"/>
+      <c r="J13" s="237"/>
+      <c r="K13" s="238"/>
+      <c r="L13" s="238"/>
+      <c r="M13" s="238"/>
+      <c r="N13" s="238"/>
+      <c r="O13" s="238"/>
+      <c r="P13" s="239"/>
+      <c r="Q13" s="237"/>
+      <c r="R13" s="238"/>
+      <c r="S13" s="238"/>
+      <c r="T13" s="238"/>
+      <c r="U13" s="238"/>
+      <c r="V13" s="238"/>
+      <c r="W13" s="238"/>
+      <c r="X13" s="238"/>
+      <c r="Y13" s="238"/>
+      <c r="Z13" s="238"/>
+      <c r="AA13" s="238"/>
+      <c r="AB13" s="238"/>
+      <c r="AC13" s="238"/>
+      <c r="AD13" s="238"/>
+      <c r="AE13" s="239"/>
+      <c r="AF13" s="187"/>
+      <c r="AG13" s="188"/>
+      <c r="AH13" s="188"/>
+      <c r="AI13" s="189"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1">
       <c r="A14" s="68"/>
@@ -9276,10 +9273,10 @@
       <c r="AC14" s="150"/>
       <c r="AD14" s="150"/>
       <c r="AE14" s="151"/>
-      <c r="AF14" s="252"/>
-      <c r="AG14" s="253"/>
-      <c r="AH14" s="253"/>
-      <c r="AI14" s="254"/>
+      <c r="AF14" s="187"/>
+      <c r="AG14" s="188"/>
+      <c r="AH14" s="188"/>
+      <c r="AI14" s="189"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1">
       <c r="A15" s="68"/>
@@ -9313,10 +9310,10 @@
       <c r="AC15" s="150"/>
       <c r="AD15" s="150"/>
       <c r="AE15" s="151"/>
-      <c r="AF15" s="252"/>
-      <c r="AG15" s="253"/>
-      <c r="AH15" s="253"/>
-      <c r="AI15" s="254"/>
+      <c r="AF15" s="187"/>
+      <c r="AG15" s="188"/>
+      <c r="AH15" s="188"/>
+      <c r="AI15" s="189"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1">
       <c r="A16" s="68"/>
@@ -9350,10 +9347,10 @@
       <c r="AC16" s="150"/>
       <c r="AD16" s="150"/>
       <c r="AE16" s="151"/>
-      <c r="AF16" s="252"/>
-      <c r="AG16" s="253"/>
-      <c r="AH16" s="253"/>
-      <c r="AI16" s="254"/>
+      <c r="AF16" s="187"/>
+      <c r="AG16" s="188"/>
+      <c r="AH16" s="188"/>
+      <c r="AI16" s="189"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1">
       <c r="A17" s="68"/>
@@ -9387,10 +9384,10 @@
       <c r="AC17" s="150"/>
       <c r="AD17" s="150"/>
       <c r="AE17" s="151"/>
-      <c r="AF17" s="252"/>
-      <c r="AG17" s="253"/>
-      <c r="AH17" s="253"/>
-      <c r="AI17" s="254"/>
+      <c r="AF17" s="187"/>
+      <c r="AG17" s="188"/>
+      <c r="AH17" s="188"/>
+      <c r="AI17" s="189"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1">
       <c r="A18" s="68"/>
@@ -9424,10 +9421,10 @@
       <c r="AC18" s="150"/>
       <c r="AD18" s="150"/>
       <c r="AE18" s="151"/>
-      <c r="AF18" s="252"/>
-      <c r="AG18" s="253"/>
-      <c r="AH18" s="253"/>
-      <c r="AI18" s="254"/>
+      <c r="AF18" s="187"/>
+      <c r="AG18" s="188"/>
+      <c r="AH18" s="188"/>
+      <c r="AI18" s="189"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1">
       <c r="A19" s="68"/>
@@ -9461,10 +9458,10 @@
       <c r="AC19" s="150"/>
       <c r="AD19" s="150"/>
       <c r="AE19" s="151"/>
-      <c r="AF19" s="252"/>
-      <c r="AG19" s="253"/>
-      <c r="AH19" s="253"/>
-      <c r="AI19" s="254"/>
+      <c r="AF19" s="187"/>
+      <c r="AG19" s="188"/>
+      <c r="AH19" s="188"/>
+      <c r="AI19" s="189"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="A20" s="68"/>
@@ -9498,10 +9495,10 @@
       <c r="AC20" s="150"/>
       <c r="AD20" s="150"/>
       <c r="AE20" s="151"/>
-      <c r="AF20" s="252"/>
-      <c r="AG20" s="253"/>
-      <c r="AH20" s="253"/>
-      <c r="AI20" s="254"/>
+      <c r="AF20" s="187"/>
+      <c r="AG20" s="188"/>
+      <c r="AH20" s="188"/>
+      <c r="AI20" s="189"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1">
       <c r="A21" s="68"/>
@@ -9535,10 +9532,10 @@
       <c r="AC21" s="150"/>
       <c r="AD21" s="150"/>
       <c r="AE21" s="151"/>
-      <c r="AF21" s="252"/>
-      <c r="AG21" s="253"/>
-      <c r="AH21" s="253"/>
-      <c r="AI21" s="254"/>
+      <c r="AF21" s="187"/>
+      <c r="AG21" s="188"/>
+      <c r="AH21" s="188"/>
+      <c r="AI21" s="189"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1">
       <c r="A22" s="68"/>
@@ -9572,10 +9569,10 @@
       <c r="AC22" s="150"/>
       <c r="AD22" s="150"/>
       <c r="AE22" s="151"/>
-      <c r="AF22" s="252"/>
-      <c r="AG22" s="253"/>
-      <c r="AH22" s="253"/>
-      <c r="AI22" s="254"/>
+      <c r="AF22" s="187"/>
+      <c r="AG22" s="188"/>
+      <c r="AH22" s="188"/>
+      <c r="AI22" s="189"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1">
       <c r="A23" s="68"/>
@@ -9609,10 +9606,10 @@
       <c r="AC23" s="150"/>
       <c r="AD23" s="150"/>
       <c r="AE23" s="151"/>
-      <c r="AF23" s="252"/>
-      <c r="AG23" s="253"/>
-      <c r="AH23" s="253"/>
-      <c r="AI23" s="254"/>
+      <c r="AF23" s="187"/>
+      <c r="AG23" s="188"/>
+      <c r="AH23" s="188"/>
+      <c r="AI23" s="189"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1">
       <c r="A24" s="68"/>
@@ -9646,10 +9643,10 @@
       <c r="AC24" s="150"/>
       <c r="AD24" s="150"/>
       <c r="AE24" s="151"/>
-      <c r="AF24" s="252"/>
-      <c r="AG24" s="253"/>
-      <c r="AH24" s="253"/>
-      <c r="AI24" s="254"/>
+      <c r="AF24" s="187"/>
+      <c r="AG24" s="188"/>
+      <c r="AH24" s="188"/>
+      <c r="AI24" s="189"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1">
       <c r="A25" s="68"/>
@@ -9683,10 +9680,10 @@
       <c r="AC25" s="150"/>
       <c r="AD25" s="150"/>
       <c r="AE25" s="151"/>
-      <c r="AF25" s="252"/>
-      <c r="AG25" s="253"/>
-      <c r="AH25" s="253"/>
-      <c r="AI25" s="254"/>
+      <c r="AF25" s="187"/>
+      <c r="AG25" s="188"/>
+      <c r="AH25" s="188"/>
+      <c r="AI25" s="189"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1">
       <c r="A26" s="68"/>
@@ -9720,10 +9717,10 @@
       <c r="AC26" s="150"/>
       <c r="AD26" s="150"/>
       <c r="AE26" s="151"/>
-      <c r="AF26" s="252"/>
-      <c r="AG26" s="253"/>
-      <c r="AH26" s="253"/>
-      <c r="AI26" s="254"/>
+      <c r="AF26" s="187"/>
+      <c r="AG26" s="188"/>
+      <c r="AH26" s="188"/>
+      <c r="AI26" s="189"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1">
       <c r="A27" s="68"/>
@@ -9757,10 +9754,10 @@
       <c r="AC27" s="150"/>
       <c r="AD27" s="150"/>
       <c r="AE27" s="151"/>
-      <c r="AF27" s="252"/>
-      <c r="AG27" s="253"/>
-      <c r="AH27" s="253"/>
-      <c r="AI27" s="254"/>
+      <c r="AF27" s="187"/>
+      <c r="AG27" s="188"/>
+      <c r="AH27" s="188"/>
+      <c r="AI27" s="189"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1">
       <c r="A28" s="68"/>
@@ -9794,10 +9791,10 @@
       <c r="AC28" s="150"/>
       <c r="AD28" s="150"/>
       <c r="AE28" s="151"/>
-      <c r="AF28" s="252"/>
-      <c r="AG28" s="253"/>
-      <c r="AH28" s="253"/>
-      <c r="AI28" s="254"/>
+      <c r="AF28" s="187"/>
+      <c r="AG28" s="188"/>
+      <c r="AH28" s="188"/>
+      <c r="AI28" s="189"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1">
       <c r="A29" s="68"/>
@@ -9831,10 +9828,10 @@
       <c r="AC29" s="150"/>
       <c r="AD29" s="150"/>
       <c r="AE29" s="151"/>
-      <c r="AF29" s="252"/>
-      <c r="AG29" s="253"/>
-      <c r="AH29" s="253"/>
-      <c r="AI29" s="254"/>
+      <c r="AF29" s="187"/>
+      <c r="AG29" s="188"/>
+      <c r="AH29" s="188"/>
+      <c r="AI29" s="189"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1">
       <c r="A30" s="68"/>
@@ -9868,10 +9865,10 @@
       <c r="AC30" s="150"/>
       <c r="AD30" s="150"/>
       <c r="AE30" s="151"/>
-      <c r="AF30" s="252"/>
-      <c r="AG30" s="253"/>
-      <c r="AH30" s="253"/>
-      <c r="AI30" s="254"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="188"/>
+      <c r="AH30" s="188"/>
+      <c r="AI30" s="189"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="A31" s="68"/>
@@ -9905,10 +9902,10 @@
       <c r="AC31" s="150"/>
       <c r="AD31" s="150"/>
       <c r="AE31" s="151"/>
-      <c r="AF31" s="252"/>
-      <c r="AG31" s="253"/>
-      <c r="AH31" s="253"/>
-      <c r="AI31" s="254"/>
+      <c r="AF31" s="187"/>
+      <c r="AG31" s="188"/>
+      <c r="AH31" s="188"/>
+      <c r="AI31" s="189"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1">
       <c r="A32" s="68"/>
@@ -9942,10 +9939,10 @@
       <c r="AC32" s="150"/>
       <c r="AD32" s="150"/>
       <c r="AE32" s="151"/>
-      <c r="AF32" s="252"/>
-      <c r="AG32" s="253"/>
-      <c r="AH32" s="253"/>
-      <c r="AI32" s="254"/>
+      <c r="AF32" s="187"/>
+      <c r="AG32" s="188"/>
+      <c r="AH32" s="188"/>
+      <c r="AI32" s="189"/>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1">
       <c r="A33" s="68"/>
@@ -9979,46 +9976,62 @@
       <c r="AC33" s="150"/>
       <c r="AD33" s="150"/>
       <c r="AE33" s="151"/>
-      <c r="AF33" s="252"/>
-      <c r="AG33" s="253"/>
-      <c r="AH33" s="253"/>
-      <c r="AI33" s="254"/>
+      <c r="AF33" s="187"/>
+      <c r="AG33" s="188"/>
+      <c r="AH33" s="188"/>
+      <c r="AI33" s="189"/>
     </row>
     <row r="34" spans="1:35" ht="15" customHeight="1">
-      <c r="AF34" s="255"/>
-      <c r="AG34" s="255"/>
-      <c r="AH34" s="255"/>
-      <c r="AI34" s="255"/>
+      <c r="AF34" s="190"/>
+      <c r="AG34" s="190"/>
+      <c r="AH34" s="190"/>
+      <c r="AI34" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AF34:AI34"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -10029,49 +10042,33 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AF34:AI34"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <printOptions horizontalCentered="1"/>
@@ -10229,158 +10226,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="97" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="259" t="s">
+      <c r="A1" s="250" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="222" t="str">
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="263" t="s">
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="253" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="264"/>
-      <c r="Q1" s="264"/>
-      <c r="R1" s="265"/>
-      <c r="S1" s="261" t="str">
+      <c r="P1" s="254"/>
+      <c r="Q1" s="254"/>
+      <c r="R1" s="255"/>
+      <c r="S1" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(その他)
 B21AA01/ユーザ情報反映</v>
       </c>
-      <c r="T1" s="241"/>
-      <c r="U1" s="241"/>
-      <c r="V1" s="241"/>
-      <c r="W1" s="241"/>
-      <c r="X1" s="241"/>
-      <c r="Y1" s="241"/>
-      <c r="Z1" s="242"/>
-      <c r="AA1" s="259" t="s">
+      <c r="T1" s="210"/>
+      <c r="U1" s="210"/>
+      <c r="V1" s="210"/>
+      <c r="W1" s="210"/>
+      <c r="X1" s="210"/>
+      <c r="Y1" s="210"/>
+      <c r="Z1" s="211"/>
+      <c r="AA1" s="250" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="260"/>
-      <c r="AC1" s="212" t="str">
+      <c r="AB1" s="252"/>
+      <c r="AC1" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="213"/>
-      <c r="AE1" s="213"/>
-      <c r="AF1" s="214"/>
-      <c r="AG1" s="256">
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="262">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="257"/>
-      <c r="AI1" s="258"/>
+      <c r="AH1" s="263"/>
+      <c r="AI1" s="264"/>
     </row>
     <row r="2" spans="1:35" s="97" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="250" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="222" t="str">
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
-      <c r="M2" s="223"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="266"/>
-      <c r="P2" s="267"/>
-      <c r="Q2" s="267"/>
-      <c r="R2" s="268"/>
-      <c r="S2" s="243"/>
-      <c r="T2" s="244"/>
-      <c r="U2" s="244"/>
-      <c r="V2" s="244"/>
-      <c r="W2" s="244"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="244"/>
-      <c r="Z2" s="245"/>
-      <c r="AA2" s="259" t="s">
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="256"/>
+      <c r="P2" s="257"/>
+      <c r="Q2" s="257"/>
+      <c r="R2" s="258"/>
+      <c r="S2" s="212"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="213"/>
+      <c r="X2" s="213"/>
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="250" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="260"/>
-      <c r="AC2" s="212" t="str">
+      <c r="AB2" s="252"/>
+      <c r="AC2" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="213"/>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="256" t="str">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="257"/>
-      <c r="AI2" s="258"/>
+      <c r="AH2" s="263"/>
+      <c r="AI2" s="264"/>
     </row>
     <row r="3" spans="1:35" s="97" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="259" t="s">
+      <c r="A3" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="222" t="str">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="224"/>
-      <c r="O3" s="269"/>
-      <c r="P3" s="270"/>
-      <c r="Q3" s="270"/>
-      <c r="R3" s="271"/>
-      <c r="S3" s="246"/>
-      <c r="T3" s="247"/>
-      <c r="U3" s="247"/>
-      <c r="V3" s="247"/>
-      <c r="W3" s="247"/>
-      <c r="X3" s="247"/>
-      <c r="Y3" s="247"/>
-      <c r="Z3" s="248"/>
-      <c r="AA3" s="259"/>
-      <c r="AB3" s="260"/>
-      <c r="AC3" s="212" t="str">
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="259"/>
+      <c r="P3" s="260"/>
+      <c r="Q3" s="260"/>
+      <c r="R3" s="261"/>
+      <c r="S3" s="215"/>
+      <c r="T3" s="216"/>
+      <c r="U3" s="216"/>
+      <c r="V3" s="216"/>
+      <c r="W3" s="216"/>
+      <c r="X3" s="216"/>
+      <c r="Y3" s="216"/>
+      <c r="Z3" s="217"/>
+      <c r="AA3" s="250"/>
+      <c r="AB3" s="252"/>
+      <c r="AC3" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="213"/>
-      <c r="AE3" s="213"/>
-      <c r="AF3" s="214"/>
-      <c r="AG3" s="256" t="str">
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="220"/>
+      <c r="AG3" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="257"/>
-      <c r="AI3" s="258"/>
+      <c r="AH3" s="263"/>
+      <c r="AI3" s="264"/>
     </row>
     <row r="4" spans="1:35" s="74" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="72"/>
@@ -11914,6 +11911,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -11924,13 +11928,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <printOptions horizontalCentered="1"/>
@@ -11949,7 +11946,7 @@
   <dimension ref="A1:AI31"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
@@ -11958,158 +11955,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="259" t="s">
+      <c r="A1" s="250" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="222" t="str">
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="263" t="s">
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="253" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="264"/>
-      <c r="Q1" s="264"/>
-      <c r="R1" s="265"/>
-      <c r="S1" s="261" t="str">
+      <c r="P1" s="254"/>
+      <c r="Q1" s="254"/>
+      <c r="R1" s="255"/>
+      <c r="S1" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(その他)
 B21AA01/ユーザ情報反映</v>
       </c>
-      <c r="T1" s="241"/>
-      <c r="U1" s="241"/>
-      <c r="V1" s="241"/>
-      <c r="W1" s="241"/>
-      <c r="X1" s="241"/>
-      <c r="Y1" s="241"/>
-      <c r="Z1" s="242"/>
-      <c r="AA1" s="259" t="s">
+      <c r="T1" s="210"/>
+      <c r="U1" s="210"/>
+      <c r="V1" s="210"/>
+      <c r="W1" s="210"/>
+      <c r="X1" s="210"/>
+      <c r="Y1" s="210"/>
+      <c r="Z1" s="211"/>
+      <c r="AA1" s="250" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="260"/>
-      <c r="AC1" s="212" t="str">
+      <c r="AB1" s="252"/>
+      <c r="AC1" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="213"/>
-      <c r="AE1" s="213"/>
-      <c r="AF1" s="214"/>
-      <c r="AG1" s="256">
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="262">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="257"/>
-      <c r="AI1" s="258"/>
+      <c r="AH1" s="263"/>
+      <c r="AI1" s="264"/>
     </row>
     <row r="2" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="250" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="222" t="str">
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
-      <c r="M2" s="223"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="266"/>
-      <c r="P2" s="267"/>
-      <c r="Q2" s="267"/>
-      <c r="R2" s="268"/>
-      <c r="S2" s="243"/>
-      <c r="T2" s="244"/>
-      <c r="U2" s="244"/>
-      <c r="V2" s="244"/>
-      <c r="W2" s="244"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="244"/>
-      <c r="Z2" s="245"/>
-      <c r="AA2" s="259" t="s">
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="256"/>
+      <c r="P2" s="257"/>
+      <c r="Q2" s="257"/>
+      <c r="R2" s="258"/>
+      <c r="S2" s="212"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="213"/>
+      <c r="X2" s="213"/>
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="250" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="260"/>
-      <c r="AC2" s="212" t="str">
+      <c r="AB2" s="252"/>
+      <c r="AC2" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="213"/>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="256" t="str">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="257"/>
-      <c r="AI2" s="258"/>
+      <c r="AH2" s="263"/>
+      <c r="AI2" s="264"/>
     </row>
     <row r="3" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="259" t="s">
+      <c r="A3" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="222" t="str">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="224"/>
-      <c r="O3" s="269"/>
-      <c r="P3" s="270"/>
-      <c r="Q3" s="270"/>
-      <c r="R3" s="271"/>
-      <c r="S3" s="246"/>
-      <c r="T3" s="247"/>
-      <c r="U3" s="247"/>
-      <c r="V3" s="247"/>
-      <c r="W3" s="247"/>
-      <c r="X3" s="247"/>
-      <c r="Y3" s="247"/>
-      <c r="Z3" s="248"/>
-      <c r="AA3" s="259"/>
-      <c r="AB3" s="260"/>
-      <c r="AC3" s="212" t="str">
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="259"/>
+      <c r="P3" s="260"/>
+      <c r="Q3" s="260"/>
+      <c r="R3" s="261"/>
+      <c r="S3" s="215"/>
+      <c r="T3" s="216"/>
+      <c r="U3" s="216"/>
+      <c r="V3" s="216"/>
+      <c r="W3" s="216"/>
+      <c r="X3" s="216"/>
+      <c r="Y3" s="216"/>
+      <c r="Z3" s="217"/>
+      <c r="AA3" s="250"/>
+      <c r="AB3" s="252"/>
+      <c r="AC3" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="213"/>
-      <c r="AE3" s="213"/>
-      <c r="AF3" s="214"/>
-      <c r="AG3" s="256" t="str">
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="220"/>
+      <c r="AG3" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="257"/>
-      <c r="AI3" s="258"/>
+      <c r="AH3" s="263"/>
+      <c r="AI3" s="264"/>
     </row>
     <row r="4" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1">
       <c r="AC4" s="44"/>
@@ -12131,12 +12128,12 @@
       <c r="C6" s="88"/>
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="272" t="s">
+      <c r="A7" s="265" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="279"/>
-      <c r="C7" s="279"/>
-      <c r="D7" s="280"/>
+      <c r="B7" s="274"/>
+      <c r="C7" s="274"/>
+      <c r="D7" s="275"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -12149,82 +12146,82 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="296" t="s">
+      <c r="Q7" s="276" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="297"/>
-      <c r="S7" s="297"/>
-      <c r="T7" s="298"/>
-      <c r="U7" s="305" t="s">
+      <c r="R7" s="277"/>
+      <c r="S7" s="277"/>
+      <c r="T7" s="278"/>
+      <c r="U7" s="268" t="s">
         <v>91</v>
       </c>
-      <c r="V7" s="306"/>
-      <c r="W7" s="306"/>
-      <c r="X7" s="306"/>
-      <c r="Y7" s="306"/>
-      <c r="Z7" s="306"/>
-      <c r="AA7" s="306"/>
-      <c r="AB7" s="306"/>
-      <c r="AC7" s="306"/>
-      <c r="AD7" s="306"/>
-      <c r="AE7" s="306"/>
-      <c r="AF7" s="306"/>
-      <c r="AG7" s="306"/>
-      <c r="AH7" s="306"/>
-      <c r="AI7" s="307"/>
+      <c r="V7" s="269"/>
+      <c r="W7" s="269"/>
+      <c r="X7" s="269"/>
+      <c r="Y7" s="269"/>
+      <c r="Z7" s="269"/>
+      <c r="AA7" s="269"/>
+      <c r="AB7" s="269"/>
+      <c r="AC7" s="269"/>
+      <c r="AD7" s="269"/>
+      <c r="AE7" s="269"/>
+      <c r="AF7" s="269"/>
+      <c r="AG7" s="269"/>
+      <c r="AH7" s="269"/>
+      <c r="AI7" s="270"/>
     </row>
     <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="272" t="s">
+      <c r="A8" s="265" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="279"/>
-      <c r="C8" s="279"/>
-      <c r="D8" s="280"/>
-      <c r="E8" s="293" t="s">
+      <c r="B8" s="274"/>
+      <c r="C8" s="274"/>
+      <c r="D8" s="275"/>
+      <c r="E8" s="271" t="s">
         <v>200</v>
       </c>
-      <c r="F8" s="294"/>
-      <c r="G8" s="294"/>
-      <c r="H8" s="294"/>
-      <c r="I8" s="294"/>
-      <c r="J8" s="294"/>
-      <c r="K8" s="294"/>
-      <c r="L8" s="294"/>
-      <c r="M8" s="294"/>
-      <c r="N8" s="294"/>
-      <c r="O8" s="294"/>
-      <c r="P8" s="294"/>
-      <c r="Q8" s="272" t="s">
+      <c r="F8" s="272"/>
+      <c r="G8" s="272"/>
+      <c r="H8" s="272"/>
+      <c r="I8" s="272"/>
+      <c r="J8" s="272"/>
+      <c r="K8" s="272"/>
+      <c r="L8" s="272"/>
+      <c r="M8" s="272"/>
+      <c r="N8" s="272"/>
+      <c r="O8" s="272"/>
+      <c r="P8" s="272"/>
+      <c r="Q8" s="265" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="279"/>
-      <c r="S8" s="279"/>
-      <c r="T8" s="280"/>
-      <c r="U8" s="293" t="s">
+      <c r="R8" s="274"/>
+      <c r="S8" s="274"/>
+      <c r="T8" s="275"/>
+      <c r="U8" s="271" t="s">
         <v>92</v>
       </c>
-      <c r="V8" s="294"/>
-      <c r="W8" s="294"/>
-      <c r="X8" s="294"/>
-      <c r="Y8" s="294"/>
-      <c r="Z8" s="294"/>
-      <c r="AA8" s="294"/>
-      <c r="AB8" s="294"/>
-      <c r="AC8" s="294"/>
-      <c r="AD8" s="294"/>
-      <c r="AE8" s="294"/>
-      <c r="AF8" s="294"/>
-      <c r="AG8" s="294"/>
-      <c r="AH8" s="294"/>
-      <c r="AI8" s="295"/>
+      <c r="V8" s="272"/>
+      <c r="W8" s="272"/>
+      <c r="X8" s="272"/>
+      <c r="Y8" s="272"/>
+      <c r="Z8" s="272"/>
+      <c r="AA8" s="272"/>
+      <c r="AB8" s="272"/>
+      <c r="AC8" s="272"/>
+      <c r="AD8" s="272"/>
+      <c r="AE8" s="272"/>
+      <c r="AF8" s="272"/>
+      <c r="AG8" s="272"/>
+      <c r="AH8" s="272"/>
+      <c r="AI8" s="273"/>
     </row>
     <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="272" t="s">
+      <c r="A9" s="265" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="279"/>
-      <c r="C9" s="279"/>
-      <c r="D9" s="280"/>
+      <c r="B9" s="274"/>
+      <c r="C9" s="274"/>
+      <c r="D9" s="275"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -12409,12 +12406,12 @@
       <c r="AI13" s="41"/>
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="272" t="s">
+      <c r="A14" s="265" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="273"/>
-      <c r="C14" s="273"/>
-      <c r="D14" s="274"/>
+      <c r="B14" s="266"/>
+      <c r="C14" s="266"/>
+      <c r="D14" s="267"/>
       <c r="E14" s="157"/>
       <c r="F14" s="157"/>
       <c r="G14" s="157"/>
@@ -12559,12 +12556,12 @@
       <c r="AI17" s="41"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="290" t="s">
+      <c r="A18" s="279" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="291"/>
-      <c r="C18" s="291"/>
-      <c r="D18" s="292"/>
+      <c r="B18" s="280"/>
+      <c r="C18" s="280"/>
+      <c r="D18" s="281"/>
       <c r="E18" s="19"/>
       <c r="F18" s="23"/>
       <c r="G18" s="156"/>
@@ -12577,12 +12574,12 @@
       <c r="N18" s="156"/>
       <c r="O18" s="20"/>
       <c r="P18" s="156"/>
-      <c r="Q18" s="290" t="s">
+      <c r="Q18" s="279" t="s">
         <v>42</v>
       </c>
-      <c r="R18" s="291"/>
-      <c r="S18" s="291"/>
-      <c r="T18" s="292"/>
+      <c r="R18" s="280"/>
+      <c r="S18" s="280"/>
+      <c r="T18" s="281"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -12684,57 +12681,57 @@
       <c r="AI20" s="21"/>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="272" t="s">
+      <c r="A21" s="265" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="279"/>
-      <c r="C21" s="279"/>
-      <c r="D21" s="280"/>
-      <c r="E21" s="302" t="s">
+      <c r="B21" s="274"/>
+      <c r="C21" s="274"/>
+      <c r="D21" s="275"/>
+      <c r="E21" s="285" t="s">
         <v>148</v>
       </c>
-      <c r="F21" s="303"/>
-      <c r="G21" s="303"/>
-      <c r="H21" s="303"/>
-      <c r="I21" s="303"/>
-      <c r="J21" s="303"/>
-      <c r="K21" s="303"/>
-      <c r="L21" s="303"/>
-      <c r="M21" s="303"/>
-      <c r="N21" s="303"/>
-      <c r="O21" s="303"/>
-      <c r="P21" s="304"/>
-      <c r="Q21" s="272" t="s">
+      <c r="F21" s="286"/>
+      <c r="G21" s="286"/>
+      <c r="H21" s="286"/>
+      <c r="I21" s="286"/>
+      <c r="J21" s="286"/>
+      <c r="K21" s="286"/>
+      <c r="L21" s="286"/>
+      <c r="M21" s="286"/>
+      <c r="N21" s="286"/>
+      <c r="O21" s="286"/>
+      <c r="P21" s="287"/>
+      <c r="Q21" s="265" t="s">
         <v>45</v>
       </c>
-      <c r="R21" s="279"/>
-      <c r="S21" s="279"/>
-      <c r="T21" s="280"/>
-      <c r="U21" s="293" t="s">
+      <c r="R21" s="274"/>
+      <c r="S21" s="274"/>
+      <c r="T21" s="275"/>
+      <c r="U21" s="271" t="s">
         <v>93</v>
       </c>
-      <c r="V21" s="294"/>
-      <c r="W21" s="294"/>
-      <c r="X21" s="294"/>
-      <c r="Y21" s="294"/>
-      <c r="Z21" s="294"/>
-      <c r="AA21" s="294"/>
-      <c r="AB21" s="294"/>
-      <c r="AC21" s="294"/>
-      <c r="AD21" s="294"/>
-      <c r="AE21" s="294"/>
-      <c r="AF21" s="294"/>
-      <c r="AG21" s="294"/>
-      <c r="AH21" s="294"/>
-      <c r="AI21" s="295"/>
+      <c r="V21" s="272"/>
+      <c r="W21" s="272"/>
+      <c r="X21" s="272"/>
+      <c r="Y21" s="272"/>
+      <c r="Z21" s="272"/>
+      <c r="AA21" s="272"/>
+      <c r="AB21" s="272"/>
+      <c r="AC21" s="272"/>
+      <c r="AD21" s="272"/>
+      <c r="AE21" s="272"/>
+      <c r="AF21" s="272"/>
+      <c r="AG21" s="272"/>
+      <c r="AH21" s="272"/>
+      <c r="AI21" s="273"/>
     </row>
     <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="296" t="s">
+      <c r="A22" s="276" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="297"/>
-      <c r="C22" s="297"/>
-      <c r="D22" s="298"/>
+      <c r="B22" s="277"/>
+      <c r="C22" s="277"/>
+      <c r="D22" s="278"/>
       <c r="E22" s="24"/>
       <c r="F22" s="25"/>
       <c r="G22" s="157"/>
@@ -12747,12 +12744,12 @@
       <c r="N22" s="157"/>
       <c r="O22" s="18"/>
       <c r="P22" s="157"/>
-      <c r="Q22" s="296" t="s">
+      <c r="Q22" s="276" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="297"/>
-      <c r="S22" s="297"/>
-      <c r="T22" s="298"/>
+      <c r="R22" s="277"/>
+      <c r="S22" s="277"/>
+      <c r="T22" s="278"/>
       <c r="U22" s="55"/>
       <c r="V22" s="157"/>
       <c r="W22" s="18"/>
@@ -12815,38 +12812,38 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="287" t="s">
+      <c r="A24" s="298" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="288"/>
-      <c r="C24" s="288"/>
-      <c r="D24" s="289"/>
-      <c r="E24" s="293" t="s">
+      <c r="B24" s="299"/>
+      <c r="C24" s="299"/>
+      <c r="D24" s="300"/>
+      <c r="E24" s="271" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="294"/>
-      <c r="G24" s="294"/>
-      <c r="H24" s="294"/>
-      <c r="I24" s="294"/>
-      <c r="J24" s="294"/>
-      <c r="K24" s="294"/>
-      <c r="L24" s="294"/>
-      <c r="M24" s="294"/>
-      <c r="N24" s="294"/>
-      <c r="O24" s="294"/>
-      <c r="P24" s="295"/>
-      <c r="Q24" s="299" t="s">
+      <c r="F24" s="272"/>
+      <c r="G24" s="272"/>
+      <c r="H24" s="272"/>
+      <c r="I24" s="272"/>
+      <c r="J24" s="272"/>
+      <c r="K24" s="272"/>
+      <c r="L24" s="272"/>
+      <c r="M24" s="272"/>
+      <c r="N24" s="272"/>
+      <c r="O24" s="272"/>
+      <c r="P24" s="273"/>
+      <c r="Q24" s="282" t="s">
         <v>48</v>
       </c>
-      <c r="R24" s="300"/>
-      <c r="S24" s="300"/>
-      <c r="T24" s="301"/>
-      <c r="U24" s="277">
+      <c r="R24" s="283"/>
+      <c r="S24" s="283"/>
+      <c r="T24" s="284"/>
+      <c r="U24" s="290">
         <v>905</v>
       </c>
-      <c r="V24" s="278"/>
-      <c r="W24" s="278"/>
-      <c r="X24" s="278"/>
+      <c r="V24" s="291"/>
+      <c r="W24" s="291"/>
+      <c r="X24" s="291"/>
       <c r="Y24" s="165" t="s">
         <v>49</v>
       </c>
@@ -12862,26 +12859,26 @@
       <c r="AI24" s="22"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="283" t="s">
+      <c r="A25" s="294" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="284"/>
-      <c r="C25" s="284"/>
-      <c r="D25" s="285"/>
+      <c r="B25" s="295"/>
+      <c r="C25" s="295"/>
+      <c r="D25" s="296"/>
       <c r="E25" s="24"/>
       <c r="F25" s="39"/>
       <c r="G25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="275"/>
-      <c r="I25" s="276"/>
-      <c r="J25" s="276"/>
-      <c r="K25" s="276"/>
-      <c r="L25" s="276"/>
-      <c r="M25" s="276"/>
-      <c r="N25" s="276"/>
-      <c r="O25" s="276"/>
-      <c r="P25" s="276"/>
+      <c r="H25" s="288"/>
+      <c r="I25" s="289"/>
+      <c r="J25" s="289"/>
+      <c r="K25" s="289"/>
+      <c r="L25" s="289"/>
+      <c r="M25" s="289"/>
+      <c r="N25" s="289"/>
+      <c r="O25" s="289"/>
+      <c r="P25" s="289"/>
       <c r="Q25" s="157" t="s">
         <v>7</v>
       </c>
@@ -12890,15 +12887,15 @@
       <c r="T25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="U25" s="286"/>
-      <c r="V25" s="286"/>
-      <c r="W25" s="286"/>
-      <c r="X25" s="286"/>
-      <c r="Y25" s="286"/>
-      <c r="Z25" s="286"/>
-      <c r="AA25" s="286"/>
-      <c r="AB25" s="286"/>
-      <c r="AC25" s="286"/>
+      <c r="U25" s="297"/>
+      <c r="V25" s="297"/>
+      <c r="W25" s="297"/>
+      <c r="X25" s="297"/>
+      <c r="Y25" s="297"/>
+      <c r="Z25" s="297"/>
+      <c r="AA25" s="297"/>
+      <c r="AB25" s="297"/>
+      <c r="AC25" s="297"/>
       <c r="AD25" s="157" t="s">
         <v>7</v>
       </c>
@@ -12918,15 +12915,15 @@
       <c r="G26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="282"/>
-      <c r="I26" s="282"/>
-      <c r="J26" s="282"/>
-      <c r="K26" s="282"/>
-      <c r="L26" s="282"/>
-      <c r="M26" s="282"/>
-      <c r="N26" s="282"/>
-      <c r="O26" s="282"/>
-      <c r="P26" s="282"/>
+      <c r="H26" s="293"/>
+      <c r="I26" s="293"/>
+      <c r="J26" s="293"/>
+      <c r="K26" s="293"/>
+      <c r="L26" s="293"/>
+      <c r="M26" s="293"/>
+      <c r="N26" s="293"/>
+      <c r="O26" s="293"/>
+      <c r="P26" s="293"/>
       <c r="Q26" s="156" t="s">
         <v>7</v>
       </c>
@@ -12935,15 +12932,15 @@
       <c r="T26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="282"/>
-      <c r="V26" s="282"/>
-      <c r="W26" s="282"/>
-      <c r="X26" s="282"/>
-      <c r="Y26" s="282"/>
-      <c r="Z26" s="282"/>
-      <c r="AA26" s="282"/>
-      <c r="AB26" s="282"/>
-      <c r="AC26" s="282"/>
+      <c r="U26" s="293"/>
+      <c r="V26" s="293"/>
+      <c r="W26" s="293"/>
+      <c r="X26" s="293"/>
+      <c r="Y26" s="293"/>
+      <c r="Z26" s="293"/>
+      <c r="AA26" s="293"/>
+      <c r="AB26" s="293"/>
+      <c r="AC26" s="293"/>
       <c r="AD26" s="156" t="s">
         <v>7</v>
       </c>
@@ -12963,15 +12960,15 @@
       <c r="G27" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="281"/>
-      <c r="I27" s="281"/>
-      <c r="J27" s="281"/>
-      <c r="K27" s="281"/>
-      <c r="L27" s="281"/>
-      <c r="M27" s="281"/>
-      <c r="N27" s="281"/>
-      <c r="O27" s="281"/>
-      <c r="P27" s="281"/>
+      <c r="H27" s="292"/>
+      <c r="I27" s="292"/>
+      <c r="J27" s="292"/>
+      <c r="K27" s="292"/>
+      <c r="L27" s="292"/>
+      <c r="M27" s="292"/>
+      <c r="N27" s="292"/>
+      <c r="O27" s="292"/>
+      <c r="P27" s="292"/>
       <c r="Q27" s="155" t="s">
         <v>7</v>
       </c>
@@ -12980,31 +12977,31 @@
       <c r="T27" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="U27" s="281"/>
-      <c r="V27" s="281"/>
-      <c r="W27" s="281"/>
-      <c r="X27" s="281"/>
-      <c r="Y27" s="281"/>
-      <c r="Z27" s="281"/>
-      <c r="AA27" s="281"/>
-      <c r="AB27" s="281"/>
-      <c r="AC27" s="281"/>
-      <c r="AD27" s="281"/>
-      <c r="AE27" s="281"/>
-      <c r="AF27" s="281"/>
-      <c r="AG27" s="281"/>
-      <c r="AH27" s="281"/>
+      <c r="U27" s="292"/>
+      <c r="V27" s="292"/>
+      <c r="W27" s="292"/>
+      <c r="X27" s="292"/>
+      <c r="Y27" s="292"/>
+      <c r="Z27" s="292"/>
+      <c r="AA27" s="292"/>
+      <c r="AB27" s="292"/>
+      <c r="AC27" s="292"/>
+      <c r="AD27" s="292"/>
+      <c r="AE27" s="292"/>
+      <c r="AF27" s="292"/>
+      <c r="AG27" s="292"/>
+      <c r="AH27" s="292"/>
       <c r="AI27" s="41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="272" t="s">
+      <c r="A28" s="265" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="273"/>
-      <c r="C28" s="273"/>
-      <c r="D28" s="274"/>
+      <c r="B28" s="266"/>
+      <c r="C28" s="266"/>
+      <c r="D28" s="267"/>
       <c r="E28" s="157"/>
       <c r="F28" s="157"/>
       <c r="G28" s="157"/>
@@ -13156,32 +13153,14 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="E21:P21"/>
-    <mergeCell ref="E24:P24"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -13194,14 +13173,32 @@
     <mergeCell ref="H26:P26"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="E21:P21"/>
+    <mergeCell ref="E24:P24"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -13876,158 +13873,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="259" t="s">
+      <c r="A1" s="250" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="222" t="str">
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="263" t="s">
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="253" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="264"/>
-      <c r="Q1" s="264"/>
-      <c r="R1" s="265"/>
-      <c r="S1" s="261" t="str">
+      <c r="P1" s="254"/>
+      <c r="Q1" s="254"/>
+      <c r="R1" s="255"/>
+      <c r="S1" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(その他)
 B21AA01/ユーザ情報反映</v>
       </c>
-      <c r="T1" s="241"/>
-      <c r="U1" s="241"/>
-      <c r="V1" s="241"/>
-      <c r="W1" s="241"/>
-      <c r="X1" s="241"/>
-      <c r="Y1" s="241"/>
-      <c r="Z1" s="242"/>
-      <c r="AA1" s="259" t="s">
+      <c r="T1" s="210"/>
+      <c r="U1" s="210"/>
+      <c r="V1" s="210"/>
+      <c r="W1" s="210"/>
+      <c r="X1" s="210"/>
+      <c r="Y1" s="210"/>
+      <c r="Z1" s="211"/>
+      <c r="AA1" s="250" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="260"/>
-      <c r="AC1" s="212" t="str">
+      <c r="AB1" s="252"/>
+      <c r="AC1" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="213"/>
-      <c r="AE1" s="213"/>
-      <c r="AF1" s="214"/>
-      <c r="AG1" s="256">
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="262">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="257"/>
-      <c r="AI1" s="258"/>
+      <c r="AH1" s="263"/>
+      <c r="AI1" s="264"/>
     </row>
     <row r="2" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="250" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="222" t="str">
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
-      <c r="M2" s="223"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="266"/>
-      <c r="P2" s="267"/>
-      <c r="Q2" s="267"/>
-      <c r="R2" s="268"/>
-      <c r="S2" s="243"/>
-      <c r="T2" s="244"/>
-      <c r="U2" s="244"/>
-      <c r="V2" s="244"/>
-      <c r="W2" s="244"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="244"/>
-      <c r="Z2" s="245"/>
-      <c r="AA2" s="259" t="s">
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="256"/>
+      <c r="P2" s="257"/>
+      <c r="Q2" s="257"/>
+      <c r="R2" s="258"/>
+      <c r="S2" s="212"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="213"/>
+      <c r="X2" s="213"/>
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="250" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="260"/>
-      <c r="AC2" s="212" t="str">
+      <c r="AB2" s="252"/>
+      <c r="AC2" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="213"/>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="256" t="str">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="257"/>
-      <c r="AI2" s="258"/>
+      <c r="AH2" s="263"/>
+      <c r="AI2" s="264"/>
     </row>
     <row r="3" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="259" t="s">
+      <c r="A3" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="222" t="str">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="224"/>
-      <c r="O3" s="269"/>
-      <c r="P3" s="270"/>
-      <c r="Q3" s="270"/>
-      <c r="R3" s="271"/>
-      <c r="S3" s="246"/>
-      <c r="T3" s="247"/>
-      <c r="U3" s="247"/>
-      <c r="V3" s="247"/>
-      <c r="W3" s="247"/>
-      <c r="X3" s="247"/>
-      <c r="Y3" s="247"/>
-      <c r="Z3" s="248"/>
-      <c r="AA3" s="259"/>
-      <c r="AB3" s="260"/>
-      <c r="AC3" s="212" t="str">
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="259"/>
+      <c r="P3" s="260"/>
+      <c r="Q3" s="260"/>
+      <c r="R3" s="261"/>
+      <c r="S3" s="215"/>
+      <c r="T3" s="216"/>
+      <c r="U3" s="216"/>
+      <c r="V3" s="216"/>
+      <c r="W3" s="216"/>
+      <c r="X3" s="216"/>
+      <c r="Y3" s="216"/>
+      <c r="Z3" s="217"/>
+      <c r="AA3" s="250"/>
+      <c r="AB3" s="252"/>
+      <c r="AC3" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="213"/>
-      <c r="AE3" s="213"/>
-      <c r="AF3" s="214"/>
-      <c r="AG3" s="256" t="str">
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="220"/>
+      <c r="AG3" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="257"/>
-      <c r="AI3" s="258"/>
+      <c r="AH3" s="263"/>
+      <c r="AI3" s="264"/>
     </row>
     <row r="4" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="47"/>
@@ -14150,493 +14147,493 @@
       <c r="AU6" s="80"/>
     </row>
     <row r="7" spans="1:47">
-      <c r="A7" s="356" t="s">
+      <c r="A7" s="327" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="357"/>
-      <c r="C7" s="357"/>
-      <c r="D7" s="357"/>
-      <c r="E7" s="357"/>
-      <c r="F7" s="357"/>
-      <c r="G7" s="357"/>
-      <c r="H7" s="357"/>
-      <c r="I7" s="357"/>
-      <c r="J7" s="357"/>
-      <c r="K7" s="357"/>
-      <c r="L7" s="357"/>
-      <c r="M7" s="357"/>
-      <c r="N7" s="357"/>
-      <c r="O7" s="357"/>
-      <c r="P7" s="357"/>
-      <c r="Q7" s="357"/>
-      <c r="R7" s="357"/>
-      <c r="S7" s="357"/>
-      <c r="T7" s="357"/>
-      <c r="U7" s="357"/>
-      <c r="V7" s="357"/>
-      <c r="W7" s="357"/>
-      <c r="X7" s="357"/>
-      <c r="Y7" s="357"/>
-      <c r="Z7" s="357"/>
-      <c r="AA7" s="357"/>
-      <c r="AB7" s="358"/>
-      <c r="AC7" s="378" t="s">
+      <c r="B7" s="323"/>
+      <c r="C7" s="323"/>
+      <c r="D7" s="323"/>
+      <c r="E7" s="323"/>
+      <c r="F7" s="323"/>
+      <c r="G7" s="323"/>
+      <c r="H7" s="323"/>
+      <c r="I7" s="323"/>
+      <c r="J7" s="323"/>
+      <c r="K7" s="323"/>
+      <c r="L7" s="323"/>
+      <c r="M7" s="323"/>
+      <c r="N7" s="323"/>
+      <c r="O7" s="323"/>
+      <c r="P7" s="323"/>
+      <c r="Q7" s="323"/>
+      <c r="R7" s="323"/>
+      <c r="S7" s="323"/>
+      <c r="T7" s="323"/>
+      <c r="U7" s="323"/>
+      <c r="V7" s="323"/>
+      <c r="W7" s="323"/>
+      <c r="X7" s="323"/>
+      <c r="Y7" s="323"/>
+      <c r="Z7" s="323"/>
+      <c r="AA7" s="323"/>
+      <c r="AB7" s="328"/>
+      <c r="AC7" s="322" t="s">
         <v>51</v>
       </c>
-      <c r="AD7" s="357"/>
-      <c r="AE7" s="365"/>
+      <c r="AD7" s="323"/>
+      <c r="AE7" s="324"/>
       <c r="AF7" s="94"/>
       <c r="AG7" s="94"/>
       <c r="AH7" s="94"/>
       <c r="AI7" s="95"/>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:47" ht="22.5" customHeight="1">
       <c r="A8" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="356" t="s">
+      <c r="B8" s="327" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="253"/>
-      <c r="D8" s="253"/>
-      <c r="E8" s="253"/>
-      <c r="F8" s="254"/>
-      <c r="G8" s="356" t="s">
+      <c r="C8" s="188"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="327" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="357"/>
-      <c r="I8" s="365"/>
-      <c r="J8" s="356" t="s">
+      <c r="H8" s="323"/>
+      <c r="I8" s="324"/>
+      <c r="J8" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="357"/>
-      <c r="L8" s="357"/>
-      <c r="M8" s="357"/>
-      <c r="N8" s="357"/>
-      <c r="O8" s="357"/>
-      <c r="P8" s="365"/>
-      <c r="Q8" s="372" t="s">
+      <c r="K8" s="323"/>
+      <c r="L8" s="323"/>
+      <c r="M8" s="323"/>
+      <c r="N8" s="323"/>
+      <c r="O8" s="323"/>
+      <c r="P8" s="324"/>
+      <c r="Q8" s="341" t="s">
         <v>211</v>
       </c>
-      <c r="R8" s="374"/>
-      <c r="S8" s="372" t="s">
+      <c r="R8" s="343"/>
+      <c r="S8" s="341" t="s">
         <v>81</v>
       </c>
-      <c r="T8" s="373"/>
-      <c r="U8" s="374"/>
-      <c r="V8" s="356" t="s">
+      <c r="T8" s="342"/>
+      <c r="U8" s="343"/>
+      <c r="V8" s="327" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="357"/>
-      <c r="X8" s="357"/>
-      <c r="Y8" s="357"/>
-      <c r="Z8" s="357"/>
-      <c r="AA8" s="357"/>
-      <c r="AB8" s="358"/>
-      <c r="AC8" s="375" t="s">
+      <c r="W8" s="323"/>
+      <c r="X8" s="323"/>
+      <c r="Y8" s="323"/>
+      <c r="Z8" s="323"/>
+      <c r="AA8" s="323"/>
+      <c r="AB8" s="328"/>
+      <c r="AC8" s="319" t="s">
         <v>13</v>
       </c>
-      <c r="AD8" s="376"/>
-      <c r="AE8" s="376"/>
-      <c r="AF8" s="376"/>
-      <c r="AG8" s="376"/>
-      <c r="AH8" s="377" t="s">
+      <c r="AD8" s="320"/>
+      <c r="AE8" s="320"/>
+      <c r="AF8" s="320"/>
+      <c r="AG8" s="320"/>
+      <c r="AH8" s="321" t="s">
         <v>82</v>
       </c>
-      <c r="AI8" s="377"/>
+      <c r="AI8" s="321"/>
     </row>
     <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="91">
         <v>1</v>
       </c>
-      <c r="B9" s="310" t="s">
+      <c r="B9" s="315" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="311"/>
-      <c r="D9" s="311"/>
-      <c r="E9" s="311"/>
-      <c r="F9" s="312"/>
-      <c r="G9" s="310" t="s">
+      <c r="C9" s="316"/>
+      <c r="D9" s="316"/>
+      <c r="E9" s="316"/>
+      <c r="F9" s="317"/>
+      <c r="G9" s="315" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="311"/>
-      <c r="I9" s="312"/>
-      <c r="J9" s="310"/>
+      <c r="H9" s="316"/>
+      <c r="I9" s="317"/>
+      <c r="J9" s="315"/>
       <c r="K9" s="354"/>
       <c r="L9" s="354"/>
       <c r="M9" s="354"/>
       <c r="N9" s="354"/>
       <c r="O9" s="354"/>
       <c r="P9" s="355"/>
-      <c r="Q9" s="348" t="s">
+      <c r="Q9" s="310" t="s">
         <v>103</v>
       </c>
-      <c r="R9" s="350"/>
-      <c r="S9" s="348">
+      <c r="R9" s="311"/>
+      <c r="S9" s="310">
         <v>1</v>
       </c>
       <c r="T9" s="349"/>
-      <c r="U9" s="350"/>
-      <c r="V9" s="369"/>
-      <c r="W9" s="370"/>
-      <c r="X9" s="370"/>
-      <c r="Y9" s="370"/>
-      <c r="Z9" s="370"/>
-      <c r="AA9" s="370"/>
-      <c r="AB9" s="371"/>
-      <c r="AC9" s="345" t="s">
+      <c r="U9" s="311"/>
+      <c r="V9" s="338"/>
+      <c r="W9" s="339"/>
+      <c r="X9" s="339"/>
+      <c r="Y9" s="339"/>
+      <c r="Z9" s="339"/>
+      <c r="AA9" s="339"/>
+      <c r="AB9" s="340"/>
+      <c r="AC9" s="375" t="s">
         <v>83</v>
       </c>
-      <c r="AD9" s="310"/>
-      <c r="AE9" s="311"/>
-      <c r="AF9" s="311"/>
-      <c r="AG9" s="312"/>
-      <c r="AH9" s="348"/>
-      <c r="AI9" s="350"/>
+      <c r="AD9" s="315"/>
+      <c r="AE9" s="316"/>
+      <c r="AF9" s="316"/>
+      <c r="AG9" s="317"/>
+      <c r="AH9" s="310"/>
+      <c r="AI9" s="311"/>
     </row>
     <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="91">
         <v>2</v>
       </c>
-      <c r="B10" s="313" t="s">
+      <c r="B10" s="312" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="314"/>
-      <c r="D10" s="314"/>
-      <c r="E10" s="314"/>
-      <c r="F10" s="315"/>
-      <c r="G10" s="359" t="s">
+      <c r="C10" s="313"/>
+      <c r="D10" s="313"/>
+      <c r="E10" s="313"/>
+      <c r="F10" s="318"/>
+      <c r="G10" s="329" t="s">
         <v>214</v>
       </c>
-      <c r="H10" s="360"/>
-      <c r="I10" s="361"/>
-      <c r="J10" s="313"/>
-      <c r="K10" s="352"/>
-      <c r="L10" s="352"/>
-      <c r="M10" s="352"/>
-      <c r="N10" s="352"/>
-      <c r="O10" s="352"/>
-      <c r="P10" s="353"/>
-      <c r="Q10" s="308" t="s">
+      <c r="H10" s="330"/>
+      <c r="I10" s="331"/>
+      <c r="J10" s="312"/>
+      <c r="K10" s="344"/>
+      <c r="L10" s="344"/>
+      <c r="M10" s="344"/>
+      <c r="N10" s="344"/>
+      <c r="O10" s="344"/>
+      <c r="P10" s="345"/>
+      <c r="Q10" s="325" t="s">
         <v>103</v>
       </c>
-      <c r="R10" s="309"/>
-      <c r="S10" s="308">
+      <c r="R10" s="326"/>
+      <c r="S10" s="325">
         <v>1</v>
       </c>
-      <c r="T10" s="351"/>
-      <c r="U10" s="309"/>
-      <c r="V10" s="366"/>
-      <c r="W10" s="367"/>
-      <c r="X10" s="367"/>
-      <c r="Y10" s="367"/>
-      <c r="Z10" s="367"/>
-      <c r="AA10" s="367"/>
-      <c r="AB10" s="368"/>
-      <c r="AC10" s="346"/>
-      <c r="AD10" s="313"/>
-      <c r="AE10" s="314"/>
-      <c r="AF10" s="314"/>
-      <c r="AG10" s="315"/>
-      <c r="AH10" s="308"/>
-      <c r="AI10" s="309"/>
+      <c r="T10" s="350"/>
+      <c r="U10" s="326"/>
+      <c r="V10" s="335"/>
+      <c r="W10" s="336"/>
+      <c r="X10" s="336"/>
+      <c r="Y10" s="336"/>
+      <c r="Z10" s="336"/>
+      <c r="AA10" s="336"/>
+      <c r="AB10" s="337"/>
+      <c r="AC10" s="376"/>
+      <c r="AD10" s="312"/>
+      <c r="AE10" s="313"/>
+      <c r="AF10" s="313"/>
+      <c r="AG10" s="318"/>
+      <c r="AH10" s="325"/>
+      <c r="AI10" s="326"/>
     </row>
     <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="91">
         <v>3</v>
       </c>
-      <c r="B11" s="313" t="s">
+      <c r="B11" s="312" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="314"/>
-      <c r="D11" s="314"/>
-      <c r="E11" s="314"/>
-      <c r="F11" s="315"/>
-      <c r="G11" s="362" t="s">
+      <c r="C11" s="313"/>
+      <c r="D11" s="313"/>
+      <c r="E11" s="313"/>
+      <c r="F11" s="318"/>
+      <c r="G11" s="332" t="s">
         <v>215</v>
       </c>
-      <c r="H11" s="363"/>
-      <c r="I11" s="364"/>
-      <c r="J11" s="313"/>
-      <c r="K11" s="352"/>
-      <c r="L11" s="352"/>
-      <c r="M11" s="352"/>
-      <c r="N11" s="352"/>
-      <c r="O11" s="352"/>
-      <c r="P11" s="353"/>
-      <c r="Q11" s="308">
+      <c r="H11" s="333"/>
+      <c r="I11" s="334"/>
+      <c r="J11" s="312"/>
+      <c r="K11" s="344"/>
+      <c r="L11" s="344"/>
+      <c r="M11" s="344"/>
+      <c r="N11" s="344"/>
+      <c r="O11" s="344"/>
+      <c r="P11" s="345"/>
+      <c r="Q11" s="325">
         <v>43</v>
       </c>
-      <c r="R11" s="309"/>
-      <c r="S11" s="308">
+      <c r="R11" s="326"/>
+      <c r="S11" s="325">
         <v>1</v>
       </c>
-      <c r="T11" s="351"/>
-      <c r="U11" s="309"/>
-      <c r="V11" s="366"/>
-      <c r="W11" s="367"/>
-      <c r="X11" s="367"/>
-      <c r="Y11" s="367"/>
-      <c r="Z11" s="367"/>
-      <c r="AA11" s="367"/>
-      <c r="AB11" s="368"/>
-      <c r="AC11" s="346"/>
-      <c r="AD11" s="382"/>
-      <c r="AE11" s="383"/>
-      <c r="AF11" s="383"/>
-      <c r="AG11" s="384"/>
-      <c r="AH11" s="308"/>
-      <c r="AI11" s="309"/>
+      <c r="T11" s="350"/>
+      <c r="U11" s="326"/>
+      <c r="V11" s="335"/>
+      <c r="W11" s="336"/>
+      <c r="X11" s="336"/>
+      <c r="Y11" s="336"/>
+      <c r="Z11" s="336"/>
+      <c r="AA11" s="336"/>
+      <c r="AB11" s="337"/>
+      <c r="AC11" s="376"/>
+      <c r="AD11" s="304"/>
+      <c r="AE11" s="305"/>
+      <c r="AF11" s="305"/>
+      <c r="AG11" s="306"/>
+      <c r="AH11" s="325"/>
+      <c r="AI11" s="326"/>
     </row>
     <row r="12" spans="1:47" ht="24" customHeight="1">
       <c r="A12" s="91">
         <v>4</v>
       </c>
-      <c r="B12" s="313" t="s">
+      <c r="B12" s="312" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="314"/>
-      <c r="D12" s="314"/>
-      <c r="E12" s="314"/>
-      <c r="F12" s="315"/>
-      <c r="G12" s="362" t="s">
+      <c r="C12" s="313"/>
+      <c r="D12" s="313"/>
+      <c r="E12" s="313"/>
+      <c r="F12" s="318"/>
+      <c r="G12" s="332" t="s">
         <v>213</v>
       </c>
-      <c r="H12" s="363"/>
-      <c r="I12" s="364"/>
-      <c r="J12" s="313"/>
-      <c r="K12" s="352"/>
-      <c r="L12" s="352"/>
-      <c r="M12" s="352"/>
-      <c r="N12" s="352"/>
-      <c r="O12" s="352"/>
-      <c r="P12" s="353"/>
-      <c r="Q12" s="308">
+      <c r="H12" s="333"/>
+      <c r="I12" s="334"/>
+      <c r="J12" s="312"/>
+      <c r="K12" s="344"/>
+      <c r="L12" s="344"/>
+      <c r="M12" s="344"/>
+      <c r="N12" s="344"/>
+      <c r="O12" s="344"/>
+      <c r="P12" s="345"/>
+      <c r="Q12" s="325">
         <v>862</v>
       </c>
-      <c r="R12" s="309"/>
-      <c r="S12" s="308">
+      <c r="R12" s="326"/>
+      <c r="S12" s="325">
         <v>1</v>
       </c>
-      <c r="T12" s="351"/>
-      <c r="U12" s="309"/>
-      <c r="V12" s="366"/>
-      <c r="W12" s="367"/>
-      <c r="X12" s="367"/>
-      <c r="Y12" s="367"/>
-      <c r="Z12" s="367"/>
-      <c r="AA12" s="367"/>
-      <c r="AB12" s="368"/>
-      <c r="AC12" s="346"/>
-      <c r="AD12" s="382"/>
-      <c r="AE12" s="383"/>
-      <c r="AF12" s="383"/>
-      <c r="AG12" s="384"/>
-      <c r="AH12" s="308"/>
-      <c r="AI12" s="309"/>
+      <c r="T12" s="350"/>
+      <c r="U12" s="326"/>
+      <c r="V12" s="335"/>
+      <c r="W12" s="336"/>
+      <c r="X12" s="336"/>
+      <c r="Y12" s="336"/>
+      <c r="Z12" s="336"/>
+      <c r="AA12" s="336"/>
+      <c r="AB12" s="337"/>
+      <c r="AC12" s="376"/>
+      <c r="AD12" s="304"/>
+      <c r="AE12" s="305"/>
+      <c r="AF12" s="305"/>
+      <c r="AG12" s="306"/>
+      <c r="AH12" s="325"/>
+      <c r="AI12" s="326"/>
     </row>
     <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="91">
         <v>5</v>
       </c>
-      <c r="B13" s="337"/>
-      <c r="C13" s="338"/>
-      <c r="D13" s="338"/>
-      <c r="E13" s="338"/>
-      <c r="F13" s="339"/>
-      <c r="G13" s="331"/>
-      <c r="H13" s="332"/>
-      <c r="I13" s="333"/>
-      <c r="J13" s="331"/>
-      <c r="K13" s="332"/>
-      <c r="L13" s="332"/>
-      <c r="M13" s="332"/>
-      <c r="N13" s="332"/>
-      <c r="O13" s="332"/>
-      <c r="P13" s="333"/>
-      <c r="Q13" s="328"/>
-      <c r="R13" s="330"/>
-      <c r="S13" s="328"/>
-      <c r="T13" s="329"/>
-      <c r="U13" s="330"/>
-      <c r="V13" s="313"/>
-      <c r="W13" s="314"/>
-      <c r="X13" s="314"/>
-      <c r="Y13" s="314"/>
-      <c r="Z13" s="314"/>
-      <c r="AA13" s="314"/>
-      <c r="AB13" s="319"/>
-      <c r="AC13" s="346"/>
-      <c r="AD13" s="382"/>
-      <c r="AE13" s="383"/>
-      <c r="AF13" s="383"/>
-      <c r="AG13" s="384"/>
-      <c r="AH13" s="308"/>
-      <c r="AI13" s="309"/>
+      <c r="B13" s="346"/>
+      <c r="C13" s="347"/>
+      <c r="D13" s="347"/>
+      <c r="E13" s="347"/>
+      <c r="F13" s="348"/>
+      <c r="G13" s="351"/>
+      <c r="H13" s="352"/>
+      <c r="I13" s="353"/>
+      <c r="J13" s="351"/>
+      <c r="K13" s="352"/>
+      <c r="L13" s="352"/>
+      <c r="M13" s="352"/>
+      <c r="N13" s="352"/>
+      <c r="O13" s="352"/>
+      <c r="P13" s="353"/>
+      <c r="Q13" s="307"/>
+      <c r="R13" s="309"/>
+      <c r="S13" s="307"/>
+      <c r="T13" s="308"/>
+      <c r="U13" s="309"/>
+      <c r="V13" s="312"/>
+      <c r="W13" s="313"/>
+      <c r="X13" s="313"/>
+      <c r="Y13" s="313"/>
+      <c r="Z13" s="313"/>
+      <c r="AA13" s="313"/>
+      <c r="AB13" s="314"/>
+      <c r="AC13" s="376"/>
+      <c r="AD13" s="304"/>
+      <c r="AE13" s="305"/>
+      <c r="AF13" s="305"/>
+      <c r="AG13" s="306"/>
+      <c r="AH13" s="325"/>
+      <c r="AI13" s="326"/>
     </row>
     <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="91">
         <v>6</v>
       </c>
-      <c r="B14" s="337"/>
-      <c r="C14" s="338"/>
-      <c r="D14" s="338"/>
-      <c r="E14" s="338"/>
-      <c r="F14" s="339"/>
-      <c r="G14" s="331"/>
-      <c r="H14" s="332"/>
-      <c r="I14" s="333"/>
-      <c r="J14" s="331"/>
-      <c r="K14" s="332"/>
-      <c r="L14" s="332"/>
-      <c r="M14" s="332"/>
-      <c r="N14" s="332"/>
-      <c r="O14" s="332"/>
-      <c r="P14" s="333"/>
-      <c r="Q14" s="328"/>
-      <c r="R14" s="330"/>
-      <c r="S14" s="328"/>
-      <c r="T14" s="329"/>
-      <c r="U14" s="330"/>
-      <c r="V14" s="313"/>
-      <c r="W14" s="314"/>
-      <c r="X14" s="314"/>
-      <c r="Y14" s="314"/>
-      <c r="Z14" s="314"/>
-      <c r="AA14" s="314"/>
-      <c r="AB14" s="319"/>
-      <c r="AC14" s="346"/>
-      <c r="AD14" s="382"/>
-      <c r="AE14" s="383"/>
-      <c r="AF14" s="383"/>
-      <c r="AG14" s="384"/>
-      <c r="AH14" s="308"/>
-      <c r="AI14" s="309"/>
+      <c r="B14" s="346"/>
+      <c r="C14" s="347"/>
+      <c r="D14" s="347"/>
+      <c r="E14" s="347"/>
+      <c r="F14" s="348"/>
+      <c r="G14" s="351"/>
+      <c r="H14" s="352"/>
+      <c r="I14" s="353"/>
+      <c r="J14" s="351"/>
+      <c r="K14" s="352"/>
+      <c r="L14" s="352"/>
+      <c r="M14" s="352"/>
+      <c r="N14" s="352"/>
+      <c r="O14" s="352"/>
+      <c r="P14" s="353"/>
+      <c r="Q14" s="307"/>
+      <c r="R14" s="309"/>
+      <c r="S14" s="307"/>
+      <c r="T14" s="308"/>
+      <c r="U14" s="309"/>
+      <c r="V14" s="312"/>
+      <c r="W14" s="313"/>
+      <c r="X14" s="313"/>
+      <c r="Y14" s="313"/>
+      <c r="Z14" s="313"/>
+      <c r="AA14" s="313"/>
+      <c r="AB14" s="314"/>
+      <c r="AC14" s="376"/>
+      <c r="AD14" s="304"/>
+      <c r="AE14" s="305"/>
+      <c r="AF14" s="305"/>
+      <c r="AG14" s="306"/>
+      <c r="AH14" s="325"/>
+      <c r="AI14" s="326"/>
     </row>
     <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="180">
         <v>7</v>
       </c>
-      <c r="B15" s="337"/>
-      <c r="C15" s="338"/>
-      <c r="D15" s="338"/>
-      <c r="E15" s="338"/>
-      <c r="F15" s="339"/>
-      <c r="G15" s="331"/>
-      <c r="H15" s="332"/>
-      <c r="I15" s="333"/>
-      <c r="J15" s="331"/>
-      <c r="K15" s="332"/>
-      <c r="L15" s="332"/>
-      <c r="M15" s="332"/>
-      <c r="N15" s="332"/>
-      <c r="O15" s="332"/>
-      <c r="P15" s="333"/>
-      <c r="Q15" s="328"/>
-      <c r="R15" s="330"/>
-      <c r="S15" s="328"/>
-      <c r="T15" s="329"/>
-      <c r="U15" s="330"/>
-      <c r="V15" s="313"/>
-      <c r="W15" s="314"/>
-      <c r="X15" s="314"/>
-      <c r="Y15" s="314"/>
-      <c r="Z15" s="314"/>
-      <c r="AA15" s="314"/>
-      <c r="AB15" s="319"/>
-      <c r="AC15" s="346"/>
-      <c r="AD15" s="382"/>
-      <c r="AE15" s="383"/>
-      <c r="AF15" s="383"/>
-      <c r="AG15" s="384"/>
-      <c r="AH15" s="308"/>
-      <c r="AI15" s="309"/>
+      <c r="B15" s="346"/>
+      <c r="C15" s="347"/>
+      <c r="D15" s="347"/>
+      <c r="E15" s="347"/>
+      <c r="F15" s="348"/>
+      <c r="G15" s="351"/>
+      <c r="H15" s="352"/>
+      <c r="I15" s="353"/>
+      <c r="J15" s="351"/>
+      <c r="K15" s="352"/>
+      <c r="L15" s="352"/>
+      <c r="M15" s="352"/>
+      <c r="N15" s="352"/>
+      <c r="O15" s="352"/>
+      <c r="P15" s="353"/>
+      <c r="Q15" s="307"/>
+      <c r="R15" s="309"/>
+      <c r="S15" s="307"/>
+      <c r="T15" s="308"/>
+      <c r="U15" s="309"/>
+      <c r="V15" s="312"/>
+      <c r="W15" s="313"/>
+      <c r="X15" s="313"/>
+      <c r="Y15" s="313"/>
+      <c r="Z15" s="313"/>
+      <c r="AA15" s="313"/>
+      <c r="AB15" s="314"/>
+      <c r="AC15" s="376"/>
+      <c r="AD15" s="304"/>
+      <c r="AE15" s="305"/>
+      <c r="AF15" s="305"/>
+      <c r="AG15" s="306"/>
+      <c r="AH15" s="325"/>
+      <c r="AI15" s="326"/>
     </row>
     <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="92">
         <v>8</v>
       </c>
-      <c r="B16" s="337"/>
-      <c r="C16" s="338"/>
-      <c r="D16" s="338"/>
-      <c r="E16" s="338"/>
-      <c r="F16" s="339"/>
-      <c r="G16" s="331"/>
-      <c r="H16" s="332"/>
-      <c r="I16" s="333"/>
-      <c r="J16" s="331"/>
-      <c r="K16" s="332"/>
-      <c r="L16" s="332"/>
-      <c r="M16" s="332"/>
-      <c r="N16" s="332"/>
-      <c r="O16" s="332"/>
-      <c r="P16" s="333"/>
-      <c r="Q16" s="328"/>
-      <c r="R16" s="330"/>
-      <c r="S16" s="328"/>
-      <c r="T16" s="329"/>
-      <c r="U16" s="330"/>
-      <c r="V16" s="313"/>
-      <c r="W16" s="314"/>
-      <c r="X16" s="314"/>
-      <c r="Y16" s="314"/>
-      <c r="Z16" s="314"/>
-      <c r="AA16" s="314"/>
-      <c r="AB16" s="319"/>
-      <c r="AC16" s="346"/>
-      <c r="AD16" s="382"/>
-      <c r="AE16" s="383"/>
-      <c r="AF16" s="383"/>
-      <c r="AG16" s="384"/>
-      <c r="AH16" s="308"/>
-      <c r="AI16" s="309"/>
+      <c r="B16" s="346"/>
+      <c r="C16" s="347"/>
+      <c r="D16" s="347"/>
+      <c r="E16" s="347"/>
+      <c r="F16" s="348"/>
+      <c r="G16" s="351"/>
+      <c r="H16" s="352"/>
+      <c r="I16" s="353"/>
+      <c r="J16" s="351"/>
+      <c r="K16" s="352"/>
+      <c r="L16" s="352"/>
+      <c r="M16" s="352"/>
+      <c r="N16" s="352"/>
+      <c r="O16" s="352"/>
+      <c r="P16" s="353"/>
+      <c r="Q16" s="307"/>
+      <c r="R16" s="309"/>
+      <c r="S16" s="307"/>
+      <c r="T16" s="308"/>
+      <c r="U16" s="309"/>
+      <c r="V16" s="312"/>
+      <c r="W16" s="313"/>
+      <c r="X16" s="313"/>
+      <c r="Y16" s="313"/>
+      <c r="Z16" s="313"/>
+      <c r="AA16" s="313"/>
+      <c r="AB16" s="314"/>
+      <c r="AC16" s="376"/>
+      <c r="AD16" s="304"/>
+      <c r="AE16" s="305"/>
+      <c r="AF16" s="305"/>
+      <c r="AG16" s="306"/>
+      <c r="AH16" s="325"/>
+      <c r="AI16" s="326"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="93">
         <v>9</v>
       </c>
-      <c r="B17" s="340"/>
-      <c r="C17" s="341"/>
-      <c r="D17" s="341"/>
-      <c r="E17" s="341"/>
-      <c r="F17" s="342"/>
-      <c r="G17" s="334"/>
-      <c r="H17" s="335"/>
-      <c r="I17" s="336"/>
-      <c r="J17" s="334"/>
-      <c r="K17" s="335"/>
-      <c r="L17" s="335"/>
-      <c r="M17" s="335"/>
-      <c r="N17" s="335"/>
-      <c r="O17" s="335"/>
-      <c r="P17" s="336"/>
-      <c r="Q17" s="325"/>
-      <c r="R17" s="327"/>
-      <c r="S17" s="325"/>
-      <c r="T17" s="326"/>
-      <c r="U17" s="327"/>
-      <c r="V17" s="320"/>
-      <c r="W17" s="321"/>
-      <c r="X17" s="321"/>
-      <c r="Y17" s="321"/>
-      <c r="Z17" s="321"/>
-      <c r="AA17" s="321"/>
-      <c r="AB17" s="322"/>
-      <c r="AC17" s="347"/>
-      <c r="AD17" s="379"/>
-      <c r="AE17" s="380"/>
-      <c r="AF17" s="380"/>
-      <c r="AG17" s="381"/>
-      <c r="AH17" s="343"/>
-      <c r="AI17" s="344"/>
+      <c r="B17" s="370"/>
+      <c r="C17" s="371"/>
+      <c r="D17" s="371"/>
+      <c r="E17" s="371"/>
+      <c r="F17" s="372"/>
+      <c r="G17" s="367"/>
+      <c r="H17" s="368"/>
+      <c r="I17" s="369"/>
+      <c r="J17" s="367"/>
+      <c r="K17" s="368"/>
+      <c r="L17" s="368"/>
+      <c r="M17" s="368"/>
+      <c r="N17" s="368"/>
+      <c r="O17" s="368"/>
+      <c r="P17" s="369"/>
+      <c r="Q17" s="364"/>
+      <c r="R17" s="366"/>
+      <c r="S17" s="364"/>
+      <c r="T17" s="365"/>
+      <c r="U17" s="366"/>
+      <c r="V17" s="359"/>
+      <c r="W17" s="360"/>
+      <c r="X17" s="360"/>
+      <c r="Y17" s="360"/>
+      <c r="Z17" s="360"/>
+      <c r="AA17" s="360"/>
+      <c r="AB17" s="361"/>
+      <c r="AC17" s="377"/>
+      <c r="AD17" s="301"/>
+      <c r="AE17" s="302"/>
+      <c r="AF17" s="302"/>
+      <c r="AG17" s="303"/>
+      <c r="AH17" s="373"/>
+      <c r="AI17" s="374"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="323"/>
-      <c r="B18" s="324"/>
-      <c r="C18" s="324"/>
-      <c r="D18" s="324"/>
-      <c r="E18" s="324"/>
-      <c r="F18" s="324"/>
+      <c r="A18" s="362"/>
+      <c r="B18" s="363"/>
+      <c r="C18" s="363"/>
+      <c r="D18" s="363"/>
+      <c r="E18" s="363"/>
+      <c r="F18" s="363"/>
       <c r="G18" s="167"/>
       <c r="H18" s="167"/>
       <c r="I18" s="167"/>
@@ -14660,23 +14657,23 @@
       <c r="AA18" s="167"/>
       <c r="AB18" s="167"/>
       <c r="AC18" s="44"/>
-      <c r="AD18" s="318"/>
-      <c r="AE18" s="318"/>
-      <c r="AF18" s="318"/>
-      <c r="AG18" s="318"/>
-      <c r="AH18" s="318"/>
+      <c r="AD18" s="358"/>
+      <c r="AE18" s="358"/>
+      <c r="AF18" s="358"/>
+      <c r="AG18" s="358"/>
+      <c r="AH18" s="358"/>
       <c r="AI18" s="81"/>
       <c r="AJ18" s="36"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="316" t="s">
+      <c r="A19" s="356" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="317"/>
-      <c r="C19" s="317"/>
-      <c r="D19" s="317"/>
-      <c r="E19" s="317"/>
-      <c r="F19" s="317"/>
+      <c r="B19" s="357"/>
+      <c r="C19" s="357"/>
+      <c r="D19" s="357"/>
+      <c r="E19" s="357"/>
+      <c r="F19" s="357"/>
       <c r="G19" s="166"/>
       <c r="H19" s="167"/>
       <c r="I19" s="167"/>
@@ -15307,61 +15304,30 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="V14:AB14"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="A7:AB7"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="V9:AB9"/>
-    <mergeCell ref="V10:AB10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="AD18:AH18"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="AC9:AC17"/>
+    <mergeCell ref="AH12:AI12"/>
     <mergeCell ref="AH13:AI13"/>
     <mergeCell ref="AH14:AI14"/>
     <mergeCell ref="AH15:AI15"/>
@@ -15386,30 +15352,61 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="J15:P15"/>
     <mergeCell ref="J13:P13"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="AC9:AC17"/>
-    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A7:AB7"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="V8:AB8"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="V11:AB11"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="V10:AB10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="V14:AB14"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="2">
@@ -15450,167 +15447,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="259" t="s">
+      <c r="A1" s="250" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="222" t="str">
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="263" t="s">
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="253" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="264"/>
-      <c r="Q1" s="264"/>
-      <c r="R1" s="265"/>
-      <c r="S1" s="261" t="str">
+      <c r="P1" s="254"/>
+      <c r="Q1" s="254"/>
+      <c r="R1" s="255"/>
+      <c r="S1" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(その他)
 B21AA01/ユーザ情報反映</v>
       </c>
-      <c r="T1" s="241"/>
-      <c r="U1" s="241"/>
-      <c r="V1" s="241"/>
-      <c r="W1" s="241"/>
-      <c r="X1" s="241"/>
-      <c r="Y1" s="241"/>
-      <c r="Z1" s="242"/>
-      <c r="AA1" s="259" t="s">
+      <c r="T1" s="210"/>
+      <c r="U1" s="210"/>
+      <c r="V1" s="210"/>
+      <c r="W1" s="210"/>
+      <c r="X1" s="210"/>
+      <c r="Y1" s="210"/>
+      <c r="Z1" s="211"/>
+      <c r="AA1" s="250" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="260"/>
-      <c r="AC1" s="212" t="str">
+      <c r="AB1" s="252"/>
+      <c r="AC1" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="213"/>
-      <c r="AE1" s="213"/>
-      <c r="AF1" s="214"/>
-      <c r="AG1" s="256">
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="262">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="257"/>
-      <c r="AI1" s="258"/>
+      <c r="AH1" s="263"/>
+      <c r="AI1" s="264"/>
     </row>
     <row r="2" spans="1:40" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="250" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="222" t="str">
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
-      <c r="M2" s="223"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="266"/>
-      <c r="P2" s="267"/>
-      <c r="Q2" s="267"/>
-      <c r="R2" s="268"/>
-      <c r="S2" s="243"/>
-      <c r="T2" s="244"/>
-      <c r="U2" s="244"/>
-      <c r="V2" s="244"/>
-      <c r="W2" s="244"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="244"/>
-      <c r="Z2" s="245"/>
-      <c r="AA2" s="259" t="s">
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="256"/>
+      <c r="P2" s="257"/>
+      <c r="Q2" s="257"/>
+      <c r="R2" s="258"/>
+      <c r="S2" s="212"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="213"/>
+      <c r="X2" s="213"/>
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="250" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="260"/>
-      <c r="AC2" s="212" t="str">
+      <c r="AB2" s="252"/>
+      <c r="AC2" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="213"/>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="256" t="str">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="257"/>
-      <c r="AI2" s="258"/>
+      <c r="AH2" s="263"/>
+      <c r="AI2" s="264"/>
     </row>
     <row r="3" spans="1:40" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="259" t="s">
+      <c r="A3" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="222" t="str">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="224"/>
-      <c r="O3" s="269"/>
-      <c r="P3" s="270"/>
-      <c r="Q3" s="270"/>
-      <c r="R3" s="271"/>
-      <c r="S3" s="246"/>
-      <c r="T3" s="247"/>
-      <c r="U3" s="247"/>
-      <c r="V3" s="247"/>
-      <c r="W3" s="247"/>
-      <c r="X3" s="247"/>
-      <c r="Y3" s="247"/>
-      <c r="Z3" s="248"/>
-      <c r="AA3" s="259"/>
-      <c r="AB3" s="260"/>
-      <c r="AC3" s="212" t="str">
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="259"/>
+      <c r="P3" s="260"/>
+      <c r="Q3" s="260"/>
+      <c r="R3" s="261"/>
+      <c r="S3" s="215"/>
+      <c r="T3" s="216"/>
+      <c r="U3" s="216"/>
+      <c r="V3" s="216"/>
+      <c r="W3" s="216"/>
+      <c r="X3" s="216"/>
+      <c r="Y3" s="216"/>
+      <c r="Z3" s="217"/>
+      <c r="AA3" s="250"/>
+      <c r="AB3" s="252"/>
+      <c r="AC3" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="213"/>
-      <c r="AE3" s="213"/>
-      <c r="AF3" s="214"/>
-      <c r="AG3" s="256" t="str">
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="220"/>
+      <c r="AG3" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="257"/>
-      <c r="AI3" s="258"/>
+      <c r="AH3" s="263"/>
+      <c r="AI3" s="264"/>
     </row>
     <row r="4" spans="1:40" ht="12" customHeight="1"/>
     <row r="5" spans="1:40" ht="15" customHeight="1">
-      <c r="A5" s="395" t="s">
+      <c r="A5" s="380" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="396"/>
-      <c r="C5" s="396"/>
-      <c r="D5" s="396"/>
+      <c r="B5" s="381"/>
+      <c r="C5" s="381"/>
+      <c r="D5" s="381"/>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1">
       <c r="A6" s="168"/>
@@ -15640,131 +15637,131 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="26.25" customHeight="1">
-      <c r="B13" s="181" t="s">
+    <row r="13" spans="1:40" s="409" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B13" s="410" t="s">
         <v>219</v>
       </c>
-      <c r="C13" s="403" t="s">
+      <c r="C13" s="378" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="404"/>
-      <c r="E13" s="404"/>
-      <c r="F13" s="404"/>
-      <c r="G13" s="405"/>
-      <c r="H13" s="403" t="s">
+      <c r="D13" s="411"/>
+      <c r="E13" s="411"/>
+      <c r="F13" s="411"/>
+      <c r="G13" s="379"/>
+      <c r="H13" s="378" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="404"/>
-      <c r="J13" s="404"/>
-      <c r="K13" s="404"/>
-      <c r="L13" s="405"/>
-      <c r="M13" s="403" t="s">
+      <c r="I13" s="411"/>
+      <c r="J13" s="411"/>
+      <c r="K13" s="411"/>
+      <c r="L13" s="379"/>
+      <c r="M13" s="378" t="s">
         <v>86</v>
       </c>
-      <c r="N13" s="404"/>
-      <c r="O13" s="404"/>
-      <c r="P13" s="404"/>
-      <c r="Q13" s="405"/>
-      <c r="R13" s="182" t="s">
+      <c r="N13" s="411"/>
+      <c r="O13" s="411"/>
+      <c r="P13" s="411"/>
+      <c r="Q13" s="379"/>
+      <c r="R13" s="412" t="s">
         <v>65</v>
       </c>
-      <c r="S13" s="403" t="s">
+      <c r="S13" s="378" t="s">
         <v>71</v>
       </c>
-      <c r="T13" s="404"/>
-      <c r="U13" s="404"/>
-      <c r="V13" s="405"/>
-      <c r="W13" s="406" t="s">
+      <c r="T13" s="411"/>
+      <c r="U13" s="411"/>
+      <c r="V13" s="379"/>
+      <c r="W13" s="413" t="s">
         <v>210</v>
       </c>
-      <c r="X13" s="407"/>
-      <c r="Y13" s="406" t="s">
+      <c r="X13" s="414"/>
+      <c r="Y13" s="413" t="s">
         <v>64</v>
       </c>
-      <c r="Z13" s="407"/>
-      <c r="AA13" s="403" t="s">
+      <c r="Z13" s="414"/>
+      <c r="AA13" s="378" t="s">
         <v>25</v>
       </c>
-      <c r="AB13" s="405"/>
-      <c r="AC13" s="403" t="s">
+      <c r="AB13" s="379"/>
+      <c r="AC13" s="378" t="s">
         <v>142</v>
       </c>
-      <c r="AD13" s="405"/>
-      <c r="AE13" s="408" t="s">
+      <c r="AD13" s="379"/>
+      <c r="AE13" s="378" t="s">
         <v>85</v>
       </c>
-      <c r="AF13" s="409"/>
-      <c r="AG13" s="403" t="s">
+      <c r="AF13" s="379"/>
+      <c r="AG13" s="378" t="s">
         <v>63</v>
       </c>
-      <c r="AH13" s="404"/>
-      <c r="AI13" s="405"/>
-      <c r="AJ13" s="182" t="s">
+      <c r="AH13" s="411"/>
+      <c r="AI13" s="379"/>
+      <c r="AJ13" s="412" t="s">
         <v>62</v>
       </c>
-      <c r="AK13" s="183"/>
-      <c r="AL13" s="183"/>
-      <c r="AM13" s="183"/>
-      <c r="AN13" s="184"/>
+      <c r="AK13" s="415"/>
+      <c r="AL13" s="415"/>
+      <c r="AM13" s="415"/>
+      <c r="AN13" s="416"/>
     </row>
     <row r="14" spans="1:40" ht="11.25">
-      <c r="B14" s="186">
+      <c r="B14" s="182">
         <v>1</v>
       </c>
-      <c r="C14" s="397" t="s">
+      <c r="C14" s="382" t="s">
         <v>143</v>
       </c>
-      <c r="D14" s="398"/>
-      <c r="E14" s="398"/>
-      <c r="F14" s="398"/>
-      <c r="G14" s="399"/>
-      <c r="H14" s="388" t="s">
+      <c r="D14" s="383"/>
+      <c r="E14" s="383"/>
+      <c r="F14" s="383"/>
+      <c r="G14" s="384"/>
+      <c r="H14" s="385" t="s">
         <v>144</v>
       </c>
-      <c r="I14" s="389"/>
-      <c r="J14" s="389"/>
-      <c r="K14" s="389"/>
-      <c r="L14" s="390"/>
-      <c r="M14" s="385" t="s">
+      <c r="I14" s="386"/>
+      <c r="J14" s="386"/>
+      <c r="K14" s="386"/>
+      <c r="L14" s="387"/>
+      <c r="M14" s="388" t="s">
         <v>105</v>
       </c>
-      <c r="N14" s="386"/>
-      <c r="O14" s="386"/>
-      <c r="P14" s="386"/>
-      <c r="Q14" s="387"/>
-      <c r="R14" s="185" t="s">
+      <c r="N14" s="389"/>
+      <c r="O14" s="389"/>
+      <c r="P14" s="389"/>
+      <c r="Q14" s="390"/>
+      <c r="R14" s="181" t="s">
         <v>104</v>
       </c>
-      <c r="S14" s="400" t="s">
+      <c r="S14" s="391" t="s">
         <v>145</v>
       </c>
-      <c r="T14" s="401"/>
-      <c r="U14" s="401"/>
-      <c r="V14" s="402"/>
-      <c r="W14" s="391">
+      <c r="T14" s="392"/>
+      <c r="U14" s="392"/>
+      <c r="V14" s="393"/>
+      <c r="W14" s="394">
         <v>8</v>
       </c>
-      <c r="X14" s="392"/>
-      <c r="Y14" s="393">
+      <c r="X14" s="395"/>
+      <c r="Y14" s="396">
         <v>1</v>
       </c>
-      <c r="Z14" s="394"/>
-      <c r="AA14" s="388" t="s">
+      <c r="Z14" s="397"/>
+      <c r="AA14" s="385" t="s">
         <v>146</v>
       </c>
-      <c r="AB14" s="390"/>
-      <c r="AC14" s="388"/>
-      <c r="AD14" s="390"/>
-      <c r="AE14" s="388"/>
-      <c r="AF14" s="390"/>
-      <c r="AG14" s="388"/>
-      <c r="AH14" s="389"/>
-      <c r="AI14" s="390"/>
-      <c r="AJ14" s="385"/>
-      <c r="AK14" s="386"/>
-      <c r="AL14" s="386"/>
-      <c r="AM14" s="386"/>
-      <c r="AN14" s="387"/>
+      <c r="AB14" s="387"/>
+      <c r="AC14" s="385"/>
+      <c r="AD14" s="387"/>
+      <c r="AE14" s="385"/>
+      <c r="AF14" s="387"/>
+      <c r="AG14" s="385"/>
+      <c r="AH14" s="386"/>
+      <c r="AI14" s="387"/>
+      <c r="AJ14" s="388"/>
+      <c r="AK14" s="389"/>
+      <c r="AL14" s="389"/>
+      <c r="AM14" s="389"/>
+      <c r="AN14" s="390"/>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1">
       <c r="A21" s="164"/>
@@ -15774,12 +15771,28 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AJ14:AN14"/>
+    <mergeCell ref="AG14:AI14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="AG13:AI13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="E2:N2"/>
@@ -15791,28 +15804,12 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG13:AI13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="AJ14:AN14"/>
-    <mergeCell ref="AG14:AI14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <dataValidations count="2">
@@ -15851,158 +15848,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:121" s="71" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A1" s="259" t="s">
+      <c r="A1" s="250" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="222" t="str">
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="263" t="s">
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="253" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="264"/>
-      <c r="Q1" s="264"/>
-      <c r="R1" s="265"/>
-      <c r="S1" s="261" t="str">
+      <c r="P1" s="254"/>
+      <c r="Q1" s="254"/>
+      <c r="R1" s="255"/>
+      <c r="S1" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(その他)
 B21AA01/ユーザ情報反映</v>
       </c>
-      <c r="T1" s="241"/>
-      <c r="U1" s="241"/>
-      <c r="V1" s="241"/>
-      <c r="W1" s="241"/>
-      <c r="X1" s="241"/>
-      <c r="Y1" s="241"/>
-      <c r="Z1" s="242"/>
-      <c r="AA1" s="259" t="s">
+      <c r="T1" s="210"/>
+      <c r="U1" s="210"/>
+      <c r="V1" s="210"/>
+      <c r="W1" s="210"/>
+      <c r="X1" s="210"/>
+      <c r="Y1" s="210"/>
+      <c r="Z1" s="211"/>
+      <c r="AA1" s="250" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="260"/>
-      <c r="AC1" s="212" t="str">
+      <c r="AB1" s="252"/>
+      <c r="AC1" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="213"/>
-      <c r="AE1" s="213"/>
-      <c r="AF1" s="214"/>
-      <c r="AG1" s="256">
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="262">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="257"/>
-      <c r="AI1" s="258"/>
+      <c r="AH1" s="263"/>
+      <c r="AI1" s="264"/>
     </row>
     <row r="2" spans="1:121" s="71" customFormat="1" ht="11.25">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="250" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="222" t="str">
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
-      <c r="M2" s="223"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="266"/>
-      <c r="P2" s="267"/>
-      <c r="Q2" s="267"/>
-      <c r="R2" s="268"/>
-      <c r="S2" s="243"/>
-      <c r="T2" s="244"/>
-      <c r="U2" s="244"/>
-      <c r="V2" s="244"/>
-      <c r="W2" s="244"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="244"/>
-      <c r="Z2" s="245"/>
-      <c r="AA2" s="259" t="s">
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="256"/>
+      <c r="P2" s="257"/>
+      <c r="Q2" s="257"/>
+      <c r="R2" s="258"/>
+      <c r="S2" s="212"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="213"/>
+      <c r="X2" s="213"/>
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="250" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="260"/>
-      <c r="AC2" s="212" t="str">
+      <c r="AB2" s="252"/>
+      <c r="AC2" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="213"/>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="256" t="str">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="257"/>
-      <c r="AI2" s="258"/>
+      <c r="AH2" s="263"/>
+      <c r="AI2" s="264"/>
     </row>
     <row r="3" spans="1:121" s="71" customFormat="1" ht="11.25">
-      <c r="A3" s="259" t="s">
+      <c r="A3" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="222" t="str">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="224"/>
-      <c r="O3" s="269"/>
-      <c r="P3" s="270"/>
-      <c r="Q3" s="270"/>
-      <c r="R3" s="271"/>
-      <c r="S3" s="246"/>
-      <c r="T3" s="247"/>
-      <c r="U3" s="247"/>
-      <c r="V3" s="247"/>
-      <c r="W3" s="247"/>
-      <c r="X3" s="247"/>
-      <c r="Y3" s="247"/>
-      <c r="Z3" s="248"/>
-      <c r="AA3" s="259"/>
-      <c r="AB3" s="260"/>
-      <c r="AC3" s="212" t="str">
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="259"/>
+      <c r="P3" s="260"/>
+      <c r="Q3" s="260"/>
+      <c r="R3" s="261"/>
+      <c r="S3" s="215"/>
+      <c r="T3" s="216"/>
+      <c r="U3" s="216"/>
+      <c r="V3" s="216"/>
+      <c r="W3" s="216"/>
+      <c r="X3" s="216"/>
+      <c r="Y3" s="216"/>
+      <c r="Z3" s="217"/>
+      <c r="AA3" s="250"/>
+      <c r="AB3" s="252"/>
+      <c r="AC3" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="213"/>
-      <c r="AE3" s="213"/>
-      <c r="AF3" s="214"/>
-      <c r="AG3" s="256" t="str">
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="220"/>
+      <c r="AG3" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="257"/>
-      <c r="AI3" s="258"/>
+      <c r="AH3" s="263"/>
+      <c r="AI3" s="264"/>
     </row>
     <row r="4" spans="1:121" ht="11.25"/>
     <row r="5" spans="1:121" ht="11.25">
@@ -16019,189 +16016,189 @@
       <c r="C6" s="168"/>
       <c r="D6" s="168"/>
     </row>
-    <row r="7" spans="1:121" ht="32.25" customHeight="1">
-      <c r="A7" s="187" t="s">
+    <row r="7" spans="1:121" s="409" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A7" s="417" t="s">
         <v>219</v>
       </c>
-      <c r="B7" s="403" t="s">
+      <c r="B7" s="378" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="404"/>
-      <c r="D7" s="404"/>
-      <c r="E7" s="404"/>
-      <c r="F7" s="405"/>
-      <c r="G7" s="403" t="s">
+      <c r="C7" s="411"/>
+      <c r="D7" s="411"/>
+      <c r="E7" s="411"/>
+      <c r="F7" s="379"/>
+      <c r="G7" s="378" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="404"/>
-      <c r="I7" s="404"/>
-      <c r="J7" s="404"/>
-      <c r="K7" s="405"/>
-      <c r="L7" s="403" t="s">
+      <c r="H7" s="411"/>
+      <c r="I7" s="411"/>
+      <c r="J7" s="411"/>
+      <c r="K7" s="379"/>
+      <c r="L7" s="378" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="404"/>
-      <c r="N7" s="404"/>
-      <c r="O7" s="404"/>
-      <c r="P7" s="405"/>
-      <c r="Q7" s="188" t="s">
+      <c r="M7" s="411"/>
+      <c r="N7" s="411"/>
+      <c r="O7" s="411"/>
+      <c r="P7" s="379"/>
+      <c r="Q7" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="410" t="s">
+      <c r="R7" s="418" t="s">
         <v>71</v>
       </c>
-      <c r="S7" s="410"/>
-      <c r="T7" s="410"/>
-      <c r="U7" s="410"/>
-      <c r="V7" s="410" t="s">
+      <c r="S7" s="418"/>
+      <c r="T7" s="418"/>
+      <c r="U7" s="418"/>
+      <c r="V7" s="418" t="s">
         <v>209</v>
       </c>
-      <c r="W7" s="410"/>
-      <c r="X7" s="403" t="s">
+      <c r="W7" s="418"/>
+      <c r="X7" s="378" t="s">
         <v>64</v>
       </c>
-      <c r="Y7" s="405"/>
-      <c r="Z7" s="403" t="s">
+      <c r="Y7" s="379"/>
+      <c r="Z7" s="378" t="s">
         <v>25</v>
       </c>
-      <c r="AA7" s="405"/>
-      <c r="AB7" s="403" t="s">
+      <c r="AA7" s="379"/>
+      <c r="AB7" s="378" t="s">
         <v>84</v>
       </c>
-      <c r="AC7" s="405"/>
-      <c r="AD7" s="408" t="s">
+      <c r="AC7" s="379"/>
+      <c r="AD7" s="378" t="s">
         <v>85</v>
       </c>
-      <c r="AE7" s="409"/>
-      <c r="AF7" s="403" t="s">
+      <c r="AE7" s="379"/>
+      <c r="AF7" s="378" t="s">
         <v>63</v>
       </c>
-      <c r="AG7" s="404"/>
-      <c r="AH7" s="405"/>
-      <c r="AI7" s="403" t="s">
+      <c r="AG7" s="411"/>
+      <c r="AH7" s="379"/>
+      <c r="AI7" s="378" t="s">
         <v>62</v>
       </c>
-      <c r="AJ7" s="404"/>
-      <c r="AK7" s="404"/>
-      <c r="AL7" s="404"/>
-      <c r="AM7" s="404"/>
-      <c r="AN7" s="405"/>
-      <c r="BN7" s="81"/>
-      <c r="BO7" s="81"/>
-      <c r="BP7" s="81"/>
-      <c r="BQ7" s="81"/>
-      <c r="BR7" s="81"/>
-      <c r="BS7" s="81"/>
-      <c r="BT7" s="81"/>
-      <c r="BU7" s="81"/>
-      <c r="BV7" s="81"/>
-      <c r="BW7" s="81"/>
-      <c r="BX7" s="81"/>
-      <c r="BY7" s="81"/>
-      <c r="BZ7" s="81"/>
-      <c r="CA7" s="81"/>
-      <c r="CB7" s="81"/>
-      <c r="CC7" s="81"/>
-      <c r="CD7" s="81"/>
-      <c r="CE7" s="81"/>
-      <c r="CF7" s="81"/>
-      <c r="CG7" s="81"/>
-      <c r="CH7" s="81"/>
-      <c r="CI7" s="81"/>
-      <c r="CJ7" s="81"/>
-      <c r="CK7" s="81"/>
-      <c r="CL7" s="81"/>
-      <c r="CM7" s="81"/>
-      <c r="CN7" s="81"/>
-      <c r="CO7" s="81"/>
-      <c r="CP7" s="81"/>
-      <c r="CQ7" s="81"/>
-      <c r="CR7" s="81"/>
-      <c r="CS7" s="81"/>
-      <c r="CT7" s="81"/>
-      <c r="CU7" s="81"/>
-      <c r="CV7" s="81"/>
-      <c r="CW7" s="81"/>
-      <c r="CX7" s="81"/>
-      <c r="CY7" s="81"/>
-      <c r="CZ7" s="81"/>
-      <c r="DA7" s="81"/>
-      <c r="DB7" s="81"/>
-      <c r="DC7" s="81"/>
-      <c r="DD7" s="81"/>
-      <c r="DE7" s="81"/>
-      <c r="DF7" s="81"/>
-      <c r="DG7" s="164"/>
-      <c r="DH7" s="164"/>
-      <c r="DI7" s="164"/>
-      <c r="DJ7" s="164"/>
-      <c r="DK7" s="164"/>
-      <c r="DL7" s="164"/>
-      <c r="DM7" s="164"/>
-      <c r="DN7" s="164"/>
-      <c r="DO7" s="164"/>
-      <c r="DP7" s="164"/>
-      <c r="DQ7" s="164"/>
+      <c r="AJ7" s="411"/>
+      <c r="AK7" s="411"/>
+      <c r="AL7" s="411"/>
+      <c r="AM7" s="411"/>
+      <c r="AN7" s="379"/>
+      <c r="BN7" s="419"/>
+      <c r="BO7" s="419"/>
+      <c r="BP7" s="419"/>
+      <c r="BQ7" s="419"/>
+      <c r="BR7" s="419"/>
+      <c r="BS7" s="419"/>
+      <c r="BT7" s="419"/>
+      <c r="BU7" s="419"/>
+      <c r="BV7" s="419"/>
+      <c r="BW7" s="419"/>
+      <c r="BX7" s="419"/>
+      <c r="BY7" s="419"/>
+      <c r="BZ7" s="419"/>
+      <c r="CA7" s="419"/>
+      <c r="CB7" s="419"/>
+      <c r="CC7" s="419"/>
+      <c r="CD7" s="419"/>
+      <c r="CE7" s="419"/>
+      <c r="CF7" s="419"/>
+      <c r="CG7" s="419"/>
+      <c r="CH7" s="419"/>
+      <c r="CI7" s="419"/>
+      <c r="CJ7" s="419"/>
+      <c r="CK7" s="419"/>
+      <c r="CL7" s="419"/>
+      <c r="CM7" s="419"/>
+      <c r="CN7" s="419"/>
+      <c r="CO7" s="419"/>
+      <c r="CP7" s="419"/>
+      <c r="CQ7" s="419"/>
+      <c r="CR7" s="419"/>
+      <c r="CS7" s="419"/>
+      <c r="CT7" s="419"/>
+      <c r="CU7" s="419"/>
+      <c r="CV7" s="419"/>
+      <c r="CW7" s="419"/>
+      <c r="CX7" s="419"/>
+      <c r="CY7" s="419"/>
+      <c r="CZ7" s="419"/>
+      <c r="DA7" s="419"/>
+      <c r="DB7" s="419"/>
+      <c r="DC7" s="419"/>
+      <c r="DD7" s="419"/>
+      <c r="DE7" s="419"/>
+      <c r="DF7" s="419"/>
+      <c r="DG7" s="420"/>
+      <c r="DH7" s="420"/>
+      <c r="DI7" s="420"/>
+      <c r="DJ7" s="420"/>
+      <c r="DK7" s="420"/>
+      <c r="DL7" s="420"/>
+      <c r="DM7" s="420"/>
+      <c r="DN7" s="420"/>
+      <c r="DO7" s="420"/>
+      <c r="DP7" s="420"/>
+      <c r="DQ7" s="420"/>
     </row>
     <row r="8" spans="1:121" ht="15" customHeight="1">
-      <c r="A8" s="189">
+      <c r="A8" s="183">
         <v>1</v>
       </c>
-      <c r="B8" s="385" t="s">
+      <c r="B8" s="388" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="386"/>
-      <c r="D8" s="386"/>
-      <c r="E8" s="386"/>
-      <c r="F8" s="387"/>
-      <c r="G8" s="385" t="s">
+      <c r="C8" s="389"/>
+      <c r="D8" s="389"/>
+      <c r="E8" s="389"/>
+      <c r="F8" s="390"/>
+      <c r="G8" s="388" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="386"/>
-      <c r="I8" s="386"/>
-      <c r="J8" s="386"/>
-      <c r="K8" s="387"/>
-      <c r="L8" s="385" t="s">
+      <c r="H8" s="389"/>
+      <c r="I8" s="389"/>
+      <c r="J8" s="389"/>
+      <c r="K8" s="390"/>
+      <c r="L8" s="388" t="s">
         <v>110</v>
       </c>
-      <c r="M8" s="386"/>
-      <c r="N8" s="386"/>
-      <c r="O8" s="386"/>
-      <c r="P8" s="387"/>
-      <c r="Q8" s="190" t="s">
+      <c r="M8" s="389"/>
+      <c r="N8" s="389"/>
+      <c r="O8" s="389"/>
+      <c r="P8" s="390"/>
+      <c r="Q8" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R8" s="411" t="s">
+      <c r="R8" s="398" t="s">
         <v>123</v>
       </c>
-      <c r="S8" s="412"/>
-      <c r="T8" s="412"/>
-      <c r="U8" s="413"/>
-      <c r="V8" s="391">
+      <c r="S8" s="399"/>
+      <c r="T8" s="399"/>
+      <c r="U8" s="400"/>
+      <c r="V8" s="394">
         <v>1</v>
       </c>
-      <c r="W8" s="392"/>
-      <c r="X8" s="391">
+      <c r="W8" s="395"/>
+      <c r="X8" s="394">
         <v>1</v>
       </c>
-      <c r="Y8" s="392"/>
-      <c r="Z8" s="388"/>
-      <c r="AA8" s="390"/>
-      <c r="AB8" s="388"/>
-      <c r="AC8" s="390"/>
-      <c r="AD8" s="388"/>
-      <c r="AE8" s="390"/>
-      <c r="AF8" s="388"/>
-      <c r="AG8" s="389"/>
-      <c r="AH8" s="390"/>
-      <c r="AI8" s="385" t="s">
+      <c r="Y8" s="395"/>
+      <c r="Z8" s="385"/>
+      <c r="AA8" s="387"/>
+      <c r="AB8" s="385"/>
+      <c r="AC8" s="387"/>
+      <c r="AD8" s="385"/>
+      <c r="AE8" s="387"/>
+      <c r="AF8" s="385"/>
+      <c r="AG8" s="386"/>
+      <c r="AH8" s="387"/>
+      <c r="AI8" s="388" t="s">
         <v>129</v>
       </c>
-      <c r="AJ8" s="386"/>
-      <c r="AK8" s="386"/>
-      <c r="AL8" s="386"/>
-      <c r="AM8" s="386"/>
-      <c r="AN8" s="387"/>
+      <c r="AJ8" s="389"/>
+      <c r="AK8" s="389"/>
+      <c r="AL8" s="389"/>
+      <c r="AM8" s="389"/>
+      <c r="AN8" s="390"/>
       <c r="AR8" s="164"/>
       <c r="AS8" s="137"/>
       <c r="AT8" s="137"/>
@@ -16267,65 +16264,65 @@
       <c r="DQ8" s="164"/>
     </row>
     <row r="9" spans="1:121" ht="15" customHeight="1">
-      <c r="A9" s="189">
+      <c r="A9" s="183">
         <v>2</v>
       </c>
-      <c r="B9" s="385" t="s">
+      <c r="B9" s="388" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="386"/>
-      <c r="D9" s="386"/>
-      <c r="E9" s="386"/>
-      <c r="F9" s="387"/>
-      <c r="G9" s="385" t="s">
+      <c r="C9" s="389"/>
+      <c r="D9" s="389"/>
+      <c r="E9" s="389"/>
+      <c r="F9" s="390"/>
+      <c r="G9" s="388" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="386"/>
-      <c r="I9" s="386"/>
-      <c r="J9" s="386"/>
-      <c r="K9" s="387"/>
-      <c r="L9" s="385" t="s">
+      <c r="H9" s="389"/>
+      <c r="I9" s="389"/>
+      <c r="J9" s="389"/>
+      <c r="K9" s="390"/>
+      <c r="L9" s="388" t="s">
         <v>111</v>
       </c>
-      <c r="M9" s="386"/>
-      <c r="N9" s="386"/>
-      <c r="O9" s="386"/>
-      <c r="P9" s="387"/>
-      <c r="Q9" s="190" t="s">
+      <c r="M9" s="389"/>
+      <c r="N9" s="389"/>
+      <c r="O9" s="389"/>
+      <c r="P9" s="390"/>
+      <c r="Q9" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R9" s="411" t="s">
+      <c r="R9" s="398" t="s">
         <v>124</v>
       </c>
-      <c r="S9" s="412"/>
-      <c r="T9" s="412"/>
-      <c r="U9" s="413"/>
-      <c r="V9" s="391">
+      <c r="S9" s="399"/>
+      <c r="T9" s="399"/>
+      <c r="U9" s="400"/>
+      <c r="V9" s="394">
         <v>10</v>
       </c>
-      <c r="W9" s="392"/>
-      <c r="X9" s="391">
+      <c r="W9" s="395"/>
+      <c r="X9" s="394">
         <f>X8+V8</f>
         <v>2</v>
       </c>
-      <c r="Y9" s="392"/>
-      <c r="Z9" s="388"/>
-      <c r="AA9" s="390"/>
-      <c r="AB9" s="388" t="s">
+      <c r="Y9" s="395"/>
+      <c r="Z9" s="385"/>
+      <c r="AA9" s="387"/>
+      <c r="AB9" s="385" t="s">
         <v>127</v>
       </c>
-      <c r="AC9" s="390"/>
-      <c r="AD9" s="388"/>
-      <c r="AE9" s="390"/>
-      <c r="AF9" s="388"/>
-      <c r="AG9" s="389"/>
-      <c r="AH9" s="390"/>
-      <c r="AI9" s="385"/>
-      <c r="AJ9" s="386"/>
-      <c r="AK9" s="386"/>
-      <c r="AL9" s="386"/>
-      <c r="AM9" s="386"/>
-      <c r="AN9" s="387"/>
+      <c r="AC9" s="387"/>
+      <c r="AD9" s="385"/>
+      <c r="AE9" s="387"/>
+      <c r="AF9" s="385"/>
+      <c r="AG9" s="386"/>
+      <c r="AH9" s="387"/>
+      <c r="AI9" s="388"/>
+      <c r="AJ9" s="389"/>
+      <c r="AK9" s="389"/>
+      <c r="AL9" s="389"/>
+      <c r="AM9" s="389"/>
+      <c r="AN9" s="390"/>
       <c r="AR9" s="137"/>
       <c r="AS9" s="137"/>
       <c r="AT9" s="137"/>
@@ -16391,65 +16388,65 @@
       <c r="DQ9" s="164"/>
     </row>
     <row r="10" spans="1:121" ht="15" customHeight="1">
-      <c r="A10" s="189">
+      <c r="A10" s="183">
         <v>3</v>
       </c>
-      <c r="B10" s="385" t="s">
+      <c r="B10" s="388" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="386"/>
-      <c r="D10" s="386"/>
-      <c r="E10" s="386"/>
-      <c r="F10" s="387"/>
-      <c r="G10" s="385" t="s">
+      <c r="C10" s="389"/>
+      <c r="D10" s="389"/>
+      <c r="E10" s="389"/>
+      <c r="F10" s="390"/>
+      <c r="G10" s="388" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="386"/>
-      <c r="I10" s="386"/>
-      <c r="J10" s="386"/>
-      <c r="K10" s="387"/>
-      <c r="L10" s="385" t="s">
+      <c r="H10" s="389"/>
+      <c r="I10" s="389"/>
+      <c r="J10" s="389"/>
+      <c r="K10" s="390"/>
+      <c r="L10" s="388" t="s">
         <v>112</v>
       </c>
-      <c r="M10" s="386"/>
-      <c r="N10" s="386"/>
-      <c r="O10" s="386"/>
-      <c r="P10" s="387"/>
-      <c r="Q10" s="190" t="s">
+      <c r="M10" s="389"/>
+      <c r="N10" s="389"/>
+      <c r="O10" s="389"/>
+      <c r="P10" s="390"/>
+      <c r="Q10" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R10" s="411" t="s">
+      <c r="R10" s="398" t="s">
         <v>125</v>
       </c>
-      <c r="S10" s="412"/>
-      <c r="T10" s="412"/>
-      <c r="U10" s="413"/>
-      <c r="V10" s="391">
+      <c r="S10" s="399"/>
+      <c r="T10" s="399"/>
+      <c r="U10" s="400"/>
+      <c r="V10" s="394">
         <v>1</v>
       </c>
-      <c r="W10" s="392"/>
-      <c r="X10" s="391">
+      <c r="W10" s="395"/>
+      <c r="X10" s="394">
         <f>X9+V9</f>
         <v>12</v>
       </c>
-      <c r="Y10" s="392"/>
-      <c r="Z10" s="388"/>
-      <c r="AA10" s="390"/>
-      <c r="AB10" s="388"/>
-      <c r="AC10" s="390"/>
-      <c r="AD10" s="388"/>
-      <c r="AE10" s="390"/>
-      <c r="AF10" s="388"/>
-      <c r="AG10" s="389"/>
-      <c r="AH10" s="390"/>
-      <c r="AI10" s="385" t="s">
+      <c r="Y10" s="395"/>
+      <c r="Z10" s="385"/>
+      <c r="AA10" s="387"/>
+      <c r="AB10" s="385"/>
+      <c r="AC10" s="387"/>
+      <c r="AD10" s="385"/>
+      <c r="AE10" s="387"/>
+      <c r="AF10" s="385"/>
+      <c r="AG10" s="386"/>
+      <c r="AH10" s="387"/>
+      <c r="AI10" s="388" t="s">
         <v>130</v>
       </c>
-      <c r="AJ10" s="386"/>
-      <c r="AK10" s="386"/>
-      <c r="AL10" s="386"/>
-      <c r="AM10" s="386"/>
-      <c r="AN10" s="387"/>
+      <c r="AJ10" s="389"/>
+      <c r="AK10" s="389"/>
+      <c r="AL10" s="389"/>
+      <c r="AM10" s="389"/>
+      <c r="AN10" s="390"/>
       <c r="AR10" s="137"/>
       <c r="AS10" s="137"/>
       <c r="AT10" s="137"/>
@@ -16515,67 +16512,67 @@
       <c r="DQ10" s="164"/>
     </row>
     <row r="11" spans="1:121" ht="15" customHeight="1">
-      <c r="A11" s="189">
+      <c r="A11" s="183">
         <v>4</v>
       </c>
-      <c r="B11" s="385" t="s">
+      <c r="B11" s="388" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="386"/>
-      <c r="D11" s="386"/>
-      <c r="E11" s="386"/>
-      <c r="F11" s="387"/>
-      <c r="G11" s="385" t="s">
+      <c r="C11" s="389"/>
+      <c r="D11" s="389"/>
+      <c r="E11" s="389"/>
+      <c r="F11" s="390"/>
+      <c r="G11" s="388" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="386"/>
-      <c r="I11" s="386"/>
-      <c r="J11" s="386"/>
-      <c r="K11" s="387"/>
-      <c r="L11" s="385" t="s">
+      <c r="H11" s="389"/>
+      <c r="I11" s="389"/>
+      <c r="J11" s="389"/>
+      <c r="K11" s="390"/>
+      <c r="L11" s="388" t="s">
         <v>122</v>
       </c>
-      <c r="M11" s="386"/>
-      <c r="N11" s="386"/>
-      <c r="O11" s="386"/>
-      <c r="P11" s="387"/>
-      <c r="Q11" s="190" t="s">
+      <c r="M11" s="389"/>
+      <c r="N11" s="389"/>
+      <c r="O11" s="389"/>
+      <c r="P11" s="390"/>
+      <c r="Q11" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R11" s="411" t="s">
+      <c r="R11" s="398" t="s">
         <v>126</v>
       </c>
-      <c r="S11" s="412"/>
-      <c r="T11" s="412"/>
-      <c r="U11" s="413"/>
-      <c r="V11" s="391">
+      <c r="S11" s="399"/>
+      <c r="T11" s="399"/>
+      <c r="U11" s="400"/>
+      <c r="V11" s="394">
         <v>8</v>
       </c>
-      <c r="W11" s="392"/>
-      <c r="X11" s="391">
+      <c r="W11" s="395"/>
+      <c r="X11" s="394">
         <f>X10+V10</f>
         <v>13</v>
       </c>
-      <c r="Y11" s="392"/>
-      <c r="Z11" s="388"/>
-      <c r="AA11" s="390"/>
-      <c r="AB11" s="388"/>
-      <c r="AC11" s="390"/>
-      <c r="AD11" s="388"/>
-      <c r="AE11" s="390"/>
-      <c r="AF11" s="385" t="s">
+      <c r="Y11" s="395"/>
+      <c r="Z11" s="385"/>
+      <c r="AA11" s="387"/>
+      <c r="AB11" s="385"/>
+      <c r="AC11" s="387"/>
+      <c r="AD11" s="385"/>
+      <c r="AE11" s="387"/>
+      <c r="AF11" s="388" t="s">
         <v>128</v>
       </c>
-      <c r="AG11" s="386"/>
-      <c r="AH11" s="387"/>
-      <c r="AI11" s="385" t="s">
+      <c r="AG11" s="389"/>
+      <c r="AH11" s="390"/>
+      <c r="AI11" s="388" t="s">
         <v>131</v>
       </c>
-      <c r="AJ11" s="386"/>
-      <c r="AK11" s="386"/>
-      <c r="AL11" s="386"/>
-      <c r="AM11" s="386"/>
-      <c r="AN11" s="387"/>
+      <c r="AJ11" s="389"/>
+      <c r="AK11" s="389"/>
+      <c r="AL11" s="389"/>
+      <c r="AM11" s="389"/>
+      <c r="AN11" s="390"/>
       <c r="AR11" s="164"/>
       <c r="AS11" s="137"/>
       <c r="AT11" s="137"/>
@@ -16641,67 +16638,67 @@
       <c r="DQ11" s="164"/>
     </row>
     <row r="12" spans="1:121" ht="15" customHeight="1">
-      <c r="A12" s="189">
+      <c r="A12" s="183">
         <v>5</v>
       </c>
-      <c r="B12" s="385" t="s">
+      <c r="B12" s="388" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="386"/>
-      <c r="D12" s="386"/>
-      <c r="E12" s="386"/>
-      <c r="F12" s="387"/>
-      <c r="G12" s="385" t="s">
+      <c r="C12" s="389"/>
+      <c r="D12" s="389"/>
+      <c r="E12" s="389"/>
+      <c r="F12" s="390"/>
+      <c r="G12" s="388" t="s">
         <v>120</v>
       </c>
-      <c r="H12" s="386"/>
-      <c r="I12" s="386"/>
-      <c r="J12" s="386"/>
-      <c r="K12" s="387"/>
-      <c r="L12" s="385" t="s">
+      <c r="H12" s="389"/>
+      <c r="I12" s="389"/>
+      <c r="J12" s="389"/>
+      <c r="K12" s="390"/>
+      <c r="L12" s="388" t="s">
         <v>122</v>
       </c>
-      <c r="M12" s="386"/>
-      <c r="N12" s="386"/>
-      <c r="O12" s="386"/>
-      <c r="P12" s="387"/>
-      <c r="Q12" s="190" t="s">
+      <c r="M12" s="389"/>
+      <c r="N12" s="389"/>
+      <c r="O12" s="389"/>
+      <c r="P12" s="390"/>
+      <c r="Q12" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R12" s="411" t="s">
+      <c r="R12" s="398" t="s">
         <v>124</v>
       </c>
-      <c r="S12" s="412"/>
-      <c r="T12" s="412"/>
-      <c r="U12" s="413"/>
-      <c r="V12" s="391">
+      <c r="S12" s="399"/>
+      <c r="T12" s="399"/>
+      <c r="U12" s="400"/>
+      <c r="V12" s="394">
         <v>8</v>
       </c>
-      <c r="W12" s="392"/>
-      <c r="X12" s="391">
+      <c r="W12" s="395"/>
+      <c r="X12" s="394">
         <f>X11+V11</f>
         <v>21</v>
       </c>
-      <c r="Y12" s="392"/>
-      <c r="Z12" s="388"/>
-      <c r="AA12" s="390"/>
-      <c r="AB12" s="388"/>
-      <c r="AC12" s="390"/>
-      <c r="AD12" s="388"/>
-      <c r="AE12" s="390"/>
-      <c r="AF12" s="385" t="s">
+      <c r="Y12" s="395"/>
+      <c r="Z12" s="385"/>
+      <c r="AA12" s="387"/>
+      <c r="AB12" s="385"/>
+      <c r="AC12" s="387"/>
+      <c r="AD12" s="385"/>
+      <c r="AE12" s="387"/>
+      <c r="AF12" s="388" t="s">
         <v>128</v>
       </c>
-      <c r="AG12" s="386"/>
-      <c r="AH12" s="387"/>
-      <c r="AI12" s="385" t="s">
+      <c r="AG12" s="389"/>
+      <c r="AH12" s="390"/>
+      <c r="AI12" s="388" t="s">
         <v>132</v>
       </c>
-      <c r="AJ12" s="386"/>
-      <c r="AK12" s="386"/>
-      <c r="AL12" s="386"/>
-      <c r="AM12" s="386"/>
-      <c r="AN12" s="387"/>
+      <c r="AJ12" s="389"/>
+      <c r="AK12" s="389"/>
+      <c r="AL12" s="389"/>
+      <c r="AM12" s="389"/>
+      <c r="AN12" s="390"/>
       <c r="AR12" s="164"/>
       <c r="AS12" s="137"/>
       <c r="AT12" s="137"/>
@@ -16767,59 +16764,59 @@
       <c r="DQ12" s="164"/>
     </row>
     <row r="13" spans="1:121" ht="15" customHeight="1">
-      <c r="A13" s="189">
+      <c r="A13" s="183">
         <v>6</v>
       </c>
-      <c r="B13" s="385" t="s">
+      <c r="B13" s="388" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="386"/>
-      <c r="D13" s="386"/>
-      <c r="E13" s="386"/>
-      <c r="F13" s="387"/>
-      <c r="G13" s="385" t="s">
+      <c r="C13" s="389"/>
+      <c r="D13" s="389"/>
+      <c r="E13" s="389"/>
+      <c r="F13" s="390"/>
+      <c r="G13" s="388" t="s">
         <v>121</v>
       </c>
-      <c r="H13" s="386"/>
-      <c r="I13" s="386"/>
-      <c r="J13" s="386"/>
-      <c r="K13" s="387"/>
-      <c r="L13" s="388"/>
-      <c r="M13" s="389"/>
-      <c r="N13" s="389"/>
-      <c r="O13" s="389"/>
-      <c r="P13" s="390"/>
-      <c r="Q13" s="190"/>
-      <c r="R13" s="411" t="s">
+      <c r="H13" s="389"/>
+      <c r="I13" s="389"/>
+      <c r="J13" s="389"/>
+      <c r="K13" s="390"/>
+      <c r="L13" s="385"/>
+      <c r="M13" s="386"/>
+      <c r="N13" s="386"/>
+      <c r="O13" s="386"/>
+      <c r="P13" s="387"/>
+      <c r="Q13" s="184"/>
+      <c r="R13" s="398" t="s">
         <v>123</v>
       </c>
-      <c r="S13" s="412"/>
-      <c r="T13" s="412"/>
-      <c r="U13" s="413"/>
-      <c r="V13" s="391">
+      <c r="S13" s="399"/>
+      <c r="T13" s="399"/>
+      <c r="U13" s="400"/>
+      <c r="V13" s="394">
         <v>15</v>
       </c>
-      <c r="W13" s="392"/>
-      <c r="X13" s="391">
+      <c r="W13" s="395"/>
+      <c r="X13" s="394">
         <f>X12+V12</f>
         <v>29</v>
       </c>
-      <c r="Y13" s="392"/>
-      <c r="Z13" s="388"/>
-      <c r="AA13" s="390"/>
-      <c r="AB13" s="388"/>
-      <c r="AC13" s="390"/>
-      <c r="AD13" s="388"/>
-      <c r="AE13" s="390"/>
-      <c r="AF13" s="388"/>
-      <c r="AG13" s="389"/>
-      <c r="AH13" s="390"/>
-      <c r="AI13" s="385"/>
-      <c r="AJ13" s="386"/>
-      <c r="AK13" s="386"/>
-      <c r="AL13" s="386"/>
-      <c r="AM13" s="386"/>
-      <c r="AN13" s="387"/>
+      <c r="Y13" s="395"/>
+      <c r="Z13" s="385"/>
+      <c r="AA13" s="387"/>
+      <c r="AB13" s="385"/>
+      <c r="AC13" s="387"/>
+      <c r="AD13" s="385"/>
+      <c r="AE13" s="387"/>
+      <c r="AF13" s="385"/>
+      <c r="AG13" s="386"/>
+      <c r="AH13" s="387"/>
+      <c r="AI13" s="388"/>
+      <c r="AJ13" s="389"/>
+      <c r="AK13" s="389"/>
+      <c r="AL13" s="389"/>
+      <c r="AM13" s="389"/>
+      <c r="AN13" s="390"/>
       <c r="AR13" s="164"/>
       <c r="AS13" s="137"/>
       <c r="AT13" s="137"/>
@@ -16990,6 +16987,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AI7:AN7"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AI8:AN8"/>
+    <mergeCell ref="AI10:AN10"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AI9:AN9"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="X12:Y12"/>
     <mergeCell ref="AI11:AN11"/>
     <mergeCell ref="L12:P12"/>
     <mergeCell ref="V12:W12"/>
@@ -17006,84 +17081,6 @@
     <mergeCell ref="Z13:AA13"/>
     <mergeCell ref="AB11:AC11"/>
     <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="AI8:AN8"/>
-    <mergeCell ref="AI10:AN10"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AI9:AN9"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AI7:AN7"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:K7"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <dataValidations count="2">
@@ -17122,158 +17119,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:121" s="71" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A1" s="259" t="s">
+      <c r="A1" s="250" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="222" t="str">
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="263" t="s">
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="253" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="264"/>
-      <c r="Q1" s="264"/>
-      <c r="R1" s="265"/>
-      <c r="S1" s="261" t="str">
+      <c r="P1" s="254"/>
+      <c r="Q1" s="254"/>
+      <c r="R1" s="255"/>
+      <c r="S1" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(その他)
 B21AA01/ユーザ情報反映</v>
       </c>
-      <c r="T1" s="241"/>
-      <c r="U1" s="241"/>
-      <c r="V1" s="241"/>
-      <c r="W1" s="241"/>
-      <c r="X1" s="241"/>
-      <c r="Y1" s="241"/>
-      <c r="Z1" s="242"/>
-      <c r="AA1" s="259" t="s">
+      <c r="T1" s="210"/>
+      <c r="U1" s="210"/>
+      <c r="V1" s="210"/>
+      <c r="W1" s="210"/>
+      <c r="X1" s="210"/>
+      <c r="Y1" s="210"/>
+      <c r="Z1" s="211"/>
+      <c r="AA1" s="250" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="260"/>
-      <c r="AC1" s="212" t="str">
+      <c r="AB1" s="252"/>
+      <c r="AC1" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="213"/>
-      <c r="AE1" s="213"/>
-      <c r="AF1" s="214"/>
-      <c r="AG1" s="256">
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="262">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="257"/>
-      <c r="AI1" s="258"/>
+      <c r="AH1" s="263"/>
+      <c r="AI1" s="264"/>
     </row>
     <row r="2" spans="1:121" s="71" customFormat="1" ht="11.25">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="250" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="222" t="str">
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
-      <c r="M2" s="223"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="266"/>
-      <c r="P2" s="267"/>
-      <c r="Q2" s="267"/>
-      <c r="R2" s="268"/>
-      <c r="S2" s="243"/>
-      <c r="T2" s="244"/>
-      <c r="U2" s="244"/>
-      <c r="V2" s="244"/>
-      <c r="W2" s="244"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="244"/>
-      <c r="Z2" s="245"/>
-      <c r="AA2" s="259" t="s">
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="256"/>
+      <c r="P2" s="257"/>
+      <c r="Q2" s="257"/>
+      <c r="R2" s="258"/>
+      <c r="S2" s="212"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="213"/>
+      <c r="X2" s="213"/>
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="250" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="260"/>
-      <c r="AC2" s="212" t="str">
+      <c r="AB2" s="252"/>
+      <c r="AC2" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="213"/>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="256" t="str">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="257"/>
-      <c r="AI2" s="258"/>
+      <c r="AH2" s="263"/>
+      <c r="AI2" s="264"/>
     </row>
     <row r="3" spans="1:121" s="71" customFormat="1" ht="11.25">
-      <c r="A3" s="259" t="s">
+      <c r="A3" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="222" t="str">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="224"/>
-      <c r="O3" s="269"/>
-      <c r="P3" s="270"/>
-      <c r="Q3" s="270"/>
-      <c r="R3" s="271"/>
-      <c r="S3" s="246"/>
-      <c r="T3" s="247"/>
-      <c r="U3" s="247"/>
-      <c r="V3" s="247"/>
-      <c r="W3" s="247"/>
-      <c r="X3" s="247"/>
-      <c r="Y3" s="247"/>
-      <c r="Z3" s="248"/>
-      <c r="AA3" s="259"/>
-      <c r="AB3" s="260"/>
-      <c r="AC3" s="212" t="str">
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="259"/>
+      <c r="P3" s="260"/>
+      <c r="Q3" s="260"/>
+      <c r="R3" s="261"/>
+      <c r="S3" s="215"/>
+      <c r="T3" s="216"/>
+      <c r="U3" s="216"/>
+      <c r="V3" s="216"/>
+      <c r="W3" s="216"/>
+      <c r="X3" s="216"/>
+      <c r="Y3" s="216"/>
+      <c r="Z3" s="217"/>
+      <c r="AA3" s="250"/>
+      <c r="AB3" s="252"/>
+      <c r="AC3" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="213"/>
-      <c r="AE3" s="213"/>
-      <c r="AF3" s="214"/>
-      <c r="AG3" s="256" t="str">
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="220"/>
+      <c r="AG3" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="257"/>
-      <c r="AI3" s="258"/>
+      <c r="AH3" s="263"/>
+      <c r="AI3" s="264"/>
     </row>
     <row r="4" spans="1:121" ht="11.25"/>
     <row r="5" spans="1:121" ht="11.25">
@@ -17290,187 +17287,187 @@
       <c r="C6" s="173"/>
       <c r="D6" s="173"/>
     </row>
-    <row r="7" spans="1:121" ht="31.5" customHeight="1">
-      <c r="A7" s="191" t="s">
+    <row r="7" spans="1:121" s="409" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A7" s="421" t="s">
         <v>219</v>
       </c>
-      <c r="B7" s="420" t="s">
+      <c r="B7" s="401" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="421"/>
-      <c r="D7" s="421"/>
-      <c r="E7" s="421"/>
-      <c r="F7" s="422"/>
-      <c r="G7" s="420" t="s">
+      <c r="C7" s="422"/>
+      <c r="D7" s="422"/>
+      <c r="E7" s="422"/>
+      <c r="F7" s="402"/>
+      <c r="G7" s="401" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="421"/>
-      <c r="I7" s="421"/>
-      <c r="J7" s="421"/>
-      <c r="K7" s="422"/>
-      <c r="L7" s="420" t="s">
+      <c r="H7" s="422"/>
+      <c r="I7" s="422"/>
+      <c r="J7" s="422"/>
+      <c r="K7" s="402"/>
+      <c r="L7" s="401" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="421"/>
-      <c r="N7" s="421"/>
-      <c r="O7" s="421"/>
-      <c r="P7" s="422"/>
-      <c r="Q7" s="192" t="s">
+      <c r="M7" s="422"/>
+      <c r="N7" s="422"/>
+      <c r="O7" s="422"/>
+      <c r="P7" s="402"/>
+      <c r="Q7" s="423" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="423" t="s">
+      <c r="R7" s="424" t="s">
         <v>71</v>
       </c>
-      <c r="S7" s="423"/>
-      <c r="T7" s="423"/>
-      <c r="U7" s="423"/>
-      <c r="V7" s="424" t="s">
+      <c r="S7" s="424"/>
+      <c r="T7" s="424"/>
+      <c r="U7" s="424"/>
+      <c r="V7" s="425" t="s">
         <v>212</v>
       </c>
-      <c r="W7" s="424"/>
-      <c r="X7" s="425" t="s">
+      <c r="W7" s="425"/>
+      <c r="X7" s="426" t="s">
         <v>64</v>
       </c>
-      <c r="Y7" s="426"/>
-      <c r="Z7" s="420" t="s">
+      <c r="Y7" s="427"/>
+      <c r="Z7" s="401" t="s">
         <v>25</v>
       </c>
-      <c r="AA7" s="422"/>
-      <c r="AB7" s="420" t="s">
+      <c r="AA7" s="402"/>
+      <c r="AB7" s="401" t="s">
         <v>84</v>
       </c>
-      <c r="AC7" s="422"/>
-      <c r="AD7" s="427" t="s">
+      <c r="AC7" s="402"/>
+      <c r="AD7" s="401" t="s">
         <v>85</v>
       </c>
-      <c r="AE7" s="428"/>
-      <c r="AF7" s="420" t="s">
+      <c r="AE7" s="402"/>
+      <c r="AF7" s="401" t="s">
         <v>63</v>
       </c>
-      <c r="AG7" s="421"/>
-      <c r="AH7" s="422"/>
-      <c r="AI7" s="420" t="s">
+      <c r="AG7" s="422"/>
+      <c r="AH7" s="402"/>
+      <c r="AI7" s="401" t="s">
         <v>62</v>
       </c>
-      <c r="AJ7" s="421"/>
-      <c r="AK7" s="421"/>
-      <c r="AL7" s="421"/>
-      <c r="AM7" s="421"/>
-      <c r="AN7" s="422"/>
-      <c r="BN7" s="81"/>
-      <c r="BO7" s="81"/>
-      <c r="BP7" s="81"/>
-      <c r="BQ7" s="81"/>
-      <c r="BR7" s="81"/>
-      <c r="BS7" s="81"/>
-      <c r="BT7" s="81"/>
-      <c r="BU7" s="81"/>
-      <c r="BV7" s="81"/>
-      <c r="BW7" s="81"/>
-      <c r="BX7" s="81"/>
-      <c r="BY7" s="81"/>
-      <c r="BZ7" s="81"/>
-      <c r="CA7" s="81"/>
-      <c r="CB7" s="81"/>
-      <c r="CC7" s="81"/>
-      <c r="CD7" s="81"/>
-      <c r="CE7" s="81"/>
-      <c r="CF7" s="81"/>
-      <c r="CG7" s="81"/>
-      <c r="CH7" s="81"/>
-      <c r="CI7" s="81"/>
-      <c r="CJ7" s="81"/>
-      <c r="CK7" s="81"/>
-      <c r="CL7" s="81"/>
-      <c r="CM7" s="81"/>
-      <c r="CN7" s="81"/>
-      <c r="CO7" s="81"/>
-      <c r="CP7" s="81"/>
-      <c r="CQ7" s="81"/>
-      <c r="CR7" s="81"/>
-      <c r="CS7" s="81"/>
-      <c r="CT7" s="81"/>
-      <c r="CU7" s="81"/>
-      <c r="CV7" s="81"/>
-      <c r="CW7" s="81"/>
-      <c r="CX7" s="81"/>
-      <c r="CY7" s="81"/>
-      <c r="CZ7" s="81"/>
-      <c r="DA7" s="81"/>
-      <c r="DB7" s="81"/>
-      <c r="DC7" s="81"/>
-      <c r="DD7" s="81"/>
-      <c r="DE7" s="81"/>
-      <c r="DF7" s="81"/>
-      <c r="DG7" s="172"/>
-      <c r="DH7" s="172"/>
-      <c r="DI7" s="172"/>
-      <c r="DJ7" s="172"/>
-      <c r="DK7" s="172"/>
-      <c r="DL7" s="172"/>
-      <c r="DM7" s="172"/>
-      <c r="DN7" s="172"/>
-      <c r="DO7" s="172"/>
-      <c r="DP7" s="172"/>
-      <c r="DQ7" s="172"/>
+      <c r="AJ7" s="422"/>
+      <c r="AK7" s="422"/>
+      <c r="AL7" s="422"/>
+      <c r="AM7" s="422"/>
+      <c r="AN7" s="402"/>
+      <c r="BN7" s="419"/>
+      <c r="BO7" s="419"/>
+      <c r="BP7" s="419"/>
+      <c r="BQ7" s="419"/>
+      <c r="BR7" s="419"/>
+      <c r="BS7" s="419"/>
+      <c r="BT7" s="419"/>
+      <c r="BU7" s="419"/>
+      <c r="BV7" s="419"/>
+      <c r="BW7" s="419"/>
+      <c r="BX7" s="419"/>
+      <c r="BY7" s="419"/>
+      <c r="BZ7" s="419"/>
+      <c r="CA7" s="419"/>
+      <c r="CB7" s="419"/>
+      <c r="CC7" s="419"/>
+      <c r="CD7" s="419"/>
+      <c r="CE7" s="419"/>
+      <c r="CF7" s="419"/>
+      <c r="CG7" s="419"/>
+      <c r="CH7" s="419"/>
+      <c r="CI7" s="419"/>
+      <c r="CJ7" s="419"/>
+      <c r="CK7" s="419"/>
+      <c r="CL7" s="419"/>
+      <c r="CM7" s="419"/>
+      <c r="CN7" s="419"/>
+      <c r="CO7" s="419"/>
+      <c r="CP7" s="419"/>
+      <c r="CQ7" s="419"/>
+      <c r="CR7" s="419"/>
+      <c r="CS7" s="419"/>
+      <c r="CT7" s="419"/>
+      <c r="CU7" s="419"/>
+      <c r="CV7" s="419"/>
+      <c r="CW7" s="419"/>
+      <c r="CX7" s="419"/>
+      <c r="CY7" s="419"/>
+      <c r="CZ7" s="419"/>
+      <c r="DA7" s="419"/>
+      <c r="DB7" s="419"/>
+      <c r="DC7" s="419"/>
+      <c r="DD7" s="419"/>
+      <c r="DE7" s="419"/>
+      <c r="DF7" s="419"/>
+      <c r="DG7" s="420"/>
+      <c r="DH7" s="420"/>
+      <c r="DI7" s="420"/>
+      <c r="DJ7" s="420"/>
+      <c r="DK7" s="420"/>
+      <c r="DL7" s="420"/>
+      <c r="DM7" s="420"/>
+      <c r="DN7" s="420"/>
+      <c r="DO7" s="420"/>
+      <c r="DP7" s="420"/>
+      <c r="DQ7" s="420"/>
     </row>
     <row r="8" spans="1:121" ht="15" customHeight="1">
-      <c r="A8" s="189">
+      <c r="A8" s="183">
         <v>1</v>
       </c>
-      <c r="B8" s="417" t="s">
+      <c r="B8" s="403" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="417"/>
-      <c r="D8" s="417"/>
-      <c r="E8" s="417"/>
-      <c r="F8" s="417"/>
-      <c r="G8" s="417" t="s">
+      <c r="C8" s="403"/>
+      <c r="D8" s="403"/>
+      <c r="E8" s="403"/>
+      <c r="F8" s="403"/>
+      <c r="G8" s="403" t="s">
         <v>150</v>
       </c>
-      <c r="H8" s="417"/>
-      <c r="I8" s="417"/>
-      <c r="J8" s="417"/>
-      <c r="K8" s="417"/>
-      <c r="L8" s="385" t="s">
+      <c r="H8" s="403"/>
+      <c r="I8" s="403"/>
+      <c r="J8" s="403"/>
+      <c r="K8" s="403"/>
+      <c r="L8" s="388" t="s">
         <v>151</v>
       </c>
-      <c r="M8" s="386"/>
-      <c r="N8" s="386"/>
-      <c r="O8" s="386"/>
-      <c r="P8" s="387"/>
-      <c r="Q8" s="190" t="s">
+      <c r="M8" s="389"/>
+      <c r="N8" s="389"/>
+      <c r="O8" s="389"/>
+      <c r="P8" s="390"/>
+      <c r="Q8" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R8" s="385" t="s">
+      <c r="R8" s="388" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="386"/>
-      <c r="T8" s="386"/>
-      <c r="U8" s="387"/>
-      <c r="V8" s="391">
+      <c r="S8" s="389"/>
+      <c r="T8" s="389"/>
+      <c r="U8" s="390"/>
+      <c r="V8" s="394">
         <v>20</v>
       </c>
-      <c r="W8" s="392"/>
-      <c r="X8" s="391">
+      <c r="W8" s="395"/>
+      <c r="X8" s="394">
         <v>1</v>
       </c>
-      <c r="Y8" s="392"/>
-      <c r="Z8" s="388"/>
-      <c r="AA8" s="390"/>
-      <c r="AB8" s="388"/>
-      <c r="AC8" s="390"/>
-      <c r="AD8" s="388"/>
-      <c r="AE8" s="390"/>
-      <c r="AF8" s="388"/>
-      <c r="AG8" s="389"/>
-      <c r="AH8" s="390"/>
-      <c r="AI8" s="414"/>
-      <c r="AJ8" s="415"/>
-      <c r="AK8" s="415"/>
-      <c r="AL8" s="415"/>
-      <c r="AM8" s="415"/>
-      <c r="AN8" s="416"/>
+      <c r="Y8" s="395"/>
+      <c r="Z8" s="385"/>
+      <c r="AA8" s="387"/>
+      <c r="AB8" s="385"/>
+      <c r="AC8" s="387"/>
+      <c r="AD8" s="385"/>
+      <c r="AE8" s="387"/>
+      <c r="AF8" s="385"/>
+      <c r="AG8" s="386"/>
+      <c r="AH8" s="387"/>
+      <c r="AI8" s="404"/>
+      <c r="AJ8" s="405"/>
+      <c r="AK8" s="405"/>
+      <c r="AL8" s="405"/>
+      <c r="AM8" s="405"/>
+      <c r="AN8" s="406"/>
       <c r="AR8" s="172"/>
       <c r="AS8" s="137"/>
       <c r="AT8" s="137"/>
@@ -17536,63 +17533,63 @@
       <c r="DQ8" s="172"/>
     </row>
     <row r="9" spans="1:121" ht="15" customHeight="1">
-      <c r="A9" s="189">
+      <c r="A9" s="183">
         <v>2</v>
       </c>
-      <c r="B9" s="417" t="s">
+      <c r="B9" s="403" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="417"/>
-      <c r="D9" s="417"/>
-      <c r="E9" s="417"/>
-      <c r="F9" s="417"/>
-      <c r="G9" s="417" t="s">
+      <c r="C9" s="403"/>
+      <c r="D9" s="403"/>
+      <c r="E9" s="403"/>
+      <c r="F9" s="403"/>
+      <c r="G9" s="403" t="s">
         <v>153</v>
       </c>
-      <c r="H9" s="417"/>
-      <c r="I9" s="417"/>
-      <c r="J9" s="417"/>
-      <c r="K9" s="417"/>
-      <c r="L9" s="385" t="s">
+      <c r="H9" s="403"/>
+      <c r="I9" s="403"/>
+      <c r="J9" s="403"/>
+      <c r="K9" s="403"/>
+      <c r="L9" s="388" t="s">
         <v>154</v>
       </c>
-      <c r="M9" s="386"/>
-      <c r="N9" s="386"/>
-      <c r="O9" s="386"/>
-      <c r="P9" s="387"/>
-      <c r="Q9" s="190" t="s">
+      <c r="M9" s="389"/>
+      <c r="N9" s="389"/>
+      <c r="O9" s="389"/>
+      <c r="P9" s="390"/>
+      <c r="Q9" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R9" s="385" t="s">
+      <c r="R9" s="388" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="386"/>
-      <c r="T9" s="386"/>
-      <c r="U9" s="387"/>
-      <c r="V9" s="391">
+      <c r="S9" s="389"/>
+      <c r="T9" s="389"/>
+      <c r="U9" s="390"/>
+      <c r="V9" s="394">
         <v>50</v>
       </c>
-      <c r="W9" s="392"/>
-      <c r="X9" s="391">
+      <c r="W9" s="395"/>
+      <c r="X9" s="394">
         <f>X8+V8</f>
         <v>21</v>
       </c>
-      <c r="Y9" s="392"/>
-      <c r="Z9" s="388"/>
-      <c r="AA9" s="390"/>
-      <c r="AB9" s="388"/>
-      <c r="AC9" s="390"/>
-      <c r="AD9" s="388"/>
-      <c r="AE9" s="390"/>
-      <c r="AF9" s="388"/>
-      <c r="AG9" s="389"/>
-      <c r="AH9" s="390"/>
-      <c r="AI9" s="414"/>
-      <c r="AJ9" s="415"/>
-      <c r="AK9" s="415"/>
-      <c r="AL9" s="415"/>
-      <c r="AM9" s="415"/>
-      <c r="AN9" s="416"/>
+      <c r="Y9" s="395"/>
+      <c r="Z9" s="385"/>
+      <c r="AA9" s="387"/>
+      <c r="AB9" s="385"/>
+      <c r="AC9" s="387"/>
+      <c r="AD9" s="385"/>
+      <c r="AE9" s="387"/>
+      <c r="AF9" s="385"/>
+      <c r="AG9" s="386"/>
+      <c r="AH9" s="387"/>
+      <c r="AI9" s="404"/>
+      <c r="AJ9" s="405"/>
+      <c r="AK9" s="405"/>
+      <c r="AL9" s="405"/>
+      <c r="AM9" s="405"/>
+      <c r="AN9" s="406"/>
       <c r="AR9" s="137"/>
       <c r="AS9" s="137"/>
       <c r="AT9" s="137"/>
@@ -17658,63 +17655,63 @@
       <c r="DQ9" s="172"/>
     </row>
     <row r="10" spans="1:121" ht="15" customHeight="1">
-      <c r="A10" s="189">
+      <c r="A10" s="183">
         <v>3</v>
       </c>
-      <c r="B10" s="417" t="s">
+      <c r="B10" s="403" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="417"/>
-      <c r="D10" s="417"/>
-      <c r="E10" s="417"/>
-      <c r="F10" s="417"/>
-      <c r="G10" s="417" t="s">
+      <c r="C10" s="403"/>
+      <c r="D10" s="403"/>
+      <c r="E10" s="403"/>
+      <c r="F10" s="403"/>
+      <c r="G10" s="403" t="s">
         <v>156</v>
       </c>
-      <c r="H10" s="417"/>
-      <c r="I10" s="417"/>
-      <c r="J10" s="417"/>
-      <c r="K10" s="417"/>
-      <c r="L10" s="385" t="s">
+      <c r="H10" s="403"/>
+      <c r="I10" s="403"/>
+      <c r="J10" s="403"/>
+      <c r="K10" s="403"/>
+      <c r="L10" s="388" t="s">
         <v>157</v>
       </c>
-      <c r="M10" s="386"/>
-      <c r="N10" s="386"/>
-      <c r="O10" s="386"/>
-      <c r="P10" s="387"/>
-      <c r="Q10" s="190" t="s">
+      <c r="M10" s="389"/>
+      <c r="N10" s="389"/>
+      <c r="O10" s="389"/>
+      <c r="P10" s="390"/>
+      <c r="Q10" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R10" s="385" t="s">
+      <c r="R10" s="388" t="s">
         <v>34</v>
       </c>
-      <c r="S10" s="386"/>
-      <c r="T10" s="386"/>
-      <c r="U10" s="387"/>
-      <c r="V10" s="391">
+      <c r="S10" s="389"/>
+      <c r="T10" s="389"/>
+      <c r="U10" s="390"/>
+      <c r="V10" s="394">
         <v>50</v>
       </c>
-      <c r="W10" s="392"/>
-      <c r="X10" s="391">
+      <c r="W10" s="395"/>
+      <c r="X10" s="394">
         <f>X9+V9</f>
         <v>71</v>
       </c>
-      <c r="Y10" s="392"/>
-      <c r="Z10" s="388"/>
-      <c r="AA10" s="390"/>
-      <c r="AB10" s="388"/>
-      <c r="AC10" s="390"/>
-      <c r="AD10" s="388"/>
-      <c r="AE10" s="390"/>
-      <c r="AF10" s="388"/>
-      <c r="AG10" s="389"/>
-      <c r="AH10" s="390"/>
-      <c r="AI10" s="414"/>
-      <c r="AJ10" s="415"/>
-      <c r="AK10" s="415"/>
-      <c r="AL10" s="415"/>
-      <c r="AM10" s="415"/>
-      <c r="AN10" s="416"/>
+      <c r="Y10" s="395"/>
+      <c r="Z10" s="385"/>
+      <c r="AA10" s="387"/>
+      <c r="AB10" s="385"/>
+      <c r="AC10" s="387"/>
+      <c r="AD10" s="385"/>
+      <c r="AE10" s="387"/>
+      <c r="AF10" s="385"/>
+      <c r="AG10" s="386"/>
+      <c r="AH10" s="387"/>
+      <c r="AI10" s="404"/>
+      <c r="AJ10" s="405"/>
+      <c r="AK10" s="405"/>
+      <c r="AL10" s="405"/>
+      <c r="AM10" s="405"/>
+      <c r="AN10" s="406"/>
       <c r="AR10" s="137"/>
       <c r="AS10" s="137"/>
       <c r="AT10" s="137"/>
@@ -17780,65 +17777,65 @@
       <c r="DQ10" s="172"/>
     </row>
     <row r="11" spans="1:121" ht="15" customHeight="1">
-      <c r="A11" s="189">
+      <c r="A11" s="183">
         <v>4</v>
       </c>
-      <c r="B11" s="417" t="s">
+      <c r="B11" s="403" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="417"/>
-      <c r="D11" s="417"/>
-      <c r="E11" s="417"/>
-      <c r="F11" s="417"/>
-      <c r="G11" s="417" t="s">
+      <c r="C11" s="403"/>
+      <c r="D11" s="403"/>
+      <c r="E11" s="403"/>
+      <c r="F11" s="403"/>
+      <c r="G11" s="403" t="s">
         <v>159</v>
       </c>
-      <c r="H11" s="417"/>
-      <c r="I11" s="417"/>
-      <c r="J11" s="417"/>
-      <c r="K11" s="417"/>
-      <c r="L11" s="385" t="s">
+      <c r="H11" s="403"/>
+      <c r="I11" s="403"/>
+      <c r="J11" s="403"/>
+      <c r="K11" s="403"/>
+      <c r="L11" s="388" t="s">
         <v>160</v>
       </c>
-      <c r="M11" s="386"/>
-      <c r="N11" s="386"/>
-      <c r="O11" s="386"/>
-      <c r="P11" s="387"/>
-      <c r="Q11" s="190" t="s">
+      <c r="M11" s="389"/>
+      <c r="N11" s="389"/>
+      <c r="O11" s="389"/>
+      <c r="P11" s="390"/>
+      <c r="Q11" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R11" s="385" t="s">
+      <c r="R11" s="388" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="386"/>
-      <c r="T11" s="386"/>
-      <c r="U11" s="387"/>
-      <c r="V11" s="391">
+      <c r="S11" s="389"/>
+      <c r="T11" s="389"/>
+      <c r="U11" s="390"/>
+      <c r="V11" s="394">
         <v>8</v>
       </c>
-      <c r="W11" s="392"/>
-      <c r="X11" s="391">
+      <c r="W11" s="395"/>
+      <c r="X11" s="394">
         <f>X10+V10</f>
         <v>121</v>
       </c>
-      <c r="Y11" s="392"/>
-      <c r="Z11" s="388"/>
-      <c r="AA11" s="390"/>
-      <c r="AB11" s="388"/>
-      <c r="AC11" s="390"/>
-      <c r="AD11" s="388"/>
-      <c r="AE11" s="390"/>
-      <c r="AF11" s="414" t="s">
+      <c r="Y11" s="395"/>
+      <c r="Z11" s="385"/>
+      <c r="AA11" s="387"/>
+      <c r="AB11" s="385"/>
+      <c r="AC11" s="387"/>
+      <c r="AD11" s="385"/>
+      <c r="AE11" s="387"/>
+      <c r="AF11" s="404" t="s">
         <v>128</v>
       </c>
-      <c r="AG11" s="415"/>
-      <c r="AH11" s="416"/>
-      <c r="AI11" s="414"/>
-      <c r="AJ11" s="415"/>
-      <c r="AK11" s="415"/>
-      <c r="AL11" s="415"/>
-      <c r="AM11" s="415"/>
-      <c r="AN11" s="416"/>
+      <c r="AG11" s="405"/>
+      <c r="AH11" s="406"/>
+      <c r="AI11" s="404"/>
+      <c r="AJ11" s="405"/>
+      <c r="AK11" s="405"/>
+      <c r="AL11" s="405"/>
+      <c r="AM11" s="405"/>
+      <c r="AN11" s="406"/>
       <c r="AR11" s="172"/>
       <c r="AS11" s="137"/>
       <c r="AT11" s="137"/>
@@ -17904,63 +17901,63 @@
       <c r="DQ11" s="172"/>
     </row>
     <row r="12" spans="1:121" ht="15" customHeight="1">
-      <c r="A12" s="189">
+      <c r="A12" s="183">
         <v>5</v>
       </c>
-      <c r="B12" s="417" t="s">
+      <c r="B12" s="403" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="417"/>
-      <c r="D12" s="417"/>
-      <c r="E12" s="417"/>
-      <c r="F12" s="417"/>
-      <c r="G12" s="417" t="s">
+      <c r="C12" s="403"/>
+      <c r="D12" s="403"/>
+      <c r="E12" s="403"/>
+      <c r="F12" s="403"/>
+      <c r="G12" s="403" t="s">
         <v>162</v>
       </c>
-      <c r="H12" s="417"/>
-      <c r="I12" s="417"/>
-      <c r="J12" s="417"/>
-      <c r="K12" s="417"/>
-      <c r="L12" s="385" t="s">
+      <c r="H12" s="403"/>
+      <c r="I12" s="403"/>
+      <c r="J12" s="403"/>
+      <c r="K12" s="403"/>
+      <c r="L12" s="388" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="386"/>
-      <c r="N12" s="386"/>
-      <c r="O12" s="386"/>
-      <c r="P12" s="387"/>
-      <c r="Q12" s="190" t="s">
+      <c r="M12" s="389"/>
+      <c r="N12" s="389"/>
+      <c r="O12" s="389"/>
+      <c r="P12" s="390"/>
+      <c r="Q12" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R12" s="385" t="s">
+      <c r="R12" s="388" t="s">
         <v>33</v>
       </c>
-      <c r="S12" s="386"/>
-      <c r="T12" s="386"/>
-      <c r="U12" s="387"/>
-      <c r="V12" s="391">
+      <c r="S12" s="389"/>
+      <c r="T12" s="389"/>
+      <c r="U12" s="390"/>
+      <c r="V12" s="394">
         <v>2</v>
       </c>
-      <c r="W12" s="392"/>
-      <c r="X12" s="391">
+      <c r="W12" s="395"/>
+      <c r="X12" s="394">
         <f>X11+V11</f>
         <v>129</v>
       </c>
-      <c r="Y12" s="392"/>
-      <c r="Z12" s="388"/>
-      <c r="AA12" s="390"/>
-      <c r="AB12" s="388"/>
-      <c r="AC12" s="390"/>
-      <c r="AD12" s="388"/>
-      <c r="AE12" s="390"/>
-      <c r="AF12" s="414"/>
-      <c r="AG12" s="415"/>
-      <c r="AH12" s="416"/>
-      <c r="AI12" s="414"/>
-      <c r="AJ12" s="415"/>
-      <c r="AK12" s="415"/>
-      <c r="AL12" s="415"/>
-      <c r="AM12" s="415"/>
-      <c r="AN12" s="416"/>
+      <c r="Y12" s="395"/>
+      <c r="Z12" s="385"/>
+      <c r="AA12" s="387"/>
+      <c r="AB12" s="385"/>
+      <c r="AC12" s="387"/>
+      <c r="AD12" s="385"/>
+      <c r="AE12" s="387"/>
+      <c r="AF12" s="404"/>
+      <c r="AG12" s="405"/>
+      <c r="AH12" s="406"/>
+      <c r="AI12" s="404"/>
+      <c r="AJ12" s="405"/>
+      <c r="AK12" s="405"/>
+      <c r="AL12" s="405"/>
+      <c r="AM12" s="405"/>
+      <c r="AN12" s="406"/>
       <c r="AR12" s="172"/>
       <c r="AS12" s="137"/>
       <c r="AT12" s="137"/>
@@ -18026,65 +18023,65 @@
       <c r="DQ12" s="172"/>
     </row>
     <row r="13" spans="1:121" ht="15" customHeight="1">
-      <c r="A13" s="189">
+      <c r="A13" s="183">
         <v>6</v>
       </c>
-      <c r="B13" s="417" t="s">
+      <c r="B13" s="403" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="417"/>
-      <c r="D13" s="417"/>
-      <c r="E13" s="417"/>
-      <c r="F13" s="417"/>
-      <c r="G13" s="417" t="s">
+      <c r="C13" s="403"/>
+      <c r="D13" s="403"/>
+      <c r="E13" s="403"/>
+      <c r="F13" s="403"/>
+      <c r="G13" s="403" t="s">
         <v>165</v>
       </c>
-      <c r="H13" s="417"/>
-      <c r="I13" s="417"/>
-      <c r="J13" s="417"/>
-      <c r="K13" s="417"/>
-      <c r="L13" s="385" t="s">
+      <c r="H13" s="403"/>
+      <c r="I13" s="403"/>
+      <c r="J13" s="403"/>
+      <c r="K13" s="403"/>
+      <c r="L13" s="388" t="s">
         <v>166</v>
       </c>
-      <c r="M13" s="386"/>
-      <c r="N13" s="386"/>
-      <c r="O13" s="386"/>
-      <c r="P13" s="387"/>
-      <c r="Q13" s="190" t="s">
+      <c r="M13" s="389"/>
+      <c r="N13" s="389"/>
+      <c r="O13" s="389"/>
+      <c r="P13" s="390"/>
+      <c r="Q13" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R13" s="385" t="s">
+      <c r="R13" s="388" t="s">
         <v>33</v>
       </c>
-      <c r="S13" s="386"/>
-      <c r="T13" s="386"/>
-      <c r="U13" s="387"/>
-      <c r="V13" s="391">
+      <c r="S13" s="389"/>
+      <c r="T13" s="389"/>
+      <c r="U13" s="390"/>
+      <c r="V13" s="394">
         <v>7</v>
       </c>
-      <c r="W13" s="392"/>
-      <c r="X13" s="391">
+      <c r="W13" s="395"/>
+      <c r="X13" s="394">
         <f>X12+V12</f>
         <v>131</v>
       </c>
-      <c r="Y13" s="392"/>
-      <c r="Z13" s="388"/>
-      <c r="AA13" s="390"/>
-      <c r="AB13" s="388"/>
-      <c r="AC13" s="390"/>
-      <c r="AD13" s="388"/>
-      <c r="AE13" s="390"/>
-      <c r="AF13" s="388" t="s">
+      <c r="Y13" s="395"/>
+      <c r="Z13" s="385"/>
+      <c r="AA13" s="387"/>
+      <c r="AB13" s="385"/>
+      <c r="AC13" s="387"/>
+      <c r="AD13" s="385"/>
+      <c r="AE13" s="387"/>
+      <c r="AF13" s="385" t="s">
         <v>201</v>
       </c>
-      <c r="AG13" s="389"/>
-      <c r="AH13" s="390"/>
-      <c r="AI13" s="414"/>
-      <c r="AJ13" s="415"/>
-      <c r="AK13" s="415"/>
-      <c r="AL13" s="415"/>
-      <c r="AM13" s="415"/>
-      <c r="AN13" s="416"/>
+      <c r="AG13" s="386"/>
+      <c r="AH13" s="387"/>
+      <c r="AI13" s="404"/>
+      <c r="AJ13" s="405"/>
+      <c r="AK13" s="405"/>
+      <c r="AL13" s="405"/>
+      <c r="AM13" s="405"/>
+      <c r="AN13" s="406"/>
       <c r="AR13" s="172"/>
       <c r="AS13" s="137"/>
       <c r="AT13" s="137"/>
@@ -18150,678 +18147,825 @@
       <c r="DQ13" s="172"/>
     </row>
     <row r="14" spans="1:121" ht="15" customHeight="1">
-      <c r="A14" s="189">
+      <c r="A14" s="183">
         <v>8</v>
       </c>
-      <c r="B14" s="417" t="s">
+      <c r="B14" s="403" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="417"/>
-      <c r="D14" s="417"/>
-      <c r="E14" s="417"/>
-      <c r="F14" s="417"/>
-      <c r="G14" s="417" t="s">
+      <c r="C14" s="403"/>
+      <c r="D14" s="403"/>
+      <c r="E14" s="403"/>
+      <c r="F14" s="403"/>
+      <c r="G14" s="403" t="s">
         <v>168</v>
       </c>
-      <c r="H14" s="417"/>
-      <c r="I14" s="417"/>
-      <c r="J14" s="417"/>
-      <c r="K14" s="417"/>
-      <c r="L14" s="385" t="s">
+      <c r="H14" s="403"/>
+      <c r="I14" s="403"/>
+      <c r="J14" s="403"/>
+      <c r="K14" s="403"/>
+      <c r="L14" s="388" t="s">
         <v>169</v>
       </c>
-      <c r="M14" s="386"/>
-      <c r="N14" s="386"/>
-      <c r="O14" s="386"/>
-      <c r="P14" s="387"/>
-      <c r="Q14" s="190" t="s">
+      <c r="M14" s="389"/>
+      <c r="N14" s="389"/>
+      <c r="O14" s="389"/>
+      <c r="P14" s="390"/>
+      <c r="Q14" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R14" s="385" t="s">
+      <c r="R14" s="388" t="s">
         <v>32</v>
       </c>
-      <c r="S14" s="386"/>
-      <c r="T14" s="386"/>
-      <c r="U14" s="387"/>
-      <c r="V14" s="391">
+      <c r="S14" s="389"/>
+      <c r="T14" s="389"/>
+      <c r="U14" s="390"/>
+      <c r="V14" s="394">
         <v>10</v>
       </c>
-      <c r="W14" s="392"/>
-      <c r="X14" s="391">
+      <c r="W14" s="395"/>
+      <c r="X14" s="394">
         <f t="shared" ref="X14:X24" si="0">X13+V13</f>
         <v>138</v>
       </c>
-      <c r="Y14" s="392"/>
-      <c r="Z14" s="388"/>
-      <c r="AA14" s="390"/>
-      <c r="AB14" s="388"/>
-      <c r="AC14" s="390"/>
-      <c r="AD14" s="388"/>
-      <c r="AE14" s="390"/>
-      <c r="AF14" s="388" t="s">
+      <c r="Y14" s="395"/>
+      <c r="Z14" s="385"/>
+      <c r="AA14" s="387"/>
+      <c r="AB14" s="385"/>
+      <c r="AC14" s="387"/>
+      <c r="AD14" s="385"/>
+      <c r="AE14" s="387"/>
+      <c r="AF14" s="385" t="s">
         <v>201</v>
       </c>
-      <c r="AG14" s="389"/>
-      <c r="AH14" s="390"/>
-      <c r="AI14" s="414"/>
-      <c r="AJ14" s="415"/>
-      <c r="AK14" s="415"/>
-      <c r="AL14" s="415"/>
-      <c r="AM14" s="415"/>
-      <c r="AN14" s="416"/>
+      <c r="AG14" s="386"/>
+      <c r="AH14" s="387"/>
+      <c r="AI14" s="404"/>
+      <c r="AJ14" s="405"/>
+      <c r="AK14" s="405"/>
+      <c r="AL14" s="405"/>
+      <c r="AM14" s="405"/>
+      <c r="AN14" s="406"/>
     </row>
     <row r="15" spans="1:121" ht="15" customHeight="1">
-      <c r="A15" s="189">
+      <c r="A15" s="183">
         <v>9</v>
       </c>
-      <c r="B15" s="417" t="s">
+      <c r="B15" s="403" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="417"/>
-      <c r="D15" s="417"/>
-      <c r="E15" s="417"/>
-      <c r="F15" s="417"/>
-      <c r="G15" s="417" t="s">
+      <c r="C15" s="403"/>
+      <c r="D15" s="403"/>
+      <c r="E15" s="403"/>
+      <c r="F15" s="403"/>
+      <c r="G15" s="403" t="s">
         <v>171</v>
       </c>
-      <c r="H15" s="417"/>
-      <c r="I15" s="417"/>
-      <c r="J15" s="417"/>
-      <c r="K15" s="417"/>
-      <c r="L15" s="385" t="s">
+      <c r="H15" s="403"/>
+      <c r="I15" s="403"/>
+      <c r="J15" s="403"/>
+      <c r="K15" s="403"/>
+      <c r="L15" s="388" t="s">
         <v>172</v>
       </c>
-      <c r="M15" s="386"/>
-      <c r="N15" s="386"/>
-      <c r="O15" s="386"/>
-      <c r="P15" s="387"/>
-      <c r="Q15" s="190"/>
-      <c r="R15" s="385" t="s">
+      <c r="M15" s="389"/>
+      <c r="N15" s="389"/>
+      <c r="O15" s="389"/>
+      <c r="P15" s="390"/>
+      <c r="Q15" s="184"/>
+      <c r="R15" s="388" t="s">
         <v>38</v>
       </c>
-      <c r="S15" s="386"/>
-      <c r="T15" s="386"/>
-      <c r="U15" s="387"/>
-      <c r="V15" s="391">
+      <c r="S15" s="389"/>
+      <c r="T15" s="389"/>
+      <c r="U15" s="390"/>
+      <c r="V15" s="394">
         <v>3</v>
       </c>
-      <c r="W15" s="392"/>
-      <c r="X15" s="391">
+      <c r="W15" s="395"/>
+      <c r="X15" s="394">
         <f t="shared" si="0"/>
         <v>148</v>
       </c>
-      <c r="Y15" s="392"/>
-      <c r="Z15" s="388"/>
-      <c r="AA15" s="390"/>
-      <c r="AB15" s="388"/>
-      <c r="AC15" s="390"/>
-      <c r="AD15" s="388">
+      <c r="Y15" s="395"/>
+      <c r="Z15" s="385"/>
+      <c r="AA15" s="387"/>
+      <c r="AB15" s="385"/>
+      <c r="AC15" s="387"/>
+      <c r="AD15" s="385">
         <v>9.99</v>
       </c>
-      <c r="AE15" s="390"/>
-      <c r="AF15" s="388"/>
-      <c r="AG15" s="389"/>
-      <c r="AH15" s="390"/>
-      <c r="AI15" s="414"/>
-      <c r="AJ15" s="415"/>
-      <c r="AK15" s="415"/>
-      <c r="AL15" s="415"/>
-      <c r="AM15" s="415"/>
-      <c r="AN15" s="416"/>
+      <c r="AE15" s="387"/>
+      <c r="AF15" s="385"/>
+      <c r="AG15" s="386"/>
+      <c r="AH15" s="387"/>
+      <c r="AI15" s="404"/>
+      <c r="AJ15" s="405"/>
+      <c r="AK15" s="405"/>
+      <c r="AL15" s="405"/>
+      <c r="AM15" s="405"/>
+      <c r="AN15" s="406"/>
     </row>
     <row r="16" spans="1:121" ht="15" customHeight="1">
-      <c r="A16" s="189">
+      <c r="A16" s="183">
         <v>10</v>
       </c>
-      <c r="B16" s="417" t="s">
+      <c r="B16" s="403" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="417"/>
-      <c r="D16" s="417"/>
-      <c r="E16" s="417"/>
-      <c r="F16" s="417"/>
-      <c r="G16" s="417" t="s">
+      <c r="C16" s="403"/>
+      <c r="D16" s="403"/>
+      <c r="E16" s="403"/>
+      <c r="F16" s="403"/>
+      <c r="G16" s="403" t="s">
         <v>174</v>
       </c>
-      <c r="H16" s="417"/>
-      <c r="I16" s="417"/>
-      <c r="J16" s="417"/>
-      <c r="K16" s="417"/>
-      <c r="L16" s="385" t="s">
+      <c r="H16" s="403"/>
+      <c r="I16" s="403"/>
+      <c r="J16" s="403"/>
+      <c r="K16" s="403"/>
+      <c r="L16" s="388" t="s">
         <v>175</v>
       </c>
-      <c r="M16" s="386"/>
-      <c r="N16" s="386"/>
-      <c r="O16" s="386"/>
-      <c r="P16" s="387"/>
-      <c r="Q16" s="190"/>
-      <c r="R16" s="385" t="s">
+      <c r="M16" s="389"/>
+      <c r="N16" s="389"/>
+      <c r="O16" s="389"/>
+      <c r="P16" s="390"/>
+      <c r="Q16" s="184"/>
+      <c r="R16" s="388" t="s">
         <v>38</v>
       </c>
-      <c r="S16" s="386"/>
-      <c r="T16" s="386"/>
-      <c r="U16" s="387"/>
-      <c r="V16" s="391">
+      <c r="S16" s="389"/>
+      <c r="T16" s="389"/>
+      <c r="U16" s="390"/>
+      <c r="V16" s="394">
         <v>6</v>
       </c>
-      <c r="W16" s="392"/>
-      <c r="X16" s="391">
+      <c r="W16" s="395"/>
+      <c r="X16" s="394">
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
-      <c r="Y16" s="392"/>
-      <c r="Z16" s="388"/>
-      <c r="AA16" s="390"/>
-      <c r="AB16" s="388"/>
-      <c r="AC16" s="390"/>
-      <c r="AD16" s="388">
+      <c r="Y16" s="395"/>
+      <c r="Z16" s="385"/>
+      <c r="AA16" s="387"/>
+      <c r="AB16" s="385"/>
+      <c r="AC16" s="387"/>
+      <c r="AD16" s="385">
         <v>999.99900000000002</v>
       </c>
-      <c r="AE16" s="390"/>
-      <c r="AF16" s="388"/>
-      <c r="AG16" s="389"/>
-      <c r="AH16" s="390"/>
-      <c r="AI16" s="414"/>
-      <c r="AJ16" s="415"/>
-      <c r="AK16" s="415"/>
-      <c r="AL16" s="415"/>
-      <c r="AM16" s="415"/>
-      <c r="AN16" s="416"/>
+      <c r="AE16" s="387"/>
+      <c r="AF16" s="385"/>
+      <c r="AG16" s="386"/>
+      <c r="AH16" s="387"/>
+      <c r="AI16" s="404"/>
+      <c r="AJ16" s="405"/>
+      <c r="AK16" s="405"/>
+      <c r="AL16" s="405"/>
+      <c r="AM16" s="405"/>
+      <c r="AN16" s="406"/>
     </row>
     <row r="17" spans="1:40" ht="15" customHeight="1">
-      <c r="A17" s="189">
+      <c r="A17" s="183">
         <v>11</v>
       </c>
-      <c r="B17" s="417" t="s">
+      <c r="B17" s="403" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="417"/>
-      <c r="D17" s="417"/>
-      <c r="E17" s="417"/>
-      <c r="F17" s="417"/>
-      <c r="G17" s="417" t="s">
+      <c r="C17" s="403"/>
+      <c r="D17" s="403"/>
+      <c r="E17" s="403"/>
+      <c r="F17" s="403"/>
+      <c r="G17" s="403" t="s">
         <v>177</v>
       </c>
-      <c r="H17" s="417"/>
-      <c r="I17" s="417"/>
-      <c r="J17" s="417"/>
-      <c r="K17" s="417"/>
-      <c r="L17" s="385" t="s">
+      <c r="H17" s="403"/>
+      <c r="I17" s="403"/>
+      <c r="J17" s="403"/>
+      <c r="K17" s="403"/>
+      <c r="L17" s="388" t="s">
         <v>178</v>
       </c>
-      <c r="M17" s="386"/>
-      <c r="N17" s="386"/>
-      <c r="O17" s="386"/>
-      <c r="P17" s="387"/>
-      <c r="Q17" s="190"/>
-      <c r="R17" s="385" t="s">
+      <c r="M17" s="389"/>
+      <c r="N17" s="389"/>
+      <c r="O17" s="389"/>
+      <c r="P17" s="390"/>
+      <c r="Q17" s="184"/>
+      <c r="R17" s="388" t="s">
         <v>38</v>
       </c>
-      <c r="S17" s="386"/>
-      <c r="T17" s="386"/>
-      <c r="U17" s="387"/>
-      <c r="V17" s="391">
+      <c r="S17" s="389"/>
+      <c r="T17" s="389"/>
+      <c r="U17" s="390"/>
+      <c r="V17" s="394">
         <v>6</v>
       </c>
-      <c r="W17" s="392"/>
-      <c r="X17" s="391">
+      <c r="W17" s="395"/>
+      <c r="X17" s="394">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="Y17" s="392"/>
-      <c r="Z17" s="388"/>
-      <c r="AA17" s="390"/>
-      <c r="AB17" s="388"/>
-      <c r="AC17" s="390"/>
-      <c r="AD17" s="388">
+      <c r="Y17" s="395"/>
+      <c r="Z17" s="385"/>
+      <c r="AA17" s="387"/>
+      <c r="AB17" s="385"/>
+      <c r="AC17" s="387"/>
+      <c r="AD17" s="385">
         <v>999.99900000000002</v>
       </c>
-      <c r="AE17" s="390"/>
-      <c r="AF17" s="388"/>
-      <c r="AG17" s="389"/>
-      <c r="AH17" s="390"/>
-      <c r="AI17" s="414"/>
-      <c r="AJ17" s="415"/>
-      <c r="AK17" s="415"/>
-      <c r="AL17" s="415"/>
-      <c r="AM17" s="415"/>
-      <c r="AN17" s="416"/>
+      <c r="AE17" s="387"/>
+      <c r="AF17" s="385"/>
+      <c r="AG17" s="386"/>
+      <c r="AH17" s="387"/>
+      <c r="AI17" s="404"/>
+      <c r="AJ17" s="405"/>
+      <c r="AK17" s="405"/>
+      <c r="AL17" s="405"/>
+      <c r="AM17" s="405"/>
+      <c r="AN17" s="406"/>
     </row>
     <row r="18" spans="1:40" ht="15" customHeight="1">
-      <c r="A18" s="189">
+      <c r="A18" s="183">
         <v>12</v>
       </c>
-      <c r="B18" s="417" t="s">
+      <c r="B18" s="403" t="s">
         <v>179</v>
       </c>
-      <c r="C18" s="417"/>
-      <c r="D18" s="417"/>
-      <c r="E18" s="417"/>
-      <c r="F18" s="417"/>
-      <c r="G18" s="417" t="s">
+      <c r="C18" s="403"/>
+      <c r="D18" s="403"/>
+      <c r="E18" s="403"/>
+      <c r="F18" s="403"/>
+      <c r="G18" s="403" t="s">
         <v>180</v>
       </c>
-      <c r="H18" s="417"/>
-      <c r="I18" s="417"/>
-      <c r="J18" s="417"/>
-      <c r="K18" s="417"/>
-      <c r="L18" s="385" t="s">
+      <c r="H18" s="403"/>
+      <c r="I18" s="403"/>
+      <c r="J18" s="403"/>
+      <c r="K18" s="403"/>
+      <c r="L18" s="388" t="s">
         <v>181</v>
       </c>
-      <c r="M18" s="386"/>
-      <c r="N18" s="386"/>
-      <c r="O18" s="386"/>
-      <c r="P18" s="387"/>
-      <c r="Q18" s="190"/>
-      <c r="R18" s="385" t="s">
+      <c r="M18" s="389"/>
+      <c r="N18" s="389"/>
+      <c r="O18" s="389"/>
+      <c r="P18" s="390"/>
+      <c r="Q18" s="184"/>
+      <c r="R18" s="388" t="s">
         <v>58</v>
       </c>
-      <c r="S18" s="386"/>
-      <c r="T18" s="386"/>
-      <c r="U18" s="387"/>
-      <c r="V18" s="391">
+      <c r="S18" s="389"/>
+      <c r="T18" s="389"/>
+      <c r="U18" s="390"/>
+      <c r="V18" s="394">
         <v>100</v>
       </c>
-      <c r="W18" s="392"/>
-      <c r="X18" s="391">
+      <c r="W18" s="395"/>
+      <c r="X18" s="394">
         <f t="shared" si="0"/>
         <v>163</v>
       </c>
-      <c r="Y18" s="392"/>
-      <c r="Z18" s="388"/>
-      <c r="AA18" s="390"/>
-      <c r="AB18" s="388"/>
-      <c r="AC18" s="390"/>
-      <c r="AD18" s="388"/>
-      <c r="AE18" s="390"/>
-      <c r="AF18" s="388"/>
-      <c r="AG18" s="389"/>
-      <c r="AH18" s="390"/>
-      <c r="AI18" s="414"/>
-      <c r="AJ18" s="415"/>
-      <c r="AK18" s="415"/>
-      <c r="AL18" s="415"/>
-      <c r="AM18" s="415"/>
-      <c r="AN18" s="416"/>
+      <c r="Y18" s="395"/>
+      <c r="Z18" s="385"/>
+      <c r="AA18" s="387"/>
+      <c r="AB18" s="385"/>
+      <c r="AC18" s="387"/>
+      <c r="AD18" s="385"/>
+      <c r="AE18" s="387"/>
+      <c r="AF18" s="385"/>
+      <c r="AG18" s="386"/>
+      <c r="AH18" s="387"/>
+      <c r="AI18" s="404"/>
+      <c r="AJ18" s="405"/>
+      <c r="AK18" s="405"/>
+      <c r="AL18" s="405"/>
+      <c r="AM18" s="405"/>
+      <c r="AN18" s="406"/>
     </row>
     <row r="19" spans="1:40" ht="15" customHeight="1">
-      <c r="A19" s="189">
+      <c r="A19" s="183">
         <v>14</v>
       </c>
-      <c r="B19" s="417" t="s">
+      <c r="B19" s="403" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="417"/>
-      <c r="D19" s="417"/>
-      <c r="E19" s="417"/>
-      <c r="F19" s="417"/>
-      <c r="G19" s="417" t="s">
+      <c r="C19" s="403"/>
+      <c r="D19" s="403"/>
+      <c r="E19" s="403"/>
+      <c r="F19" s="403"/>
+      <c r="G19" s="403" t="s">
         <v>183</v>
       </c>
-      <c r="H19" s="417"/>
-      <c r="I19" s="417"/>
-      <c r="J19" s="417"/>
-      <c r="K19" s="417"/>
-      <c r="L19" s="385" t="s">
+      <c r="H19" s="403"/>
+      <c r="I19" s="403"/>
+      <c r="J19" s="403"/>
+      <c r="K19" s="403"/>
+      <c r="L19" s="388" t="s">
         <v>184</v>
       </c>
-      <c r="M19" s="386"/>
-      <c r="N19" s="386"/>
-      <c r="O19" s="386"/>
-      <c r="P19" s="387"/>
-      <c r="Q19" s="190" t="s">
+      <c r="M19" s="389"/>
+      <c r="N19" s="389"/>
+      <c r="O19" s="389"/>
+      <c r="P19" s="390"/>
+      <c r="Q19" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R19" s="385" t="s">
+      <c r="R19" s="388" t="s">
         <v>33</v>
       </c>
-      <c r="S19" s="386"/>
-      <c r="T19" s="386"/>
-      <c r="U19" s="387"/>
-      <c r="V19" s="391">
+      <c r="S19" s="389"/>
+      <c r="T19" s="389"/>
+      <c r="U19" s="390"/>
+      <c r="V19" s="394">
         <v>100</v>
       </c>
-      <c r="W19" s="392"/>
-      <c r="X19" s="391">
+      <c r="W19" s="395"/>
+      <c r="X19" s="394">
         <f t="shared" si="0"/>
         <v>263</v>
       </c>
-      <c r="Y19" s="392"/>
-      <c r="Z19" s="388"/>
-      <c r="AA19" s="390"/>
-      <c r="AB19" s="388"/>
-      <c r="AC19" s="390"/>
-      <c r="AD19" s="388"/>
-      <c r="AE19" s="390"/>
-      <c r="AF19" s="388"/>
-      <c r="AG19" s="389"/>
-      <c r="AH19" s="390"/>
-      <c r="AI19" s="414"/>
-      <c r="AJ19" s="415"/>
-      <c r="AK19" s="415"/>
-      <c r="AL19" s="415"/>
-      <c r="AM19" s="415"/>
-      <c r="AN19" s="416"/>
+      <c r="Y19" s="395"/>
+      <c r="Z19" s="385"/>
+      <c r="AA19" s="387"/>
+      <c r="AB19" s="385"/>
+      <c r="AC19" s="387"/>
+      <c r="AD19" s="385"/>
+      <c r="AE19" s="387"/>
+      <c r="AF19" s="385"/>
+      <c r="AG19" s="386"/>
+      <c r="AH19" s="387"/>
+      <c r="AI19" s="404"/>
+      <c r="AJ19" s="405"/>
+      <c r="AK19" s="405"/>
+      <c r="AL19" s="405"/>
+      <c r="AM19" s="405"/>
+      <c r="AN19" s="406"/>
     </row>
     <row r="20" spans="1:40" ht="15" customHeight="1">
-      <c r="A20" s="189">
+      <c r="A20" s="183">
         <v>15</v>
       </c>
-      <c r="B20" s="417" t="s">
+      <c r="B20" s="403" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="417"/>
-      <c r="D20" s="417"/>
-      <c r="E20" s="417"/>
-      <c r="F20" s="417"/>
-      <c r="G20" s="417" t="s">
+      <c r="C20" s="403"/>
+      <c r="D20" s="403"/>
+      <c r="E20" s="403"/>
+      <c r="F20" s="403"/>
+      <c r="G20" s="403" t="s">
         <v>186</v>
       </c>
-      <c r="H20" s="417"/>
-      <c r="I20" s="417"/>
-      <c r="J20" s="417"/>
-      <c r="K20" s="417"/>
-      <c r="L20" s="385" t="s">
+      <c r="H20" s="403"/>
+      <c r="I20" s="403"/>
+      <c r="J20" s="403"/>
+      <c r="K20" s="403"/>
+      <c r="L20" s="388" t="s">
         <v>187</v>
       </c>
-      <c r="M20" s="386"/>
-      <c r="N20" s="386"/>
-      <c r="O20" s="386"/>
-      <c r="P20" s="387"/>
-      <c r="Q20" s="190" t="s">
+      <c r="M20" s="389"/>
+      <c r="N20" s="389"/>
+      <c r="O20" s="389"/>
+      <c r="P20" s="390"/>
+      <c r="Q20" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R20" s="385" t="s">
+      <c r="R20" s="388" t="s">
         <v>33</v>
       </c>
-      <c r="S20" s="386"/>
-      <c r="T20" s="386"/>
-      <c r="U20" s="387"/>
-      <c r="V20" s="391">
+      <c r="S20" s="389"/>
+      <c r="T20" s="389"/>
+      <c r="U20" s="390"/>
+      <c r="V20" s="394">
         <v>100</v>
       </c>
-      <c r="W20" s="392"/>
-      <c r="X20" s="391">
+      <c r="W20" s="395"/>
+      <c r="X20" s="394">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="Y20" s="392"/>
-      <c r="Z20" s="388"/>
-      <c r="AA20" s="390"/>
-      <c r="AB20" s="388"/>
-      <c r="AC20" s="390"/>
-      <c r="AD20" s="388"/>
-      <c r="AE20" s="390"/>
-      <c r="AF20" s="388"/>
-      <c r="AG20" s="389"/>
-      <c r="AH20" s="390"/>
-      <c r="AI20" s="414"/>
-      <c r="AJ20" s="415"/>
-      <c r="AK20" s="415"/>
-      <c r="AL20" s="415"/>
-      <c r="AM20" s="415"/>
-      <c r="AN20" s="416"/>
+      <c r="Y20" s="395"/>
+      <c r="Z20" s="385"/>
+      <c r="AA20" s="387"/>
+      <c r="AB20" s="385"/>
+      <c r="AC20" s="387"/>
+      <c r="AD20" s="385"/>
+      <c r="AE20" s="387"/>
+      <c r="AF20" s="385"/>
+      <c r="AG20" s="386"/>
+      <c r="AH20" s="387"/>
+      <c r="AI20" s="404"/>
+      <c r="AJ20" s="405"/>
+      <c r="AK20" s="405"/>
+      <c r="AL20" s="405"/>
+      <c r="AM20" s="405"/>
+      <c r="AN20" s="406"/>
     </row>
     <row r="21" spans="1:40" ht="15" customHeight="1">
-      <c r="A21" s="189">
+      <c r="A21" s="183">
         <v>16</v>
       </c>
-      <c r="B21" s="417" t="s">
+      <c r="B21" s="403" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="417"/>
-      <c r="D21" s="417"/>
-      <c r="E21" s="417"/>
-      <c r="F21" s="417"/>
-      <c r="G21" s="417" t="s">
+      <c r="C21" s="403"/>
+      <c r="D21" s="403"/>
+      <c r="E21" s="403"/>
+      <c r="F21" s="403"/>
+      <c r="G21" s="403" t="s">
         <v>189</v>
       </c>
-      <c r="H21" s="417"/>
-      <c r="I21" s="417"/>
-      <c r="J21" s="417"/>
-      <c r="K21" s="417"/>
-      <c r="L21" s="385" t="s">
+      <c r="H21" s="403"/>
+      <c r="I21" s="403"/>
+      <c r="J21" s="403"/>
+      <c r="K21" s="403"/>
+      <c r="L21" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="M21" s="386"/>
-      <c r="N21" s="386"/>
-      <c r="O21" s="386"/>
-      <c r="P21" s="387"/>
-      <c r="Q21" s="190" t="s">
+      <c r="M21" s="389"/>
+      <c r="N21" s="389"/>
+      <c r="O21" s="389"/>
+      <c r="P21" s="390"/>
+      <c r="Q21" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R21" s="385" t="s">
+      <c r="R21" s="388" t="s">
         <v>33</v>
       </c>
-      <c r="S21" s="386"/>
-      <c r="T21" s="386"/>
-      <c r="U21" s="387"/>
-      <c r="V21" s="391">
+      <c r="S21" s="389"/>
+      <c r="T21" s="389"/>
+      <c r="U21" s="390"/>
+      <c r="V21" s="394">
         <v>100</v>
       </c>
-      <c r="W21" s="392"/>
-      <c r="X21" s="391">
+      <c r="W21" s="395"/>
+      <c r="X21" s="394">
         <f t="shared" si="0"/>
         <v>463</v>
       </c>
-      <c r="Y21" s="392"/>
-      <c r="Z21" s="388"/>
-      <c r="AA21" s="390"/>
-      <c r="AB21" s="388"/>
-      <c r="AC21" s="390"/>
-      <c r="AD21" s="388"/>
-      <c r="AE21" s="390"/>
-      <c r="AF21" s="388"/>
-      <c r="AG21" s="389"/>
-      <c r="AH21" s="390"/>
-      <c r="AI21" s="414"/>
-      <c r="AJ21" s="415"/>
-      <c r="AK21" s="415"/>
-      <c r="AL21" s="415"/>
-      <c r="AM21" s="415"/>
-      <c r="AN21" s="416"/>
+      <c r="Y21" s="395"/>
+      <c r="Z21" s="385"/>
+      <c r="AA21" s="387"/>
+      <c r="AB21" s="385"/>
+      <c r="AC21" s="387"/>
+      <c r="AD21" s="385"/>
+      <c r="AE21" s="387"/>
+      <c r="AF21" s="385"/>
+      <c r="AG21" s="386"/>
+      <c r="AH21" s="387"/>
+      <c r="AI21" s="404"/>
+      <c r="AJ21" s="405"/>
+      <c r="AK21" s="405"/>
+      <c r="AL21" s="405"/>
+      <c r="AM21" s="405"/>
+      <c r="AN21" s="406"/>
     </row>
     <row r="22" spans="1:40" ht="15" customHeight="1">
-      <c r="A22" s="189">
+      <c r="A22" s="183">
         <v>17</v>
       </c>
-      <c r="B22" s="417" t="s">
+      <c r="B22" s="403" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="417"/>
-      <c r="D22" s="417"/>
-      <c r="E22" s="417"/>
-      <c r="F22" s="417"/>
-      <c r="G22" s="419" t="s">
+      <c r="C22" s="403"/>
+      <c r="D22" s="403"/>
+      <c r="E22" s="403"/>
+      <c r="F22" s="403"/>
+      <c r="G22" s="408" t="s">
         <v>192</v>
       </c>
-      <c r="H22" s="419"/>
-      <c r="I22" s="419"/>
-      <c r="J22" s="419"/>
-      <c r="K22" s="419"/>
-      <c r="L22" s="385" t="s">
+      <c r="H22" s="408"/>
+      <c r="I22" s="408"/>
+      <c r="J22" s="408"/>
+      <c r="K22" s="408"/>
+      <c r="L22" s="388" t="s">
         <v>193</v>
       </c>
-      <c r="M22" s="386"/>
-      <c r="N22" s="386"/>
-      <c r="O22" s="386"/>
-      <c r="P22" s="387"/>
-      <c r="Q22" s="190" t="s">
+      <c r="M22" s="389"/>
+      <c r="N22" s="389"/>
+      <c r="O22" s="389"/>
+      <c r="P22" s="390"/>
+      <c r="Q22" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R22" s="385" t="s">
+      <c r="R22" s="388" t="s">
         <v>34</v>
       </c>
-      <c r="S22" s="386"/>
-      <c r="T22" s="386"/>
-      <c r="U22" s="387"/>
-      <c r="V22" s="391">
+      <c r="S22" s="389"/>
+      <c r="T22" s="389"/>
+      <c r="U22" s="390"/>
+      <c r="V22" s="394">
         <v>100</v>
       </c>
-      <c r="W22" s="392"/>
-      <c r="X22" s="391">
+      <c r="W22" s="395"/>
+      <c r="X22" s="394">
         <f t="shared" si="0"/>
         <v>563</v>
       </c>
-      <c r="Y22" s="392"/>
-      <c r="Z22" s="388"/>
-      <c r="AA22" s="390"/>
-      <c r="AB22" s="388"/>
-      <c r="AC22" s="390"/>
-      <c r="AD22" s="388"/>
-      <c r="AE22" s="390"/>
-      <c r="AF22" s="388"/>
-      <c r="AG22" s="389"/>
-      <c r="AH22" s="390"/>
-      <c r="AI22" s="414"/>
-      <c r="AJ22" s="415"/>
-      <c r="AK22" s="415"/>
-      <c r="AL22" s="415"/>
-      <c r="AM22" s="415"/>
-      <c r="AN22" s="416"/>
+      <c r="Y22" s="395"/>
+      <c r="Z22" s="385"/>
+      <c r="AA22" s="387"/>
+      <c r="AB22" s="385"/>
+      <c r="AC22" s="387"/>
+      <c r="AD22" s="385"/>
+      <c r="AE22" s="387"/>
+      <c r="AF22" s="385"/>
+      <c r="AG22" s="386"/>
+      <c r="AH22" s="387"/>
+      <c r="AI22" s="404"/>
+      <c r="AJ22" s="405"/>
+      <c r="AK22" s="405"/>
+      <c r="AL22" s="405"/>
+      <c r="AM22" s="405"/>
+      <c r="AN22" s="406"/>
     </row>
     <row r="23" spans="1:40" ht="15" customHeight="1">
-      <c r="A23" s="189">
+      <c r="A23" s="183">
         <v>18</v>
       </c>
-      <c r="B23" s="417" t="s">
+      <c r="B23" s="403" t="s">
         <v>194</v>
       </c>
-      <c r="C23" s="417"/>
-      <c r="D23" s="417"/>
-      <c r="E23" s="417"/>
-      <c r="F23" s="417"/>
-      <c r="G23" s="419" t="s">
+      <c r="C23" s="403"/>
+      <c r="D23" s="403"/>
+      <c r="E23" s="403"/>
+      <c r="F23" s="403"/>
+      <c r="G23" s="408" t="s">
         <v>195</v>
       </c>
-      <c r="H23" s="419"/>
-      <c r="I23" s="419"/>
-      <c r="J23" s="419"/>
-      <c r="K23" s="419"/>
-      <c r="L23" s="385" t="s">
+      <c r="H23" s="408"/>
+      <c r="I23" s="408"/>
+      <c r="J23" s="408"/>
+      <c r="K23" s="408"/>
+      <c r="L23" s="388" t="s">
         <v>196</v>
       </c>
-      <c r="M23" s="386"/>
-      <c r="N23" s="386"/>
-      <c r="O23" s="386"/>
-      <c r="P23" s="387"/>
-      <c r="Q23" s="190" t="s">
+      <c r="M23" s="389"/>
+      <c r="N23" s="389"/>
+      <c r="O23" s="389"/>
+      <c r="P23" s="390"/>
+      <c r="Q23" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R23" s="385" t="s">
+      <c r="R23" s="388" t="s">
         <v>34</v>
       </c>
-      <c r="S23" s="386"/>
-      <c r="T23" s="386"/>
-      <c r="U23" s="387"/>
-      <c r="V23" s="391">
+      <c r="S23" s="389"/>
+      <c r="T23" s="389"/>
+      <c r="U23" s="390"/>
+      <c r="V23" s="394">
         <v>100</v>
       </c>
-      <c r="W23" s="392"/>
-      <c r="X23" s="391">
+      <c r="W23" s="395"/>
+      <c r="X23" s="394">
         <f t="shared" si="0"/>
         <v>663</v>
       </c>
-      <c r="Y23" s="392"/>
-      <c r="Z23" s="388"/>
-      <c r="AA23" s="390"/>
-      <c r="AB23" s="388"/>
-      <c r="AC23" s="390"/>
-      <c r="AD23" s="388"/>
-      <c r="AE23" s="390"/>
-      <c r="AF23" s="388"/>
-      <c r="AG23" s="389"/>
-      <c r="AH23" s="390"/>
-      <c r="AI23" s="414"/>
-      <c r="AJ23" s="415"/>
-      <c r="AK23" s="415"/>
-      <c r="AL23" s="415"/>
-      <c r="AM23" s="415"/>
-      <c r="AN23" s="416"/>
+      <c r="Y23" s="395"/>
+      <c r="Z23" s="385"/>
+      <c r="AA23" s="387"/>
+      <c r="AB23" s="385"/>
+      <c r="AC23" s="387"/>
+      <c r="AD23" s="385"/>
+      <c r="AE23" s="387"/>
+      <c r="AF23" s="385"/>
+      <c r="AG23" s="386"/>
+      <c r="AH23" s="387"/>
+      <c r="AI23" s="404"/>
+      <c r="AJ23" s="405"/>
+      <c r="AK23" s="405"/>
+      <c r="AL23" s="405"/>
+      <c r="AM23" s="405"/>
+      <c r="AN23" s="406"/>
     </row>
     <row r="24" spans="1:40" ht="15" customHeight="1">
-      <c r="A24" s="189">
+      <c r="A24" s="183">
         <v>19</v>
       </c>
-      <c r="B24" s="417" t="s">
+      <c r="B24" s="403" t="s">
         <v>197</v>
       </c>
-      <c r="C24" s="417"/>
-      <c r="D24" s="417"/>
-      <c r="E24" s="417"/>
-      <c r="F24" s="417"/>
-      <c r="G24" s="418" t="s">
+      <c r="C24" s="403"/>
+      <c r="D24" s="403"/>
+      <c r="E24" s="403"/>
+      <c r="F24" s="403"/>
+      <c r="G24" s="407" t="s">
         <v>198</v>
       </c>
-      <c r="H24" s="418"/>
-      <c r="I24" s="418"/>
-      <c r="J24" s="418"/>
-      <c r="K24" s="418"/>
-      <c r="L24" s="385" t="s">
+      <c r="H24" s="407"/>
+      <c r="I24" s="407"/>
+      <c r="J24" s="407"/>
+      <c r="K24" s="407"/>
+      <c r="L24" s="388" t="s">
         <v>199</v>
       </c>
-      <c r="M24" s="386"/>
-      <c r="N24" s="386"/>
-      <c r="O24" s="386"/>
-      <c r="P24" s="387"/>
-      <c r="Q24" s="190" t="s">
+      <c r="M24" s="389"/>
+      <c r="N24" s="389"/>
+      <c r="O24" s="389"/>
+      <c r="P24" s="390"/>
+      <c r="Q24" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R24" s="385" t="s">
+      <c r="R24" s="388" t="s">
         <v>34</v>
       </c>
-      <c r="S24" s="386"/>
-      <c r="T24" s="386"/>
-      <c r="U24" s="387"/>
-      <c r="V24" s="391">
+      <c r="S24" s="389"/>
+      <c r="T24" s="389"/>
+      <c r="U24" s="390"/>
+      <c r="V24" s="394">
         <v>100</v>
       </c>
-      <c r="W24" s="392"/>
-      <c r="X24" s="391">
+      <c r="W24" s="395"/>
+      <c r="X24" s="394">
         <f t="shared" si="0"/>
         <v>763</v>
       </c>
-      <c r="Y24" s="392"/>
-      <c r="Z24" s="388"/>
-      <c r="AA24" s="390"/>
-      <c r="AB24" s="388"/>
-      <c r="AC24" s="390"/>
-      <c r="AD24" s="388"/>
-      <c r="AE24" s="390"/>
-      <c r="AF24" s="388"/>
-      <c r="AG24" s="389"/>
-      <c r="AH24" s="390"/>
-      <c r="AI24" s="414"/>
-      <c r="AJ24" s="415"/>
-      <c r="AK24" s="415"/>
-      <c r="AL24" s="415"/>
-      <c r="AM24" s="415"/>
-      <c r="AN24" s="416"/>
+      <c r="Y24" s="395"/>
+      <c r="Z24" s="385"/>
+      <c r="AA24" s="387"/>
+      <c r="AB24" s="385"/>
+      <c r="AC24" s="387"/>
+      <c r="AD24" s="385"/>
+      <c r="AE24" s="387"/>
+      <c r="AF24" s="385"/>
+      <c r="AG24" s="386"/>
+      <c r="AH24" s="387"/>
+      <c r="AI24" s="404"/>
+      <c r="AJ24" s="405"/>
+      <c r="AK24" s="405"/>
+      <c r="AL24" s="405"/>
+      <c r="AM24" s="405"/>
+      <c r="AN24" s="406"/>
     </row>
   </sheetData>
   <mergeCells count="215">
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="AI23:AN23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AF24:AH24"/>
+    <mergeCell ref="AI24:AN24"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="AI21:AN21"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AF22:AH22"/>
+    <mergeCell ref="AI22:AN22"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AF19:AH19"/>
+    <mergeCell ref="AI19:AN19"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AF20:AH20"/>
+    <mergeCell ref="AI20:AN20"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="AI17:AN17"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AF18:AH18"/>
+    <mergeCell ref="AI18:AN18"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="AI15:AN15"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="AI16:AN16"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="AI13:AN13"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="AI14:AN14"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AN12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="AI11:AN11"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AN10"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="AI9:AN9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="L11:P11"/>
@@ -18846,175 +18990,28 @@
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="L7:P7"/>
     <mergeCell ref="R7:U7"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="AI9:AN9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="AI11:AN11"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AN10"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AN12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="AI13:AN13"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="AI14:AN14"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="AI15:AN15"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="AI16:AN16"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="AI17:AN17"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AF18:AH18"/>
-    <mergeCell ref="AI18:AN18"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AF19:AH19"/>
-    <mergeCell ref="AI19:AN19"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AF20:AH20"/>
-    <mergeCell ref="AI20:AN20"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="AI21:AN21"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AF22:AH22"/>
-    <mergeCell ref="AI22:AN22"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="AI23:AN23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AF24:AH24"/>
-    <mergeCell ref="AI24:AN24"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <dataValidations count="2">

--- a/030_設計ドキュメント/020_サンプル/030_インタフェース設計/外部インタフェース設計書(その他)_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/030_インタフェース設計/外部インタフェース設計書(その他)_サンプル.xlsx
@@ -22,7 +22,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2. レコード構成'!$A$1:$AI$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'MQ共通 '!$A$1:$AO$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">ユーザ情報登録データ!$A$1:$AO$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">共通ヘッダ!$A$1:$AO$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">共通ヘッダ!$A$1:$AO$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$38</definedName>
@@ -2272,10 +2272,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>長さ(Byte)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>RegisteredtUserData</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -2313,6 +2309,10 @@
   </si>
   <si>
     <t>No.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Byte</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3066,7 +3066,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="428">
+  <cellXfs count="420">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3535,7 +3535,31 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4114,10 +4138,13 @@
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4178,11 +4205,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4201,63 +4234,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -8123,12 +8099,12 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="186">
+      <c r="I25" s="194">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43336</v>
       </c>
-      <c r="J25" s="186"/>
-      <c r="K25" s="186"/>
+      <c r="J25" s="194"/>
+      <c r="K25" s="194"/>
       <c r="L25" s="83"/>
     </row>
     <row r="26" spans="2:19" ht="13.5" customHeight="1">
@@ -8760,155 +8736,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="202" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="206" t="s">
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="214" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="197" t="s">
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="205" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="209" t="s">
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="207"/>
+      <c r="S1" s="217" t="s">
         <v>206</v>
       </c>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="211"/>
-      <c r="AA1" s="194" t="s">
+      <c r="T1" s="218"/>
+      <c r="U1" s="218"/>
+      <c r="V1" s="218"/>
+      <c r="W1" s="218"/>
+      <c r="X1" s="218"/>
+      <c r="Y1" s="218"/>
+      <c r="Z1" s="219"/>
+      <c r="AA1" s="202" t="s">
         <v>75</v>
       </c>
-      <c r="AB1" s="196"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="204"/>
+      <c r="AC1" s="226" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="221">
+      <c r="AD1" s="227"/>
+      <c r="AE1" s="227"/>
+      <c r="AF1" s="228"/>
+      <c r="AG1" s="229">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="222"/>
-      <c r="AI1" s="223"/>
+      <c r="AH1" s="230"/>
+      <c r="AI1" s="231"/>
       <c r="AK1" s="72"/>
       <c r="AL1" s="72"/>
       <c r="AM1" s="72"/>
       <c r="AN1" s="73"/>
     </row>
     <row r="2" spans="1:40" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="202" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="206" t="s">
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="214" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="213"/>
-      <c r="X2" s="213"/>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="194" t="s">
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="221"/>
+      <c r="U2" s="221"/>
+      <c r="V2" s="221"/>
+      <c r="W2" s="221"/>
+      <c r="X2" s="221"/>
+      <c r="Y2" s="221"/>
+      <c r="Z2" s="222"/>
+      <c r="AA2" s="202" t="s">
         <v>76</v>
       </c>
-      <c r="AB2" s="196"/>
-      <c r="AC2" s="224" t="str">
+      <c r="AB2" s="204"/>
+      <c r="AC2" s="232" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="225"/>
-      <c r="AE2" s="225"/>
-      <c r="AF2" s="226"/>
-      <c r="AG2" s="221" t="str">
+      <c r="AD2" s="233"/>
+      <c r="AE2" s="233"/>
+      <c r="AF2" s="234"/>
+      <c r="AG2" s="229" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="222"/>
-      <c r="AI2" s="223"/>
+      <c r="AH2" s="230"/>
+      <c r="AI2" s="231"/>
       <c r="AK2" s="72"/>
       <c r="AL2" s="72"/>
       <c r="AM2" s="72"/>
       <c r="AN2" s="72"/>
     </row>
     <row r="3" spans="1:40" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="202" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="206" t="s">
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="214" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="215"/>
-      <c r="T3" s="216"/>
-      <c r="U3" s="216"/>
-      <c r="V3" s="216"/>
-      <c r="W3" s="216"/>
-      <c r="X3" s="216"/>
-      <c r="Y3" s="216"/>
-      <c r="Z3" s="217"/>
-      <c r="AA3" s="194"/>
-      <c r="AB3" s="196"/>
-      <c r="AC3" s="218"/>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="221"/>
-      <c r="AH3" s="222"/>
-      <c r="AI3" s="223"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="215"/>
+      <c r="M3" s="215"/>
+      <c r="N3" s="216"/>
+      <c r="O3" s="211"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="213"/>
+      <c r="S3" s="223"/>
+      <c r="T3" s="224"/>
+      <c r="U3" s="224"/>
+      <c r="V3" s="224"/>
+      <c r="W3" s="224"/>
+      <c r="X3" s="224"/>
+      <c r="Y3" s="224"/>
+      <c r="Z3" s="225"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="226"/>
+      <c r="AD3" s="227"/>
+      <c r="AE3" s="227"/>
+      <c r="AF3" s="228"/>
+      <c r="AG3" s="229"/>
+      <c r="AH3" s="230"/>
+      <c r="AI3" s="231"/>
       <c r="AK3" s="72"/>
       <c r="AL3" s="72"/>
       <c r="AM3" s="72"/>
@@ -8955,291 +8931,291 @@
       <c r="A7" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="227" t="s">
+      <c r="B7" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="228"/>
-      <c r="D7" s="227" t="s">
+      <c r="C7" s="236"/>
+      <c r="D7" s="235" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="229"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="227" t="s">
+      <c r="E7" s="237"/>
+      <c r="F7" s="236"/>
+      <c r="G7" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="229"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="230" t="s">
+      <c r="H7" s="237"/>
+      <c r="I7" s="236"/>
+      <c r="J7" s="238" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="229"/>
-      <c r="L7" s="229"/>
-      <c r="M7" s="229"/>
-      <c r="N7" s="229"/>
-      <c r="O7" s="229"/>
-      <c r="P7" s="228"/>
-      <c r="Q7" s="227" t="s">
+      <c r="K7" s="237"/>
+      <c r="L7" s="237"/>
+      <c r="M7" s="237"/>
+      <c r="N7" s="237"/>
+      <c r="O7" s="237"/>
+      <c r="P7" s="236"/>
+      <c r="Q7" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="229"/>
-      <c r="S7" s="229"/>
-      <c r="T7" s="229"/>
-      <c r="U7" s="229"/>
-      <c r="V7" s="229"/>
-      <c r="W7" s="229"/>
-      <c r="X7" s="229"/>
-      <c r="Y7" s="229"/>
-      <c r="Z7" s="229"/>
-      <c r="AA7" s="229"/>
-      <c r="AB7" s="229"/>
-      <c r="AC7" s="229"/>
-      <c r="AD7" s="229"/>
-      <c r="AE7" s="228"/>
-      <c r="AF7" s="227" t="s">
+      <c r="R7" s="237"/>
+      <c r="S7" s="237"/>
+      <c r="T7" s="237"/>
+      <c r="U7" s="237"/>
+      <c r="V7" s="237"/>
+      <c r="W7" s="237"/>
+      <c r="X7" s="237"/>
+      <c r="Y7" s="237"/>
+      <c r="Z7" s="237"/>
+      <c r="AA7" s="237"/>
+      <c r="AB7" s="237"/>
+      <c r="AC7" s="237"/>
+      <c r="AD7" s="237"/>
+      <c r="AE7" s="236"/>
+      <c r="AF7" s="235" t="s">
         <v>6</v>
       </c>
-      <c r="AG7" s="229"/>
-      <c r="AH7" s="229"/>
-      <c r="AI7" s="228"/>
+      <c r="AG7" s="237"/>
+      <c r="AH7" s="237"/>
+      <c r="AI7" s="236"/>
       <c r="AJ7" s="66"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="67">
         <v>1</v>
       </c>
-      <c r="B8" s="240" t="s">
+      <c r="B8" s="248" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="241"/>
-      <c r="D8" s="242">
+      <c r="C8" s="249"/>
+      <c r="D8" s="250">
         <v>43336</v>
       </c>
-      <c r="E8" s="243"/>
-      <c r="F8" s="244"/>
-      <c r="G8" s="240" t="s">
+      <c r="E8" s="251"/>
+      <c r="F8" s="252"/>
+      <c r="G8" s="248" t="s">
         <v>134</v>
       </c>
-      <c r="H8" s="245"/>
-      <c r="I8" s="241"/>
-      <c r="J8" s="246" t="s">
+      <c r="H8" s="253"/>
+      <c r="I8" s="249"/>
+      <c r="J8" s="254" t="s">
         <v>135</v>
       </c>
-      <c r="K8" s="247"/>
-      <c r="L8" s="247"/>
-      <c r="M8" s="247"/>
-      <c r="N8" s="247"/>
-      <c r="O8" s="247"/>
-      <c r="P8" s="248"/>
-      <c r="Q8" s="246" t="s">
+      <c r="K8" s="255"/>
+      <c r="L8" s="255"/>
+      <c r="M8" s="255"/>
+      <c r="N8" s="255"/>
+      <c r="O8" s="255"/>
+      <c r="P8" s="256"/>
+      <c r="Q8" s="254" t="s">
         <v>136</v>
       </c>
-      <c r="R8" s="247"/>
-      <c r="S8" s="247"/>
-      <c r="T8" s="247"/>
-      <c r="U8" s="247"/>
-      <c r="V8" s="247"/>
-      <c r="W8" s="247"/>
-      <c r="X8" s="247"/>
-      <c r="Y8" s="247"/>
-      <c r="Z8" s="247"/>
-      <c r="AA8" s="247"/>
-      <c r="AB8" s="247"/>
-      <c r="AC8" s="247"/>
-      <c r="AD8" s="247"/>
-      <c r="AE8" s="248"/>
-      <c r="AF8" s="191" t="s">
+      <c r="R8" s="255"/>
+      <c r="S8" s="255"/>
+      <c r="T8" s="255"/>
+      <c r="U8" s="255"/>
+      <c r="V8" s="255"/>
+      <c r="W8" s="255"/>
+      <c r="X8" s="255"/>
+      <c r="Y8" s="255"/>
+      <c r="Z8" s="255"/>
+      <c r="AA8" s="255"/>
+      <c r="AB8" s="255"/>
+      <c r="AC8" s="255"/>
+      <c r="AD8" s="255"/>
+      <c r="AE8" s="256"/>
+      <c r="AF8" s="199" t="s">
         <v>137</v>
       </c>
-      <c r="AG8" s="192"/>
-      <c r="AH8" s="192"/>
-      <c r="AI8" s="193"/>
+      <c r="AG8" s="200"/>
+      <c r="AH8" s="200"/>
+      <c r="AI8" s="201"/>
       <c r="AJ8" s="66"/>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1">
       <c r="A9" s="68"/>
-      <c r="B9" s="231"/>
-      <c r="C9" s="232"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="235"/>
-      <c r="G9" s="231"/>
-      <c r="H9" s="236"/>
-      <c r="I9" s="232"/>
-      <c r="J9" s="237"/>
-      <c r="K9" s="238"/>
-      <c r="L9" s="238"/>
-      <c r="M9" s="238"/>
-      <c r="N9" s="238"/>
-      <c r="O9" s="238"/>
-      <c r="P9" s="239"/>
-      <c r="Q9" s="237"/>
-      <c r="R9" s="238"/>
-      <c r="S9" s="238"/>
-      <c r="T9" s="238"/>
-      <c r="U9" s="238"/>
-      <c r="V9" s="238"/>
-      <c r="W9" s="238"/>
-      <c r="X9" s="238"/>
-      <c r="Y9" s="238"/>
-      <c r="Z9" s="238"/>
-      <c r="AA9" s="238"/>
-      <c r="AB9" s="238"/>
-      <c r="AC9" s="238"/>
-      <c r="AD9" s="238"/>
-      <c r="AE9" s="239"/>
-      <c r="AF9" s="187"/>
-      <c r="AG9" s="188"/>
-      <c r="AH9" s="188"/>
-      <c r="AI9" s="189"/>
+      <c r="B9" s="239"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="242"/>
+      <c r="F9" s="243"/>
+      <c r="G9" s="239"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="240"/>
+      <c r="J9" s="245"/>
+      <c r="K9" s="246"/>
+      <c r="L9" s="246"/>
+      <c r="M9" s="246"/>
+      <c r="N9" s="246"/>
+      <c r="O9" s="246"/>
+      <c r="P9" s="247"/>
+      <c r="Q9" s="245"/>
+      <c r="R9" s="246"/>
+      <c r="S9" s="246"/>
+      <c r="T9" s="246"/>
+      <c r="U9" s="246"/>
+      <c r="V9" s="246"/>
+      <c r="W9" s="246"/>
+      <c r="X9" s="246"/>
+      <c r="Y9" s="246"/>
+      <c r="Z9" s="246"/>
+      <c r="AA9" s="246"/>
+      <c r="AB9" s="246"/>
+      <c r="AC9" s="246"/>
+      <c r="AD9" s="246"/>
+      <c r="AE9" s="247"/>
+      <c r="AF9" s="195"/>
+      <c r="AG9" s="196"/>
+      <c r="AH9" s="196"/>
+      <c r="AI9" s="197"/>
       <c r="AJ9" s="12"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1">
       <c r="A10" s="68"/>
-      <c r="B10" s="231"/>
-      <c r="C10" s="232"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="235"/>
-      <c r="G10" s="231"/>
-      <c r="H10" s="236"/>
-      <c r="I10" s="232"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="238"/>
-      <c r="L10" s="238"/>
-      <c r="M10" s="238"/>
-      <c r="N10" s="238"/>
-      <c r="O10" s="238"/>
-      <c r="P10" s="239"/>
-      <c r="Q10" s="237"/>
-      <c r="R10" s="238"/>
-      <c r="S10" s="238"/>
-      <c r="T10" s="238"/>
-      <c r="U10" s="238"/>
-      <c r="V10" s="238"/>
-      <c r="W10" s="238"/>
-      <c r="X10" s="238"/>
-      <c r="Y10" s="238"/>
-      <c r="Z10" s="238"/>
-      <c r="AA10" s="238"/>
-      <c r="AB10" s="238"/>
-      <c r="AC10" s="238"/>
-      <c r="AD10" s="238"/>
-      <c r="AE10" s="239"/>
-      <c r="AF10" s="187"/>
-      <c r="AG10" s="188"/>
-      <c r="AH10" s="188"/>
-      <c r="AI10" s="189"/>
+      <c r="B10" s="239"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="241"/>
+      <c r="E10" s="242"/>
+      <c r="F10" s="243"/>
+      <c r="G10" s="239"/>
+      <c r="H10" s="244"/>
+      <c r="I10" s="240"/>
+      <c r="J10" s="245"/>
+      <c r="K10" s="246"/>
+      <c r="L10" s="246"/>
+      <c r="M10" s="246"/>
+      <c r="N10" s="246"/>
+      <c r="O10" s="246"/>
+      <c r="P10" s="247"/>
+      <c r="Q10" s="245"/>
+      <c r="R10" s="246"/>
+      <c r="S10" s="246"/>
+      <c r="T10" s="246"/>
+      <c r="U10" s="246"/>
+      <c r="V10" s="246"/>
+      <c r="W10" s="246"/>
+      <c r="X10" s="246"/>
+      <c r="Y10" s="246"/>
+      <c r="Z10" s="246"/>
+      <c r="AA10" s="246"/>
+      <c r="AB10" s="246"/>
+      <c r="AC10" s="246"/>
+      <c r="AD10" s="246"/>
+      <c r="AE10" s="247"/>
+      <c r="AF10" s="195"/>
+      <c r="AG10" s="196"/>
+      <c r="AH10" s="196"/>
+      <c r="AI10" s="197"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1">
       <c r="A11" s="68"/>
-      <c r="B11" s="231"/>
-      <c r="C11" s="232"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="235"/>
-      <c r="G11" s="231"/>
-      <c r="H11" s="236"/>
-      <c r="I11" s="232"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="238"/>
-      <c r="L11" s="238"/>
-      <c r="M11" s="238"/>
-      <c r="N11" s="238"/>
-      <c r="O11" s="238"/>
-      <c r="P11" s="239"/>
-      <c r="Q11" s="237"/>
-      <c r="R11" s="238"/>
-      <c r="S11" s="238"/>
-      <c r="T11" s="238"/>
-      <c r="U11" s="238"/>
-      <c r="V11" s="238"/>
-      <c r="W11" s="238"/>
-      <c r="X11" s="238"/>
-      <c r="Y11" s="238"/>
-      <c r="Z11" s="238"/>
-      <c r="AA11" s="238"/>
-      <c r="AB11" s="238"/>
-      <c r="AC11" s="238"/>
-      <c r="AD11" s="238"/>
-      <c r="AE11" s="239"/>
-      <c r="AF11" s="187"/>
-      <c r="AG11" s="188"/>
-      <c r="AH11" s="188"/>
-      <c r="AI11" s="189"/>
+      <c r="B11" s="239"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="241"/>
+      <c r="E11" s="242"/>
+      <c r="F11" s="243"/>
+      <c r="G11" s="239"/>
+      <c r="H11" s="244"/>
+      <c r="I11" s="240"/>
+      <c r="J11" s="245"/>
+      <c r="K11" s="246"/>
+      <c r="L11" s="246"/>
+      <c r="M11" s="246"/>
+      <c r="N11" s="246"/>
+      <c r="O11" s="246"/>
+      <c r="P11" s="247"/>
+      <c r="Q11" s="245"/>
+      <c r="R11" s="246"/>
+      <c r="S11" s="246"/>
+      <c r="T11" s="246"/>
+      <c r="U11" s="246"/>
+      <c r="V11" s="246"/>
+      <c r="W11" s="246"/>
+      <c r="X11" s="246"/>
+      <c r="Y11" s="246"/>
+      <c r="Z11" s="246"/>
+      <c r="AA11" s="246"/>
+      <c r="AB11" s="246"/>
+      <c r="AC11" s="246"/>
+      <c r="AD11" s="246"/>
+      <c r="AE11" s="247"/>
+      <c r="AF11" s="195"/>
+      <c r="AG11" s="196"/>
+      <c r="AH11" s="196"/>
+      <c r="AI11" s="197"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1">
       <c r="A12" s="68"/>
-      <c r="B12" s="231"/>
-      <c r="C12" s="232"/>
-      <c r="D12" s="233"/>
-      <c r="E12" s="234"/>
-      <c r="F12" s="235"/>
-      <c r="G12" s="231"/>
-      <c r="H12" s="236"/>
-      <c r="I12" s="232"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="238"/>
-      <c r="L12" s="238"/>
-      <c r="M12" s="238"/>
-      <c r="N12" s="238"/>
-      <c r="O12" s="238"/>
-      <c r="P12" s="239"/>
-      <c r="Q12" s="237"/>
-      <c r="R12" s="238"/>
-      <c r="S12" s="238"/>
-      <c r="T12" s="238"/>
-      <c r="U12" s="238"/>
-      <c r="V12" s="238"/>
-      <c r="W12" s="238"/>
-      <c r="X12" s="238"/>
-      <c r="Y12" s="238"/>
-      <c r="Z12" s="238"/>
-      <c r="AA12" s="238"/>
-      <c r="AB12" s="238"/>
-      <c r="AC12" s="238"/>
-      <c r="AD12" s="238"/>
-      <c r="AE12" s="239"/>
-      <c r="AF12" s="187"/>
-      <c r="AG12" s="188"/>
-      <c r="AH12" s="188"/>
-      <c r="AI12" s="189"/>
+      <c r="B12" s="239"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="241"/>
+      <c r="E12" s="242"/>
+      <c r="F12" s="243"/>
+      <c r="G12" s="239"/>
+      <c r="H12" s="244"/>
+      <c r="I12" s="240"/>
+      <c r="J12" s="245"/>
+      <c r="K12" s="246"/>
+      <c r="L12" s="246"/>
+      <c r="M12" s="246"/>
+      <c r="N12" s="246"/>
+      <c r="O12" s="246"/>
+      <c r="P12" s="247"/>
+      <c r="Q12" s="245"/>
+      <c r="R12" s="246"/>
+      <c r="S12" s="246"/>
+      <c r="T12" s="246"/>
+      <c r="U12" s="246"/>
+      <c r="V12" s="246"/>
+      <c r="W12" s="246"/>
+      <c r="X12" s="246"/>
+      <c r="Y12" s="246"/>
+      <c r="Z12" s="246"/>
+      <c r="AA12" s="246"/>
+      <c r="AB12" s="246"/>
+      <c r="AC12" s="246"/>
+      <c r="AD12" s="246"/>
+      <c r="AE12" s="247"/>
+      <c r="AF12" s="195"/>
+      <c r="AG12" s="196"/>
+      <c r="AH12" s="196"/>
+      <c r="AI12" s="197"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1">
       <c r="A13" s="68"/>
-      <c r="B13" s="231"/>
-      <c r="C13" s="232"/>
-      <c r="D13" s="233"/>
-      <c r="E13" s="234"/>
-      <c r="F13" s="235"/>
-      <c r="G13" s="231"/>
-      <c r="H13" s="236"/>
-      <c r="I13" s="232"/>
-      <c r="J13" s="237"/>
-      <c r="K13" s="238"/>
-      <c r="L13" s="238"/>
-      <c r="M13" s="238"/>
-      <c r="N13" s="238"/>
-      <c r="O13" s="238"/>
-      <c r="P13" s="239"/>
-      <c r="Q13" s="237"/>
-      <c r="R13" s="238"/>
-      <c r="S13" s="238"/>
-      <c r="T13" s="238"/>
-      <c r="U13" s="238"/>
-      <c r="V13" s="238"/>
-      <c r="W13" s="238"/>
-      <c r="X13" s="238"/>
-      <c r="Y13" s="238"/>
-      <c r="Z13" s="238"/>
-      <c r="AA13" s="238"/>
-      <c r="AB13" s="238"/>
-      <c r="AC13" s="238"/>
-      <c r="AD13" s="238"/>
-      <c r="AE13" s="239"/>
-      <c r="AF13" s="187"/>
-      <c r="AG13" s="188"/>
-      <c r="AH13" s="188"/>
-      <c r="AI13" s="189"/>
+      <c r="B13" s="239"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="241"/>
+      <c r="E13" s="242"/>
+      <c r="F13" s="243"/>
+      <c r="G13" s="239"/>
+      <c r="H13" s="244"/>
+      <c r="I13" s="240"/>
+      <c r="J13" s="245"/>
+      <c r="K13" s="246"/>
+      <c r="L13" s="246"/>
+      <c r="M13" s="246"/>
+      <c r="N13" s="246"/>
+      <c r="O13" s="246"/>
+      <c r="P13" s="247"/>
+      <c r="Q13" s="245"/>
+      <c r="R13" s="246"/>
+      <c r="S13" s="246"/>
+      <c r="T13" s="246"/>
+      <c r="U13" s="246"/>
+      <c r="V13" s="246"/>
+      <c r="W13" s="246"/>
+      <c r="X13" s="246"/>
+      <c r="Y13" s="246"/>
+      <c r="Z13" s="246"/>
+      <c r="AA13" s="246"/>
+      <c r="AB13" s="246"/>
+      <c r="AC13" s="246"/>
+      <c r="AD13" s="246"/>
+      <c r="AE13" s="247"/>
+      <c r="AF13" s="195"/>
+      <c r="AG13" s="196"/>
+      <c r="AH13" s="196"/>
+      <c r="AI13" s="197"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1">
       <c r="A14" s="68"/>
@@ -9273,10 +9249,10 @@
       <c r="AC14" s="150"/>
       <c r="AD14" s="150"/>
       <c r="AE14" s="151"/>
-      <c r="AF14" s="187"/>
-      <c r="AG14" s="188"/>
-      <c r="AH14" s="188"/>
-      <c r="AI14" s="189"/>
+      <c r="AF14" s="195"/>
+      <c r="AG14" s="196"/>
+      <c r="AH14" s="196"/>
+      <c r="AI14" s="197"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1">
       <c r="A15" s="68"/>
@@ -9310,10 +9286,10 @@
       <c r="AC15" s="150"/>
       <c r="AD15" s="150"/>
       <c r="AE15" s="151"/>
-      <c r="AF15" s="187"/>
-      <c r="AG15" s="188"/>
-      <c r="AH15" s="188"/>
-      <c r="AI15" s="189"/>
+      <c r="AF15" s="195"/>
+      <c r="AG15" s="196"/>
+      <c r="AH15" s="196"/>
+      <c r="AI15" s="197"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1">
       <c r="A16" s="68"/>
@@ -9347,10 +9323,10 @@
       <c r="AC16" s="150"/>
       <c r="AD16" s="150"/>
       <c r="AE16" s="151"/>
-      <c r="AF16" s="187"/>
-      <c r="AG16" s="188"/>
-      <c r="AH16" s="188"/>
-      <c r="AI16" s="189"/>
+      <c r="AF16" s="195"/>
+      <c r="AG16" s="196"/>
+      <c r="AH16" s="196"/>
+      <c r="AI16" s="197"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1">
       <c r="A17" s="68"/>
@@ -9384,10 +9360,10 @@
       <c r="AC17" s="150"/>
       <c r="AD17" s="150"/>
       <c r="AE17" s="151"/>
-      <c r="AF17" s="187"/>
-      <c r="AG17" s="188"/>
-      <c r="AH17" s="188"/>
-      <c r="AI17" s="189"/>
+      <c r="AF17" s="195"/>
+      <c r="AG17" s="196"/>
+      <c r="AH17" s="196"/>
+      <c r="AI17" s="197"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1">
       <c r="A18" s="68"/>
@@ -9421,10 +9397,10 @@
       <c r="AC18" s="150"/>
       <c r="AD18" s="150"/>
       <c r="AE18" s="151"/>
-      <c r="AF18" s="187"/>
-      <c r="AG18" s="188"/>
-      <c r="AH18" s="188"/>
-      <c r="AI18" s="189"/>
+      <c r="AF18" s="195"/>
+      <c r="AG18" s="196"/>
+      <c r="AH18" s="196"/>
+      <c r="AI18" s="197"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1">
       <c r="A19" s="68"/>
@@ -9458,10 +9434,10 @@
       <c r="AC19" s="150"/>
       <c r="AD19" s="150"/>
       <c r="AE19" s="151"/>
-      <c r="AF19" s="187"/>
-      <c r="AG19" s="188"/>
-      <c r="AH19" s="188"/>
-      <c r="AI19" s="189"/>
+      <c r="AF19" s="195"/>
+      <c r="AG19" s="196"/>
+      <c r="AH19" s="196"/>
+      <c r="AI19" s="197"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="A20" s="68"/>
@@ -9495,10 +9471,10 @@
       <c r="AC20" s="150"/>
       <c r="AD20" s="150"/>
       <c r="AE20" s="151"/>
-      <c r="AF20" s="187"/>
-      <c r="AG20" s="188"/>
-      <c r="AH20" s="188"/>
-      <c r="AI20" s="189"/>
+      <c r="AF20" s="195"/>
+      <c r="AG20" s="196"/>
+      <c r="AH20" s="196"/>
+      <c r="AI20" s="197"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1">
       <c r="A21" s="68"/>
@@ -9532,10 +9508,10 @@
       <c r="AC21" s="150"/>
       <c r="AD21" s="150"/>
       <c r="AE21" s="151"/>
-      <c r="AF21" s="187"/>
-      <c r="AG21" s="188"/>
-      <c r="AH21" s="188"/>
-      <c r="AI21" s="189"/>
+      <c r="AF21" s="195"/>
+      <c r="AG21" s="196"/>
+      <c r="AH21" s="196"/>
+      <c r="AI21" s="197"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1">
       <c r="A22" s="68"/>
@@ -9569,10 +9545,10 @@
       <c r="AC22" s="150"/>
       <c r="AD22" s="150"/>
       <c r="AE22" s="151"/>
-      <c r="AF22" s="187"/>
-      <c r="AG22" s="188"/>
-      <c r="AH22" s="188"/>
-      <c r="AI22" s="189"/>
+      <c r="AF22" s="195"/>
+      <c r="AG22" s="196"/>
+      <c r="AH22" s="196"/>
+      <c r="AI22" s="197"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1">
       <c r="A23" s="68"/>
@@ -9606,10 +9582,10 @@
       <c r="AC23" s="150"/>
       <c r="AD23" s="150"/>
       <c r="AE23" s="151"/>
-      <c r="AF23" s="187"/>
-      <c r="AG23" s="188"/>
-      <c r="AH23" s="188"/>
-      <c r="AI23" s="189"/>
+      <c r="AF23" s="195"/>
+      <c r="AG23" s="196"/>
+      <c r="AH23" s="196"/>
+      <c r="AI23" s="197"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1">
       <c r="A24" s="68"/>
@@ -9643,10 +9619,10 @@
       <c r="AC24" s="150"/>
       <c r="AD24" s="150"/>
       <c r="AE24" s="151"/>
-      <c r="AF24" s="187"/>
-      <c r="AG24" s="188"/>
-      <c r="AH24" s="188"/>
-      <c r="AI24" s="189"/>
+      <c r="AF24" s="195"/>
+      <c r="AG24" s="196"/>
+      <c r="AH24" s="196"/>
+      <c r="AI24" s="197"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1">
       <c r="A25" s="68"/>
@@ -9680,10 +9656,10 @@
       <c r="AC25" s="150"/>
       <c r="AD25" s="150"/>
       <c r="AE25" s="151"/>
-      <c r="AF25" s="187"/>
-      <c r="AG25" s="188"/>
-      <c r="AH25" s="188"/>
-      <c r="AI25" s="189"/>
+      <c r="AF25" s="195"/>
+      <c r="AG25" s="196"/>
+      <c r="AH25" s="196"/>
+      <c r="AI25" s="197"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1">
       <c r="A26" s="68"/>
@@ -9717,10 +9693,10 @@
       <c r="AC26" s="150"/>
       <c r="AD26" s="150"/>
       <c r="AE26" s="151"/>
-      <c r="AF26" s="187"/>
-      <c r="AG26" s="188"/>
-      <c r="AH26" s="188"/>
-      <c r="AI26" s="189"/>
+      <c r="AF26" s="195"/>
+      <c r="AG26" s="196"/>
+      <c r="AH26" s="196"/>
+      <c r="AI26" s="197"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1">
       <c r="A27" s="68"/>
@@ -9754,10 +9730,10 @@
       <c r="AC27" s="150"/>
       <c r="AD27" s="150"/>
       <c r="AE27" s="151"/>
-      <c r="AF27" s="187"/>
-      <c r="AG27" s="188"/>
-      <c r="AH27" s="188"/>
-      <c r="AI27" s="189"/>
+      <c r="AF27" s="195"/>
+      <c r="AG27" s="196"/>
+      <c r="AH27" s="196"/>
+      <c r="AI27" s="197"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1">
       <c r="A28" s="68"/>
@@ -9791,10 +9767,10 @@
       <c r="AC28" s="150"/>
       <c r="AD28" s="150"/>
       <c r="AE28" s="151"/>
-      <c r="AF28" s="187"/>
-      <c r="AG28" s="188"/>
-      <c r="AH28" s="188"/>
-      <c r="AI28" s="189"/>
+      <c r="AF28" s="195"/>
+      <c r="AG28" s="196"/>
+      <c r="AH28" s="196"/>
+      <c r="AI28" s="197"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1">
       <c r="A29" s="68"/>
@@ -9828,10 +9804,10 @@
       <c r="AC29" s="150"/>
       <c r="AD29" s="150"/>
       <c r="AE29" s="151"/>
-      <c r="AF29" s="187"/>
-      <c r="AG29" s="188"/>
-      <c r="AH29" s="188"/>
-      <c r="AI29" s="189"/>
+      <c r="AF29" s="195"/>
+      <c r="AG29" s="196"/>
+      <c r="AH29" s="196"/>
+      <c r="AI29" s="197"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1">
       <c r="A30" s="68"/>
@@ -9865,10 +9841,10 @@
       <c r="AC30" s="150"/>
       <c r="AD30" s="150"/>
       <c r="AE30" s="151"/>
-      <c r="AF30" s="187"/>
-      <c r="AG30" s="188"/>
-      <c r="AH30" s="188"/>
-      <c r="AI30" s="189"/>
+      <c r="AF30" s="195"/>
+      <c r="AG30" s="196"/>
+      <c r="AH30" s="196"/>
+      <c r="AI30" s="197"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="A31" s="68"/>
@@ -9902,10 +9878,10 @@
       <c r="AC31" s="150"/>
       <c r="AD31" s="150"/>
       <c r="AE31" s="151"/>
-      <c r="AF31" s="187"/>
-      <c r="AG31" s="188"/>
-      <c r="AH31" s="188"/>
-      <c r="AI31" s="189"/>
+      <c r="AF31" s="195"/>
+      <c r="AG31" s="196"/>
+      <c r="AH31" s="196"/>
+      <c r="AI31" s="197"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1">
       <c r="A32" s="68"/>
@@ -9939,10 +9915,10 @@
       <c r="AC32" s="150"/>
       <c r="AD32" s="150"/>
       <c r="AE32" s="151"/>
-      <c r="AF32" s="187"/>
-      <c r="AG32" s="188"/>
-      <c r="AH32" s="188"/>
-      <c r="AI32" s="189"/>
+      <c r="AF32" s="195"/>
+      <c r="AG32" s="196"/>
+      <c r="AH32" s="196"/>
+      <c r="AI32" s="197"/>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1">
       <c r="A33" s="68"/>
@@ -9976,16 +9952,16 @@
       <c r="AC33" s="150"/>
       <c r="AD33" s="150"/>
       <c r="AE33" s="151"/>
-      <c r="AF33" s="187"/>
-      <c r="AG33" s="188"/>
-      <c r="AH33" s="188"/>
-      <c r="AI33" s="189"/>
+      <c r="AF33" s="195"/>
+      <c r="AG33" s="196"/>
+      <c r="AH33" s="196"/>
+      <c r="AI33" s="197"/>
     </row>
     <row r="34" spans="1:35" ht="15" customHeight="1">
-      <c r="AF34" s="190"/>
-      <c r="AG34" s="190"/>
-      <c r="AH34" s="190"/>
-      <c r="AI34" s="190"/>
+      <c r="AF34" s="198"/>
+      <c r="AG34" s="198"/>
+      <c r="AH34" s="198"/>
+      <c r="AI34" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="80">
@@ -10226,158 +10202,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="97" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="258" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="206" t="str">
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="253" t="s">
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="261" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="254"/>
-      <c r="Q1" s="254"/>
-      <c r="R1" s="255"/>
-      <c r="S1" s="249" t="str">
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
+      <c r="R1" s="263"/>
+      <c r="S1" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(その他)
 B21AA01/ユーザ情報反映</v>
       </c>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="211"/>
-      <c r="AA1" s="250" t="s">
+      <c r="T1" s="218"/>
+      <c r="U1" s="218"/>
+      <c r="V1" s="218"/>
+      <c r="W1" s="218"/>
+      <c r="X1" s="218"/>
+      <c r="Y1" s="218"/>
+      <c r="Z1" s="219"/>
+      <c r="AA1" s="258" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="252"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="260"/>
+      <c r="AC1" s="226" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="262">
+      <c r="AD1" s="227"/>
+      <c r="AE1" s="227"/>
+      <c r="AF1" s="228"/>
+      <c r="AG1" s="270">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="263"/>
-      <c r="AI1" s="264"/>
+      <c r="AH1" s="271"/>
+      <c r="AI1" s="272"/>
     </row>
     <row r="2" spans="1:35" s="97" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="250" t="s">
+      <c r="A2" s="258" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="206" t="str">
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="260"/>
+      <c r="E2" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="256"/>
-      <c r="P2" s="257"/>
-      <c r="Q2" s="257"/>
-      <c r="R2" s="258"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="213"/>
-      <c r="X2" s="213"/>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="250" t="s">
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="264"/>
+      <c r="P2" s="265"/>
+      <c r="Q2" s="265"/>
+      <c r="R2" s="266"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="221"/>
+      <c r="U2" s="221"/>
+      <c r="V2" s="221"/>
+      <c r="W2" s="221"/>
+      <c r="X2" s="221"/>
+      <c r="Y2" s="221"/>
+      <c r="Z2" s="222"/>
+      <c r="AA2" s="258" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="252"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="260"/>
+      <c r="AC2" s="226" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="262" t="str">
+      <c r="AD2" s="227"/>
+      <c r="AE2" s="227"/>
+      <c r="AF2" s="228"/>
+      <c r="AG2" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="263"/>
-      <c r="AI2" s="264"/>
+      <c r="AH2" s="271"/>
+      <c r="AI2" s="272"/>
     </row>
     <row r="3" spans="1:35" s="97" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="250" t="s">
+      <c r="A3" s="258" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="206" t="str">
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="260"/>
+      <c r="E3" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="259"/>
-      <c r="P3" s="260"/>
-      <c r="Q3" s="260"/>
-      <c r="R3" s="261"/>
-      <c r="S3" s="215"/>
-      <c r="T3" s="216"/>
-      <c r="U3" s="216"/>
-      <c r="V3" s="216"/>
-      <c r="W3" s="216"/>
-      <c r="X3" s="216"/>
-      <c r="Y3" s="216"/>
-      <c r="Z3" s="217"/>
-      <c r="AA3" s="250"/>
-      <c r="AB3" s="252"/>
-      <c r="AC3" s="218" t="str">
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="215"/>
+      <c r="M3" s="215"/>
+      <c r="N3" s="216"/>
+      <c r="O3" s="267"/>
+      <c r="P3" s="268"/>
+      <c r="Q3" s="268"/>
+      <c r="R3" s="269"/>
+      <c r="S3" s="223"/>
+      <c r="T3" s="224"/>
+      <c r="U3" s="224"/>
+      <c r="V3" s="224"/>
+      <c r="W3" s="224"/>
+      <c r="X3" s="224"/>
+      <c r="Y3" s="224"/>
+      <c r="Z3" s="225"/>
+      <c r="AA3" s="258"/>
+      <c r="AB3" s="260"/>
+      <c r="AC3" s="226" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="262" t="str">
+      <c r="AD3" s="227"/>
+      <c r="AE3" s="227"/>
+      <c r="AF3" s="228"/>
+      <c r="AG3" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="263"/>
-      <c r="AI3" s="264"/>
+      <c r="AH3" s="271"/>
+      <c r="AI3" s="272"/>
     </row>
     <row r="4" spans="1:35" s="74" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="72"/>
@@ -11955,158 +11931,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="258" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="206" t="str">
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="253" t="s">
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="261" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="254"/>
-      <c r="Q1" s="254"/>
-      <c r="R1" s="255"/>
-      <c r="S1" s="249" t="str">
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
+      <c r="R1" s="263"/>
+      <c r="S1" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(その他)
 B21AA01/ユーザ情報反映</v>
       </c>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="211"/>
-      <c r="AA1" s="250" t="s">
+      <c r="T1" s="218"/>
+      <c r="U1" s="218"/>
+      <c r="V1" s="218"/>
+      <c r="W1" s="218"/>
+      <c r="X1" s="218"/>
+      <c r="Y1" s="218"/>
+      <c r="Z1" s="219"/>
+      <c r="AA1" s="258" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="252"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="260"/>
+      <c r="AC1" s="226" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="262">
+      <c r="AD1" s="227"/>
+      <c r="AE1" s="227"/>
+      <c r="AF1" s="228"/>
+      <c r="AG1" s="270">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="263"/>
-      <c r="AI1" s="264"/>
+      <c r="AH1" s="271"/>
+      <c r="AI1" s="272"/>
     </row>
     <row r="2" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="250" t="s">
+      <c r="A2" s="258" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="206" t="str">
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="260"/>
+      <c r="E2" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="256"/>
-      <c r="P2" s="257"/>
-      <c r="Q2" s="257"/>
-      <c r="R2" s="258"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="213"/>
-      <c r="X2" s="213"/>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="250" t="s">
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="264"/>
+      <c r="P2" s="265"/>
+      <c r="Q2" s="265"/>
+      <c r="R2" s="266"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="221"/>
+      <c r="U2" s="221"/>
+      <c r="V2" s="221"/>
+      <c r="W2" s="221"/>
+      <c r="X2" s="221"/>
+      <c r="Y2" s="221"/>
+      <c r="Z2" s="222"/>
+      <c r="AA2" s="258" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="252"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="260"/>
+      <c r="AC2" s="226" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="262" t="str">
+      <c r="AD2" s="227"/>
+      <c r="AE2" s="227"/>
+      <c r="AF2" s="228"/>
+      <c r="AG2" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="263"/>
-      <c r="AI2" s="264"/>
+      <c r="AH2" s="271"/>
+      <c r="AI2" s="272"/>
     </row>
     <row r="3" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="250" t="s">
+      <c r="A3" s="258" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="206" t="str">
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="260"/>
+      <c r="E3" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="259"/>
-      <c r="P3" s="260"/>
-      <c r="Q3" s="260"/>
-      <c r="R3" s="261"/>
-      <c r="S3" s="215"/>
-      <c r="T3" s="216"/>
-      <c r="U3" s="216"/>
-      <c r="V3" s="216"/>
-      <c r="W3" s="216"/>
-      <c r="X3" s="216"/>
-      <c r="Y3" s="216"/>
-      <c r="Z3" s="217"/>
-      <c r="AA3" s="250"/>
-      <c r="AB3" s="252"/>
-      <c r="AC3" s="218" t="str">
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="215"/>
+      <c r="M3" s="215"/>
+      <c r="N3" s="216"/>
+      <c r="O3" s="267"/>
+      <c r="P3" s="268"/>
+      <c r="Q3" s="268"/>
+      <c r="R3" s="269"/>
+      <c r="S3" s="223"/>
+      <c r="T3" s="224"/>
+      <c r="U3" s="224"/>
+      <c r="V3" s="224"/>
+      <c r="W3" s="224"/>
+      <c r="X3" s="224"/>
+      <c r="Y3" s="224"/>
+      <c r="Z3" s="225"/>
+      <c r="AA3" s="258"/>
+      <c r="AB3" s="260"/>
+      <c r="AC3" s="226" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="262" t="str">
+      <c r="AD3" s="227"/>
+      <c r="AE3" s="227"/>
+      <c r="AF3" s="228"/>
+      <c r="AG3" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="263"/>
-      <c r="AI3" s="264"/>
+      <c r="AH3" s="271"/>
+      <c r="AI3" s="272"/>
     </row>
     <row r="4" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1">
       <c r="AC4" s="44"/>
@@ -12128,12 +12104,12 @@
       <c r="C6" s="88"/>
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="265" t="s">
+      <c r="A7" s="273" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="274"/>
-      <c r="C7" s="274"/>
-      <c r="D7" s="275"/>
+      <c r="B7" s="282"/>
+      <c r="C7" s="282"/>
+      <c r="D7" s="283"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -12146,82 +12122,82 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="276" t="s">
+      <c r="Q7" s="284" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="277"/>
-      <c r="S7" s="277"/>
-      <c r="T7" s="278"/>
-      <c r="U7" s="268" t="s">
+      <c r="R7" s="285"/>
+      <c r="S7" s="285"/>
+      <c r="T7" s="286"/>
+      <c r="U7" s="276" t="s">
         <v>91</v>
       </c>
-      <c r="V7" s="269"/>
-      <c r="W7" s="269"/>
-      <c r="X7" s="269"/>
-      <c r="Y7" s="269"/>
-      <c r="Z7" s="269"/>
-      <c r="AA7" s="269"/>
-      <c r="AB7" s="269"/>
-      <c r="AC7" s="269"/>
-      <c r="AD7" s="269"/>
-      <c r="AE7" s="269"/>
-      <c r="AF7" s="269"/>
-      <c r="AG7" s="269"/>
-      <c r="AH7" s="269"/>
-      <c r="AI7" s="270"/>
+      <c r="V7" s="277"/>
+      <c r="W7" s="277"/>
+      <c r="X7" s="277"/>
+      <c r="Y7" s="277"/>
+      <c r="Z7" s="277"/>
+      <c r="AA7" s="277"/>
+      <c r="AB7" s="277"/>
+      <c r="AC7" s="277"/>
+      <c r="AD7" s="277"/>
+      <c r="AE7" s="277"/>
+      <c r="AF7" s="277"/>
+      <c r="AG7" s="277"/>
+      <c r="AH7" s="277"/>
+      <c r="AI7" s="278"/>
     </row>
     <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="265" t="s">
+      <c r="A8" s="273" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="274"/>
-      <c r="C8" s="274"/>
-      <c r="D8" s="275"/>
-      <c r="E8" s="271" t="s">
+      <c r="B8" s="282"/>
+      <c r="C8" s="282"/>
+      <c r="D8" s="283"/>
+      <c r="E8" s="279" t="s">
         <v>200</v>
       </c>
-      <c r="F8" s="272"/>
-      <c r="G8" s="272"/>
-      <c r="H8" s="272"/>
-      <c r="I8" s="272"/>
-      <c r="J8" s="272"/>
-      <c r="K8" s="272"/>
-      <c r="L8" s="272"/>
-      <c r="M8" s="272"/>
-      <c r="N8" s="272"/>
-      <c r="O8" s="272"/>
-      <c r="P8" s="272"/>
-      <c r="Q8" s="265" t="s">
+      <c r="F8" s="280"/>
+      <c r="G8" s="280"/>
+      <c r="H8" s="280"/>
+      <c r="I8" s="280"/>
+      <c r="J8" s="280"/>
+      <c r="K8" s="280"/>
+      <c r="L8" s="280"/>
+      <c r="M8" s="280"/>
+      <c r="N8" s="280"/>
+      <c r="O8" s="280"/>
+      <c r="P8" s="280"/>
+      <c r="Q8" s="273" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="274"/>
-      <c r="S8" s="274"/>
-      <c r="T8" s="275"/>
-      <c r="U8" s="271" t="s">
+      <c r="R8" s="282"/>
+      <c r="S8" s="282"/>
+      <c r="T8" s="283"/>
+      <c r="U8" s="279" t="s">
         <v>92</v>
       </c>
-      <c r="V8" s="272"/>
-      <c r="W8" s="272"/>
-      <c r="X8" s="272"/>
-      <c r="Y8" s="272"/>
-      <c r="Z8" s="272"/>
-      <c r="AA8" s="272"/>
-      <c r="AB8" s="272"/>
-      <c r="AC8" s="272"/>
-      <c r="AD8" s="272"/>
-      <c r="AE8" s="272"/>
-      <c r="AF8" s="272"/>
-      <c r="AG8" s="272"/>
-      <c r="AH8" s="272"/>
-      <c r="AI8" s="273"/>
+      <c r="V8" s="280"/>
+      <c r="W8" s="280"/>
+      <c r="X8" s="280"/>
+      <c r="Y8" s="280"/>
+      <c r="Z8" s="280"/>
+      <c r="AA8" s="280"/>
+      <c r="AB8" s="280"/>
+      <c r="AC8" s="280"/>
+      <c r="AD8" s="280"/>
+      <c r="AE8" s="280"/>
+      <c r="AF8" s="280"/>
+      <c r="AG8" s="280"/>
+      <c r="AH8" s="280"/>
+      <c r="AI8" s="281"/>
     </row>
     <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="265" t="s">
+      <c r="A9" s="273" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="274"/>
-      <c r="C9" s="274"/>
-      <c r="D9" s="275"/>
+      <c r="B9" s="282"/>
+      <c r="C9" s="282"/>
+      <c r="D9" s="283"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -12406,12 +12382,12 @@
       <c r="AI13" s="41"/>
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="265" t="s">
+      <c r="A14" s="273" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="266"/>
-      <c r="C14" s="266"/>
-      <c r="D14" s="267"/>
+      <c r="B14" s="274"/>
+      <c r="C14" s="274"/>
+      <c r="D14" s="275"/>
       <c r="E14" s="157"/>
       <c r="F14" s="157"/>
       <c r="G14" s="157"/>
@@ -12556,12 +12532,12 @@
       <c r="AI17" s="41"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="279" t="s">
+      <c r="A18" s="287" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="280"/>
-      <c r="C18" s="280"/>
-      <c r="D18" s="281"/>
+      <c r="B18" s="288"/>
+      <c r="C18" s="288"/>
+      <c r="D18" s="289"/>
       <c r="E18" s="19"/>
       <c r="F18" s="23"/>
       <c r="G18" s="156"/>
@@ -12574,12 +12550,12 @@
       <c r="N18" s="156"/>
       <c r="O18" s="20"/>
       <c r="P18" s="156"/>
-      <c r="Q18" s="279" t="s">
+      <c r="Q18" s="287" t="s">
         <v>42</v>
       </c>
-      <c r="R18" s="280"/>
-      <c r="S18" s="280"/>
-      <c r="T18" s="281"/>
+      <c r="R18" s="288"/>
+      <c r="S18" s="288"/>
+      <c r="T18" s="289"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -12681,57 +12657,57 @@
       <c r="AI20" s="21"/>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="265" t="s">
+      <c r="A21" s="273" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="274"/>
-      <c r="C21" s="274"/>
-      <c r="D21" s="275"/>
-      <c r="E21" s="285" t="s">
+      <c r="B21" s="282"/>
+      <c r="C21" s="282"/>
+      <c r="D21" s="283"/>
+      <c r="E21" s="293" t="s">
         <v>148</v>
       </c>
-      <c r="F21" s="286"/>
-      <c r="G21" s="286"/>
-      <c r="H21" s="286"/>
-      <c r="I21" s="286"/>
-      <c r="J21" s="286"/>
-      <c r="K21" s="286"/>
-      <c r="L21" s="286"/>
-      <c r="M21" s="286"/>
-      <c r="N21" s="286"/>
-      <c r="O21" s="286"/>
-      <c r="P21" s="287"/>
-      <c r="Q21" s="265" t="s">
+      <c r="F21" s="294"/>
+      <c r="G21" s="294"/>
+      <c r="H21" s="294"/>
+      <c r="I21" s="294"/>
+      <c r="J21" s="294"/>
+      <c r="K21" s="294"/>
+      <c r="L21" s="294"/>
+      <c r="M21" s="294"/>
+      <c r="N21" s="294"/>
+      <c r="O21" s="294"/>
+      <c r="P21" s="295"/>
+      <c r="Q21" s="273" t="s">
         <v>45</v>
       </c>
-      <c r="R21" s="274"/>
-      <c r="S21" s="274"/>
-      <c r="T21" s="275"/>
-      <c r="U21" s="271" t="s">
+      <c r="R21" s="282"/>
+      <c r="S21" s="282"/>
+      <c r="T21" s="283"/>
+      <c r="U21" s="279" t="s">
         <v>93</v>
       </c>
-      <c r="V21" s="272"/>
-      <c r="W21" s="272"/>
-      <c r="X21" s="272"/>
-      <c r="Y21" s="272"/>
-      <c r="Z21" s="272"/>
-      <c r="AA21" s="272"/>
-      <c r="AB21" s="272"/>
-      <c r="AC21" s="272"/>
-      <c r="AD21" s="272"/>
-      <c r="AE21" s="272"/>
-      <c r="AF21" s="272"/>
-      <c r="AG21" s="272"/>
-      <c r="AH21" s="272"/>
-      <c r="AI21" s="273"/>
+      <c r="V21" s="280"/>
+      <c r="W21" s="280"/>
+      <c r="X21" s="280"/>
+      <c r="Y21" s="280"/>
+      <c r="Z21" s="280"/>
+      <c r="AA21" s="280"/>
+      <c r="AB21" s="280"/>
+      <c r="AC21" s="280"/>
+      <c r="AD21" s="280"/>
+      <c r="AE21" s="280"/>
+      <c r="AF21" s="280"/>
+      <c r="AG21" s="280"/>
+      <c r="AH21" s="280"/>
+      <c r="AI21" s="281"/>
     </row>
     <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="276" t="s">
+      <c r="A22" s="284" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="277"/>
-      <c r="C22" s="277"/>
-      <c r="D22" s="278"/>
+      <c r="B22" s="285"/>
+      <c r="C22" s="285"/>
+      <c r="D22" s="286"/>
       <c r="E22" s="24"/>
       <c r="F22" s="25"/>
       <c r="G22" s="157"/>
@@ -12744,12 +12720,12 @@
       <c r="N22" s="157"/>
       <c r="O22" s="18"/>
       <c r="P22" s="157"/>
-      <c r="Q22" s="276" t="s">
+      <c r="Q22" s="284" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="277"/>
-      <c r="S22" s="277"/>
-      <c r="T22" s="278"/>
+      <c r="R22" s="285"/>
+      <c r="S22" s="285"/>
+      <c r="T22" s="286"/>
       <c r="U22" s="55"/>
       <c r="V22" s="157"/>
       <c r="W22" s="18"/>
@@ -12812,38 +12788,38 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="298" t="s">
+      <c r="A24" s="306" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="299"/>
-      <c r="C24" s="299"/>
-      <c r="D24" s="300"/>
-      <c r="E24" s="271" t="s">
+      <c r="B24" s="307"/>
+      <c r="C24" s="307"/>
+      <c r="D24" s="308"/>
+      <c r="E24" s="279" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="272"/>
-      <c r="G24" s="272"/>
-      <c r="H24" s="272"/>
-      <c r="I24" s="272"/>
-      <c r="J24" s="272"/>
-      <c r="K24" s="272"/>
-      <c r="L24" s="272"/>
-      <c r="M24" s="272"/>
-      <c r="N24" s="272"/>
-      <c r="O24" s="272"/>
-      <c r="P24" s="273"/>
-      <c r="Q24" s="282" t="s">
+      <c r="F24" s="280"/>
+      <c r="G24" s="280"/>
+      <c r="H24" s="280"/>
+      <c r="I24" s="280"/>
+      <c r="J24" s="280"/>
+      <c r="K24" s="280"/>
+      <c r="L24" s="280"/>
+      <c r="M24" s="280"/>
+      <c r="N24" s="280"/>
+      <c r="O24" s="280"/>
+      <c r="P24" s="281"/>
+      <c r="Q24" s="290" t="s">
         <v>48</v>
       </c>
-      <c r="R24" s="283"/>
-      <c r="S24" s="283"/>
-      <c r="T24" s="284"/>
-      <c r="U24" s="290">
+      <c r="R24" s="291"/>
+      <c r="S24" s="291"/>
+      <c r="T24" s="292"/>
+      <c r="U24" s="298">
         <v>905</v>
       </c>
-      <c r="V24" s="291"/>
-      <c r="W24" s="291"/>
-      <c r="X24" s="291"/>
+      <c r="V24" s="299"/>
+      <c r="W24" s="299"/>
+      <c r="X24" s="299"/>
       <c r="Y24" s="165" t="s">
         <v>49</v>
       </c>
@@ -12859,26 +12835,26 @@
       <c r="AI24" s="22"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="294" t="s">
+      <c r="A25" s="302" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="295"/>
-      <c r="C25" s="295"/>
-      <c r="D25" s="296"/>
+      <c r="B25" s="303"/>
+      <c r="C25" s="303"/>
+      <c r="D25" s="304"/>
       <c r="E25" s="24"/>
       <c r="F25" s="39"/>
       <c r="G25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="288"/>
-      <c r="I25" s="289"/>
-      <c r="J25" s="289"/>
-      <c r="K25" s="289"/>
-      <c r="L25" s="289"/>
-      <c r="M25" s="289"/>
-      <c r="N25" s="289"/>
-      <c r="O25" s="289"/>
-      <c r="P25" s="289"/>
+      <c r="H25" s="296"/>
+      <c r="I25" s="297"/>
+      <c r="J25" s="297"/>
+      <c r="K25" s="297"/>
+      <c r="L25" s="297"/>
+      <c r="M25" s="297"/>
+      <c r="N25" s="297"/>
+      <c r="O25" s="297"/>
+      <c r="P25" s="297"/>
       <c r="Q25" s="157" t="s">
         <v>7</v>
       </c>
@@ -12887,15 +12863,15 @@
       <c r="T25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="U25" s="297"/>
-      <c r="V25" s="297"/>
-      <c r="W25" s="297"/>
-      <c r="X25" s="297"/>
-      <c r="Y25" s="297"/>
-      <c r="Z25" s="297"/>
-      <c r="AA25" s="297"/>
-      <c r="AB25" s="297"/>
-      <c r="AC25" s="297"/>
+      <c r="U25" s="305"/>
+      <c r="V25" s="305"/>
+      <c r="W25" s="305"/>
+      <c r="X25" s="305"/>
+      <c r="Y25" s="305"/>
+      <c r="Z25" s="305"/>
+      <c r="AA25" s="305"/>
+      <c r="AB25" s="305"/>
+      <c r="AC25" s="305"/>
       <c r="AD25" s="157" t="s">
         <v>7</v>
       </c>
@@ -12915,15 +12891,15 @@
       <c r="G26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="293"/>
-      <c r="I26" s="293"/>
-      <c r="J26" s="293"/>
-      <c r="K26" s="293"/>
-      <c r="L26" s="293"/>
-      <c r="M26" s="293"/>
-      <c r="N26" s="293"/>
-      <c r="O26" s="293"/>
-      <c r="P26" s="293"/>
+      <c r="H26" s="301"/>
+      <c r="I26" s="301"/>
+      <c r="J26" s="301"/>
+      <c r="K26" s="301"/>
+      <c r="L26" s="301"/>
+      <c r="M26" s="301"/>
+      <c r="N26" s="301"/>
+      <c r="O26" s="301"/>
+      <c r="P26" s="301"/>
       <c r="Q26" s="156" t="s">
         <v>7</v>
       </c>
@@ -12932,15 +12908,15 @@
       <c r="T26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="293"/>
-      <c r="V26" s="293"/>
-      <c r="W26" s="293"/>
-      <c r="X26" s="293"/>
-      <c r="Y26" s="293"/>
-      <c r="Z26" s="293"/>
-      <c r="AA26" s="293"/>
-      <c r="AB26" s="293"/>
-      <c r="AC26" s="293"/>
+      <c r="U26" s="301"/>
+      <c r="V26" s="301"/>
+      <c r="W26" s="301"/>
+      <c r="X26" s="301"/>
+      <c r="Y26" s="301"/>
+      <c r="Z26" s="301"/>
+      <c r="AA26" s="301"/>
+      <c r="AB26" s="301"/>
+      <c r="AC26" s="301"/>
       <c r="AD26" s="156" t="s">
         <v>7</v>
       </c>
@@ -12960,15 +12936,15 @@
       <c r="G27" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="292"/>
-      <c r="I27" s="292"/>
-      <c r="J27" s="292"/>
-      <c r="K27" s="292"/>
-      <c r="L27" s="292"/>
-      <c r="M27" s="292"/>
-      <c r="N27" s="292"/>
-      <c r="O27" s="292"/>
-      <c r="P27" s="292"/>
+      <c r="H27" s="300"/>
+      <c r="I27" s="300"/>
+      <c r="J27" s="300"/>
+      <c r="K27" s="300"/>
+      <c r="L27" s="300"/>
+      <c r="M27" s="300"/>
+      <c r="N27" s="300"/>
+      <c r="O27" s="300"/>
+      <c r="P27" s="300"/>
       <c r="Q27" s="155" t="s">
         <v>7</v>
       </c>
@@ -12977,31 +12953,31 @@
       <c r="T27" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="U27" s="292"/>
-      <c r="V27" s="292"/>
-      <c r="W27" s="292"/>
-      <c r="X27" s="292"/>
-      <c r="Y27" s="292"/>
-      <c r="Z27" s="292"/>
-      <c r="AA27" s="292"/>
-      <c r="AB27" s="292"/>
-      <c r="AC27" s="292"/>
-      <c r="AD27" s="292"/>
-      <c r="AE27" s="292"/>
-      <c r="AF27" s="292"/>
-      <c r="AG27" s="292"/>
-      <c r="AH27" s="292"/>
+      <c r="U27" s="300"/>
+      <c r="V27" s="300"/>
+      <c r="W27" s="300"/>
+      <c r="X27" s="300"/>
+      <c r="Y27" s="300"/>
+      <c r="Z27" s="300"/>
+      <c r="AA27" s="300"/>
+      <c r="AB27" s="300"/>
+      <c r="AC27" s="300"/>
+      <c r="AD27" s="300"/>
+      <c r="AE27" s="300"/>
+      <c r="AF27" s="300"/>
+      <c r="AG27" s="300"/>
+      <c r="AH27" s="300"/>
       <c r="AI27" s="41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="265" t="s">
+      <c r="A28" s="273" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="266"/>
-      <c r="C28" s="266"/>
-      <c r="D28" s="267"/>
+      <c r="B28" s="274"/>
+      <c r="C28" s="274"/>
+      <c r="D28" s="275"/>
       <c r="E28" s="157"/>
       <c r="F28" s="157"/>
       <c r="G28" s="157"/>
@@ -13873,158 +13849,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="258" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="206" t="str">
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="253" t="s">
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="261" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="254"/>
-      <c r="Q1" s="254"/>
-      <c r="R1" s="255"/>
-      <c r="S1" s="249" t="str">
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
+      <c r="R1" s="263"/>
+      <c r="S1" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(その他)
 B21AA01/ユーザ情報反映</v>
       </c>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="211"/>
-      <c r="AA1" s="250" t="s">
+      <c r="T1" s="218"/>
+      <c r="U1" s="218"/>
+      <c r="V1" s="218"/>
+      <c r="W1" s="218"/>
+      <c r="X1" s="218"/>
+      <c r="Y1" s="218"/>
+      <c r="Z1" s="219"/>
+      <c r="AA1" s="258" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="252"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="260"/>
+      <c r="AC1" s="226" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="262">
+      <c r="AD1" s="227"/>
+      <c r="AE1" s="227"/>
+      <c r="AF1" s="228"/>
+      <c r="AG1" s="270">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="263"/>
-      <c r="AI1" s="264"/>
+      <c r="AH1" s="271"/>
+      <c r="AI1" s="272"/>
     </row>
     <row r="2" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="250" t="s">
+      <c r="A2" s="258" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="206" t="str">
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="260"/>
+      <c r="E2" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="256"/>
-      <c r="P2" s="257"/>
-      <c r="Q2" s="257"/>
-      <c r="R2" s="258"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="213"/>
-      <c r="X2" s="213"/>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="250" t="s">
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="264"/>
+      <c r="P2" s="265"/>
+      <c r="Q2" s="265"/>
+      <c r="R2" s="266"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="221"/>
+      <c r="U2" s="221"/>
+      <c r="V2" s="221"/>
+      <c r="W2" s="221"/>
+      <c r="X2" s="221"/>
+      <c r="Y2" s="221"/>
+      <c r="Z2" s="222"/>
+      <c r="AA2" s="258" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="252"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="260"/>
+      <c r="AC2" s="226" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="262" t="str">
+      <c r="AD2" s="227"/>
+      <c r="AE2" s="227"/>
+      <c r="AF2" s="228"/>
+      <c r="AG2" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="263"/>
-      <c r="AI2" s="264"/>
+      <c r="AH2" s="271"/>
+      <c r="AI2" s="272"/>
     </row>
     <row r="3" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="250" t="s">
+      <c r="A3" s="258" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="206" t="str">
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="260"/>
+      <c r="E3" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="259"/>
-      <c r="P3" s="260"/>
-      <c r="Q3" s="260"/>
-      <c r="R3" s="261"/>
-      <c r="S3" s="215"/>
-      <c r="T3" s="216"/>
-      <c r="U3" s="216"/>
-      <c r="V3" s="216"/>
-      <c r="W3" s="216"/>
-      <c r="X3" s="216"/>
-      <c r="Y3" s="216"/>
-      <c r="Z3" s="217"/>
-      <c r="AA3" s="250"/>
-      <c r="AB3" s="252"/>
-      <c r="AC3" s="218" t="str">
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="215"/>
+      <c r="M3" s="215"/>
+      <c r="N3" s="216"/>
+      <c r="O3" s="267"/>
+      <c r="P3" s="268"/>
+      <c r="Q3" s="268"/>
+      <c r="R3" s="269"/>
+      <c r="S3" s="223"/>
+      <c r="T3" s="224"/>
+      <c r="U3" s="224"/>
+      <c r="V3" s="224"/>
+      <c r="W3" s="224"/>
+      <c r="X3" s="224"/>
+      <c r="Y3" s="224"/>
+      <c r="Z3" s="225"/>
+      <c r="AA3" s="258"/>
+      <c r="AB3" s="260"/>
+      <c r="AC3" s="226" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="262" t="str">
+      <c r="AD3" s="227"/>
+      <c r="AE3" s="227"/>
+      <c r="AF3" s="228"/>
+      <c r="AG3" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="263"/>
-      <c r="AI3" s="264"/>
+      <c r="AH3" s="271"/>
+      <c r="AI3" s="272"/>
     </row>
     <row r="4" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="47"/>
@@ -14147,41 +14123,41 @@
       <c r="AU6" s="80"/>
     </row>
     <row r="7" spans="1:47">
-      <c r="A7" s="327" t="s">
+      <c r="A7" s="335" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="323"/>
-      <c r="C7" s="323"/>
-      <c r="D7" s="323"/>
-      <c r="E7" s="323"/>
-      <c r="F7" s="323"/>
-      <c r="G7" s="323"/>
-      <c r="H7" s="323"/>
-      <c r="I7" s="323"/>
-      <c r="J7" s="323"/>
-      <c r="K7" s="323"/>
-      <c r="L7" s="323"/>
-      <c r="M7" s="323"/>
-      <c r="N7" s="323"/>
-      <c r="O7" s="323"/>
-      <c r="P7" s="323"/>
-      <c r="Q7" s="323"/>
-      <c r="R7" s="323"/>
-      <c r="S7" s="323"/>
-      <c r="T7" s="323"/>
-      <c r="U7" s="323"/>
-      <c r="V7" s="323"/>
-      <c r="W7" s="323"/>
-      <c r="X7" s="323"/>
-      <c r="Y7" s="323"/>
-      <c r="Z7" s="323"/>
-      <c r="AA7" s="323"/>
-      <c r="AB7" s="328"/>
-      <c r="AC7" s="322" t="s">
+      <c r="B7" s="331"/>
+      <c r="C7" s="331"/>
+      <c r="D7" s="331"/>
+      <c r="E7" s="331"/>
+      <c r="F7" s="331"/>
+      <c r="G7" s="331"/>
+      <c r="H7" s="331"/>
+      <c r="I7" s="331"/>
+      <c r="J7" s="331"/>
+      <c r="K7" s="331"/>
+      <c r="L7" s="331"/>
+      <c r="M7" s="331"/>
+      <c r="N7" s="331"/>
+      <c r="O7" s="331"/>
+      <c r="P7" s="331"/>
+      <c r="Q7" s="331"/>
+      <c r="R7" s="331"/>
+      <c r="S7" s="331"/>
+      <c r="T7" s="331"/>
+      <c r="U7" s="331"/>
+      <c r="V7" s="331"/>
+      <c r="W7" s="331"/>
+      <c r="X7" s="331"/>
+      <c r="Y7" s="331"/>
+      <c r="Z7" s="331"/>
+      <c r="AA7" s="331"/>
+      <c r="AB7" s="336"/>
+      <c r="AC7" s="330" t="s">
         <v>51</v>
       </c>
-      <c r="AD7" s="323"/>
-      <c r="AE7" s="324"/>
+      <c r="AD7" s="331"/>
+      <c r="AE7" s="332"/>
       <c r="AF7" s="94"/>
       <c r="AG7" s="94"/>
       <c r="AH7" s="94"/>
@@ -14191,449 +14167,449 @@
       <c r="A8" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="327" t="s">
+      <c r="B8" s="335" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="188"/>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="327" t="s">
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="335" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="323"/>
-      <c r="I8" s="324"/>
-      <c r="J8" s="327" t="s">
+      <c r="H8" s="331"/>
+      <c r="I8" s="332"/>
+      <c r="J8" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="323"/>
-      <c r="L8" s="323"/>
-      <c r="M8" s="323"/>
-      <c r="N8" s="323"/>
-      <c r="O8" s="323"/>
-      <c r="P8" s="324"/>
-      <c r="Q8" s="341" t="s">
+      <c r="K8" s="331"/>
+      <c r="L8" s="331"/>
+      <c r="M8" s="331"/>
+      <c r="N8" s="331"/>
+      <c r="O8" s="331"/>
+      <c r="P8" s="332"/>
+      <c r="Q8" s="349" t="s">
         <v>211</v>
       </c>
-      <c r="R8" s="343"/>
-      <c r="S8" s="341" t="s">
+      <c r="R8" s="351"/>
+      <c r="S8" s="349" t="s">
         <v>81</v>
       </c>
-      <c r="T8" s="342"/>
-      <c r="U8" s="343"/>
-      <c r="V8" s="327" t="s">
+      <c r="T8" s="350"/>
+      <c r="U8" s="351"/>
+      <c r="V8" s="335" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="323"/>
-      <c r="X8" s="323"/>
-      <c r="Y8" s="323"/>
-      <c r="Z8" s="323"/>
-      <c r="AA8" s="323"/>
-      <c r="AB8" s="328"/>
-      <c r="AC8" s="319" t="s">
+      <c r="W8" s="331"/>
+      <c r="X8" s="331"/>
+      <c r="Y8" s="331"/>
+      <c r="Z8" s="331"/>
+      <c r="AA8" s="331"/>
+      <c r="AB8" s="336"/>
+      <c r="AC8" s="327" t="s">
         <v>13</v>
       </c>
-      <c r="AD8" s="320"/>
-      <c r="AE8" s="320"/>
-      <c r="AF8" s="320"/>
-      <c r="AG8" s="320"/>
-      <c r="AH8" s="321" t="s">
+      <c r="AD8" s="328"/>
+      <c r="AE8" s="328"/>
+      <c r="AF8" s="328"/>
+      <c r="AG8" s="328"/>
+      <c r="AH8" s="329" t="s">
         <v>82</v>
       </c>
-      <c r="AI8" s="321"/>
+      <c r="AI8" s="329"/>
     </row>
     <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="91">
         <v>1</v>
       </c>
-      <c r="B9" s="315" t="s">
+      <c r="B9" s="323" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="316"/>
-      <c r="D9" s="316"/>
-      <c r="E9" s="316"/>
-      <c r="F9" s="317"/>
-      <c r="G9" s="315" t="s">
+      <c r="C9" s="324"/>
+      <c r="D9" s="324"/>
+      <c r="E9" s="324"/>
+      <c r="F9" s="325"/>
+      <c r="G9" s="323" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="316"/>
-      <c r="I9" s="317"/>
-      <c r="J9" s="315"/>
-      <c r="K9" s="354"/>
-      <c r="L9" s="354"/>
-      <c r="M9" s="354"/>
-      <c r="N9" s="354"/>
-      <c r="O9" s="354"/>
-      <c r="P9" s="355"/>
-      <c r="Q9" s="310" t="s">
+      <c r="H9" s="324"/>
+      <c r="I9" s="325"/>
+      <c r="J9" s="323"/>
+      <c r="K9" s="362"/>
+      <c r="L9" s="362"/>
+      <c r="M9" s="362"/>
+      <c r="N9" s="362"/>
+      <c r="O9" s="362"/>
+      <c r="P9" s="363"/>
+      <c r="Q9" s="318" t="s">
         <v>103</v>
       </c>
-      <c r="R9" s="311"/>
-      <c r="S9" s="310">
+      <c r="R9" s="319"/>
+      <c r="S9" s="318">
         <v>1</v>
       </c>
-      <c r="T9" s="349"/>
-      <c r="U9" s="311"/>
-      <c r="V9" s="338"/>
-      <c r="W9" s="339"/>
-      <c r="X9" s="339"/>
-      <c r="Y9" s="339"/>
-      <c r="Z9" s="339"/>
-      <c r="AA9" s="339"/>
-      <c r="AB9" s="340"/>
-      <c r="AC9" s="375" t="s">
+      <c r="T9" s="357"/>
+      <c r="U9" s="319"/>
+      <c r="V9" s="346"/>
+      <c r="W9" s="347"/>
+      <c r="X9" s="347"/>
+      <c r="Y9" s="347"/>
+      <c r="Z9" s="347"/>
+      <c r="AA9" s="347"/>
+      <c r="AB9" s="348"/>
+      <c r="AC9" s="383" t="s">
         <v>83</v>
       </c>
-      <c r="AD9" s="315"/>
-      <c r="AE9" s="316"/>
-      <c r="AF9" s="316"/>
-      <c r="AG9" s="317"/>
-      <c r="AH9" s="310"/>
-      <c r="AI9" s="311"/>
+      <c r="AD9" s="323"/>
+      <c r="AE9" s="324"/>
+      <c r="AF9" s="324"/>
+      <c r="AG9" s="325"/>
+      <c r="AH9" s="318"/>
+      <c r="AI9" s="319"/>
     </row>
     <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="91">
         <v>2</v>
       </c>
-      <c r="B10" s="312" t="s">
+      <c r="B10" s="320" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="313"/>
-      <c r="D10" s="313"/>
-      <c r="E10" s="313"/>
-      <c r="F10" s="318"/>
-      <c r="G10" s="329" t="s">
-        <v>214</v>
-      </c>
-      <c r="H10" s="330"/>
-      <c r="I10" s="331"/>
-      <c r="J10" s="312"/>
-      <c r="K10" s="344"/>
-      <c r="L10" s="344"/>
-      <c r="M10" s="344"/>
-      <c r="N10" s="344"/>
-      <c r="O10" s="344"/>
-      <c r="P10" s="345"/>
-      <c r="Q10" s="325" t="s">
+      <c r="C10" s="321"/>
+      <c r="D10" s="321"/>
+      <c r="E10" s="321"/>
+      <c r="F10" s="326"/>
+      <c r="G10" s="337" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" s="338"/>
+      <c r="I10" s="339"/>
+      <c r="J10" s="320"/>
+      <c r="K10" s="352"/>
+      <c r="L10" s="352"/>
+      <c r="M10" s="352"/>
+      <c r="N10" s="352"/>
+      <c r="O10" s="352"/>
+      <c r="P10" s="353"/>
+      <c r="Q10" s="333" t="s">
         <v>103</v>
       </c>
-      <c r="R10" s="326"/>
-      <c r="S10" s="325">
+      <c r="R10" s="334"/>
+      <c r="S10" s="333">
         <v>1</v>
       </c>
-      <c r="T10" s="350"/>
-      <c r="U10" s="326"/>
-      <c r="V10" s="335"/>
-      <c r="W10" s="336"/>
-      <c r="X10" s="336"/>
-      <c r="Y10" s="336"/>
-      <c r="Z10" s="336"/>
-      <c r="AA10" s="336"/>
-      <c r="AB10" s="337"/>
-      <c r="AC10" s="376"/>
-      <c r="AD10" s="312"/>
-      <c r="AE10" s="313"/>
-      <c r="AF10" s="313"/>
-      <c r="AG10" s="318"/>
-      <c r="AH10" s="325"/>
-      <c r="AI10" s="326"/>
+      <c r="T10" s="358"/>
+      <c r="U10" s="334"/>
+      <c r="V10" s="343"/>
+      <c r="W10" s="344"/>
+      <c r="X10" s="344"/>
+      <c r="Y10" s="344"/>
+      <c r="Z10" s="344"/>
+      <c r="AA10" s="344"/>
+      <c r="AB10" s="345"/>
+      <c r="AC10" s="384"/>
+      <c r="AD10" s="320"/>
+      <c r="AE10" s="321"/>
+      <c r="AF10" s="321"/>
+      <c r="AG10" s="326"/>
+      <c r="AH10" s="333"/>
+      <c r="AI10" s="334"/>
     </row>
     <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="91">
         <v>3</v>
       </c>
-      <c r="B11" s="312" t="s">
+      <c r="B11" s="320" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="313"/>
-      <c r="D11" s="313"/>
-      <c r="E11" s="313"/>
-      <c r="F11" s="318"/>
-      <c r="G11" s="332" t="s">
-        <v>215</v>
-      </c>
-      <c r="H11" s="333"/>
-      <c r="I11" s="334"/>
-      <c r="J11" s="312"/>
-      <c r="K11" s="344"/>
-      <c r="L11" s="344"/>
-      <c r="M11" s="344"/>
-      <c r="N11" s="344"/>
-      <c r="O11" s="344"/>
-      <c r="P11" s="345"/>
-      <c r="Q11" s="325">
+      <c r="C11" s="321"/>
+      <c r="D11" s="321"/>
+      <c r="E11" s="321"/>
+      <c r="F11" s="326"/>
+      <c r="G11" s="340" t="s">
+        <v>214</v>
+      </c>
+      <c r="H11" s="341"/>
+      <c r="I11" s="342"/>
+      <c r="J11" s="320"/>
+      <c r="K11" s="352"/>
+      <c r="L11" s="352"/>
+      <c r="M11" s="352"/>
+      <c r="N11" s="352"/>
+      <c r="O11" s="352"/>
+      <c r="P11" s="353"/>
+      <c r="Q11" s="333">
         <v>43</v>
       </c>
-      <c r="R11" s="326"/>
-      <c r="S11" s="325">
+      <c r="R11" s="334"/>
+      <c r="S11" s="333">
         <v>1</v>
       </c>
-      <c r="T11" s="350"/>
-      <c r="U11" s="326"/>
-      <c r="V11" s="335"/>
-      <c r="W11" s="336"/>
-      <c r="X11" s="336"/>
-      <c r="Y11" s="336"/>
-      <c r="Z11" s="336"/>
-      <c r="AA11" s="336"/>
-      <c r="AB11" s="337"/>
-      <c r="AC11" s="376"/>
-      <c r="AD11" s="304"/>
-      <c r="AE11" s="305"/>
-      <c r="AF11" s="305"/>
-      <c r="AG11" s="306"/>
-      <c r="AH11" s="325"/>
-      <c r="AI11" s="326"/>
+      <c r="T11" s="358"/>
+      <c r="U11" s="334"/>
+      <c r="V11" s="343"/>
+      <c r="W11" s="344"/>
+      <c r="X11" s="344"/>
+      <c r="Y11" s="344"/>
+      <c r="Z11" s="344"/>
+      <c r="AA11" s="344"/>
+      <c r="AB11" s="345"/>
+      <c r="AC11" s="384"/>
+      <c r="AD11" s="312"/>
+      <c r="AE11" s="313"/>
+      <c r="AF11" s="313"/>
+      <c r="AG11" s="314"/>
+      <c r="AH11" s="333"/>
+      <c r="AI11" s="334"/>
     </row>
     <row r="12" spans="1:47" ht="24" customHeight="1">
       <c r="A12" s="91">
         <v>4</v>
       </c>
-      <c r="B12" s="312" t="s">
+      <c r="B12" s="320" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="313"/>
-      <c r="D12" s="313"/>
-      <c r="E12" s="313"/>
-      <c r="F12" s="318"/>
-      <c r="G12" s="332" t="s">
-        <v>213</v>
-      </c>
-      <c r="H12" s="333"/>
-      <c r="I12" s="334"/>
-      <c r="J12" s="312"/>
-      <c r="K12" s="344"/>
-      <c r="L12" s="344"/>
-      <c r="M12" s="344"/>
-      <c r="N12" s="344"/>
-      <c r="O12" s="344"/>
-      <c r="P12" s="345"/>
-      <c r="Q12" s="325">
+      <c r="C12" s="321"/>
+      <c r="D12" s="321"/>
+      <c r="E12" s="321"/>
+      <c r="F12" s="326"/>
+      <c r="G12" s="340" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" s="341"/>
+      <c r="I12" s="342"/>
+      <c r="J12" s="320"/>
+      <c r="K12" s="352"/>
+      <c r="L12" s="352"/>
+      <c r="M12" s="352"/>
+      <c r="N12" s="352"/>
+      <c r="O12" s="352"/>
+      <c r="P12" s="353"/>
+      <c r="Q12" s="333">
         <v>862</v>
       </c>
-      <c r="R12" s="326"/>
-      <c r="S12" s="325">
+      <c r="R12" s="334"/>
+      <c r="S12" s="333">
         <v>1</v>
       </c>
-      <c r="T12" s="350"/>
-      <c r="U12" s="326"/>
-      <c r="V12" s="335"/>
-      <c r="W12" s="336"/>
-      <c r="X12" s="336"/>
-      <c r="Y12" s="336"/>
-      <c r="Z12" s="336"/>
-      <c r="AA12" s="336"/>
-      <c r="AB12" s="337"/>
-      <c r="AC12" s="376"/>
-      <c r="AD12" s="304"/>
-      <c r="AE12" s="305"/>
-      <c r="AF12" s="305"/>
-      <c r="AG12" s="306"/>
-      <c r="AH12" s="325"/>
-      <c r="AI12" s="326"/>
+      <c r="T12" s="358"/>
+      <c r="U12" s="334"/>
+      <c r="V12" s="343"/>
+      <c r="W12" s="344"/>
+      <c r="X12" s="344"/>
+      <c r="Y12" s="344"/>
+      <c r="Z12" s="344"/>
+      <c r="AA12" s="344"/>
+      <c r="AB12" s="345"/>
+      <c r="AC12" s="384"/>
+      <c r="AD12" s="312"/>
+      <c r="AE12" s="313"/>
+      <c r="AF12" s="313"/>
+      <c r="AG12" s="314"/>
+      <c r="AH12" s="333"/>
+      <c r="AI12" s="334"/>
     </row>
     <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="91">
         <v>5</v>
       </c>
-      <c r="B13" s="346"/>
-      <c r="C13" s="347"/>
-      <c r="D13" s="347"/>
-      <c r="E13" s="347"/>
-      <c r="F13" s="348"/>
-      <c r="G13" s="351"/>
-      <c r="H13" s="352"/>
-      <c r="I13" s="353"/>
-      <c r="J13" s="351"/>
-      <c r="K13" s="352"/>
-      <c r="L13" s="352"/>
-      <c r="M13" s="352"/>
-      <c r="N13" s="352"/>
-      <c r="O13" s="352"/>
-      <c r="P13" s="353"/>
-      <c r="Q13" s="307"/>
-      <c r="R13" s="309"/>
-      <c r="S13" s="307"/>
-      <c r="T13" s="308"/>
-      <c r="U13" s="309"/>
-      <c r="V13" s="312"/>
-      <c r="W13" s="313"/>
-      <c r="X13" s="313"/>
-      <c r="Y13" s="313"/>
-      <c r="Z13" s="313"/>
-      <c r="AA13" s="313"/>
-      <c r="AB13" s="314"/>
-      <c r="AC13" s="376"/>
-      <c r="AD13" s="304"/>
-      <c r="AE13" s="305"/>
-      <c r="AF13" s="305"/>
-      <c r="AG13" s="306"/>
-      <c r="AH13" s="325"/>
-      <c r="AI13" s="326"/>
+      <c r="B13" s="354"/>
+      <c r="C13" s="355"/>
+      <c r="D13" s="355"/>
+      <c r="E13" s="355"/>
+      <c r="F13" s="356"/>
+      <c r="G13" s="359"/>
+      <c r="H13" s="360"/>
+      <c r="I13" s="361"/>
+      <c r="J13" s="359"/>
+      <c r="K13" s="360"/>
+      <c r="L13" s="360"/>
+      <c r="M13" s="360"/>
+      <c r="N13" s="360"/>
+      <c r="O13" s="360"/>
+      <c r="P13" s="361"/>
+      <c r="Q13" s="315"/>
+      <c r="R13" s="317"/>
+      <c r="S13" s="315"/>
+      <c r="T13" s="316"/>
+      <c r="U13" s="317"/>
+      <c r="V13" s="320"/>
+      <c r="W13" s="321"/>
+      <c r="X13" s="321"/>
+      <c r="Y13" s="321"/>
+      <c r="Z13" s="321"/>
+      <c r="AA13" s="321"/>
+      <c r="AB13" s="322"/>
+      <c r="AC13" s="384"/>
+      <c r="AD13" s="312"/>
+      <c r="AE13" s="313"/>
+      <c r="AF13" s="313"/>
+      <c r="AG13" s="314"/>
+      <c r="AH13" s="333"/>
+      <c r="AI13" s="334"/>
     </row>
     <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="91">
         <v>6</v>
       </c>
-      <c r="B14" s="346"/>
-      <c r="C14" s="347"/>
-      <c r="D14" s="347"/>
-      <c r="E14" s="347"/>
-      <c r="F14" s="348"/>
-      <c r="G14" s="351"/>
-      <c r="H14" s="352"/>
-      <c r="I14" s="353"/>
-      <c r="J14" s="351"/>
-      <c r="K14" s="352"/>
-      <c r="L14" s="352"/>
-      <c r="M14" s="352"/>
-      <c r="N14" s="352"/>
-      <c r="O14" s="352"/>
-      <c r="P14" s="353"/>
-      <c r="Q14" s="307"/>
-      <c r="R14" s="309"/>
-      <c r="S14" s="307"/>
-      <c r="T14" s="308"/>
-      <c r="U14" s="309"/>
-      <c r="V14" s="312"/>
-      <c r="W14" s="313"/>
-      <c r="X14" s="313"/>
-      <c r="Y14" s="313"/>
-      <c r="Z14" s="313"/>
-      <c r="AA14" s="313"/>
-      <c r="AB14" s="314"/>
-      <c r="AC14" s="376"/>
-      <c r="AD14" s="304"/>
-      <c r="AE14" s="305"/>
-      <c r="AF14" s="305"/>
-      <c r="AG14" s="306"/>
-      <c r="AH14" s="325"/>
-      <c r="AI14" s="326"/>
+      <c r="B14" s="354"/>
+      <c r="C14" s="355"/>
+      <c r="D14" s="355"/>
+      <c r="E14" s="355"/>
+      <c r="F14" s="356"/>
+      <c r="G14" s="359"/>
+      <c r="H14" s="360"/>
+      <c r="I14" s="361"/>
+      <c r="J14" s="359"/>
+      <c r="K14" s="360"/>
+      <c r="L14" s="360"/>
+      <c r="M14" s="360"/>
+      <c r="N14" s="360"/>
+      <c r="O14" s="360"/>
+      <c r="P14" s="361"/>
+      <c r="Q14" s="315"/>
+      <c r="R14" s="317"/>
+      <c r="S14" s="315"/>
+      <c r="T14" s="316"/>
+      <c r="U14" s="317"/>
+      <c r="V14" s="320"/>
+      <c r="W14" s="321"/>
+      <c r="X14" s="321"/>
+      <c r="Y14" s="321"/>
+      <c r="Z14" s="321"/>
+      <c r="AA14" s="321"/>
+      <c r="AB14" s="322"/>
+      <c r="AC14" s="384"/>
+      <c r="AD14" s="312"/>
+      <c r="AE14" s="313"/>
+      <c r="AF14" s="313"/>
+      <c r="AG14" s="314"/>
+      <c r="AH14" s="333"/>
+      <c r="AI14" s="334"/>
     </row>
     <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="180">
         <v>7</v>
       </c>
-      <c r="B15" s="346"/>
-      <c r="C15" s="347"/>
-      <c r="D15" s="347"/>
-      <c r="E15" s="347"/>
-      <c r="F15" s="348"/>
-      <c r="G15" s="351"/>
-      <c r="H15" s="352"/>
-      <c r="I15" s="353"/>
-      <c r="J15" s="351"/>
-      <c r="K15" s="352"/>
-      <c r="L15" s="352"/>
-      <c r="M15" s="352"/>
-      <c r="N15" s="352"/>
-      <c r="O15" s="352"/>
-      <c r="P15" s="353"/>
-      <c r="Q15" s="307"/>
-      <c r="R15" s="309"/>
-      <c r="S15" s="307"/>
-      <c r="T15" s="308"/>
-      <c r="U15" s="309"/>
-      <c r="V15" s="312"/>
-      <c r="W15" s="313"/>
-      <c r="X15" s="313"/>
-      <c r="Y15" s="313"/>
-      <c r="Z15" s="313"/>
-      <c r="AA15" s="313"/>
-      <c r="AB15" s="314"/>
-      <c r="AC15" s="376"/>
-      <c r="AD15" s="304"/>
-      <c r="AE15" s="305"/>
-      <c r="AF15" s="305"/>
-      <c r="AG15" s="306"/>
-      <c r="AH15" s="325"/>
-      <c r="AI15" s="326"/>
+      <c r="B15" s="354"/>
+      <c r="C15" s="355"/>
+      <c r="D15" s="355"/>
+      <c r="E15" s="355"/>
+      <c r="F15" s="356"/>
+      <c r="G15" s="359"/>
+      <c r="H15" s="360"/>
+      <c r="I15" s="361"/>
+      <c r="J15" s="359"/>
+      <c r="K15" s="360"/>
+      <c r="L15" s="360"/>
+      <c r="M15" s="360"/>
+      <c r="N15" s="360"/>
+      <c r="O15" s="360"/>
+      <c r="P15" s="361"/>
+      <c r="Q15" s="315"/>
+      <c r="R15" s="317"/>
+      <c r="S15" s="315"/>
+      <c r="T15" s="316"/>
+      <c r="U15" s="317"/>
+      <c r="V15" s="320"/>
+      <c r="W15" s="321"/>
+      <c r="X15" s="321"/>
+      <c r="Y15" s="321"/>
+      <c r="Z15" s="321"/>
+      <c r="AA15" s="321"/>
+      <c r="AB15" s="322"/>
+      <c r="AC15" s="384"/>
+      <c r="AD15" s="312"/>
+      <c r="AE15" s="313"/>
+      <c r="AF15" s="313"/>
+      <c r="AG15" s="314"/>
+      <c r="AH15" s="333"/>
+      <c r="AI15" s="334"/>
     </row>
     <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="92">
         <v>8</v>
       </c>
-      <c r="B16" s="346"/>
-      <c r="C16" s="347"/>
-      <c r="D16" s="347"/>
-      <c r="E16" s="347"/>
-      <c r="F16" s="348"/>
-      <c r="G16" s="351"/>
-      <c r="H16" s="352"/>
-      <c r="I16" s="353"/>
-      <c r="J16" s="351"/>
-      <c r="K16" s="352"/>
-      <c r="L16" s="352"/>
-      <c r="M16" s="352"/>
-      <c r="N16" s="352"/>
-      <c r="O16" s="352"/>
-      <c r="P16" s="353"/>
-      <c r="Q16" s="307"/>
-      <c r="R16" s="309"/>
-      <c r="S16" s="307"/>
-      <c r="T16" s="308"/>
-      <c r="U16" s="309"/>
-      <c r="V16" s="312"/>
-      <c r="W16" s="313"/>
-      <c r="X16" s="313"/>
-      <c r="Y16" s="313"/>
-      <c r="Z16" s="313"/>
-      <c r="AA16" s="313"/>
-      <c r="AB16" s="314"/>
-      <c r="AC16" s="376"/>
-      <c r="AD16" s="304"/>
-      <c r="AE16" s="305"/>
-      <c r="AF16" s="305"/>
-      <c r="AG16" s="306"/>
-      <c r="AH16" s="325"/>
-      <c r="AI16" s="326"/>
+      <c r="B16" s="354"/>
+      <c r="C16" s="355"/>
+      <c r="D16" s="355"/>
+      <c r="E16" s="355"/>
+      <c r="F16" s="356"/>
+      <c r="G16" s="359"/>
+      <c r="H16" s="360"/>
+      <c r="I16" s="361"/>
+      <c r="J16" s="359"/>
+      <c r="K16" s="360"/>
+      <c r="L16" s="360"/>
+      <c r="M16" s="360"/>
+      <c r="N16" s="360"/>
+      <c r="O16" s="360"/>
+      <c r="P16" s="361"/>
+      <c r="Q16" s="315"/>
+      <c r="R16" s="317"/>
+      <c r="S16" s="315"/>
+      <c r="T16" s="316"/>
+      <c r="U16" s="317"/>
+      <c r="V16" s="320"/>
+      <c r="W16" s="321"/>
+      <c r="X16" s="321"/>
+      <c r="Y16" s="321"/>
+      <c r="Z16" s="321"/>
+      <c r="AA16" s="321"/>
+      <c r="AB16" s="322"/>
+      <c r="AC16" s="384"/>
+      <c r="AD16" s="312"/>
+      <c r="AE16" s="313"/>
+      <c r="AF16" s="313"/>
+      <c r="AG16" s="314"/>
+      <c r="AH16" s="333"/>
+      <c r="AI16" s="334"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="93">
         <v>9</v>
       </c>
-      <c r="B17" s="370"/>
-      <c r="C17" s="371"/>
-      <c r="D17" s="371"/>
-      <c r="E17" s="371"/>
-      <c r="F17" s="372"/>
-      <c r="G17" s="367"/>
-      <c r="H17" s="368"/>
-      <c r="I17" s="369"/>
-      <c r="J17" s="367"/>
-      <c r="K17" s="368"/>
-      <c r="L17" s="368"/>
-      <c r="M17" s="368"/>
-      <c r="N17" s="368"/>
-      <c r="O17" s="368"/>
-      <c r="P17" s="369"/>
-      <c r="Q17" s="364"/>
-      <c r="R17" s="366"/>
-      <c r="S17" s="364"/>
-      <c r="T17" s="365"/>
-      <c r="U17" s="366"/>
-      <c r="V17" s="359"/>
-      <c r="W17" s="360"/>
-      <c r="X17" s="360"/>
-      <c r="Y17" s="360"/>
-      <c r="Z17" s="360"/>
-      <c r="AA17" s="360"/>
-      <c r="AB17" s="361"/>
-      <c r="AC17" s="377"/>
-      <c r="AD17" s="301"/>
-      <c r="AE17" s="302"/>
-      <c r="AF17" s="302"/>
-      <c r="AG17" s="303"/>
-      <c r="AH17" s="373"/>
-      <c r="AI17" s="374"/>
+      <c r="B17" s="378"/>
+      <c r="C17" s="379"/>
+      <c r="D17" s="379"/>
+      <c r="E17" s="379"/>
+      <c r="F17" s="380"/>
+      <c r="G17" s="375"/>
+      <c r="H17" s="376"/>
+      <c r="I17" s="377"/>
+      <c r="J17" s="375"/>
+      <c r="K17" s="376"/>
+      <c r="L17" s="376"/>
+      <c r="M17" s="376"/>
+      <c r="N17" s="376"/>
+      <c r="O17" s="376"/>
+      <c r="P17" s="377"/>
+      <c r="Q17" s="372"/>
+      <c r="R17" s="374"/>
+      <c r="S17" s="372"/>
+      <c r="T17" s="373"/>
+      <c r="U17" s="374"/>
+      <c r="V17" s="367"/>
+      <c r="W17" s="368"/>
+      <c r="X17" s="368"/>
+      <c r="Y17" s="368"/>
+      <c r="Z17" s="368"/>
+      <c r="AA17" s="368"/>
+      <c r="AB17" s="369"/>
+      <c r="AC17" s="385"/>
+      <c r="AD17" s="309"/>
+      <c r="AE17" s="310"/>
+      <c r="AF17" s="310"/>
+      <c r="AG17" s="311"/>
+      <c r="AH17" s="381"/>
+      <c r="AI17" s="382"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="362"/>
-      <c r="B18" s="363"/>
-      <c r="C18" s="363"/>
-      <c r="D18" s="363"/>
-      <c r="E18" s="363"/>
-      <c r="F18" s="363"/>
+      <c r="A18" s="370"/>
+      <c r="B18" s="371"/>
+      <c r="C18" s="371"/>
+      <c r="D18" s="371"/>
+      <c r="E18" s="371"/>
+      <c r="F18" s="371"/>
       <c r="G18" s="167"/>
       <c r="H18" s="167"/>
       <c r="I18" s="167"/>
@@ -14657,23 +14633,23 @@
       <c r="AA18" s="167"/>
       <c r="AB18" s="167"/>
       <c r="AC18" s="44"/>
-      <c r="AD18" s="358"/>
-      <c r="AE18" s="358"/>
-      <c r="AF18" s="358"/>
-      <c r="AG18" s="358"/>
-      <c r="AH18" s="358"/>
+      <c r="AD18" s="366"/>
+      <c r="AE18" s="366"/>
+      <c r="AF18" s="366"/>
+      <c r="AG18" s="366"/>
+      <c r="AH18" s="366"/>
       <c r="AI18" s="81"/>
       <c r="AJ18" s="36"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="356" t="s">
+      <c r="A19" s="364" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="357"/>
-      <c r="C19" s="357"/>
-      <c r="D19" s="357"/>
-      <c r="E19" s="357"/>
-      <c r="F19" s="357"/>
+      <c r="B19" s="365"/>
+      <c r="C19" s="365"/>
+      <c r="D19" s="365"/>
+      <c r="E19" s="365"/>
+      <c r="F19" s="365"/>
       <c r="G19" s="166"/>
       <c r="H19" s="167"/>
       <c r="I19" s="167"/>
@@ -15447,167 +15423,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="258" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="206" t="str">
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="253" t="s">
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="261" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="254"/>
-      <c r="Q1" s="254"/>
-      <c r="R1" s="255"/>
-      <c r="S1" s="249" t="str">
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
+      <c r="R1" s="263"/>
+      <c r="S1" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(その他)
 B21AA01/ユーザ情報反映</v>
       </c>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="211"/>
-      <c r="AA1" s="250" t="s">
+      <c r="T1" s="218"/>
+      <c r="U1" s="218"/>
+      <c r="V1" s="218"/>
+      <c r="W1" s="218"/>
+      <c r="X1" s="218"/>
+      <c r="Y1" s="218"/>
+      <c r="Z1" s="219"/>
+      <c r="AA1" s="258" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="252"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="260"/>
+      <c r="AC1" s="226" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="262">
+      <c r="AD1" s="227"/>
+      <c r="AE1" s="227"/>
+      <c r="AF1" s="228"/>
+      <c r="AG1" s="270">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="263"/>
-      <c r="AI1" s="264"/>
+      <c r="AH1" s="271"/>
+      <c r="AI1" s="272"/>
     </row>
     <row r="2" spans="1:40" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="250" t="s">
+      <c r="A2" s="258" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="206" t="str">
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="260"/>
+      <c r="E2" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="256"/>
-      <c r="P2" s="257"/>
-      <c r="Q2" s="257"/>
-      <c r="R2" s="258"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="213"/>
-      <c r="X2" s="213"/>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="250" t="s">
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="264"/>
+      <c r="P2" s="265"/>
+      <c r="Q2" s="265"/>
+      <c r="R2" s="266"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="221"/>
+      <c r="U2" s="221"/>
+      <c r="V2" s="221"/>
+      <c r="W2" s="221"/>
+      <c r="X2" s="221"/>
+      <c r="Y2" s="221"/>
+      <c r="Z2" s="222"/>
+      <c r="AA2" s="258" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="252"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="260"/>
+      <c r="AC2" s="226" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="262" t="str">
+      <c r="AD2" s="227"/>
+      <c r="AE2" s="227"/>
+      <c r="AF2" s="228"/>
+      <c r="AG2" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="263"/>
-      <c r="AI2" s="264"/>
+      <c r="AH2" s="271"/>
+      <c r="AI2" s="272"/>
     </row>
     <row r="3" spans="1:40" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="250" t="s">
+      <c r="A3" s="258" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="206" t="str">
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="260"/>
+      <c r="E3" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="259"/>
-      <c r="P3" s="260"/>
-      <c r="Q3" s="260"/>
-      <c r="R3" s="261"/>
-      <c r="S3" s="215"/>
-      <c r="T3" s="216"/>
-      <c r="U3" s="216"/>
-      <c r="V3" s="216"/>
-      <c r="W3" s="216"/>
-      <c r="X3" s="216"/>
-      <c r="Y3" s="216"/>
-      <c r="Z3" s="217"/>
-      <c r="AA3" s="250"/>
-      <c r="AB3" s="252"/>
-      <c r="AC3" s="218" t="str">
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="215"/>
+      <c r="M3" s="215"/>
+      <c r="N3" s="216"/>
+      <c r="O3" s="267"/>
+      <c r="P3" s="268"/>
+      <c r="Q3" s="268"/>
+      <c r="R3" s="269"/>
+      <c r="S3" s="223"/>
+      <c r="T3" s="224"/>
+      <c r="U3" s="224"/>
+      <c r="V3" s="224"/>
+      <c r="W3" s="224"/>
+      <c r="X3" s="224"/>
+      <c r="Y3" s="224"/>
+      <c r="Z3" s="225"/>
+      <c r="AA3" s="258"/>
+      <c r="AB3" s="260"/>
+      <c r="AC3" s="226" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="262" t="str">
+      <c r="AD3" s="227"/>
+      <c r="AE3" s="227"/>
+      <c r="AF3" s="228"/>
+      <c r="AG3" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="263"/>
-      <c r="AI3" s="264"/>
+      <c r="AH3" s="271"/>
+      <c r="AI3" s="272"/>
     </row>
     <row r="4" spans="1:40" ht="12" customHeight="1"/>
     <row r="5" spans="1:40" ht="15" customHeight="1">
-      <c r="A5" s="380" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5" s="381"/>
-      <c r="C5" s="381"/>
-      <c r="D5" s="381"/>
+      <c r="A5" s="389" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="390"/>
+      <c r="C5" s="390"/>
+      <c r="D5" s="390"/>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1">
       <c r="A6" s="168"/>
@@ -15637,131 +15613,131 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="409" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B13" s="410" t="s">
-        <v>219</v>
-      </c>
-      <c r="C13" s="378" t="s">
+    <row r="13" spans="1:40" s="187" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B13" s="193" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="386" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="411"/>
-      <c r="E13" s="411"/>
-      <c r="F13" s="411"/>
-      <c r="G13" s="379"/>
-      <c r="H13" s="378" t="s">
+      <c r="D13" s="387"/>
+      <c r="E13" s="387"/>
+      <c r="F13" s="387"/>
+      <c r="G13" s="388"/>
+      <c r="H13" s="386" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="411"/>
-      <c r="J13" s="411"/>
-      <c r="K13" s="411"/>
-      <c r="L13" s="379"/>
-      <c r="M13" s="378" t="s">
+      <c r="I13" s="387"/>
+      <c r="J13" s="387"/>
+      <c r="K13" s="387"/>
+      <c r="L13" s="388"/>
+      <c r="M13" s="386" t="s">
         <v>86</v>
       </c>
-      <c r="N13" s="411"/>
-      <c r="O13" s="411"/>
-      <c r="P13" s="411"/>
-      <c r="Q13" s="379"/>
-      <c r="R13" s="412" t="s">
+      <c r="N13" s="387"/>
+      <c r="O13" s="387"/>
+      <c r="P13" s="387"/>
+      <c r="Q13" s="388"/>
+      <c r="R13" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="S13" s="378" t="s">
+      <c r="S13" s="386" t="s">
         <v>71</v>
       </c>
-      <c r="T13" s="411"/>
-      <c r="U13" s="411"/>
-      <c r="V13" s="379"/>
-      <c r="W13" s="413" t="s">
+      <c r="T13" s="387"/>
+      <c r="U13" s="387"/>
+      <c r="V13" s="388"/>
+      <c r="W13" s="386" t="s">
         <v>210</v>
       </c>
-      <c r="X13" s="414"/>
-      <c r="Y13" s="413" t="s">
+      <c r="X13" s="388"/>
+      <c r="Y13" s="386" t="s">
         <v>64</v>
       </c>
-      <c r="Z13" s="414"/>
-      <c r="AA13" s="378" t="s">
+      <c r="Z13" s="388"/>
+      <c r="AA13" s="386" t="s">
         <v>25</v>
       </c>
-      <c r="AB13" s="379"/>
-      <c r="AC13" s="378" t="s">
+      <c r="AB13" s="388"/>
+      <c r="AC13" s="386" t="s">
         <v>142</v>
       </c>
-      <c r="AD13" s="379"/>
-      <c r="AE13" s="378" t="s">
+      <c r="AD13" s="388"/>
+      <c r="AE13" s="386" t="s">
         <v>85</v>
       </c>
-      <c r="AF13" s="379"/>
-      <c r="AG13" s="378" t="s">
+      <c r="AF13" s="388"/>
+      <c r="AG13" s="386" t="s">
         <v>63</v>
       </c>
-      <c r="AH13" s="411"/>
-      <c r="AI13" s="379"/>
-      <c r="AJ13" s="412" t="s">
+      <c r="AH13" s="387"/>
+      <c r="AI13" s="388"/>
+      <c r="AJ13" s="185" t="s">
         <v>62</v>
       </c>
-      <c r="AK13" s="415"/>
-      <c r="AL13" s="415"/>
-      <c r="AM13" s="415"/>
-      <c r="AN13" s="416"/>
+      <c r="AK13" s="191"/>
+      <c r="AL13" s="191"/>
+      <c r="AM13" s="191"/>
+      <c r="AN13" s="186"/>
     </row>
     <row r="14" spans="1:40" ht="11.25">
       <c r="B14" s="182">
         <v>1</v>
       </c>
-      <c r="C14" s="382" t="s">
+      <c r="C14" s="391" t="s">
         <v>143</v>
       </c>
-      <c r="D14" s="383"/>
-      <c r="E14" s="383"/>
-      <c r="F14" s="383"/>
-      <c r="G14" s="384"/>
-      <c r="H14" s="385" t="s">
+      <c r="D14" s="392"/>
+      <c r="E14" s="392"/>
+      <c r="F14" s="392"/>
+      <c r="G14" s="393"/>
+      <c r="H14" s="394" t="s">
         <v>144</v>
       </c>
-      <c r="I14" s="386"/>
-      <c r="J14" s="386"/>
-      <c r="K14" s="386"/>
-      <c r="L14" s="387"/>
-      <c r="M14" s="388" t="s">
+      <c r="I14" s="395"/>
+      <c r="J14" s="395"/>
+      <c r="K14" s="395"/>
+      <c r="L14" s="396"/>
+      <c r="M14" s="397" t="s">
         <v>105</v>
       </c>
-      <c r="N14" s="389"/>
-      <c r="O14" s="389"/>
-      <c r="P14" s="389"/>
-      <c r="Q14" s="390"/>
+      <c r="N14" s="398"/>
+      <c r="O14" s="398"/>
+      <c r="P14" s="398"/>
+      <c r="Q14" s="399"/>
       <c r="R14" s="181" t="s">
         <v>104</v>
       </c>
-      <c r="S14" s="391" t="s">
+      <c r="S14" s="400" t="s">
         <v>145</v>
       </c>
-      <c r="T14" s="392"/>
-      <c r="U14" s="392"/>
-      <c r="V14" s="393"/>
-      <c r="W14" s="394">
+      <c r="T14" s="401"/>
+      <c r="U14" s="401"/>
+      <c r="V14" s="402"/>
+      <c r="W14" s="403">
         <v>8</v>
       </c>
-      <c r="X14" s="395"/>
-      <c r="Y14" s="396">
+      <c r="X14" s="404"/>
+      <c r="Y14" s="405">
         <v>1</v>
       </c>
-      <c r="Z14" s="397"/>
-      <c r="AA14" s="385" t="s">
+      <c r="Z14" s="406"/>
+      <c r="AA14" s="394" t="s">
         <v>146</v>
       </c>
-      <c r="AB14" s="387"/>
-      <c r="AC14" s="385"/>
-      <c r="AD14" s="387"/>
-      <c r="AE14" s="385"/>
-      <c r="AF14" s="387"/>
-      <c r="AG14" s="385"/>
-      <c r="AH14" s="386"/>
-      <c r="AI14" s="387"/>
-      <c r="AJ14" s="388"/>
-      <c r="AK14" s="389"/>
-      <c r="AL14" s="389"/>
-      <c r="AM14" s="389"/>
-      <c r="AN14" s="390"/>
+      <c r="AB14" s="396"/>
+      <c r="AC14" s="394"/>
+      <c r="AD14" s="396"/>
+      <c r="AE14" s="394"/>
+      <c r="AF14" s="396"/>
+      <c r="AG14" s="394"/>
+      <c r="AH14" s="395"/>
+      <c r="AI14" s="396"/>
+      <c r="AJ14" s="397"/>
+      <c r="AK14" s="398"/>
+      <c r="AL14" s="398"/>
+      <c r="AM14" s="398"/>
+      <c r="AN14" s="399"/>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1">
       <c r="A21" s="164"/>
@@ -15848,163 +15824,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:121" s="71" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="258" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="206" t="str">
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="253" t="s">
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="261" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="254"/>
-      <c r="Q1" s="254"/>
-      <c r="R1" s="255"/>
-      <c r="S1" s="249" t="str">
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
+      <c r="R1" s="263"/>
+      <c r="S1" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(その他)
 B21AA01/ユーザ情報反映</v>
       </c>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="211"/>
-      <c r="AA1" s="250" t="s">
+      <c r="T1" s="218"/>
+      <c r="U1" s="218"/>
+      <c r="V1" s="218"/>
+      <c r="W1" s="218"/>
+      <c r="X1" s="218"/>
+      <c r="Y1" s="218"/>
+      <c r="Z1" s="219"/>
+      <c r="AA1" s="258" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="252"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="260"/>
+      <c r="AC1" s="226" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="262">
+      <c r="AD1" s="227"/>
+      <c r="AE1" s="227"/>
+      <c r="AF1" s="228"/>
+      <c r="AG1" s="270">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="263"/>
-      <c r="AI1" s="264"/>
+      <c r="AH1" s="271"/>
+      <c r="AI1" s="272"/>
     </row>
     <row r="2" spans="1:121" s="71" customFormat="1" ht="11.25">
-      <c r="A2" s="250" t="s">
+      <c r="A2" s="258" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="206" t="str">
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="260"/>
+      <c r="E2" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="256"/>
-      <c r="P2" s="257"/>
-      <c r="Q2" s="257"/>
-      <c r="R2" s="258"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="213"/>
-      <c r="X2" s="213"/>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="250" t="s">
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="264"/>
+      <c r="P2" s="265"/>
+      <c r="Q2" s="265"/>
+      <c r="R2" s="266"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="221"/>
+      <c r="U2" s="221"/>
+      <c r="V2" s="221"/>
+      <c r="W2" s="221"/>
+      <c r="X2" s="221"/>
+      <c r="Y2" s="221"/>
+      <c r="Z2" s="222"/>
+      <c r="AA2" s="258" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="252"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="260"/>
+      <c r="AC2" s="226" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="262" t="str">
+      <c r="AD2" s="227"/>
+      <c r="AE2" s="227"/>
+      <c r="AF2" s="228"/>
+      <c r="AG2" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="263"/>
-      <c r="AI2" s="264"/>
+      <c r="AH2" s="271"/>
+      <c r="AI2" s="272"/>
     </row>
     <row r="3" spans="1:121" s="71" customFormat="1" ht="11.25">
-      <c r="A3" s="250" t="s">
+      <c r="A3" s="258" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="206" t="str">
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="260"/>
+      <c r="E3" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="259"/>
-      <c r="P3" s="260"/>
-      <c r="Q3" s="260"/>
-      <c r="R3" s="261"/>
-      <c r="S3" s="215"/>
-      <c r="T3" s="216"/>
-      <c r="U3" s="216"/>
-      <c r="V3" s="216"/>
-      <c r="W3" s="216"/>
-      <c r="X3" s="216"/>
-      <c r="Y3" s="216"/>
-      <c r="Z3" s="217"/>
-      <c r="AA3" s="250"/>
-      <c r="AB3" s="252"/>
-      <c r="AC3" s="218" t="str">
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="215"/>
+      <c r="M3" s="215"/>
+      <c r="N3" s="216"/>
+      <c r="O3" s="267"/>
+      <c r="P3" s="268"/>
+      <c r="Q3" s="268"/>
+      <c r="R3" s="269"/>
+      <c r="S3" s="223"/>
+      <c r="T3" s="224"/>
+      <c r="U3" s="224"/>
+      <c r="V3" s="224"/>
+      <c r="W3" s="224"/>
+      <c r="X3" s="224"/>
+      <c r="Y3" s="224"/>
+      <c r="Z3" s="225"/>
+      <c r="AA3" s="258"/>
+      <c r="AB3" s="260"/>
+      <c r="AC3" s="226" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="262" t="str">
+      <c r="AD3" s="227"/>
+      <c r="AE3" s="227"/>
+      <c r="AF3" s="228"/>
+      <c r="AG3" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="263"/>
-      <c r="AI3" s="264"/>
+      <c r="AH3" s="271"/>
+      <c r="AI3" s="272"/>
     </row>
     <row r="4" spans="1:121" ht="11.25"/>
     <row r="5" spans="1:121" ht="11.25">
       <c r="A5" s="175" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B5" s="168"/>
       <c r="C5" s="168"/>
@@ -16016,189 +15992,189 @@
       <c r="C6" s="168"/>
       <c r="D6" s="168"/>
     </row>
-    <row r="7" spans="1:121" s="409" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="417" t="s">
-        <v>219</v>
-      </c>
-      <c r="B7" s="378" t="s">
+    <row r="7" spans="1:121" s="187" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A7" s="193" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="386" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="411"/>
-      <c r="D7" s="411"/>
-      <c r="E7" s="411"/>
-      <c r="F7" s="379"/>
-      <c r="G7" s="378" t="s">
+      <c r="C7" s="387"/>
+      <c r="D7" s="387"/>
+      <c r="E7" s="387"/>
+      <c r="F7" s="388"/>
+      <c r="G7" s="386" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="411"/>
-      <c r="I7" s="411"/>
-      <c r="J7" s="411"/>
-      <c r="K7" s="379"/>
-      <c r="L7" s="378" t="s">
+      <c r="H7" s="387"/>
+      <c r="I7" s="387"/>
+      <c r="J7" s="387"/>
+      <c r="K7" s="388"/>
+      <c r="L7" s="386" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="411"/>
-      <c r="N7" s="411"/>
-      <c r="O7" s="411"/>
-      <c r="P7" s="379"/>
+      <c r="M7" s="387"/>
+      <c r="N7" s="387"/>
+      <c r="O7" s="387"/>
+      <c r="P7" s="388"/>
       <c r="Q7" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="418" t="s">
+      <c r="R7" s="410" t="s">
         <v>71</v>
       </c>
-      <c r="S7" s="418"/>
-      <c r="T7" s="418"/>
-      <c r="U7" s="418"/>
-      <c r="V7" s="418" t="s">
+      <c r="S7" s="410"/>
+      <c r="T7" s="410"/>
+      <c r="U7" s="410"/>
+      <c r="V7" s="410" t="s">
         <v>209</v>
       </c>
-      <c r="W7" s="418"/>
-      <c r="X7" s="378" t="s">
+      <c r="W7" s="410"/>
+      <c r="X7" s="386" t="s">
         <v>64</v>
       </c>
-      <c r="Y7" s="379"/>
-      <c r="Z7" s="378" t="s">
+      <c r="Y7" s="388"/>
+      <c r="Z7" s="386" t="s">
         <v>25</v>
       </c>
-      <c r="AA7" s="379"/>
-      <c r="AB7" s="378" t="s">
+      <c r="AA7" s="388"/>
+      <c r="AB7" s="386" t="s">
         <v>84</v>
       </c>
-      <c r="AC7" s="379"/>
-      <c r="AD7" s="378" t="s">
+      <c r="AC7" s="388"/>
+      <c r="AD7" s="386" t="s">
         <v>85</v>
       </c>
-      <c r="AE7" s="379"/>
-      <c r="AF7" s="378" t="s">
+      <c r="AE7" s="388"/>
+      <c r="AF7" s="386" t="s">
         <v>63</v>
       </c>
-      <c r="AG7" s="411"/>
-      <c r="AH7" s="379"/>
-      <c r="AI7" s="378" t="s">
+      <c r="AG7" s="387"/>
+      <c r="AH7" s="388"/>
+      <c r="AI7" s="386" t="s">
         <v>62</v>
       </c>
-      <c r="AJ7" s="411"/>
-      <c r="AK7" s="411"/>
-      <c r="AL7" s="411"/>
-      <c r="AM7" s="411"/>
-      <c r="AN7" s="379"/>
-      <c r="BN7" s="419"/>
-      <c r="BO7" s="419"/>
-      <c r="BP7" s="419"/>
-      <c r="BQ7" s="419"/>
-      <c r="BR7" s="419"/>
-      <c r="BS7" s="419"/>
-      <c r="BT7" s="419"/>
-      <c r="BU7" s="419"/>
-      <c r="BV7" s="419"/>
-      <c r="BW7" s="419"/>
-      <c r="BX7" s="419"/>
-      <c r="BY7" s="419"/>
-      <c r="BZ7" s="419"/>
-      <c r="CA7" s="419"/>
-      <c r="CB7" s="419"/>
-      <c r="CC7" s="419"/>
-      <c r="CD7" s="419"/>
-      <c r="CE7" s="419"/>
-      <c r="CF7" s="419"/>
-      <c r="CG7" s="419"/>
-      <c r="CH7" s="419"/>
-      <c r="CI7" s="419"/>
-      <c r="CJ7" s="419"/>
-      <c r="CK7" s="419"/>
-      <c r="CL7" s="419"/>
-      <c r="CM7" s="419"/>
-      <c r="CN7" s="419"/>
-      <c r="CO7" s="419"/>
-      <c r="CP7" s="419"/>
-      <c r="CQ7" s="419"/>
-      <c r="CR7" s="419"/>
-      <c r="CS7" s="419"/>
-      <c r="CT7" s="419"/>
-      <c r="CU7" s="419"/>
-      <c r="CV7" s="419"/>
-      <c r="CW7" s="419"/>
-      <c r="CX7" s="419"/>
-      <c r="CY7" s="419"/>
-      <c r="CZ7" s="419"/>
-      <c r="DA7" s="419"/>
-      <c r="DB7" s="419"/>
-      <c r="DC7" s="419"/>
-      <c r="DD7" s="419"/>
-      <c r="DE7" s="419"/>
-      <c r="DF7" s="419"/>
-      <c r="DG7" s="420"/>
-      <c r="DH7" s="420"/>
-      <c r="DI7" s="420"/>
-      <c r="DJ7" s="420"/>
-      <c r="DK7" s="420"/>
-      <c r="DL7" s="420"/>
-      <c r="DM7" s="420"/>
-      <c r="DN7" s="420"/>
-      <c r="DO7" s="420"/>
-      <c r="DP7" s="420"/>
-      <c r="DQ7" s="420"/>
+      <c r="AJ7" s="387"/>
+      <c r="AK7" s="387"/>
+      <c r="AL7" s="387"/>
+      <c r="AM7" s="387"/>
+      <c r="AN7" s="388"/>
+      <c r="BN7" s="188"/>
+      <c r="BO7" s="188"/>
+      <c r="BP7" s="188"/>
+      <c r="BQ7" s="188"/>
+      <c r="BR7" s="188"/>
+      <c r="BS7" s="188"/>
+      <c r="BT7" s="188"/>
+      <c r="BU7" s="188"/>
+      <c r="BV7" s="188"/>
+      <c r="BW7" s="188"/>
+      <c r="BX7" s="188"/>
+      <c r="BY7" s="188"/>
+      <c r="BZ7" s="188"/>
+      <c r="CA7" s="188"/>
+      <c r="CB7" s="188"/>
+      <c r="CC7" s="188"/>
+      <c r="CD7" s="188"/>
+      <c r="CE7" s="188"/>
+      <c r="CF7" s="188"/>
+      <c r="CG7" s="188"/>
+      <c r="CH7" s="188"/>
+      <c r="CI7" s="188"/>
+      <c r="CJ7" s="188"/>
+      <c r="CK7" s="188"/>
+      <c r="CL7" s="188"/>
+      <c r="CM7" s="188"/>
+      <c r="CN7" s="188"/>
+      <c r="CO7" s="188"/>
+      <c r="CP7" s="188"/>
+      <c r="CQ7" s="188"/>
+      <c r="CR7" s="188"/>
+      <c r="CS7" s="188"/>
+      <c r="CT7" s="188"/>
+      <c r="CU7" s="188"/>
+      <c r="CV7" s="188"/>
+      <c r="CW7" s="188"/>
+      <c r="CX7" s="188"/>
+      <c r="CY7" s="188"/>
+      <c r="CZ7" s="188"/>
+      <c r="DA7" s="188"/>
+      <c r="DB7" s="188"/>
+      <c r="DC7" s="188"/>
+      <c r="DD7" s="188"/>
+      <c r="DE7" s="188"/>
+      <c r="DF7" s="188"/>
+      <c r="DG7" s="189"/>
+      <c r="DH7" s="189"/>
+      <c r="DI7" s="189"/>
+      <c r="DJ7" s="189"/>
+      <c r="DK7" s="189"/>
+      <c r="DL7" s="189"/>
+      <c r="DM7" s="189"/>
+      <c r="DN7" s="189"/>
+      <c r="DO7" s="189"/>
+      <c r="DP7" s="189"/>
+      <c r="DQ7" s="189"/>
     </row>
     <row r="8" spans="1:121" ht="15" customHeight="1">
       <c r="A8" s="183">
         <v>1</v>
       </c>
-      <c r="B8" s="388" t="s">
+      <c r="B8" s="397" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="389"/>
-      <c r="D8" s="389"/>
-      <c r="E8" s="389"/>
-      <c r="F8" s="390"/>
-      <c r="G8" s="388" t="s">
+      <c r="C8" s="398"/>
+      <c r="D8" s="398"/>
+      <c r="E8" s="398"/>
+      <c r="F8" s="399"/>
+      <c r="G8" s="397" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="389"/>
-      <c r="I8" s="389"/>
-      <c r="J8" s="389"/>
-      <c r="K8" s="390"/>
-      <c r="L8" s="388" t="s">
+      <c r="H8" s="398"/>
+      <c r="I8" s="398"/>
+      <c r="J8" s="398"/>
+      <c r="K8" s="399"/>
+      <c r="L8" s="397" t="s">
         <v>110</v>
       </c>
-      <c r="M8" s="389"/>
-      <c r="N8" s="389"/>
-      <c r="O8" s="389"/>
-      <c r="P8" s="390"/>
+      <c r="M8" s="398"/>
+      <c r="N8" s="398"/>
+      <c r="O8" s="398"/>
+      <c r="P8" s="399"/>
       <c r="Q8" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R8" s="398" t="s">
+      <c r="R8" s="407" t="s">
         <v>123</v>
       </c>
-      <c r="S8" s="399"/>
-      <c r="T8" s="399"/>
-      <c r="U8" s="400"/>
-      <c r="V8" s="394">
+      <c r="S8" s="408"/>
+      <c r="T8" s="408"/>
+      <c r="U8" s="409"/>
+      <c r="V8" s="403">
         <v>1</v>
       </c>
-      <c r="W8" s="395"/>
-      <c r="X8" s="394">
+      <c r="W8" s="404"/>
+      <c r="X8" s="403">
         <v>1</v>
       </c>
-      <c r="Y8" s="395"/>
-      <c r="Z8" s="385"/>
-      <c r="AA8" s="387"/>
-      <c r="AB8" s="385"/>
-      <c r="AC8" s="387"/>
-      <c r="AD8" s="385"/>
-      <c r="AE8" s="387"/>
-      <c r="AF8" s="385"/>
-      <c r="AG8" s="386"/>
-      <c r="AH8" s="387"/>
-      <c r="AI8" s="388" t="s">
+      <c r="Y8" s="404"/>
+      <c r="Z8" s="394"/>
+      <c r="AA8" s="396"/>
+      <c r="AB8" s="394"/>
+      <c r="AC8" s="396"/>
+      <c r="AD8" s="394"/>
+      <c r="AE8" s="396"/>
+      <c r="AF8" s="394"/>
+      <c r="AG8" s="395"/>
+      <c r="AH8" s="396"/>
+      <c r="AI8" s="397" t="s">
         <v>129</v>
       </c>
-      <c r="AJ8" s="389"/>
-      <c r="AK8" s="389"/>
-      <c r="AL8" s="389"/>
-      <c r="AM8" s="389"/>
-      <c r="AN8" s="390"/>
+      <c r="AJ8" s="398"/>
+      <c r="AK8" s="398"/>
+      <c r="AL8" s="398"/>
+      <c r="AM8" s="398"/>
+      <c r="AN8" s="399"/>
       <c r="AR8" s="164"/>
       <c r="AS8" s="137"/>
       <c r="AT8" s="137"/>
@@ -16267,62 +16243,62 @@
       <c r="A9" s="183">
         <v>2</v>
       </c>
-      <c r="B9" s="388" t="s">
+      <c r="B9" s="397" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="389"/>
-      <c r="D9" s="389"/>
-      <c r="E9" s="389"/>
-      <c r="F9" s="390"/>
-      <c r="G9" s="388" t="s">
+      <c r="C9" s="398"/>
+      <c r="D9" s="398"/>
+      <c r="E9" s="398"/>
+      <c r="F9" s="399"/>
+      <c r="G9" s="397" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="389"/>
-      <c r="I9" s="389"/>
-      <c r="J9" s="389"/>
-      <c r="K9" s="390"/>
-      <c r="L9" s="388" t="s">
+      <c r="H9" s="398"/>
+      <c r="I9" s="398"/>
+      <c r="J9" s="398"/>
+      <c r="K9" s="399"/>
+      <c r="L9" s="397" t="s">
         <v>111</v>
       </c>
-      <c r="M9" s="389"/>
-      <c r="N9" s="389"/>
-      <c r="O9" s="389"/>
-      <c r="P9" s="390"/>
+      <c r="M9" s="398"/>
+      <c r="N9" s="398"/>
+      <c r="O9" s="398"/>
+      <c r="P9" s="399"/>
       <c r="Q9" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R9" s="398" t="s">
+      <c r="R9" s="407" t="s">
         <v>124</v>
       </c>
-      <c r="S9" s="399"/>
-      <c r="T9" s="399"/>
-      <c r="U9" s="400"/>
-      <c r="V9" s="394">
+      <c r="S9" s="408"/>
+      <c r="T9" s="408"/>
+      <c r="U9" s="409"/>
+      <c r="V9" s="403">
         <v>10</v>
       </c>
-      <c r="W9" s="395"/>
-      <c r="X9" s="394">
+      <c r="W9" s="404"/>
+      <c r="X9" s="403">
         <f>X8+V8</f>
         <v>2</v>
       </c>
-      <c r="Y9" s="395"/>
-      <c r="Z9" s="385"/>
-      <c r="AA9" s="387"/>
-      <c r="AB9" s="385" t="s">
+      <c r="Y9" s="404"/>
+      <c r="Z9" s="394"/>
+      <c r="AA9" s="396"/>
+      <c r="AB9" s="394" t="s">
         <v>127</v>
       </c>
-      <c r="AC9" s="387"/>
-      <c r="AD9" s="385"/>
-      <c r="AE9" s="387"/>
-      <c r="AF9" s="385"/>
-      <c r="AG9" s="386"/>
-      <c r="AH9" s="387"/>
-      <c r="AI9" s="388"/>
-      <c r="AJ9" s="389"/>
-      <c r="AK9" s="389"/>
-      <c r="AL9" s="389"/>
-      <c r="AM9" s="389"/>
-      <c r="AN9" s="390"/>
+      <c r="AC9" s="396"/>
+      <c r="AD9" s="394"/>
+      <c r="AE9" s="396"/>
+      <c r="AF9" s="394"/>
+      <c r="AG9" s="395"/>
+      <c r="AH9" s="396"/>
+      <c r="AI9" s="397"/>
+      <c r="AJ9" s="398"/>
+      <c r="AK9" s="398"/>
+      <c r="AL9" s="398"/>
+      <c r="AM9" s="398"/>
+      <c r="AN9" s="399"/>
       <c r="AR9" s="137"/>
       <c r="AS9" s="137"/>
       <c r="AT9" s="137"/>
@@ -16391,62 +16367,62 @@
       <c r="A10" s="183">
         <v>3</v>
       </c>
-      <c r="B10" s="388" t="s">
+      <c r="B10" s="397" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="389"/>
-      <c r="D10" s="389"/>
-      <c r="E10" s="389"/>
-      <c r="F10" s="390"/>
-      <c r="G10" s="388" t="s">
+      <c r="C10" s="398"/>
+      <c r="D10" s="398"/>
+      <c r="E10" s="398"/>
+      <c r="F10" s="399"/>
+      <c r="G10" s="397" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="389"/>
-      <c r="I10" s="389"/>
-      <c r="J10" s="389"/>
-      <c r="K10" s="390"/>
-      <c r="L10" s="388" t="s">
+      <c r="H10" s="398"/>
+      <c r="I10" s="398"/>
+      <c r="J10" s="398"/>
+      <c r="K10" s="399"/>
+      <c r="L10" s="397" t="s">
         <v>112</v>
       </c>
-      <c r="M10" s="389"/>
-      <c r="N10" s="389"/>
-      <c r="O10" s="389"/>
-      <c r="P10" s="390"/>
+      <c r="M10" s="398"/>
+      <c r="N10" s="398"/>
+      <c r="O10" s="398"/>
+      <c r="P10" s="399"/>
       <c r="Q10" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R10" s="398" t="s">
+      <c r="R10" s="407" t="s">
         <v>125</v>
       </c>
-      <c r="S10" s="399"/>
-      <c r="T10" s="399"/>
-      <c r="U10" s="400"/>
-      <c r="V10" s="394">
+      <c r="S10" s="408"/>
+      <c r="T10" s="408"/>
+      <c r="U10" s="409"/>
+      <c r="V10" s="403">
         <v>1</v>
       </c>
-      <c r="W10" s="395"/>
-      <c r="X10" s="394">
+      <c r="W10" s="404"/>
+      <c r="X10" s="403">
         <f>X9+V9</f>
         <v>12</v>
       </c>
-      <c r="Y10" s="395"/>
-      <c r="Z10" s="385"/>
-      <c r="AA10" s="387"/>
-      <c r="AB10" s="385"/>
-      <c r="AC10" s="387"/>
-      <c r="AD10" s="385"/>
-      <c r="AE10" s="387"/>
-      <c r="AF10" s="385"/>
-      <c r="AG10" s="386"/>
-      <c r="AH10" s="387"/>
-      <c r="AI10" s="388" t="s">
+      <c r="Y10" s="404"/>
+      <c r="Z10" s="394"/>
+      <c r="AA10" s="396"/>
+      <c r="AB10" s="394"/>
+      <c r="AC10" s="396"/>
+      <c r="AD10" s="394"/>
+      <c r="AE10" s="396"/>
+      <c r="AF10" s="394"/>
+      <c r="AG10" s="395"/>
+      <c r="AH10" s="396"/>
+      <c r="AI10" s="397" t="s">
         <v>130</v>
       </c>
-      <c r="AJ10" s="389"/>
-      <c r="AK10" s="389"/>
-      <c r="AL10" s="389"/>
-      <c r="AM10" s="389"/>
-      <c r="AN10" s="390"/>
+      <c r="AJ10" s="398"/>
+      <c r="AK10" s="398"/>
+      <c r="AL10" s="398"/>
+      <c r="AM10" s="398"/>
+      <c r="AN10" s="399"/>
       <c r="AR10" s="137"/>
       <c r="AS10" s="137"/>
       <c r="AT10" s="137"/>
@@ -16515,64 +16491,64 @@
       <c r="A11" s="183">
         <v>4</v>
       </c>
-      <c r="B11" s="388" t="s">
+      <c r="B11" s="397" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="389"/>
-      <c r="D11" s="389"/>
-      <c r="E11" s="389"/>
-      <c r="F11" s="390"/>
-      <c r="G11" s="388" t="s">
+      <c r="C11" s="398"/>
+      <c r="D11" s="398"/>
+      <c r="E11" s="398"/>
+      <c r="F11" s="399"/>
+      <c r="G11" s="397" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="389"/>
-      <c r="I11" s="389"/>
-      <c r="J11" s="389"/>
-      <c r="K11" s="390"/>
-      <c r="L11" s="388" t="s">
+      <c r="H11" s="398"/>
+      <c r="I11" s="398"/>
+      <c r="J11" s="398"/>
+      <c r="K11" s="399"/>
+      <c r="L11" s="397" t="s">
         <v>122</v>
       </c>
-      <c r="M11" s="389"/>
-      <c r="N11" s="389"/>
-      <c r="O11" s="389"/>
-      <c r="P11" s="390"/>
+      <c r="M11" s="398"/>
+      <c r="N11" s="398"/>
+      <c r="O11" s="398"/>
+      <c r="P11" s="399"/>
       <c r="Q11" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R11" s="398" t="s">
+      <c r="R11" s="407" t="s">
         <v>126</v>
       </c>
-      <c r="S11" s="399"/>
-      <c r="T11" s="399"/>
-      <c r="U11" s="400"/>
-      <c r="V11" s="394">
+      <c r="S11" s="408"/>
+      <c r="T11" s="408"/>
+      <c r="U11" s="409"/>
+      <c r="V11" s="403">
         <v>8</v>
       </c>
-      <c r="W11" s="395"/>
-      <c r="X11" s="394">
+      <c r="W11" s="404"/>
+      <c r="X11" s="403">
         <f>X10+V10</f>
         <v>13</v>
       </c>
-      <c r="Y11" s="395"/>
-      <c r="Z11" s="385"/>
-      <c r="AA11" s="387"/>
-      <c r="AB11" s="385"/>
-      <c r="AC11" s="387"/>
-      <c r="AD11" s="385"/>
-      <c r="AE11" s="387"/>
-      <c r="AF11" s="388" t="s">
+      <c r="Y11" s="404"/>
+      <c r="Z11" s="394"/>
+      <c r="AA11" s="396"/>
+      <c r="AB11" s="394"/>
+      <c r="AC11" s="396"/>
+      <c r="AD11" s="394"/>
+      <c r="AE11" s="396"/>
+      <c r="AF11" s="397" t="s">
         <v>128</v>
       </c>
-      <c r="AG11" s="389"/>
-      <c r="AH11" s="390"/>
-      <c r="AI11" s="388" t="s">
+      <c r="AG11" s="398"/>
+      <c r="AH11" s="399"/>
+      <c r="AI11" s="397" t="s">
         <v>131</v>
       </c>
-      <c r="AJ11" s="389"/>
-      <c r="AK11" s="389"/>
-      <c r="AL11" s="389"/>
-      <c r="AM11" s="389"/>
-      <c r="AN11" s="390"/>
+      <c r="AJ11" s="398"/>
+      <c r="AK11" s="398"/>
+      <c r="AL11" s="398"/>
+      <c r="AM11" s="398"/>
+      <c r="AN11" s="399"/>
       <c r="AR11" s="164"/>
       <c r="AS11" s="137"/>
       <c r="AT11" s="137"/>
@@ -16641,64 +16617,64 @@
       <c r="A12" s="183">
         <v>5</v>
       </c>
-      <c r="B12" s="388" t="s">
+      <c r="B12" s="397" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="389"/>
-      <c r="D12" s="389"/>
-      <c r="E12" s="389"/>
-      <c r="F12" s="390"/>
-      <c r="G12" s="388" t="s">
+      <c r="C12" s="398"/>
+      <c r="D12" s="398"/>
+      <c r="E12" s="398"/>
+      <c r="F12" s="399"/>
+      <c r="G12" s="397" t="s">
         <v>120</v>
       </c>
-      <c r="H12" s="389"/>
-      <c r="I12" s="389"/>
-      <c r="J12" s="389"/>
-      <c r="K12" s="390"/>
-      <c r="L12" s="388" t="s">
+      <c r="H12" s="398"/>
+      <c r="I12" s="398"/>
+      <c r="J12" s="398"/>
+      <c r="K12" s="399"/>
+      <c r="L12" s="397" t="s">
         <v>122</v>
       </c>
-      <c r="M12" s="389"/>
-      <c r="N12" s="389"/>
-      <c r="O12" s="389"/>
-      <c r="P12" s="390"/>
+      <c r="M12" s="398"/>
+      <c r="N12" s="398"/>
+      <c r="O12" s="398"/>
+      <c r="P12" s="399"/>
       <c r="Q12" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R12" s="398" t="s">
+      <c r="R12" s="407" t="s">
         <v>124</v>
       </c>
-      <c r="S12" s="399"/>
-      <c r="T12" s="399"/>
-      <c r="U12" s="400"/>
-      <c r="V12" s="394">
+      <c r="S12" s="408"/>
+      <c r="T12" s="408"/>
+      <c r="U12" s="409"/>
+      <c r="V12" s="403">
         <v>8</v>
       </c>
-      <c r="W12" s="395"/>
-      <c r="X12" s="394">
+      <c r="W12" s="404"/>
+      <c r="X12" s="403">
         <f>X11+V11</f>
         <v>21</v>
       </c>
-      <c r="Y12" s="395"/>
-      <c r="Z12" s="385"/>
-      <c r="AA12" s="387"/>
-      <c r="AB12" s="385"/>
-      <c r="AC12" s="387"/>
-      <c r="AD12" s="385"/>
-      <c r="AE12" s="387"/>
-      <c r="AF12" s="388" t="s">
+      <c r="Y12" s="404"/>
+      <c r="Z12" s="394"/>
+      <c r="AA12" s="396"/>
+      <c r="AB12" s="394"/>
+      <c r="AC12" s="396"/>
+      <c r="AD12" s="394"/>
+      <c r="AE12" s="396"/>
+      <c r="AF12" s="397" t="s">
         <v>128</v>
       </c>
-      <c r="AG12" s="389"/>
-      <c r="AH12" s="390"/>
-      <c r="AI12" s="388" t="s">
+      <c r="AG12" s="398"/>
+      <c r="AH12" s="399"/>
+      <c r="AI12" s="397" t="s">
         <v>132</v>
       </c>
-      <c r="AJ12" s="389"/>
-      <c r="AK12" s="389"/>
-      <c r="AL12" s="389"/>
-      <c r="AM12" s="389"/>
-      <c r="AN12" s="390"/>
+      <c r="AJ12" s="398"/>
+      <c r="AK12" s="398"/>
+      <c r="AL12" s="398"/>
+      <c r="AM12" s="398"/>
+      <c r="AN12" s="399"/>
       <c r="AR12" s="164"/>
       <c r="AS12" s="137"/>
       <c r="AT12" s="137"/>
@@ -16767,56 +16743,56 @@
       <c r="A13" s="183">
         <v>6</v>
       </c>
-      <c r="B13" s="388" t="s">
+      <c r="B13" s="397" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="389"/>
-      <c r="D13" s="389"/>
-      <c r="E13" s="389"/>
-      <c r="F13" s="390"/>
-      <c r="G13" s="388" t="s">
+      <c r="C13" s="398"/>
+      <c r="D13" s="398"/>
+      <c r="E13" s="398"/>
+      <c r="F13" s="399"/>
+      <c r="G13" s="397" t="s">
         <v>121</v>
       </c>
-      <c r="H13" s="389"/>
-      <c r="I13" s="389"/>
-      <c r="J13" s="389"/>
-      <c r="K13" s="390"/>
-      <c r="L13" s="385"/>
-      <c r="M13" s="386"/>
-      <c r="N13" s="386"/>
-      <c r="O13" s="386"/>
-      <c r="P13" s="387"/>
+      <c r="H13" s="398"/>
+      <c r="I13" s="398"/>
+      <c r="J13" s="398"/>
+      <c r="K13" s="399"/>
+      <c r="L13" s="394"/>
+      <c r="M13" s="395"/>
+      <c r="N13" s="395"/>
+      <c r="O13" s="395"/>
+      <c r="P13" s="396"/>
       <c r="Q13" s="184"/>
-      <c r="R13" s="398" t="s">
+      <c r="R13" s="407" t="s">
         <v>123</v>
       </c>
-      <c r="S13" s="399"/>
-      <c r="T13" s="399"/>
-      <c r="U13" s="400"/>
-      <c r="V13" s="394">
+      <c r="S13" s="408"/>
+      <c r="T13" s="408"/>
+      <c r="U13" s="409"/>
+      <c r="V13" s="403">
         <v>15</v>
       </c>
-      <c r="W13" s="395"/>
-      <c r="X13" s="394">
+      <c r="W13" s="404"/>
+      <c r="X13" s="403">
         <f>X12+V12</f>
         <v>29</v>
       </c>
-      <c r="Y13" s="395"/>
-      <c r="Z13" s="385"/>
-      <c r="AA13" s="387"/>
-      <c r="AB13" s="385"/>
-      <c r="AC13" s="387"/>
-      <c r="AD13" s="385"/>
-      <c r="AE13" s="387"/>
-      <c r="AF13" s="385"/>
-      <c r="AG13" s="386"/>
-      <c r="AH13" s="387"/>
-      <c r="AI13" s="388"/>
-      <c r="AJ13" s="389"/>
-      <c r="AK13" s="389"/>
-      <c r="AL13" s="389"/>
-      <c r="AM13" s="389"/>
-      <c r="AN13" s="390"/>
+      <c r="Y13" s="404"/>
+      <c r="Z13" s="394"/>
+      <c r="AA13" s="396"/>
+      <c r="AB13" s="394"/>
+      <c r="AC13" s="396"/>
+      <c r="AD13" s="394"/>
+      <c r="AE13" s="396"/>
+      <c r="AF13" s="394"/>
+      <c r="AG13" s="395"/>
+      <c r="AH13" s="396"/>
+      <c r="AI13" s="397"/>
+      <c r="AJ13" s="398"/>
+      <c r="AK13" s="398"/>
+      <c r="AL13" s="398"/>
+      <c r="AM13" s="398"/>
+      <c r="AN13" s="399"/>
       <c r="AR13" s="164"/>
       <c r="AS13" s="137"/>
       <c r="AT13" s="137"/>
@@ -17119,163 +17095,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:121" s="71" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="258" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="206" t="str">
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="253" t="s">
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="261" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="254"/>
-      <c r="Q1" s="254"/>
-      <c r="R1" s="255"/>
-      <c r="S1" s="249" t="str">
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
+      <c r="R1" s="263"/>
+      <c r="S1" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(その他)
 B21AA01/ユーザ情報反映</v>
       </c>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="211"/>
-      <c r="AA1" s="250" t="s">
+      <c r="T1" s="218"/>
+      <c r="U1" s="218"/>
+      <c r="V1" s="218"/>
+      <c r="W1" s="218"/>
+      <c r="X1" s="218"/>
+      <c r="Y1" s="218"/>
+      <c r="Z1" s="219"/>
+      <c r="AA1" s="258" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="252"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="260"/>
+      <c r="AC1" s="226" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="262">
+      <c r="AD1" s="227"/>
+      <c r="AE1" s="227"/>
+      <c r="AF1" s="228"/>
+      <c r="AG1" s="270">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="263"/>
-      <c r="AI1" s="264"/>
+      <c r="AH1" s="271"/>
+      <c r="AI1" s="272"/>
     </row>
     <row r="2" spans="1:121" s="71" customFormat="1" ht="11.25">
-      <c r="A2" s="250" t="s">
+      <c r="A2" s="258" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="206" t="str">
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="260"/>
+      <c r="E2" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="256"/>
-      <c r="P2" s="257"/>
-      <c r="Q2" s="257"/>
-      <c r="R2" s="258"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="213"/>
-      <c r="X2" s="213"/>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="250" t="s">
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="264"/>
+      <c r="P2" s="265"/>
+      <c r="Q2" s="265"/>
+      <c r="R2" s="266"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="221"/>
+      <c r="U2" s="221"/>
+      <c r="V2" s="221"/>
+      <c r="W2" s="221"/>
+      <c r="X2" s="221"/>
+      <c r="Y2" s="221"/>
+      <c r="Z2" s="222"/>
+      <c r="AA2" s="258" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="252"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="260"/>
+      <c r="AC2" s="226" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="262" t="str">
+      <c r="AD2" s="227"/>
+      <c r="AE2" s="227"/>
+      <c r="AF2" s="228"/>
+      <c r="AG2" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="263"/>
-      <c r="AI2" s="264"/>
+      <c r="AH2" s="271"/>
+      <c r="AI2" s="272"/>
     </row>
     <row r="3" spans="1:121" s="71" customFormat="1" ht="11.25">
-      <c r="A3" s="250" t="s">
+      <c r="A3" s="258" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="206" t="str">
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="260"/>
+      <c r="E3" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="259"/>
-      <c r="P3" s="260"/>
-      <c r="Q3" s="260"/>
-      <c r="R3" s="261"/>
-      <c r="S3" s="215"/>
-      <c r="T3" s="216"/>
-      <c r="U3" s="216"/>
-      <c r="V3" s="216"/>
-      <c r="W3" s="216"/>
-      <c r="X3" s="216"/>
-      <c r="Y3" s="216"/>
-      <c r="Z3" s="217"/>
-      <c r="AA3" s="250"/>
-      <c r="AB3" s="252"/>
-      <c r="AC3" s="218" t="str">
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="215"/>
+      <c r="M3" s="215"/>
+      <c r="N3" s="216"/>
+      <c r="O3" s="267"/>
+      <c r="P3" s="268"/>
+      <c r="Q3" s="268"/>
+      <c r="R3" s="269"/>
+      <c r="S3" s="223"/>
+      <c r="T3" s="224"/>
+      <c r="U3" s="224"/>
+      <c r="V3" s="224"/>
+      <c r="W3" s="224"/>
+      <c r="X3" s="224"/>
+      <c r="Y3" s="224"/>
+      <c r="Z3" s="225"/>
+      <c r="AA3" s="258"/>
+      <c r="AB3" s="260"/>
+      <c r="AC3" s="226" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="262" t="str">
+      <c r="AD3" s="227"/>
+      <c r="AE3" s="227"/>
+      <c r="AF3" s="228"/>
+      <c r="AG3" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="263"/>
-      <c r="AI3" s="264"/>
+      <c r="AH3" s="271"/>
+      <c r="AI3" s="272"/>
     </row>
     <row r="4" spans="1:121" ht="11.25"/>
     <row r="5" spans="1:121" ht="11.25">
       <c r="A5" s="175" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5" s="173"/>
       <c r="C5" s="173"/>
@@ -17287,187 +17263,187 @@
       <c r="C6" s="173"/>
       <c r="D6" s="173"/>
     </row>
-    <row r="7" spans="1:121" s="409" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="421" t="s">
+    <row r="7" spans="1:121" s="187" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A7" s="190" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="386" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="387"/>
+      <c r="D7" s="387"/>
+      <c r="E7" s="387"/>
+      <c r="F7" s="388"/>
+      <c r="G7" s="386" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="387"/>
+      <c r="I7" s="387"/>
+      <c r="J7" s="387"/>
+      <c r="K7" s="388"/>
+      <c r="L7" s="386" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="387"/>
+      <c r="N7" s="387"/>
+      <c r="O7" s="387"/>
+      <c r="P7" s="388"/>
+      <c r="Q7" s="192" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" s="410" t="s">
+        <v>71</v>
+      </c>
+      <c r="S7" s="410"/>
+      <c r="T7" s="410"/>
+      <c r="U7" s="410"/>
+      <c r="V7" s="411" t="s">
         <v>219</v>
       </c>
-      <c r="B7" s="401" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="422"/>
-      <c r="D7" s="422"/>
-      <c r="E7" s="422"/>
-      <c r="F7" s="402"/>
-      <c r="G7" s="401" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="422"/>
-      <c r="I7" s="422"/>
-      <c r="J7" s="422"/>
-      <c r="K7" s="402"/>
-      <c r="L7" s="401" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="422"/>
-      <c r="N7" s="422"/>
-      <c r="O7" s="422"/>
-      <c r="P7" s="402"/>
-      <c r="Q7" s="423" t="s">
-        <v>65</v>
-      </c>
-      <c r="R7" s="424" t="s">
-        <v>71</v>
-      </c>
-      <c r="S7" s="424"/>
-      <c r="T7" s="424"/>
-      <c r="U7" s="424"/>
-      <c r="V7" s="425" t="s">
-        <v>212</v>
-      </c>
-      <c r="W7" s="425"/>
-      <c r="X7" s="426" t="s">
+      <c r="W7" s="411"/>
+      <c r="X7" s="412" t="s">
         <v>64</v>
       </c>
-      <c r="Y7" s="427"/>
-      <c r="Z7" s="401" t="s">
+      <c r="Y7" s="413"/>
+      <c r="Z7" s="386" t="s">
         <v>25</v>
       </c>
-      <c r="AA7" s="402"/>
-      <c r="AB7" s="401" t="s">
+      <c r="AA7" s="388"/>
+      <c r="AB7" s="386" t="s">
         <v>84</v>
       </c>
-      <c r="AC7" s="402"/>
-      <c r="AD7" s="401" t="s">
+      <c r="AC7" s="388"/>
+      <c r="AD7" s="386" t="s">
         <v>85</v>
       </c>
-      <c r="AE7" s="402"/>
-      <c r="AF7" s="401" t="s">
+      <c r="AE7" s="388"/>
+      <c r="AF7" s="386" t="s">
         <v>63</v>
       </c>
-      <c r="AG7" s="422"/>
-      <c r="AH7" s="402"/>
-      <c r="AI7" s="401" t="s">
+      <c r="AG7" s="387"/>
+      <c r="AH7" s="388"/>
+      <c r="AI7" s="386" t="s">
         <v>62</v>
       </c>
-      <c r="AJ7" s="422"/>
-      <c r="AK7" s="422"/>
-      <c r="AL7" s="422"/>
-      <c r="AM7" s="422"/>
-      <c r="AN7" s="402"/>
-      <c r="BN7" s="419"/>
-      <c r="BO7" s="419"/>
-      <c r="BP7" s="419"/>
-      <c r="BQ7" s="419"/>
-      <c r="BR7" s="419"/>
-      <c r="BS7" s="419"/>
-      <c r="BT7" s="419"/>
-      <c r="BU7" s="419"/>
-      <c r="BV7" s="419"/>
-      <c r="BW7" s="419"/>
-      <c r="BX7" s="419"/>
-      <c r="BY7" s="419"/>
-      <c r="BZ7" s="419"/>
-      <c r="CA7" s="419"/>
-      <c r="CB7" s="419"/>
-      <c r="CC7" s="419"/>
-      <c r="CD7" s="419"/>
-      <c r="CE7" s="419"/>
-      <c r="CF7" s="419"/>
-      <c r="CG7" s="419"/>
-      <c r="CH7" s="419"/>
-      <c r="CI7" s="419"/>
-      <c r="CJ7" s="419"/>
-      <c r="CK7" s="419"/>
-      <c r="CL7" s="419"/>
-      <c r="CM7" s="419"/>
-      <c r="CN7" s="419"/>
-      <c r="CO7" s="419"/>
-      <c r="CP7" s="419"/>
-      <c r="CQ7" s="419"/>
-      <c r="CR7" s="419"/>
-      <c r="CS7" s="419"/>
-      <c r="CT7" s="419"/>
-      <c r="CU7" s="419"/>
-      <c r="CV7" s="419"/>
-      <c r="CW7" s="419"/>
-      <c r="CX7" s="419"/>
-      <c r="CY7" s="419"/>
-      <c r="CZ7" s="419"/>
-      <c r="DA7" s="419"/>
-      <c r="DB7" s="419"/>
-      <c r="DC7" s="419"/>
-      <c r="DD7" s="419"/>
-      <c r="DE7" s="419"/>
-      <c r="DF7" s="419"/>
-      <c r="DG7" s="420"/>
-      <c r="DH7" s="420"/>
-      <c r="DI7" s="420"/>
-      <c r="DJ7" s="420"/>
-      <c r="DK7" s="420"/>
-      <c r="DL7" s="420"/>
-      <c r="DM7" s="420"/>
-      <c r="DN7" s="420"/>
-      <c r="DO7" s="420"/>
-      <c r="DP7" s="420"/>
-      <c r="DQ7" s="420"/>
+      <c r="AJ7" s="387"/>
+      <c r="AK7" s="387"/>
+      <c r="AL7" s="387"/>
+      <c r="AM7" s="387"/>
+      <c r="AN7" s="388"/>
+      <c r="BN7" s="188"/>
+      <c r="BO7" s="188"/>
+      <c r="BP7" s="188"/>
+      <c r="BQ7" s="188"/>
+      <c r="BR7" s="188"/>
+      <c r="BS7" s="188"/>
+      <c r="BT7" s="188"/>
+      <c r="BU7" s="188"/>
+      <c r="BV7" s="188"/>
+      <c r="BW7" s="188"/>
+      <c r="BX7" s="188"/>
+      <c r="BY7" s="188"/>
+      <c r="BZ7" s="188"/>
+      <c r="CA7" s="188"/>
+      <c r="CB7" s="188"/>
+      <c r="CC7" s="188"/>
+      <c r="CD7" s="188"/>
+      <c r="CE7" s="188"/>
+      <c r="CF7" s="188"/>
+      <c r="CG7" s="188"/>
+      <c r="CH7" s="188"/>
+      <c r="CI7" s="188"/>
+      <c r="CJ7" s="188"/>
+      <c r="CK7" s="188"/>
+      <c r="CL7" s="188"/>
+      <c r="CM7" s="188"/>
+      <c r="CN7" s="188"/>
+      <c r="CO7" s="188"/>
+      <c r="CP7" s="188"/>
+      <c r="CQ7" s="188"/>
+      <c r="CR7" s="188"/>
+      <c r="CS7" s="188"/>
+      <c r="CT7" s="188"/>
+      <c r="CU7" s="188"/>
+      <c r="CV7" s="188"/>
+      <c r="CW7" s="188"/>
+      <c r="CX7" s="188"/>
+      <c r="CY7" s="188"/>
+      <c r="CZ7" s="188"/>
+      <c r="DA7" s="188"/>
+      <c r="DB7" s="188"/>
+      <c r="DC7" s="188"/>
+      <c r="DD7" s="188"/>
+      <c r="DE7" s="188"/>
+      <c r="DF7" s="188"/>
+      <c r="DG7" s="189"/>
+      <c r="DH7" s="189"/>
+      <c r="DI7" s="189"/>
+      <c r="DJ7" s="189"/>
+      <c r="DK7" s="189"/>
+      <c r="DL7" s="189"/>
+      <c r="DM7" s="189"/>
+      <c r="DN7" s="189"/>
+      <c r="DO7" s="189"/>
+      <c r="DP7" s="189"/>
+      <c r="DQ7" s="189"/>
     </row>
     <row r="8" spans="1:121" ht="15" customHeight="1">
       <c r="A8" s="183">
         <v>1</v>
       </c>
-      <c r="B8" s="403" t="s">
+      <c r="B8" s="414" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="403"/>
-      <c r="D8" s="403"/>
-      <c r="E8" s="403"/>
-      <c r="F8" s="403"/>
-      <c r="G8" s="403" t="s">
+      <c r="C8" s="414"/>
+      <c r="D8" s="414"/>
+      <c r="E8" s="414"/>
+      <c r="F8" s="414"/>
+      <c r="G8" s="414" t="s">
         <v>150</v>
       </c>
-      <c r="H8" s="403"/>
-      <c r="I8" s="403"/>
-      <c r="J8" s="403"/>
-      <c r="K8" s="403"/>
-      <c r="L8" s="388" t="s">
+      <c r="H8" s="414"/>
+      <c r="I8" s="414"/>
+      <c r="J8" s="414"/>
+      <c r="K8" s="414"/>
+      <c r="L8" s="397" t="s">
         <v>151</v>
       </c>
-      <c r="M8" s="389"/>
-      <c r="N8" s="389"/>
-      <c r="O8" s="389"/>
-      <c r="P8" s="390"/>
+      <c r="M8" s="398"/>
+      <c r="N8" s="398"/>
+      <c r="O8" s="398"/>
+      <c r="P8" s="399"/>
       <c r="Q8" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R8" s="388" t="s">
+      <c r="R8" s="397" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="389"/>
-      <c r="T8" s="389"/>
-      <c r="U8" s="390"/>
-      <c r="V8" s="394">
+      <c r="S8" s="398"/>
+      <c r="T8" s="398"/>
+      <c r="U8" s="399"/>
+      <c r="V8" s="403">
         <v>20</v>
       </c>
-      <c r="W8" s="395"/>
-      <c r="X8" s="394">
+      <c r="W8" s="404"/>
+      <c r="X8" s="403">
         <v>1</v>
       </c>
-      <c r="Y8" s="395"/>
-      <c r="Z8" s="385"/>
-      <c r="AA8" s="387"/>
-      <c r="AB8" s="385"/>
-      <c r="AC8" s="387"/>
-      <c r="AD8" s="385"/>
-      <c r="AE8" s="387"/>
-      <c r="AF8" s="385"/>
-      <c r="AG8" s="386"/>
-      <c r="AH8" s="387"/>
-      <c r="AI8" s="404"/>
-      <c r="AJ8" s="405"/>
-      <c r="AK8" s="405"/>
-      <c r="AL8" s="405"/>
-      <c r="AM8" s="405"/>
-      <c r="AN8" s="406"/>
+      <c r="Y8" s="404"/>
+      <c r="Z8" s="394"/>
+      <c r="AA8" s="396"/>
+      <c r="AB8" s="394"/>
+      <c r="AC8" s="396"/>
+      <c r="AD8" s="394"/>
+      <c r="AE8" s="396"/>
+      <c r="AF8" s="394"/>
+      <c r="AG8" s="395"/>
+      <c r="AH8" s="396"/>
+      <c r="AI8" s="415"/>
+      <c r="AJ8" s="416"/>
+      <c r="AK8" s="416"/>
+      <c r="AL8" s="416"/>
+      <c r="AM8" s="416"/>
+      <c r="AN8" s="417"/>
       <c r="AR8" s="172"/>
       <c r="AS8" s="137"/>
       <c r="AT8" s="137"/>
@@ -17536,60 +17512,60 @@
       <c r="A9" s="183">
         <v>2</v>
       </c>
-      <c r="B9" s="403" t="s">
+      <c r="B9" s="414" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="403"/>
-      <c r="D9" s="403"/>
-      <c r="E9" s="403"/>
-      <c r="F9" s="403"/>
-      <c r="G9" s="403" t="s">
+      <c r="C9" s="414"/>
+      <c r="D9" s="414"/>
+      <c r="E9" s="414"/>
+      <c r="F9" s="414"/>
+      <c r="G9" s="414" t="s">
         <v>153</v>
       </c>
-      <c r="H9" s="403"/>
-      <c r="I9" s="403"/>
-      <c r="J9" s="403"/>
-      <c r="K9" s="403"/>
-      <c r="L9" s="388" t="s">
+      <c r="H9" s="414"/>
+      <c r="I9" s="414"/>
+      <c r="J9" s="414"/>
+      <c r="K9" s="414"/>
+      <c r="L9" s="397" t="s">
         <v>154</v>
       </c>
-      <c r="M9" s="389"/>
-      <c r="N9" s="389"/>
-      <c r="O9" s="389"/>
-      <c r="P9" s="390"/>
+      <c r="M9" s="398"/>
+      <c r="N9" s="398"/>
+      <c r="O9" s="398"/>
+      <c r="P9" s="399"/>
       <c r="Q9" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R9" s="388" t="s">
+      <c r="R9" s="397" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="389"/>
-      <c r="T9" s="389"/>
-      <c r="U9" s="390"/>
-      <c r="V9" s="394">
+      <c r="S9" s="398"/>
+      <c r="T9" s="398"/>
+      <c r="U9" s="399"/>
+      <c r="V9" s="403">
         <v>50</v>
       </c>
-      <c r="W9" s="395"/>
-      <c r="X9" s="394">
+      <c r="W9" s="404"/>
+      <c r="X9" s="403">
         <f>X8+V8</f>
         <v>21</v>
       </c>
-      <c r="Y9" s="395"/>
-      <c r="Z9" s="385"/>
-      <c r="AA9" s="387"/>
-      <c r="AB9" s="385"/>
-      <c r="AC9" s="387"/>
-      <c r="AD9" s="385"/>
-      <c r="AE9" s="387"/>
-      <c r="AF9" s="385"/>
-      <c r="AG9" s="386"/>
-      <c r="AH9" s="387"/>
-      <c r="AI9" s="404"/>
-      <c r="AJ9" s="405"/>
-      <c r="AK9" s="405"/>
-      <c r="AL9" s="405"/>
-      <c r="AM9" s="405"/>
-      <c r="AN9" s="406"/>
+      <c r="Y9" s="404"/>
+      <c r="Z9" s="394"/>
+      <c r="AA9" s="396"/>
+      <c r="AB9" s="394"/>
+      <c r="AC9" s="396"/>
+      <c r="AD9" s="394"/>
+      <c r="AE9" s="396"/>
+      <c r="AF9" s="394"/>
+      <c r="AG9" s="395"/>
+      <c r="AH9" s="396"/>
+      <c r="AI9" s="415"/>
+      <c r="AJ9" s="416"/>
+      <c r="AK9" s="416"/>
+      <c r="AL9" s="416"/>
+      <c r="AM9" s="416"/>
+      <c r="AN9" s="417"/>
       <c r="AR9" s="137"/>
       <c r="AS9" s="137"/>
       <c r="AT9" s="137"/>
@@ -17658,60 +17634,60 @@
       <c r="A10" s="183">
         <v>3</v>
       </c>
-      <c r="B10" s="403" t="s">
+      <c r="B10" s="414" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="403"/>
-      <c r="D10" s="403"/>
-      <c r="E10" s="403"/>
-      <c r="F10" s="403"/>
-      <c r="G10" s="403" t="s">
+      <c r="C10" s="414"/>
+      <c r="D10" s="414"/>
+      <c r="E10" s="414"/>
+      <c r="F10" s="414"/>
+      <c r="G10" s="414" t="s">
         <v>156</v>
       </c>
-      <c r="H10" s="403"/>
-      <c r="I10" s="403"/>
-      <c r="J10" s="403"/>
-      <c r="K10" s="403"/>
-      <c r="L10" s="388" t="s">
+      <c r="H10" s="414"/>
+      <c r="I10" s="414"/>
+      <c r="J10" s="414"/>
+      <c r="K10" s="414"/>
+      <c r="L10" s="397" t="s">
         <v>157</v>
       </c>
-      <c r="M10" s="389"/>
-      <c r="N10" s="389"/>
-      <c r="O10" s="389"/>
-      <c r="P10" s="390"/>
+      <c r="M10" s="398"/>
+      <c r="N10" s="398"/>
+      <c r="O10" s="398"/>
+      <c r="P10" s="399"/>
       <c r="Q10" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R10" s="388" t="s">
+      <c r="R10" s="397" t="s">
         <v>34</v>
       </c>
-      <c r="S10" s="389"/>
-      <c r="T10" s="389"/>
-      <c r="U10" s="390"/>
-      <c r="V10" s="394">
+      <c r="S10" s="398"/>
+      <c r="T10" s="398"/>
+      <c r="U10" s="399"/>
+      <c r="V10" s="403">
         <v>50</v>
       </c>
-      <c r="W10" s="395"/>
-      <c r="X10" s="394">
+      <c r="W10" s="404"/>
+      <c r="X10" s="403">
         <f>X9+V9</f>
         <v>71</v>
       </c>
-      <c r="Y10" s="395"/>
-      <c r="Z10" s="385"/>
-      <c r="AA10" s="387"/>
-      <c r="AB10" s="385"/>
-      <c r="AC10" s="387"/>
-      <c r="AD10" s="385"/>
-      <c r="AE10" s="387"/>
-      <c r="AF10" s="385"/>
-      <c r="AG10" s="386"/>
-      <c r="AH10" s="387"/>
-      <c r="AI10" s="404"/>
-      <c r="AJ10" s="405"/>
-      <c r="AK10" s="405"/>
-      <c r="AL10" s="405"/>
-      <c r="AM10" s="405"/>
-      <c r="AN10" s="406"/>
+      <c r="Y10" s="404"/>
+      <c r="Z10" s="394"/>
+      <c r="AA10" s="396"/>
+      <c r="AB10" s="394"/>
+      <c r="AC10" s="396"/>
+      <c r="AD10" s="394"/>
+      <c r="AE10" s="396"/>
+      <c r="AF10" s="394"/>
+      <c r="AG10" s="395"/>
+      <c r="AH10" s="396"/>
+      <c r="AI10" s="415"/>
+      <c r="AJ10" s="416"/>
+      <c r="AK10" s="416"/>
+      <c r="AL10" s="416"/>
+      <c r="AM10" s="416"/>
+      <c r="AN10" s="417"/>
       <c r="AR10" s="137"/>
       <c r="AS10" s="137"/>
       <c r="AT10" s="137"/>
@@ -17780,62 +17756,62 @@
       <c r="A11" s="183">
         <v>4</v>
       </c>
-      <c r="B11" s="403" t="s">
+      <c r="B11" s="414" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="403"/>
-      <c r="D11" s="403"/>
-      <c r="E11" s="403"/>
-      <c r="F11" s="403"/>
-      <c r="G11" s="403" t="s">
+      <c r="C11" s="414"/>
+      <c r="D11" s="414"/>
+      <c r="E11" s="414"/>
+      <c r="F11" s="414"/>
+      <c r="G11" s="414" t="s">
         <v>159</v>
       </c>
-      <c r="H11" s="403"/>
-      <c r="I11" s="403"/>
-      <c r="J11" s="403"/>
-      <c r="K11" s="403"/>
-      <c r="L11" s="388" t="s">
+      <c r="H11" s="414"/>
+      <c r="I11" s="414"/>
+      <c r="J11" s="414"/>
+      <c r="K11" s="414"/>
+      <c r="L11" s="397" t="s">
         <v>160</v>
       </c>
-      <c r="M11" s="389"/>
-      <c r="N11" s="389"/>
-      <c r="O11" s="389"/>
-      <c r="P11" s="390"/>
+      <c r="M11" s="398"/>
+      <c r="N11" s="398"/>
+      <c r="O11" s="398"/>
+      <c r="P11" s="399"/>
       <c r="Q11" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R11" s="388" t="s">
+      <c r="R11" s="397" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="389"/>
-      <c r="T11" s="389"/>
-      <c r="U11" s="390"/>
-      <c r="V11" s="394">
+      <c r="S11" s="398"/>
+      <c r="T11" s="398"/>
+      <c r="U11" s="399"/>
+      <c r="V11" s="403">
         <v>8</v>
       </c>
-      <c r="W11" s="395"/>
-      <c r="X11" s="394">
+      <c r="W11" s="404"/>
+      <c r="X11" s="403">
         <f>X10+V10</f>
         <v>121</v>
       </c>
-      <c r="Y11" s="395"/>
-      <c r="Z11" s="385"/>
-      <c r="AA11" s="387"/>
-      <c r="AB11" s="385"/>
-      <c r="AC11" s="387"/>
-      <c r="AD11" s="385"/>
-      <c r="AE11" s="387"/>
-      <c r="AF11" s="404" t="s">
+      <c r="Y11" s="404"/>
+      <c r="Z11" s="394"/>
+      <c r="AA11" s="396"/>
+      <c r="AB11" s="394"/>
+      <c r="AC11" s="396"/>
+      <c r="AD11" s="394"/>
+      <c r="AE11" s="396"/>
+      <c r="AF11" s="415" t="s">
         <v>128</v>
       </c>
-      <c r="AG11" s="405"/>
-      <c r="AH11" s="406"/>
-      <c r="AI11" s="404"/>
-      <c r="AJ11" s="405"/>
-      <c r="AK11" s="405"/>
-      <c r="AL11" s="405"/>
-      <c r="AM11" s="405"/>
-      <c r="AN11" s="406"/>
+      <c r="AG11" s="416"/>
+      <c r="AH11" s="417"/>
+      <c r="AI11" s="415"/>
+      <c r="AJ11" s="416"/>
+      <c r="AK11" s="416"/>
+      <c r="AL11" s="416"/>
+      <c r="AM11" s="416"/>
+      <c r="AN11" s="417"/>
       <c r="AR11" s="172"/>
       <c r="AS11" s="137"/>
       <c r="AT11" s="137"/>
@@ -17904,60 +17880,60 @@
       <c r="A12" s="183">
         <v>5</v>
       </c>
-      <c r="B12" s="403" t="s">
+      <c r="B12" s="414" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="403"/>
-      <c r="D12" s="403"/>
-      <c r="E12" s="403"/>
-      <c r="F12" s="403"/>
-      <c r="G12" s="403" t="s">
+      <c r="C12" s="414"/>
+      <c r="D12" s="414"/>
+      <c r="E12" s="414"/>
+      <c r="F12" s="414"/>
+      <c r="G12" s="414" t="s">
         <v>162</v>
       </c>
-      <c r="H12" s="403"/>
-      <c r="I12" s="403"/>
-      <c r="J12" s="403"/>
-      <c r="K12" s="403"/>
-      <c r="L12" s="388" t="s">
+      <c r="H12" s="414"/>
+      <c r="I12" s="414"/>
+      <c r="J12" s="414"/>
+      <c r="K12" s="414"/>
+      <c r="L12" s="397" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="389"/>
-      <c r="N12" s="389"/>
-      <c r="O12" s="389"/>
-      <c r="P12" s="390"/>
+      <c r="M12" s="398"/>
+      <c r="N12" s="398"/>
+      <c r="O12" s="398"/>
+      <c r="P12" s="399"/>
       <c r="Q12" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R12" s="388" t="s">
+      <c r="R12" s="397" t="s">
         <v>33</v>
       </c>
-      <c r="S12" s="389"/>
-      <c r="T12" s="389"/>
-      <c r="U12" s="390"/>
-      <c r="V12" s="394">
+      <c r="S12" s="398"/>
+      <c r="T12" s="398"/>
+      <c r="U12" s="399"/>
+      <c r="V12" s="403">
         <v>2</v>
       </c>
-      <c r="W12" s="395"/>
-      <c r="X12" s="394">
+      <c r="W12" s="404"/>
+      <c r="X12" s="403">
         <f>X11+V11</f>
         <v>129</v>
       </c>
-      <c r="Y12" s="395"/>
-      <c r="Z12" s="385"/>
-      <c r="AA12" s="387"/>
-      <c r="AB12" s="385"/>
-      <c r="AC12" s="387"/>
-      <c r="AD12" s="385"/>
-      <c r="AE12" s="387"/>
-      <c r="AF12" s="404"/>
-      <c r="AG12" s="405"/>
-      <c r="AH12" s="406"/>
-      <c r="AI12" s="404"/>
-      <c r="AJ12" s="405"/>
-      <c r="AK12" s="405"/>
-      <c r="AL12" s="405"/>
-      <c r="AM12" s="405"/>
-      <c r="AN12" s="406"/>
+      <c r="Y12" s="404"/>
+      <c r="Z12" s="394"/>
+      <c r="AA12" s="396"/>
+      <c r="AB12" s="394"/>
+      <c r="AC12" s="396"/>
+      <c r="AD12" s="394"/>
+      <c r="AE12" s="396"/>
+      <c r="AF12" s="415"/>
+      <c r="AG12" s="416"/>
+      <c r="AH12" s="417"/>
+      <c r="AI12" s="415"/>
+      <c r="AJ12" s="416"/>
+      <c r="AK12" s="416"/>
+      <c r="AL12" s="416"/>
+      <c r="AM12" s="416"/>
+      <c r="AN12" s="417"/>
       <c r="AR12" s="172"/>
       <c r="AS12" s="137"/>
       <c r="AT12" s="137"/>
@@ -18026,62 +18002,62 @@
       <c r="A13" s="183">
         <v>6</v>
       </c>
-      <c r="B13" s="403" t="s">
+      <c r="B13" s="414" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="403"/>
-      <c r="D13" s="403"/>
-      <c r="E13" s="403"/>
-      <c r="F13" s="403"/>
-      <c r="G13" s="403" t="s">
+      <c r="C13" s="414"/>
+      <c r="D13" s="414"/>
+      <c r="E13" s="414"/>
+      <c r="F13" s="414"/>
+      <c r="G13" s="414" t="s">
         <v>165</v>
       </c>
-      <c r="H13" s="403"/>
-      <c r="I13" s="403"/>
-      <c r="J13" s="403"/>
-      <c r="K13" s="403"/>
-      <c r="L13" s="388" t="s">
+      <c r="H13" s="414"/>
+      <c r="I13" s="414"/>
+      <c r="J13" s="414"/>
+      <c r="K13" s="414"/>
+      <c r="L13" s="397" t="s">
         <v>166</v>
       </c>
-      <c r="M13" s="389"/>
-      <c r="N13" s="389"/>
-      <c r="O13" s="389"/>
-      <c r="P13" s="390"/>
+      <c r="M13" s="398"/>
+      <c r="N13" s="398"/>
+      <c r="O13" s="398"/>
+      <c r="P13" s="399"/>
       <c r="Q13" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R13" s="388" t="s">
+      <c r="R13" s="397" t="s">
         <v>33</v>
       </c>
-      <c r="S13" s="389"/>
-      <c r="T13" s="389"/>
-      <c r="U13" s="390"/>
-      <c r="V13" s="394">
+      <c r="S13" s="398"/>
+      <c r="T13" s="398"/>
+      <c r="U13" s="399"/>
+      <c r="V13" s="403">
         <v>7</v>
       </c>
-      <c r="W13" s="395"/>
-      <c r="X13" s="394">
+      <c r="W13" s="404"/>
+      <c r="X13" s="403">
         <f>X12+V12</f>
         <v>131</v>
       </c>
-      <c r="Y13" s="395"/>
-      <c r="Z13" s="385"/>
-      <c r="AA13" s="387"/>
-      <c r="AB13" s="385"/>
-      <c r="AC13" s="387"/>
-      <c r="AD13" s="385"/>
-      <c r="AE13" s="387"/>
-      <c r="AF13" s="385" t="s">
+      <c r="Y13" s="404"/>
+      <c r="Z13" s="394"/>
+      <c r="AA13" s="396"/>
+      <c r="AB13" s="394"/>
+      <c r="AC13" s="396"/>
+      <c r="AD13" s="394"/>
+      <c r="AE13" s="396"/>
+      <c r="AF13" s="394" t="s">
         <v>201</v>
       </c>
-      <c r="AG13" s="386"/>
-      <c r="AH13" s="387"/>
-      <c r="AI13" s="404"/>
-      <c r="AJ13" s="405"/>
-      <c r="AK13" s="405"/>
-      <c r="AL13" s="405"/>
-      <c r="AM13" s="405"/>
-      <c r="AN13" s="406"/>
+      <c r="AG13" s="395"/>
+      <c r="AH13" s="396"/>
+      <c r="AI13" s="415"/>
+      <c r="AJ13" s="416"/>
+      <c r="AK13" s="416"/>
+      <c r="AL13" s="416"/>
+      <c r="AM13" s="416"/>
+      <c r="AN13" s="417"/>
       <c r="AR13" s="172"/>
       <c r="AS13" s="137"/>
       <c r="AT13" s="137"/>
@@ -18150,650 +18126,650 @@
       <c r="A14" s="183">
         <v>8</v>
       </c>
-      <c r="B14" s="403" t="s">
+      <c r="B14" s="414" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="403"/>
-      <c r="D14" s="403"/>
-      <c r="E14" s="403"/>
-      <c r="F14" s="403"/>
-      <c r="G14" s="403" t="s">
+      <c r="C14" s="414"/>
+      <c r="D14" s="414"/>
+      <c r="E14" s="414"/>
+      <c r="F14" s="414"/>
+      <c r="G14" s="414" t="s">
         <v>168</v>
       </c>
-      <c r="H14" s="403"/>
-      <c r="I14" s="403"/>
-      <c r="J14" s="403"/>
-      <c r="K14" s="403"/>
-      <c r="L14" s="388" t="s">
+      <c r="H14" s="414"/>
+      <c r="I14" s="414"/>
+      <c r="J14" s="414"/>
+      <c r="K14" s="414"/>
+      <c r="L14" s="397" t="s">
         <v>169</v>
       </c>
-      <c r="M14" s="389"/>
-      <c r="N14" s="389"/>
-      <c r="O14" s="389"/>
-      <c r="P14" s="390"/>
+      <c r="M14" s="398"/>
+      <c r="N14" s="398"/>
+      <c r="O14" s="398"/>
+      <c r="P14" s="399"/>
       <c r="Q14" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R14" s="388" t="s">
+      <c r="R14" s="397" t="s">
         <v>32</v>
       </c>
-      <c r="S14" s="389"/>
-      <c r="T14" s="389"/>
-      <c r="U14" s="390"/>
-      <c r="V14" s="394">
+      <c r="S14" s="398"/>
+      <c r="T14" s="398"/>
+      <c r="U14" s="399"/>
+      <c r="V14" s="403">
         <v>10</v>
       </c>
-      <c r="W14" s="395"/>
-      <c r="X14" s="394">
+      <c r="W14" s="404"/>
+      <c r="X14" s="403">
         <f t="shared" ref="X14:X24" si="0">X13+V13</f>
         <v>138</v>
       </c>
-      <c r="Y14" s="395"/>
-      <c r="Z14" s="385"/>
-      <c r="AA14" s="387"/>
-      <c r="AB14" s="385"/>
-      <c r="AC14" s="387"/>
-      <c r="AD14" s="385"/>
-      <c r="AE14" s="387"/>
-      <c r="AF14" s="385" t="s">
+      <c r="Y14" s="404"/>
+      <c r="Z14" s="394"/>
+      <c r="AA14" s="396"/>
+      <c r="AB14" s="394"/>
+      <c r="AC14" s="396"/>
+      <c r="AD14" s="394"/>
+      <c r="AE14" s="396"/>
+      <c r="AF14" s="394" t="s">
         <v>201</v>
       </c>
-      <c r="AG14" s="386"/>
-      <c r="AH14" s="387"/>
-      <c r="AI14" s="404"/>
-      <c r="AJ14" s="405"/>
-      <c r="AK14" s="405"/>
-      <c r="AL14" s="405"/>
-      <c r="AM14" s="405"/>
-      <c r="AN14" s="406"/>
+      <c r="AG14" s="395"/>
+      <c r="AH14" s="396"/>
+      <c r="AI14" s="415"/>
+      <c r="AJ14" s="416"/>
+      <c r="AK14" s="416"/>
+      <c r="AL14" s="416"/>
+      <c r="AM14" s="416"/>
+      <c r="AN14" s="417"/>
     </row>
     <row r="15" spans="1:121" ht="15" customHeight="1">
       <c r="A15" s="183">
         <v>9</v>
       </c>
-      <c r="B15" s="403" t="s">
+      <c r="B15" s="414" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="403"/>
-      <c r="D15" s="403"/>
-      <c r="E15" s="403"/>
-      <c r="F15" s="403"/>
-      <c r="G15" s="403" t="s">
+      <c r="C15" s="414"/>
+      <c r="D15" s="414"/>
+      <c r="E15" s="414"/>
+      <c r="F15" s="414"/>
+      <c r="G15" s="414" t="s">
         <v>171</v>
       </c>
-      <c r="H15" s="403"/>
-      <c r="I15" s="403"/>
-      <c r="J15" s="403"/>
-      <c r="K15" s="403"/>
-      <c r="L15" s="388" t="s">
+      <c r="H15" s="414"/>
+      <c r="I15" s="414"/>
+      <c r="J15" s="414"/>
+      <c r="K15" s="414"/>
+      <c r="L15" s="397" t="s">
         <v>172</v>
       </c>
-      <c r="M15" s="389"/>
-      <c r="N15" s="389"/>
-      <c r="O15" s="389"/>
-      <c r="P15" s="390"/>
+      <c r="M15" s="398"/>
+      <c r="N15" s="398"/>
+      <c r="O15" s="398"/>
+      <c r="P15" s="399"/>
       <c r="Q15" s="184"/>
-      <c r="R15" s="388" t="s">
+      <c r="R15" s="397" t="s">
         <v>38</v>
       </c>
-      <c r="S15" s="389"/>
-      <c r="T15" s="389"/>
-      <c r="U15" s="390"/>
-      <c r="V15" s="394">
+      <c r="S15" s="398"/>
+      <c r="T15" s="398"/>
+      <c r="U15" s="399"/>
+      <c r="V15" s="403">
         <v>3</v>
       </c>
-      <c r="W15" s="395"/>
-      <c r="X15" s="394">
+      <c r="W15" s="404"/>
+      <c r="X15" s="403">
         <f t="shared" si="0"/>
         <v>148</v>
       </c>
-      <c r="Y15" s="395"/>
-      <c r="Z15" s="385"/>
-      <c r="AA15" s="387"/>
-      <c r="AB15" s="385"/>
-      <c r="AC15" s="387"/>
-      <c r="AD15" s="385">
+      <c r="Y15" s="404"/>
+      <c r="Z15" s="394"/>
+      <c r="AA15" s="396"/>
+      <c r="AB15" s="394"/>
+      <c r="AC15" s="396"/>
+      <c r="AD15" s="394">
         <v>9.99</v>
       </c>
-      <c r="AE15" s="387"/>
-      <c r="AF15" s="385"/>
-      <c r="AG15" s="386"/>
-      <c r="AH15" s="387"/>
-      <c r="AI15" s="404"/>
-      <c r="AJ15" s="405"/>
-      <c r="AK15" s="405"/>
-      <c r="AL15" s="405"/>
-      <c r="AM15" s="405"/>
-      <c r="AN15" s="406"/>
+      <c r="AE15" s="396"/>
+      <c r="AF15" s="394"/>
+      <c r="AG15" s="395"/>
+      <c r="AH15" s="396"/>
+      <c r="AI15" s="415"/>
+      <c r="AJ15" s="416"/>
+      <c r="AK15" s="416"/>
+      <c r="AL15" s="416"/>
+      <c r="AM15" s="416"/>
+      <c r="AN15" s="417"/>
     </row>
     <row r="16" spans="1:121" ht="15" customHeight="1">
       <c r="A16" s="183">
         <v>10</v>
       </c>
-      <c r="B16" s="403" t="s">
+      <c r="B16" s="414" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="403"/>
-      <c r="D16" s="403"/>
-      <c r="E16" s="403"/>
-      <c r="F16" s="403"/>
-      <c r="G16" s="403" t="s">
+      <c r="C16" s="414"/>
+      <c r="D16" s="414"/>
+      <c r="E16" s="414"/>
+      <c r="F16" s="414"/>
+      <c r="G16" s="414" t="s">
         <v>174</v>
       </c>
-      <c r="H16" s="403"/>
-      <c r="I16" s="403"/>
-      <c r="J16" s="403"/>
-      <c r="K16" s="403"/>
-      <c r="L16" s="388" t="s">
+      <c r="H16" s="414"/>
+      <c r="I16" s="414"/>
+      <c r="J16" s="414"/>
+      <c r="K16" s="414"/>
+      <c r="L16" s="397" t="s">
         <v>175</v>
       </c>
-      <c r="M16" s="389"/>
-      <c r="N16" s="389"/>
-      <c r="O16" s="389"/>
-      <c r="P16" s="390"/>
+      <c r="M16" s="398"/>
+      <c r="N16" s="398"/>
+      <c r="O16" s="398"/>
+      <c r="P16" s="399"/>
       <c r="Q16" s="184"/>
-      <c r="R16" s="388" t="s">
+      <c r="R16" s="397" t="s">
         <v>38</v>
       </c>
-      <c r="S16" s="389"/>
-      <c r="T16" s="389"/>
-      <c r="U16" s="390"/>
-      <c r="V16" s="394">
+      <c r="S16" s="398"/>
+      <c r="T16" s="398"/>
+      <c r="U16" s="399"/>
+      <c r="V16" s="403">
         <v>6</v>
       </c>
-      <c r="W16" s="395"/>
-      <c r="X16" s="394">
+      <c r="W16" s="404"/>
+      <c r="X16" s="403">
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
-      <c r="Y16" s="395"/>
-      <c r="Z16" s="385"/>
-      <c r="AA16" s="387"/>
-      <c r="AB16" s="385"/>
-      <c r="AC16" s="387"/>
-      <c r="AD16" s="385">
+      <c r="Y16" s="404"/>
+      <c r="Z16" s="394"/>
+      <c r="AA16" s="396"/>
+      <c r="AB16" s="394"/>
+      <c r="AC16" s="396"/>
+      <c r="AD16" s="394">
         <v>999.99900000000002</v>
       </c>
-      <c r="AE16" s="387"/>
-      <c r="AF16" s="385"/>
-      <c r="AG16" s="386"/>
-      <c r="AH16" s="387"/>
-      <c r="AI16" s="404"/>
-      <c r="AJ16" s="405"/>
-      <c r="AK16" s="405"/>
-      <c r="AL16" s="405"/>
-      <c r="AM16" s="405"/>
-      <c r="AN16" s="406"/>
+      <c r="AE16" s="396"/>
+      <c r="AF16" s="394"/>
+      <c r="AG16" s="395"/>
+      <c r="AH16" s="396"/>
+      <c r="AI16" s="415"/>
+      <c r="AJ16" s="416"/>
+      <c r="AK16" s="416"/>
+      <c r="AL16" s="416"/>
+      <c r="AM16" s="416"/>
+      <c r="AN16" s="417"/>
     </row>
     <row r="17" spans="1:40" ht="15" customHeight="1">
       <c r="A17" s="183">
         <v>11</v>
       </c>
-      <c r="B17" s="403" t="s">
+      <c r="B17" s="414" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="403"/>
-      <c r="D17" s="403"/>
-      <c r="E17" s="403"/>
-      <c r="F17" s="403"/>
-      <c r="G17" s="403" t="s">
+      <c r="C17" s="414"/>
+      <c r="D17" s="414"/>
+      <c r="E17" s="414"/>
+      <c r="F17" s="414"/>
+      <c r="G17" s="414" t="s">
         <v>177</v>
       </c>
-      <c r="H17" s="403"/>
-      <c r="I17" s="403"/>
-      <c r="J17" s="403"/>
-      <c r="K17" s="403"/>
-      <c r="L17" s="388" t="s">
+      <c r="H17" s="414"/>
+      <c r="I17" s="414"/>
+      <c r="J17" s="414"/>
+      <c r="K17" s="414"/>
+      <c r="L17" s="397" t="s">
         <v>178</v>
       </c>
-      <c r="M17" s="389"/>
-      <c r="N17" s="389"/>
-      <c r="O17" s="389"/>
-      <c r="P17" s="390"/>
+      <c r="M17" s="398"/>
+      <c r="N17" s="398"/>
+      <c r="O17" s="398"/>
+      <c r="P17" s="399"/>
       <c r="Q17" s="184"/>
-      <c r="R17" s="388" t="s">
+      <c r="R17" s="397" t="s">
         <v>38</v>
       </c>
-      <c r="S17" s="389"/>
-      <c r="T17" s="389"/>
-      <c r="U17" s="390"/>
-      <c r="V17" s="394">
+      <c r="S17" s="398"/>
+      <c r="T17" s="398"/>
+      <c r="U17" s="399"/>
+      <c r="V17" s="403">
         <v>6</v>
       </c>
-      <c r="W17" s="395"/>
-      <c r="X17" s="394">
+      <c r="W17" s="404"/>
+      <c r="X17" s="403">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="Y17" s="395"/>
-      <c r="Z17" s="385"/>
-      <c r="AA17" s="387"/>
-      <c r="AB17" s="385"/>
-      <c r="AC17" s="387"/>
-      <c r="AD17" s="385">
+      <c r="Y17" s="404"/>
+      <c r="Z17" s="394"/>
+      <c r="AA17" s="396"/>
+      <c r="AB17" s="394"/>
+      <c r="AC17" s="396"/>
+      <c r="AD17" s="394">
         <v>999.99900000000002</v>
       </c>
-      <c r="AE17" s="387"/>
-      <c r="AF17" s="385"/>
-      <c r="AG17" s="386"/>
-      <c r="AH17" s="387"/>
-      <c r="AI17" s="404"/>
-      <c r="AJ17" s="405"/>
-      <c r="AK17" s="405"/>
-      <c r="AL17" s="405"/>
-      <c r="AM17" s="405"/>
-      <c r="AN17" s="406"/>
+      <c r="AE17" s="396"/>
+      <c r="AF17" s="394"/>
+      <c r="AG17" s="395"/>
+      <c r="AH17" s="396"/>
+      <c r="AI17" s="415"/>
+      <c r="AJ17" s="416"/>
+      <c r="AK17" s="416"/>
+      <c r="AL17" s="416"/>
+      <c r="AM17" s="416"/>
+      <c r="AN17" s="417"/>
     </row>
     <row r="18" spans="1:40" ht="15" customHeight="1">
       <c r="A18" s="183">
         <v>12</v>
       </c>
-      <c r="B18" s="403" t="s">
+      <c r="B18" s="414" t="s">
         <v>179</v>
       </c>
-      <c r="C18" s="403"/>
-      <c r="D18" s="403"/>
-      <c r="E18" s="403"/>
-      <c r="F18" s="403"/>
-      <c r="G18" s="403" t="s">
+      <c r="C18" s="414"/>
+      <c r="D18" s="414"/>
+      <c r="E18" s="414"/>
+      <c r="F18" s="414"/>
+      <c r="G18" s="414" t="s">
         <v>180</v>
       </c>
-      <c r="H18" s="403"/>
-      <c r="I18" s="403"/>
-      <c r="J18" s="403"/>
-      <c r="K18" s="403"/>
-      <c r="L18" s="388" t="s">
+      <c r="H18" s="414"/>
+      <c r="I18" s="414"/>
+      <c r="J18" s="414"/>
+      <c r="K18" s="414"/>
+      <c r="L18" s="397" t="s">
         <v>181</v>
       </c>
-      <c r="M18" s="389"/>
-      <c r="N18" s="389"/>
-      <c r="O18" s="389"/>
-      <c r="P18" s="390"/>
+      <c r="M18" s="398"/>
+      <c r="N18" s="398"/>
+      <c r="O18" s="398"/>
+      <c r="P18" s="399"/>
       <c r="Q18" s="184"/>
-      <c r="R18" s="388" t="s">
+      <c r="R18" s="397" t="s">
         <v>58</v>
       </c>
-      <c r="S18" s="389"/>
-      <c r="T18" s="389"/>
-      <c r="U18" s="390"/>
-      <c r="V18" s="394">
+      <c r="S18" s="398"/>
+      <c r="T18" s="398"/>
+      <c r="U18" s="399"/>
+      <c r="V18" s="403">
         <v>100</v>
       </c>
-      <c r="W18" s="395"/>
-      <c r="X18" s="394">
+      <c r="W18" s="404"/>
+      <c r="X18" s="403">
         <f t="shared" si="0"/>
         <v>163</v>
       </c>
-      <c r="Y18" s="395"/>
-      <c r="Z18" s="385"/>
-      <c r="AA18" s="387"/>
-      <c r="AB18" s="385"/>
-      <c r="AC18" s="387"/>
-      <c r="AD18" s="385"/>
-      <c r="AE18" s="387"/>
-      <c r="AF18" s="385"/>
-      <c r="AG18" s="386"/>
-      <c r="AH18" s="387"/>
-      <c r="AI18" s="404"/>
-      <c r="AJ18" s="405"/>
-      <c r="AK18" s="405"/>
-      <c r="AL18" s="405"/>
-      <c r="AM18" s="405"/>
-      <c r="AN18" s="406"/>
+      <c r="Y18" s="404"/>
+      <c r="Z18" s="394"/>
+      <c r="AA18" s="396"/>
+      <c r="AB18" s="394"/>
+      <c r="AC18" s="396"/>
+      <c r="AD18" s="394"/>
+      <c r="AE18" s="396"/>
+      <c r="AF18" s="394"/>
+      <c r="AG18" s="395"/>
+      <c r="AH18" s="396"/>
+      <c r="AI18" s="415"/>
+      <c r="AJ18" s="416"/>
+      <c r="AK18" s="416"/>
+      <c r="AL18" s="416"/>
+      <c r="AM18" s="416"/>
+      <c r="AN18" s="417"/>
     </row>
     <row r="19" spans="1:40" ht="15" customHeight="1">
       <c r="A19" s="183">
         <v>14</v>
       </c>
-      <c r="B19" s="403" t="s">
+      <c r="B19" s="414" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="403"/>
-      <c r="D19" s="403"/>
-      <c r="E19" s="403"/>
-      <c r="F19" s="403"/>
-      <c r="G19" s="403" t="s">
+      <c r="C19" s="414"/>
+      <c r="D19" s="414"/>
+      <c r="E19" s="414"/>
+      <c r="F19" s="414"/>
+      <c r="G19" s="414" t="s">
         <v>183</v>
       </c>
-      <c r="H19" s="403"/>
-      <c r="I19" s="403"/>
-      <c r="J19" s="403"/>
-      <c r="K19" s="403"/>
-      <c r="L19" s="388" t="s">
+      <c r="H19" s="414"/>
+      <c r="I19" s="414"/>
+      <c r="J19" s="414"/>
+      <c r="K19" s="414"/>
+      <c r="L19" s="397" t="s">
         <v>184</v>
       </c>
-      <c r="M19" s="389"/>
-      <c r="N19" s="389"/>
-      <c r="O19" s="389"/>
-      <c r="P19" s="390"/>
+      <c r="M19" s="398"/>
+      <c r="N19" s="398"/>
+      <c r="O19" s="398"/>
+      <c r="P19" s="399"/>
       <c r="Q19" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R19" s="388" t="s">
+      <c r="R19" s="397" t="s">
         <v>33</v>
       </c>
-      <c r="S19" s="389"/>
-      <c r="T19" s="389"/>
-      <c r="U19" s="390"/>
-      <c r="V19" s="394">
+      <c r="S19" s="398"/>
+      <c r="T19" s="398"/>
+      <c r="U19" s="399"/>
+      <c r="V19" s="403">
         <v>100</v>
       </c>
-      <c r="W19" s="395"/>
-      <c r="X19" s="394">
+      <c r="W19" s="404"/>
+      <c r="X19" s="403">
         <f t="shared" si="0"/>
         <v>263</v>
       </c>
-      <c r="Y19" s="395"/>
-      <c r="Z19" s="385"/>
-      <c r="AA19" s="387"/>
-      <c r="AB19" s="385"/>
-      <c r="AC19" s="387"/>
-      <c r="AD19" s="385"/>
-      <c r="AE19" s="387"/>
-      <c r="AF19" s="385"/>
-      <c r="AG19" s="386"/>
-      <c r="AH19" s="387"/>
-      <c r="AI19" s="404"/>
-      <c r="AJ19" s="405"/>
-      <c r="AK19" s="405"/>
-      <c r="AL19" s="405"/>
-      <c r="AM19" s="405"/>
-      <c r="AN19" s="406"/>
+      <c r="Y19" s="404"/>
+      <c r="Z19" s="394"/>
+      <c r="AA19" s="396"/>
+      <c r="AB19" s="394"/>
+      <c r="AC19" s="396"/>
+      <c r="AD19" s="394"/>
+      <c r="AE19" s="396"/>
+      <c r="AF19" s="394"/>
+      <c r="AG19" s="395"/>
+      <c r="AH19" s="396"/>
+      <c r="AI19" s="415"/>
+      <c r="AJ19" s="416"/>
+      <c r="AK19" s="416"/>
+      <c r="AL19" s="416"/>
+      <c r="AM19" s="416"/>
+      <c r="AN19" s="417"/>
     </row>
     <row r="20" spans="1:40" ht="15" customHeight="1">
       <c r="A20" s="183">
         <v>15</v>
       </c>
-      <c r="B20" s="403" t="s">
+      <c r="B20" s="414" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="403"/>
-      <c r="D20" s="403"/>
-      <c r="E20" s="403"/>
-      <c r="F20" s="403"/>
-      <c r="G20" s="403" t="s">
+      <c r="C20" s="414"/>
+      <c r="D20" s="414"/>
+      <c r="E20" s="414"/>
+      <c r="F20" s="414"/>
+      <c r="G20" s="414" t="s">
         <v>186</v>
       </c>
-      <c r="H20" s="403"/>
-      <c r="I20" s="403"/>
-      <c r="J20" s="403"/>
-      <c r="K20" s="403"/>
-      <c r="L20" s="388" t="s">
+      <c r="H20" s="414"/>
+      <c r="I20" s="414"/>
+      <c r="J20" s="414"/>
+      <c r="K20" s="414"/>
+      <c r="L20" s="397" t="s">
         <v>187</v>
       </c>
-      <c r="M20" s="389"/>
-      <c r="N20" s="389"/>
-      <c r="O20" s="389"/>
-      <c r="P20" s="390"/>
+      <c r="M20" s="398"/>
+      <c r="N20" s="398"/>
+      <c r="O20" s="398"/>
+      <c r="P20" s="399"/>
       <c r="Q20" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R20" s="388" t="s">
+      <c r="R20" s="397" t="s">
         <v>33</v>
       </c>
-      <c r="S20" s="389"/>
-      <c r="T20" s="389"/>
-      <c r="U20" s="390"/>
-      <c r="V20" s="394">
+      <c r="S20" s="398"/>
+      <c r="T20" s="398"/>
+      <c r="U20" s="399"/>
+      <c r="V20" s="403">
         <v>100</v>
       </c>
-      <c r="W20" s="395"/>
-      <c r="X20" s="394">
+      <c r="W20" s="404"/>
+      <c r="X20" s="403">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="Y20" s="395"/>
-      <c r="Z20" s="385"/>
-      <c r="AA20" s="387"/>
-      <c r="AB20" s="385"/>
-      <c r="AC20" s="387"/>
-      <c r="AD20" s="385"/>
-      <c r="AE20" s="387"/>
-      <c r="AF20" s="385"/>
-      <c r="AG20" s="386"/>
-      <c r="AH20" s="387"/>
-      <c r="AI20" s="404"/>
-      <c r="AJ20" s="405"/>
-      <c r="AK20" s="405"/>
-      <c r="AL20" s="405"/>
-      <c r="AM20" s="405"/>
-      <c r="AN20" s="406"/>
+      <c r="Y20" s="404"/>
+      <c r="Z20" s="394"/>
+      <c r="AA20" s="396"/>
+      <c r="AB20" s="394"/>
+      <c r="AC20" s="396"/>
+      <c r="AD20" s="394"/>
+      <c r="AE20" s="396"/>
+      <c r="AF20" s="394"/>
+      <c r="AG20" s="395"/>
+      <c r="AH20" s="396"/>
+      <c r="AI20" s="415"/>
+      <c r="AJ20" s="416"/>
+      <c r="AK20" s="416"/>
+      <c r="AL20" s="416"/>
+      <c r="AM20" s="416"/>
+      <c r="AN20" s="417"/>
     </row>
     <row r="21" spans="1:40" ht="15" customHeight="1">
       <c r="A21" s="183">
         <v>16</v>
       </c>
-      <c r="B21" s="403" t="s">
+      <c r="B21" s="414" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="403"/>
-      <c r="D21" s="403"/>
-      <c r="E21" s="403"/>
-      <c r="F21" s="403"/>
-      <c r="G21" s="403" t="s">
+      <c r="C21" s="414"/>
+      <c r="D21" s="414"/>
+      <c r="E21" s="414"/>
+      <c r="F21" s="414"/>
+      <c r="G21" s="414" t="s">
         <v>189</v>
       </c>
-      <c r="H21" s="403"/>
-      <c r="I21" s="403"/>
-      <c r="J21" s="403"/>
-      <c r="K21" s="403"/>
-      <c r="L21" s="388" t="s">
+      <c r="H21" s="414"/>
+      <c r="I21" s="414"/>
+      <c r="J21" s="414"/>
+      <c r="K21" s="414"/>
+      <c r="L21" s="397" t="s">
         <v>190</v>
       </c>
-      <c r="M21" s="389"/>
-      <c r="N21" s="389"/>
-      <c r="O21" s="389"/>
-      <c r="P21" s="390"/>
+      <c r="M21" s="398"/>
+      <c r="N21" s="398"/>
+      <c r="O21" s="398"/>
+      <c r="P21" s="399"/>
       <c r="Q21" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R21" s="388" t="s">
+      <c r="R21" s="397" t="s">
         <v>33</v>
       </c>
-      <c r="S21" s="389"/>
-      <c r="T21" s="389"/>
-      <c r="U21" s="390"/>
-      <c r="V21" s="394">
+      <c r="S21" s="398"/>
+      <c r="T21" s="398"/>
+      <c r="U21" s="399"/>
+      <c r="V21" s="403">
         <v>100</v>
       </c>
-      <c r="W21" s="395"/>
-      <c r="X21" s="394">
+      <c r="W21" s="404"/>
+      <c r="X21" s="403">
         <f t="shared" si="0"/>
         <v>463</v>
       </c>
-      <c r="Y21" s="395"/>
-      <c r="Z21" s="385"/>
-      <c r="AA21" s="387"/>
-      <c r="AB21" s="385"/>
-      <c r="AC21" s="387"/>
-      <c r="AD21" s="385"/>
-      <c r="AE21" s="387"/>
-      <c r="AF21" s="385"/>
-      <c r="AG21" s="386"/>
-      <c r="AH21" s="387"/>
-      <c r="AI21" s="404"/>
-      <c r="AJ21" s="405"/>
-      <c r="AK21" s="405"/>
-      <c r="AL21" s="405"/>
-      <c r="AM21" s="405"/>
-      <c r="AN21" s="406"/>
+      <c r="Y21" s="404"/>
+      <c r="Z21" s="394"/>
+      <c r="AA21" s="396"/>
+      <c r="AB21" s="394"/>
+      <c r="AC21" s="396"/>
+      <c r="AD21" s="394"/>
+      <c r="AE21" s="396"/>
+      <c r="AF21" s="394"/>
+      <c r="AG21" s="395"/>
+      <c r="AH21" s="396"/>
+      <c r="AI21" s="415"/>
+      <c r="AJ21" s="416"/>
+      <c r="AK21" s="416"/>
+      <c r="AL21" s="416"/>
+      <c r="AM21" s="416"/>
+      <c r="AN21" s="417"/>
     </row>
     <row r="22" spans="1:40" ht="15" customHeight="1">
       <c r="A22" s="183">
         <v>17</v>
       </c>
-      <c r="B22" s="403" t="s">
+      <c r="B22" s="414" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="403"/>
-      <c r="D22" s="403"/>
-      <c r="E22" s="403"/>
-      <c r="F22" s="403"/>
-      <c r="G22" s="408" t="s">
+      <c r="C22" s="414"/>
+      <c r="D22" s="414"/>
+      <c r="E22" s="414"/>
+      <c r="F22" s="414"/>
+      <c r="G22" s="419" t="s">
         <v>192</v>
       </c>
-      <c r="H22" s="408"/>
-      <c r="I22" s="408"/>
-      <c r="J22" s="408"/>
-      <c r="K22" s="408"/>
-      <c r="L22" s="388" t="s">
+      <c r="H22" s="419"/>
+      <c r="I22" s="419"/>
+      <c r="J22" s="419"/>
+      <c r="K22" s="419"/>
+      <c r="L22" s="397" t="s">
         <v>193</v>
       </c>
-      <c r="M22" s="389"/>
-      <c r="N22" s="389"/>
-      <c r="O22" s="389"/>
-      <c r="P22" s="390"/>
+      <c r="M22" s="398"/>
+      <c r="N22" s="398"/>
+      <c r="O22" s="398"/>
+      <c r="P22" s="399"/>
       <c r="Q22" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R22" s="388" t="s">
+      <c r="R22" s="397" t="s">
         <v>34</v>
       </c>
-      <c r="S22" s="389"/>
-      <c r="T22" s="389"/>
-      <c r="U22" s="390"/>
-      <c r="V22" s="394">
+      <c r="S22" s="398"/>
+      <c r="T22" s="398"/>
+      <c r="U22" s="399"/>
+      <c r="V22" s="403">
         <v>100</v>
       </c>
-      <c r="W22" s="395"/>
-      <c r="X22" s="394">
+      <c r="W22" s="404"/>
+      <c r="X22" s="403">
         <f t="shared" si="0"/>
         <v>563</v>
       </c>
-      <c r="Y22" s="395"/>
-      <c r="Z22" s="385"/>
-      <c r="AA22" s="387"/>
-      <c r="AB22" s="385"/>
-      <c r="AC22" s="387"/>
-      <c r="AD22" s="385"/>
-      <c r="AE22" s="387"/>
-      <c r="AF22" s="385"/>
-      <c r="AG22" s="386"/>
-      <c r="AH22" s="387"/>
-      <c r="AI22" s="404"/>
-      <c r="AJ22" s="405"/>
-      <c r="AK22" s="405"/>
-      <c r="AL22" s="405"/>
-      <c r="AM22" s="405"/>
-      <c r="AN22" s="406"/>
+      <c r="Y22" s="404"/>
+      <c r="Z22" s="394"/>
+      <c r="AA22" s="396"/>
+      <c r="AB22" s="394"/>
+      <c r="AC22" s="396"/>
+      <c r="AD22" s="394"/>
+      <c r="AE22" s="396"/>
+      <c r="AF22" s="394"/>
+      <c r="AG22" s="395"/>
+      <c r="AH22" s="396"/>
+      <c r="AI22" s="415"/>
+      <c r="AJ22" s="416"/>
+      <c r="AK22" s="416"/>
+      <c r="AL22" s="416"/>
+      <c r="AM22" s="416"/>
+      <c r="AN22" s="417"/>
     </row>
     <row r="23" spans="1:40" ht="15" customHeight="1">
       <c r="A23" s="183">
         <v>18</v>
       </c>
-      <c r="B23" s="403" t="s">
+      <c r="B23" s="414" t="s">
         <v>194</v>
       </c>
-      <c r="C23" s="403"/>
-      <c r="D23" s="403"/>
-      <c r="E23" s="403"/>
-      <c r="F23" s="403"/>
-      <c r="G23" s="408" t="s">
+      <c r="C23" s="414"/>
+      <c r="D23" s="414"/>
+      <c r="E23" s="414"/>
+      <c r="F23" s="414"/>
+      <c r="G23" s="419" t="s">
         <v>195</v>
       </c>
-      <c r="H23" s="408"/>
-      <c r="I23" s="408"/>
-      <c r="J23" s="408"/>
-      <c r="K23" s="408"/>
-      <c r="L23" s="388" t="s">
+      <c r="H23" s="419"/>
+      <c r="I23" s="419"/>
+      <c r="J23" s="419"/>
+      <c r="K23" s="419"/>
+      <c r="L23" s="397" t="s">
         <v>196</v>
       </c>
-      <c r="M23" s="389"/>
-      <c r="N23" s="389"/>
-      <c r="O23" s="389"/>
-      <c r="P23" s="390"/>
+      <c r="M23" s="398"/>
+      <c r="N23" s="398"/>
+      <c r="O23" s="398"/>
+      <c r="P23" s="399"/>
       <c r="Q23" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R23" s="388" t="s">
+      <c r="R23" s="397" t="s">
         <v>34</v>
       </c>
-      <c r="S23" s="389"/>
-      <c r="T23" s="389"/>
-      <c r="U23" s="390"/>
-      <c r="V23" s="394">
+      <c r="S23" s="398"/>
+      <c r="T23" s="398"/>
+      <c r="U23" s="399"/>
+      <c r="V23" s="403">
         <v>100</v>
       </c>
-      <c r="W23" s="395"/>
-      <c r="X23" s="394">
+      <c r="W23" s="404"/>
+      <c r="X23" s="403">
         <f t="shared" si="0"/>
         <v>663</v>
       </c>
-      <c r="Y23" s="395"/>
-      <c r="Z23" s="385"/>
-      <c r="AA23" s="387"/>
-      <c r="AB23" s="385"/>
-      <c r="AC23" s="387"/>
-      <c r="AD23" s="385"/>
-      <c r="AE23" s="387"/>
-      <c r="AF23" s="385"/>
-      <c r="AG23" s="386"/>
-      <c r="AH23" s="387"/>
-      <c r="AI23" s="404"/>
-      <c r="AJ23" s="405"/>
-      <c r="AK23" s="405"/>
-      <c r="AL23" s="405"/>
-      <c r="AM23" s="405"/>
-      <c r="AN23" s="406"/>
+      <c r="Y23" s="404"/>
+      <c r="Z23" s="394"/>
+      <c r="AA23" s="396"/>
+      <c r="AB23" s="394"/>
+      <c r="AC23" s="396"/>
+      <c r="AD23" s="394"/>
+      <c r="AE23" s="396"/>
+      <c r="AF23" s="394"/>
+      <c r="AG23" s="395"/>
+      <c r="AH23" s="396"/>
+      <c r="AI23" s="415"/>
+      <c r="AJ23" s="416"/>
+      <c r="AK23" s="416"/>
+      <c r="AL23" s="416"/>
+      <c r="AM23" s="416"/>
+      <c r="AN23" s="417"/>
     </row>
     <row r="24" spans="1:40" ht="15" customHeight="1">
       <c r="A24" s="183">
         <v>19</v>
       </c>
-      <c r="B24" s="403" t="s">
+      <c r="B24" s="414" t="s">
         <v>197</v>
       </c>
-      <c r="C24" s="403"/>
-      <c r="D24" s="403"/>
-      <c r="E24" s="403"/>
-      <c r="F24" s="403"/>
-      <c r="G24" s="407" t="s">
+      <c r="C24" s="414"/>
+      <c r="D24" s="414"/>
+      <c r="E24" s="414"/>
+      <c r="F24" s="414"/>
+      <c r="G24" s="418" t="s">
         <v>198</v>
       </c>
-      <c r="H24" s="407"/>
-      <c r="I24" s="407"/>
-      <c r="J24" s="407"/>
-      <c r="K24" s="407"/>
-      <c r="L24" s="388" t="s">
+      <c r="H24" s="418"/>
+      <c r="I24" s="418"/>
+      <c r="J24" s="418"/>
+      <c r="K24" s="418"/>
+      <c r="L24" s="397" t="s">
         <v>199</v>
       </c>
-      <c r="M24" s="389"/>
-      <c r="N24" s="389"/>
-      <c r="O24" s="389"/>
-      <c r="P24" s="390"/>
+      <c r="M24" s="398"/>
+      <c r="N24" s="398"/>
+      <c r="O24" s="398"/>
+      <c r="P24" s="399"/>
       <c r="Q24" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R24" s="388" t="s">
+      <c r="R24" s="397" t="s">
         <v>34</v>
       </c>
-      <c r="S24" s="389"/>
-      <c r="T24" s="389"/>
-      <c r="U24" s="390"/>
-      <c r="V24" s="394">
+      <c r="S24" s="398"/>
+      <c r="T24" s="398"/>
+      <c r="U24" s="399"/>
+      <c r="V24" s="403">
         <v>100</v>
       </c>
-      <c r="W24" s="395"/>
-      <c r="X24" s="394">
+      <c r="W24" s="404"/>
+      <c r="X24" s="403">
         <f t="shared" si="0"/>
         <v>763</v>
       </c>
-      <c r="Y24" s="395"/>
-      <c r="Z24" s="385"/>
-      <c r="AA24" s="387"/>
-      <c r="AB24" s="385"/>
-      <c r="AC24" s="387"/>
-      <c r="AD24" s="385"/>
-      <c r="AE24" s="387"/>
-      <c r="AF24" s="385"/>
-      <c r="AG24" s="386"/>
-      <c r="AH24" s="387"/>
-      <c r="AI24" s="404"/>
-      <c r="AJ24" s="405"/>
-      <c r="AK24" s="405"/>
-      <c r="AL24" s="405"/>
-      <c r="AM24" s="405"/>
-      <c r="AN24" s="406"/>
+      <c r="Y24" s="404"/>
+      <c r="Z24" s="394"/>
+      <c r="AA24" s="396"/>
+      <c r="AB24" s="394"/>
+      <c r="AC24" s="396"/>
+      <c r="AD24" s="394"/>
+      <c r="AE24" s="396"/>
+      <c r="AF24" s="394"/>
+      <c r="AG24" s="395"/>
+      <c r="AH24" s="396"/>
+      <c r="AI24" s="415"/>
+      <c r="AJ24" s="416"/>
+      <c r="AK24" s="416"/>
+      <c r="AL24" s="416"/>
+      <c r="AM24" s="416"/>
+      <c r="AN24" s="417"/>
     </row>
   </sheetData>
   <mergeCells count="215">

--- a/030_設計ドキュメント/020_サンプル/030_インタフェース設計/外部インタフェース設計書(その他)_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/030_インタフェース設計/外部インタフェース設計書(その他)_サンプル.xlsx
@@ -226,7 +226,7 @@
             <family val="1"/>
             <charset val="128"/>
           </rPr>
-          <t>インターフェースの改行コードを選択する。
+          <t>インタフェースの改行コードを選択する。
 「その他」の場合は、詳細を記述する</t>
         </r>
       </text>
@@ -477,7 +477,7 @@
 レコード種類が複数ある場合は、シート名でレコード名がわかるようにする。
 　例）　ヘッダーレコードシート、データレコードシート、トレーラレコードシート、エンドレコードシート
 「フォーマット定義ファイル自動生成ツール」の制約上、シート名とレコード構成シートの「レコード名」列の値を一致させる必要がある。そのため、シート名に項番は付加しないこと。
-フレームワーク制御ヘッダがインターフェース固有の場合、フレームワーク制御ヘッダの項目もレコードに含まれる他の項目と
+フレームワーク制御ヘッダがインタフェース固有の場合、フレームワーク制御ヘッダの項目もレコードに含まれる他の項目と
 同様に記述する。
 </t>
         </r>
@@ -653,8 +653,8 @@
             <charset val="128"/>
           </rPr>
           <t>フォーマット編集が必要な場合に記入する。
-入力インターフェースの場合は受け取り可能なフォーマットを記述する。
-出力インターフェースの場合はどのようなフォーマットに編集するかを記述する。</t>
+入力インタフェースの場合は受け取り可能なフォーマットを記述する。
+出力インタフェースの場合はどのようなフォーマットに編集するかを記述する。</t>
         </r>
       </text>
     </comment>
@@ -682,7 +682,7 @@
 レコード種類が複数ある場合は、シート名でレコード名がわかるようにする。
 　例）　ヘッダーレコードシート、データレコードシート、トレーラレコードシート、エンドレコードシート
 「フォーマット定義ファイル自動生成ツール」の制約上、シート名とレコード構成シートの「レコード名」列の値を一致させる必要がある。そのため、シート名に項番は付加しないこと。
-フレームワーク制御ヘッダがインターフェース固有の場合、フレームワーク制御ヘッダの項目もレコードに含まれる他の項目と
+フレームワーク制御ヘッダがインタフェース固有の場合、フレームワーク制御ヘッダの項目もレコードに含まれる他の項目と
 同様に記述する。
 </t>
         </r>
@@ -860,7 +860,7 @@
 レコード種類が複数ある場合は、シート名でレコード名がわかるようにする。
 　例）　ヘッダーレコードシート、データレコードシート、トレーラレコードシート、エンドレコードシート
 「フォーマット定義ファイル自動生成ツール」の制約上、シート名とレコード構成シートの「レコード名」列の値を一致させる必要がある。そのため、シート名に項番は付加しないこと。
-フレームワーク制御ヘッダがインターフェース固有の場合、フレームワーク制御ヘッダの項目もレコードに含まれる他の項目と
+フレームワーク制御ヘッダがインタフェース固有の場合、フレームワーク制御ヘッダの項目もレコードに含まれる他の項目と
 同様に記述する。
 </t>
         </r>
@@ -3565,6 +3565,180 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3576,192 +3750,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3789,15 +3798,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3807,6 +3807,96 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3816,95 +3906,218 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3924,227 +4137,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4158,24 +4179,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4184,17 +4187,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4205,8 +4208,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4216,24 +4234,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -6976,9 +6976,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
@@ -6988,7 +6988,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="20636203">
-          <a:off x="1600200" y="4048125"/>
+          <a:off x="1409700" y="3990974"/>
           <a:ext cx="5473999" cy="1871540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8736,155 +8736,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="229" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="214" t="s">
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="223" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="216"/>
-      <c r="O1" s="205" t="s">
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="232" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="206"/>
-      <c r="Q1" s="206"/>
-      <c r="R1" s="207"/>
-      <c r="S1" s="217" t="s">
+      <c r="P1" s="233"/>
+      <c r="Q1" s="233"/>
+      <c r="R1" s="234"/>
+      <c r="S1" s="241" t="s">
         <v>206</v>
       </c>
-      <c r="T1" s="218"/>
-      <c r="U1" s="218"/>
-      <c r="V1" s="218"/>
-      <c r="W1" s="218"/>
-      <c r="X1" s="218"/>
-      <c r="Y1" s="218"/>
-      <c r="Z1" s="219"/>
-      <c r="AA1" s="202" t="s">
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="242"/>
+      <c r="W1" s="242"/>
+      <c r="X1" s="242"/>
+      <c r="Y1" s="242"/>
+      <c r="Z1" s="243"/>
+      <c r="AA1" s="229" t="s">
         <v>75</v>
       </c>
-      <c r="AB1" s="204"/>
-      <c r="AC1" s="226" t="str">
+      <c r="AB1" s="231"/>
+      <c r="AC1" s="213" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="227"/>
-      <c r="AE1" s="227"/>
-      <c r="AF1" s="228"/>
-      <c r="AG1" s="229">
+      <c r="AD1" s="214"/>
+      <c r="AE1" s="214"/>
+      <c r="AF1" s="215"/>
+      <c r="AG1" s="216">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="230"/>
-      <c r="AI1" s="231"/>
+      <c r="AH1" s="217"/>
+      <c r="AI1" s="218"/>
       <c r="AK1" s="72"/>
       <c r="AL1" s="72"/>
       <c r="AM1" s="72"/>
       <c r="AN1" s="73"/>
     </row>
     <row r="2" spans="1:40" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="229" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="214" t="s">
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="223" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="221"/>
-      <c r="U2" s="221"/>
-      <c r="V2" s="221"/>
-      <c r="W2" s="221"/>
-      <c r="X2" s="221"/>
-      <c r="Y2" s="221"/>
-      <c r="Z2" s="222"/>
-      <c r="AA2" s="202" t="s">
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="225"/>
+      <c r="O2" s="235"/>
+      <c r="P2" s="236"/>
+      <c r="Q2" s="236"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="245"/>
+      <c r="W2" s="245"/>
+      <c r="X2" s="245"/>
+      <c r="Y2" s="245"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="229" t="s">
         <v>76</v>
       </c>
-      <c r="AB2" s="204"/>
-      <c r="AC2" s="232" t="str">
+      <c r="AB2" s="231"/>
+      <c r="AC2" s="226" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="233"/>
-      <c r="AE2" s="233"/>
-      <c r="AF2" s="234"/>
-      <c r="AG2" s="229" t="str">
+      <c r="AD2" s="227"/>
+      <c r="AE2" s="227"/>
+      <c r="AF2" s="228"/>
+      <c r="AG2" s="216" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="230"/>
-      <c r="AI2" s="231"/>
+      <c r="AH2" s="217"/>
+      <c r="AI2" s="218"/>
       <c r="AK2" s="72"/>
       <c r="AL2" s="72"/>
       <c r="AM2" s="72"/>
       <c r="AN2" s="72"/>
     </row>
     <row r="3" spans="1:40" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="229" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="214" t="s">
+      <c r="B3" s="230"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="231"/>
+      <c r="E3" s="223" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="215"/>
-      <c r="M3" s="215"/>
-      <c r="N3" s="216"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="213"/>
-      <c r="S3" s="223"/>
-      <c r="T3" s="224"/>
-      <c r="U3" s="224"/>
-      <c r="V3" s="224"/>
-      <c r="W3" s="224"/>
-      <c r="X3" s="224"/>
-      <c r="Y3" s="224"/>
-      <c r="Z3" s="225"/>
-      <c r="AA3" s="202"/>
-      <c r="AB3" s="204"/>
-      <c r="AC3" s="226"/>
-      <c r="AD3" s="227"/>
-      <c r="AE3" s="227"/>
-      <c r="AF3" s="228"/>
-      <c r="AG3" s="229"/>
-      <c r="AH3" s="230"/>
-      <c r="AI3" s="231"/>
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="224"/>
+      <c r="N3" s="225"/>
+      <c r="O3" s="238"/>
+      <c r="P3" s="239"/>
+      <c r="Q3" s="239"/>
+      <c r="R3" s="240"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="248"/>
+      <c r="U3" s="248"/>
+      <c r="V3" s="248"/>
+      <c r="W3" s="248"/>
+      <c r="X3" s="248"/>
+      <c r="Y3" s="248"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="229"/>
+      <c r="AB3" s="231"/>
+      <c r="AC3" s="213"/>
+      <c r="AD3" s="214"/>
+      <c r="AE3" s="214"/>
+      <c r="AF3" s="215"/>
+      <c r="AG3" s="216"/>
+      <c r="AH3" s="217"/>
+      <c r="AI3" s="218"/>
       <c r="AK3" s="72"/>
       <c r="AL3" s="72"/>
       <c r="AM3" s="72"/>
@@ -8931,291 +8931,291 @@
       <c r="A7" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="235" t="s">
+      <c r="B7" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="236"/>
-      <c r="D7" s="235" t="s">
+      <c r="C7" s="220"/>
+      <c r="D7" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="237"/>
-      <c r="F7" s="236"/>
-      <c r="G7" s="235" t="s">
+      <c r="E7" s="221"/>
+      <c r="F7" s="220"/>
+      <c r="G7" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="237"/>
-      <c r="I7" s="236"/>
-      <c r="J7" s="238" t="s">
+      <c r="H7" s="221"/>
+      <c r="I7" s="220"/>
+      <c r="J7" s="222" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="237"/>
-      <c r="L7" s="237"/>
-      <c r="M7" s="237"/>
-      <c r="N7" s="237"/>
-      <c r="O7" s="237"/>
-      <c r="P7" s="236"/>
-      <c r="Q7" s="235" t="s">
+      <c r="K7" s="221"/>
+      <c r="L7" s="221"/>
+      <c r="M7" s="221"/>
+      <c r="N7" s="221"/>
+      <c r="O7" s="221"/>
+      <c r="P7" s="220"/>
+      <c r="Q7" s="219" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="237"/>
-      <c r="S7" s="237"/>
-      <c r="T7" s="237"/>
-      <c r="U7" s="237"/>
-      <c r="V7" s="237"/>
-      <c r="W7" s="237"/>
-      <c r="X7" s="237"/>
-      <c r="Y7" s="237"/>
-      <c r="Z7" s="237"/>
-      <c r="AA7" s="237"/>
-      <c r="AB7" s="237"/>
-      <c r="AC7" s="237"/>
-      <c r="AD7" s="237"/>
-      <c r="AE7" s="236"/>
-      <c r="AF7" s="235" t="s">
+      <c r="R7" s="221"/>
+      <c r="S7" s="221"/>
+      <c r="T7" s="221"/>
+      <c r="U7" s="221"/>
+      <c r="V7" s="221"/>
+      <c r="W7" s="221"/>
+      <c r="X7" s="221"/>
+      <c r="Y7" s="221"/>
+      <c r="Z7" s="221"/>
+      <c r="AA7" s="221"/>
+      <c r="AB7" s="221"/>
+      <c r="AC7" s="221"/>
+      <c r="AD7" s="221"/>
+      <c r="AE7" s="220"/>
+      <c r="AF7" s="219" t="s">
         <v>6</v>
       </c>
-      <c r="AG7" s="237"/>
-      <c r="AH7" s="237"/>
-      <c r="AI7" s="236"/>
+      <c r="AG7" s="221"/>
+      <c r="AH7" s="221"/>
+      <c r="AI7" s="220"/>
       <c r="AJ7" s="66"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="67">
         <v>1</v>
       </c>
-      <c r="B8" s="248" t="s">
+      <c r="B8" s="204" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="249"/>
-      <c r="D8" s="250">
+      <c r="C8" s="205"/>
+      <c r="D8" s="206">
         <v>43336</v>
       </c>
-      <c r="E8" s="251"/>
-      <c r="F8" s="252"/>
-      <c r="G8" s="248" t="s">
+      <c r="E8" s="207"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="204" t="s">
         <v>134</v>
       </c>
-      <c r="H8" s="253"/>
-      <c r="I8" s="249"/>
-      <c r="J8" s="254" t="s">
+      <c r="H8" s="209"/>
+      <c r="I8" s="205"/>
+      <c r="J8" s="210" t="s">
         <v>135</v>
       </c>
-      <c r="K8" s="255"/>
-      <c r="L8" s="255"/>
-      <c r="M8" s="255"/>
-      <c r="N8" s="255"/>
-      <c r="O8" s="255"/>
-      <c r="P8" s="256"/>
-      <c r="Q8" s="254" t="s">
+      <c r="K8" s="211"/>
+      <c r="L8" s="211"/>
+      <c r="M8" s="211"/>
+      <c r="N8" s="211"/>
+      <c r="O8" s="211"/>
+      <c r="P8" s="212"/>
+      <c r="Q8" s="210" t="s">
         <v>136</v>
       </c>
-      <c r="R8" s="255"/>
-      <c r="S8" s="255"/>
-      <c r="T8" s="255"/>
-      <c r="U8" s="255"/>
-      <c r="V8" s="255"/>
-      <c r="W8" s="255"/>
-      <c r="X8" s="255"/>
-      <c r="Y8" s="255"/>
-      <c r="Z8" s="255"/>
-      <c r="AA8" s="255"/>
-      <c r="AB8" s="255"/>
-      <c r="AC8" s="255"/>
-      <c r="AD8" s="255"/>
-      <c r="AE8" s="256"/>
-      <c r="AF8" s="199" t="s">
+      <c r="R8" s="211"/>
+      <c r="S8" s="211"/>
+      <c r="T8" s="211"/>
+      <c r="U8" s="211"/>
+      <c r="V8" s="211"/>
+      <c r="W8" s="211"/>
+      <c r="X8" s="211"/>
+      <c r="Y8" s="211"/>
+      <c r="Z8" s="211"/>
+      <c r="AA8" s="211"/>
+      <c r="AB8" s="211"/>
+      <c r="AC8" s="211"/>
+      <c r="AD8" s="211"/>
+      <c r="AE8" s="212"/>
+      <c r="AF8" s="250" t="s">
         <v>137</v>
       </c>
-      <c r="AG8" s="200"/>
-      <c r="AH8" s="200"/>
-      <c r="AI8" s="201"/>
+      <c r="AG8" s="251"/>
+      <c r="AH8" s="251"/>
+      <c r="AI8" s="252"/>
       <c r="AJ8" s="66"/>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1">
       <c r="A9" s="68"/>
-      <c r="B9" s="239"/>
-      <c r="C9" s="240"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="242"/>
-      <c r="F9" s="243"/>
-      <c r="G9" s="239"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="240"/>
-      <c r="J9" s="245"/>
-      <c r="K9" s="246"/>
-      <c r="L9" s="246"/>
-      <c r="M9" s="246"/>
-      <c r="N9" s="246"/>
-      <c r="O9" s="246"/>
-      <c r="P9" s="247"/>
-      <c r="Q9" s="245"/>
-      <c r="R9" s="246"/>
-      <c r="S9" s="246"/>
-      <c r="T9" s="246"/>
-      <c r="U9" s="246"/>
-      <c r="V9" s="246"/>
-      <c r="W9" s="246"/>
-      <c r="X9" s="246"/>
-      <c r="Y9" s="246"/>
-      <c r="Z9" s="246"/>
-      <c r="AA9" s="246"/>
-      <c r="AB9" s="246"/>
-      <c r="AC9" s="246"/>
-      <c r="AD9" s="246"/>
-      <c r="AE9" s="247"/>
-      <c r="AF9" s="195"/>
-      <c r="AG9" s="196"/>
-      <c r="AH9" s="196"/>
-      <c r="AI9" s="197"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="196"/>
+      <c r="D9" s="197"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="202"/>
+      <c r="L9" s="202"/>
+      <c r="M9" s="202"/>
+      <c r="N9" s="202"/>
+      <c r="O9" s="202"/>
+      <c r="P9" s="203"/>
+      <c r="Q9" s="201"/>
+      <c r="R9" s="202"/>
+      <c r="S9" s="202"/>
+      <c r="T9" s="202"/>
+      <c r="U9" s="202"/>
+      <c r="V9" s="202"/>
+      <c r="W9" s="202"/>
+      <c r="X9" s="202"/>
+      <c r="Y9" s="202"/>
+      <c r="Z9" s="202"/>
+      <c r="AA9" s="202"/>
+      <c r="AB9" s="202"/>
+      <c r="AC9" s="202"/>
+      <c r="AD9" s="202"/>
+      <c r="AE9" s="203"/>
+      <c r="AF9" s="253"/>
+      <c r="AG9" s="254"/>
+      <c r="AH9" s="254"/>
+      <c r="AI9" s="255"/>
       <c r="AJ9" s="12"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1">
       <c r="A10" s="68"/>
-      <c r="B10" s="239"/>
-      <c r="C10" s="240"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="242"/>
-      <c r="F10" s="243"/>
-      <c r="G10" s="239"/>
-      <c r="H10" s="244"/>
-      <c r="I10" s="240"/>
-      <c r="J10" s="245"/>
-      <c r="K10" s="246"/>
-      <c r="L10" s="246"/>
-      <c r="M10" s="246"/>
-      <c r="N10" s="246"/>
-      <c r="O10" s="246"/>
-      <c r="P10" s="247"/>
-      <c r="Q10" s="245"/>
-      <c r="R10" s="246"/>
-      <c r="S10" s="246"/>
-      <c r="T10" s="246"/>
-      <c r="U10" s="246"/>
-      <c r="V10" s="246"/>
-      <c r="W10" s="246"/>
-      <c r="X10" s="246"/>
-      <c r="Y10" s="246"/>
-      <c r="Z10" s="246"/>
-      <c r="AA10" s="246"/>
-      <c r="AB10" s="246"/>
-      <c r="AC10" s="246"/>
-      <c r="AD10" s="246"/>
-      <c r="AE10" s="247"/>
-      <c r="AF10" s="195"/>
-      <c r="AG10" s="196"/>
-      <c r="AH10" s="196"/>
-      <c r="AI10" s="197"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="197"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="202"/>
+      <c r="M10" s="202"/>
+      <c r="N10" s="202"/>
+      <c r="O10" s="202"/>
+      <c r="P10" s="203"/>
+      <c r="Q10" s="201"/>
+      <c r="R10" s="202"/>
+      <c r="S10" s="202"/>
+      <c r="T10" s="202"/>
+      <c r="U10" s="202"/>
+      <c r="V10" s="202"/>
+      <c r="W10" s="202"/>
+      <c r="X10" s="202"/>
+      <c r="Y10" s="202"/>
+      <c r="Z10" s="202"/>
+      <c r="AA10" s="202"/>
+      <c r="AB10" s="202"/>
+      <c r="AC10" s="202"/>
+      <c r="AD10" s="202"/>
+      <c r="AE10" s="203"/>
+      <c r="AF10" s="253"/>
+      <c r="AG10" s="254"/>
+      <c r="AH10" s="254"/>
+      <c r="AI10" s="255"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1">
       <c r="A11" s="68"/>
-      <c r="B11" s="239"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="241"/>
-      <c r="E11" s="242"/>
-      <c r="F11" s="243"/>
-      <c r="G11" s="239"/>
-      <c r="H11" s="244"/>
-      <c r="I11" s="240"/>
-      <c r="J11" s="245"/>
-      <c r="K11" s="246"/>
-      <c r="L11" s="246"/>
-      <c r="M11" s="246"/>
-      <c r="N11" s="246"/>
-      <c r="O11" s="246"/>
-      <c r="P11" s="247"/>
-      <c r="Q11" s="245"/>
-      <c r="R11" s="246"/>
-      <c r="S11" s="246"/>
-      <c r="T11" s="246"/>
-      <c r="U11" s="246"/>
-      <c r="V11" s="246"/>
-      <c r="W11" s="246"/>
-      <c r="X11" s="246"/>
-      <c r="Y11" s="246"/>
-      <c r="Z11" s="246"/>
-      <c r="AA11" s="246"/>
-      <c r="AB11" s="246"/>
-      <c r="AC11" s="246"/>
-      <c r="AD11" s="246"/>
-      <c r="AE11" s="247"/>
-      <c r="AF11" s="195"/>
-      <c r="AG11" s="196"/>
-      <c r="AH11" s="196"/>
-      <c r="AI11" s="197"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="197"/>
+      <c r="E11" s="198"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="195"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="202"/>
+      <c r="M11" s="202"/>
+      <c r="N11" s="202"/>
+      <c r="O11" s="202"/>
+      <c r="P11" s="203"/>
+      <c r="Q11" s="201"/>
+      <c r="R11" s="202"/>
+      <c r="S11" s="202"/>
+      <c r="T11" s="202"/>
+      <c r="U11" s="202"/>
+      <c r="V11" s="202"/>
+      <c r="W11" s="202"/>
+      <c r="X11" s="202"/>
+      <c r="Y11" s="202"/>
+      <c r="Z11" s="202"/>
+      <c r="AA11" s="202"/>
+      <c r="AB11" s="202"/>
+      <c r="AC11" s="202"/>
+      <c r="AD11" s="202"/>
+      <c r="AE11" s="203"/>
+      <c r="AF11" s="253"/>
+      <c r="AG11" s="254"/>
+      <c r="AH11" s="254"/>
+      <c r="AI11" s="255"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1">
       <c r="A12" s="68"/>
-      <c r="B12" s="239"/>
-      <c r="C12" s="240"/>
-      <c r="D12" s="241"/>
-      <c r="E12" s="242"/>
-      <c r="F12" s="243"/>
-      <c r="G12" s="239"/>
-      <c r="H12" s="244"/>
-      <c r="I12" s="240"/>
-      <c r="J12" s="245"/>
-      <c r="K12" s="246"/>
-      <c r="L12" s="246"/>
-      <c r="M12" s="246"/>
-      <c r="N12" s="246"/>
-      <c r="O12" s="246"/>
-      <c r="P12" s="247"/>
-      <c r="Q12" s="245"/>
-      <c r="R12" s="246"/>
-      <c r="S12" s="246"/>
-      <c r="T12" s="246"/>
-      <c r="U12" s="246"/>
-      <c r="V12" s="246"/>
-      <c r="W12" s="246"/>
-      <c r="X12" s="246"/>
-      <c r="Y12" s="246"/>
-      <c r="Z12" s="246"/>
-      <c r="AA12" s="246"/>
-      <c r="AB12" s="246"/>
-      <c r="AC12" s="246"/>
-      <c r="AD12" s="246"/>
-      <c r="AE12" s="247"/>
-      <c r="AF12" s="195"/>
-      <c r="AG12" s="196"/>
-      <c r="AH12" s="196"/>
-      <c r="AI12" s="197"/>
+      <c r="B12" s="195"/>
+      <c r="C12" s="196"/>
+      <c r="D12" s="197"/>
+      <c r="E12" s="198"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="195"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="202"/>
+      <c r="L12" s="202"/>
+      <c r="M12" s="202"/>
+      <c r="N12" s="202"/>
+      <c r="O12" s="202"/>
+      <c r="P12" s="203"/>
+      <c r="Q12" s="201"/>
+      <c r="R12" s="202"/>
+      <c r="S12" s="202"/>
+      <c r="T12" s="202"/>
+      <c r="U12" s="202"/>
+      <c r="V12" s="202"/>
+      <c r="W12" s="202"/>
+      <c r="X12" s="202"/>
+      <c r="Y12" s="202"/>
+      <c r="Z12" s="202"/>
+      <c r="AA12" s="202"/>
+      <c r="AB12" s="202"/>
+      <c r="AC12" s="202"/>
+      <c r="AD12" s="202"/>
+      <c r="AE12" s="203"/>
+      <c r="AF12" s="253"/>
+      <c r="AG12" s="254"/>
+      <c r="AH12" s="254"/>
+      <c r="AI12" s="255"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1">
       <c r="A13" s="68"/>
-      <c r="B13" s="239"/>
-      <c r="C13" s="240"/>
-      <c r="D13" s="241"/>
-      <c r="E13" s="242"/>
-      <c r="F13" s="243"/>
-      <c r="G13" s="239"/>
-      <c r="H13" s="244"/>
-      <c r="I13" s="240"/>
-      <c r="J13" s="245"/>
-      <c r="K13" s="246"/>
-      <c r="L13" s="246"/>
-      <c r="M13" s="246"/>
-      <c r="N13" s="246"/>
-      <c r="O13" s="246"/>
-      <c r="P13" s="247"/>
-      <c r="Q13" s="245"/>
-      <c r="R13" s="246"/>
-      <c r="S13" s="246"/>
-      <c r="T13" s="246"/>
-      <c r="U13" s="246"/>
-      <c r="V13" s="246"/>
-      <c r="W13" s="246"/>
-      <c r="X13" s="246"/>
-      <c r="Y13" s="246"/>
-      <c r="Z13" s="246"/>
-      <c r="AA13" s="246"/>
-      <c r="AB13" s="246"/>
-      <c r="AC13" s="246"/>
-      <c r="AD13" s="246"/>
-      <c r="AE13" s="247"/>
-      <c r="AF13" s="195"/>
-      <c r="AG13" s="196"/>
-      <c r="AH13" s="196"/>
-      <c r="AI13" s="197"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="200"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="201"/>
+      <c r="K13" s="202"/>
+      <c r="L13" s="202"/>
+      <c r="M13" s="202"/>
+      <c r="N13" s="202"/>
+      <c r="O13" s="202"/>
+      <c r="P13" s="203"/>
+      <c r="Q13" s="201"/>
+      <c r="R13" s="202"/>
+      <c r="S13" s="202"/>
+      <c r="T13" s="202"/>
+      <c r="U13" s="202"/>
+      <c r="V13" s="202"/>
+      <c r="W13" s="202"/>
+      <c r="X13" s="202"/>
+      <c r="Y13" s="202"/>
+      <c r="Z13" s="202"/>
+      <c r="AA13" s="202"/>
+      <c r="AB13" s="202"/>
+      <c r="AC13" s="202"/>
+      <c r="AD13" s="202"/>
+      <c r="AE13" s="203"/>
+      <c r="AF13" s="253"/>
+      <c r="AG13" s="254"/>
+      <c r="AH13" s="254"/>
+      <c r="AI13" s="255"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1">
       <c r="A14" s="68"/>
@@ -9249,10 +9249,10 @@
       <c r="AC14" s="150"/>
       <c r="AD14" s="150"/>
       <c r="AE14" s="151"/>
-      <c r="AF14" s="195"/>
-      <c r="AG14" s="196"/>
-      <c r="AH14" s="196"/>
-      <c r="AI14" s="197"/>
+      <c r="AF14" s="253"/>
+      <c r="AG14" s="254"/>
+      <c r="AH14" s="254"/>
+      <c r="AI14" s="255"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1">
       <c r="A15" s="68"/>
@@ -9286,10 +9286,10 @@
       <c r="AC15" s="150"/>
       <c r="AD15" s="150"/>
       <c r="AE15" s="151"/>
-      <c r="AF15" s="195"/>
-      <c r="AG15" s="196"/>
-      <c r="AH15" s="196"/>
-      <c r="AI15" s="197"/>
+      <c r="AF15" s="253"/>
+      <c r="AG15" s="254"/>
+      <c r="AH15" s="254"/>
+      <c r="AI15" s="255"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1">
       <c r="A16" s="68"/>
@@ -9323,10 +9323,10 @@
       <c r="AC16" s="150"/>
       <c r="AD16" s="150"/>
       <c r="AE16" s="151"/>
-      <c r="AF16" s="195"/>
-      <c r="AG16" s="196"/>
-      <c r="AH16" s="196"/>
-      <c r="AI16" s="197"/>
+      <c r="AF16" s="253"/>
+      <c r="AG16" s="254"/>
+      <c r="AH16" s="254"/>
+      <c r="AI16" s="255"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1">
       <c r="A17" s="68"/>
@@ -9360,10 +9360,10 @@
       <c r="AC17" s="150"/>
       <c r="AD17" s="150"/>
       <c r="AE17" s="151"/>
-      <c r="AF17" s="195"/>
-      <c r="AG17" s="196"/>
-      <c r="AH17" s="196"/>
-      <c r="AI17" s="197"/>
+      <c r="AF17" s="253"/>
+      <c r="AG17" s="254"/>
+      <c r="AH17" s="254"/>
+      <c r="AI17" s="255"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1">
       <c r="A18" s="68"/>
@@ -9397,10 +9397,10 @@
       <c r="AC18" s="150"/>
       <c r="AD18" s="150"/>
       <c r="AE18" s="151"/>
-      <c r="AF18" s="195"/>
-      <c r="AG18" s="196"/>
-      <c r="AH18" s="196"/>
-      <c r="AI18" s="197"/>
+      <c r="AF18" s="253"/>
+      <c r="AG18" s="254"/>
+      <c r="AH18" s="254"/>
+      <c r="AI18" s="255"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1">
       <c r="A19" s="68"/>
@@ -9434,10 +9434,10 @@
       <c r="AC19" s="150"/>
       <c r="AD19" s="150"/>
       <c r="AE19" s="151"/>
-      <c r="AF19" s="195"/>
-      <c r="AG19" s="196"/>
-      <c r="AH19" s="196"/>
-      <c r="AI19" s="197"/>
+      <c r="AF19" s="253"/>
+      <c r="AG19" s="254"/>
+      <c r="AH19" s="254"/>
+      <c r="AI19" s="255"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="A20" s="68"/>
@@ -9471,10 +9471,10 @@
       <c r="AC20" s="150"/>
       <c r="AD20" s="150"/>
       <c r="AE20" s="151"/>
-      <c r="AF20" s="195"/>
-      <c r="AG20" s="196"/>
-      <c r="AH20" s="196"/>
-      <c r="AI20" s="197"/>
+      <c r="AF20" s="253"/>
+      <c r="AG20" s="254"/>
+      <c r="AH20" s="254"/>
+      <c r="AI20" s="255"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1">
       <c r="A21" s="68"/>
@@ -9508,10 +9508,10 @@
       <c r="AC21" s="150"/>
       <c r="AD21" s="150"/>
       <c r="AE21" s="151"/>
-      <c r="AF21" s="195"/>
-      <c r="AG21" s="196"/>
-      <c r="AH21" s="196"/>
-      <c r="AI21" s="197"/>
+      <c r="AF21" s="253"/>
+      <c r="AG21" s="254"/>
+      <c r="AH21" s="254"/>
+      <c r="AI21" s="255"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1">
       <c r="A22" s="68"/>
@@ -9545,10 +9545,10 @@
       <c r="AC22" s="150"/>
       <c r="AD22" s="150"/>
       <c r="AE22" s="151"/>
-      <c r="AF22" s="195"/>
-      <c r="AG22" s="196"/>
-      <c r="AH22" s="196"/>
-      <c r="AI22" s="197"/>
+      <c r="AF22" s="253"/>
+      <c r="AG22" s="254"/>
+      <c r="AH22" s="254"/>
+      <c r="AI22" s="255"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1">
       <c r="A23" s="68"/>
@@ -9582,10 +9582,10 @@
       <c r="AC23" s="150"/>
       <c r="AD23" s="150"/>
       <c r="AE23" s="151"/>
-      <c r="AF23" s="195"/>
-      <c r="AG23" s="196"/>
-      <c r="AH23" s="196"/>
-      <c r="AI23" s="197"/>
+      <c r="AF23" s="253"/>
+      <c r="AG23" s="254"/>
+      <c r="AH23" s="254"/>
+      <c r="AI23" s="255"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1">
       <c r="A24" s="68"/>
@@ -9619,10 +9619,10 @@
       <c r="AC24" s="150"/>
       <c r="AD24" s="150"/>
       <c r="AE24" s="151"/>
-      <c r="AF24" s="195"/>
-      <c r="AG24" s="196"/>
-      <c r="AH24" s="196"/>
-      <c r="AI24" s="197"/>
+      <c r="AF24" s="253"/>
+      <c r="AG24" s="254"/>
+      <c r="AH24" s="254"/>
+      <c r="AI24" s="255"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1">
       <c r="A25" s="68"/>
@@ -9656,10 +9656,10 @@
       <c r="AC25" s="150"/>
       <c r="AD25" s="150"/>
       <c r="AE25" s="151"/>
-      <c r="AF25" s="195"/>
-      <c r="AG25" s="196"/>
-      <c r="AH25" s="196"/>
-      <c r="AI25" s="197"/>
+      <c r="AF25" s="253"/>
+      <c r="AG25" s="254"/>
+      <c r="AH25" s="254"/>
+      <c r="AI25" s="255"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1">
       <c r="A26" s="68"/>
@@ -9693,10 +9693,10 @@
       <c r="AC26" s="150"/>
       <c r="AD26" s="150"/>
       <c r="AE26" s="151"/>
-      <c r="AF26" s="195"/>
-      <c r="AG26" s="196"/>
-      <c r="AH26" s="196"/>
-      <c r="AI26" s="197"/>
+      <c r="AF26" s="253"/>
+      <c r="AG26" s="254"/>
+      <c r="AH26" s="254"/>
+      <c r="AI26" s="255"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1">
       <c r="A27" s="68"/>
@@ -9730,10 +9730,10 @@
       <c r="AC27" s="150"/>
       <c r="AD27" s="150"/>
       <c r="AE27" s="151"/>
-      <c r="AF27" s="195"/>
-      <c r="AG27" s="196"/>
-      <c r="AH27" s="196"/>
-      <c r="AI27" s="197"/>
+      <c r="AF27" s="253"/>
+      <c r="AG27" s="254"/>
+      <c r="AH27" s="254"/>
+      <c r="AI27" s="255"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1">
       <c r="A28" s="68"/>
@@ -9767,10 +9767,10 @@
       <c r="AC28" s="150"/>
       <c r="AD28" s="150"/>
       <c r="AE28" s="151"/>
-      <c r="AF28" s="195"/>
-      <c r="AG28" s="196"/>
-      <c r="AH28" s="196"/>
-      <c r="AI28" s="197"/>
+      <c r="AF28" s="253"/>
+      <c r="AG28" s="254"/>
+      <c r="AH28" s="254"/>
+      <c r="AI28" s="255"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1">
       <c r="A29" s="68"/>
@@ -9804,10 +9804,10 @@
       <c r="AC29" s="150"/>
       <c r="AD29" s="150"/>
       <c r="AE29" s="151"/>
-      <c r="AF29" s="195"/>
-      <c r="AG29" s="196"/>
-      <c r="AH29" s="196"/>
-      <c r="AI29" s="197"/>
+      <c r="AF29" s="253"/>
+      <c r="AG29" s="254"/>
+      <c r="AH29" s="254"/>
+      <c r="AI29" s="255"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1">
       <c r="A30" s="68"/>
@@ -9841,10 +9841,10 @@
       <c r="AC30" s="150"/>
       <c r="AD30" s="150"/>
       <c r="AE30" s="151"/>
-      <c r="AF30" s="195"/>
-      <c r="AG30" s="196"/>
-      <c r="AH30" s="196"/>
-      <c r="AI30" s="197"/>
+      <c r="AF30" s="253"/>
+      <c r="AG30" s="254"/>
+      <c r="AH30" s="254"/>
+      <c r="AI30" s="255"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="A31" s="68"/>
@@ -9878,10 +9878,10 @@
       <c r="AC31" s="150"/>
       <c r="AD31" s="150"/>
       <c r="AE31" s="151"/>
-      <c r="AF31" s="195"/>
-      <c r="AG31" s="196"/>
-      <c r="AH31" s="196"/>
-      <c r="AI31" s="197"/>
+      <c r="AF31" s="253"/>
+      <c r="AG31" s="254"/>
+      <c r="AH31" s="254"/>
+      <c r="AI31" s="255"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1">
       <c r="A32" s="68"/>
@@ -9915,10 +9915,10 @@
       <c r="AC32" s="150"/>
       <c r="AD32" s="150"/>
       <c r="AE32" s="151"/>
-      <c r="AF32" s="195"/>
-      <c r="AG32" s="196"/>
-      <c r="AH32" s="196"/>
-      <c r="AI32" s="197"/>
+      <c r="AF32" s="253"/>
+      <c r="AG32" s="254"/>
+      <c r="AH32" s="254"/>
+      <c r="AI32" s="255"/>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1">
       <c r="A33" s="68"/>
@@ -9952,62 +9952,46 @@
       <c r="AC33" s="150"/>
       <c r="AD33" s="150"/>
       <c r="AE33" s="151"/>
-      <c r="AF33" s="195"/>
-      <c r="AG33" s="196"/>
-      <c r="AH33" s="196"/>
-      <c r="AI33" s="197"/>
+      <c r="AF33" s="253"/>
+      <c r="AG33" s="254"/>
+      <c r="AH33" s="254"/>
+      <c r="AI33" s="255"/>
     </row>
     <row r="34" spans="1:35" ht="15" customHeight="1">
-      <c r="AF34" s="198"/>
-      <c r="AG34" s="198"/>
-      <c r="AH34" s="198"/>
-      <c r="AI34" s="198"/>
+      <c r="AF34" s="256"/>
+      <c r="AG34" s="256"/>
+      <c r="AH34" s="256"/>
+      <c r="AI34" s="256"/>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AF34:AI34"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AF12:AI12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -10018,33 +10002,49 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AF34:AI34"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <printOptions horizontalCentered="1"/>
@@ -10202,158 +10202,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="97" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="260" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="214" t="str">
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="223" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="216"/>
-      <c r="O1" s="261" t="s">
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="264" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="262"/>
-      <c r="Q1" s="262"/>
-      <c r="R1" s="263"/>
-      <c r="S1" s="257" t="str">
+      <c r="P1" s="265"/>
+      <c r="Q1" s="265"/>
+      <c r="R1" s="266"/>
+      <c r="S1" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(その他)
 B21AA01/ユーザ情報反映</v>
       </c>
-      <c r="T1" s="218"/>
-      <c r="U1" s="218"/>
-      <c r="V1" s="218"/>
-      <c r="W1" s="218"/>
-      <c r="X1" s="218"/>
-      <c r="Y1" s="218"/>
-      <c r="Z1" s="219"/>
-      <c r="AA1" s="258" t="s">
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="242"/>
+      <c r="W1" s="242"/>
+      <c r="X1" s="242"/>
+      <c r="Y1" s="242"/>
+      <c r="Z1" s="243"/>
+      <c r="AA1" s="260" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="260"/>
-      <c r="AC1" s="226" t="str">
+      <c r="AB1" s="261"/>
+      <c r="AC1" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="227"/>
-      <c r="AE1" s="227"/>
-      <c r="AF1" s="228"/>
-      <c r="AG1" s="270">
+      <c r="AD1" s="214"/>
+      <c r="AE1" s="214"/>
+      <c r="AF1" s="215"/>
+      <c r="AG1" s="257">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="271"/>
-      <c r="AI1" s="272"/>
+      <c r="AH1" s="258"/>
+      <c r="AI1" s="259"/>
     </row>
     <row r="2" spans="1:35" s="97" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="260" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="259"/>
-      <c r="C2" s="259"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="214" t="str">
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="223" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="264"/>
-      <c r="P2" s="265"/>
-      <c r="Q2" s="265"/>
-      <c r="R2" s="266"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="221"/>
-      <c r="U2" s="221"/>
-      <c r="V2" s="221"/>
-      <c r="W2" s="221"/>
-      <c r="X2" s="221"/>
-      <c r="Y2" s="221"/>
-      <c r="Z2" s="222"/>
-      <c r="AA2" s="258" t="s">
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="225"/>
+      <c r="O2" s="267"/>
+      <c r="P2" s="268"/>
+      <c r="Q2" s="268"/>
+      <c r="R2" s="269"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="245"/>
+      <c r="W2" s="245"/>
+      <c r="X2" s="245"/>
+      <c r="Y2" s="245"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="260" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="260"/>
-      <c r="AC2" s="226" t="str">
+      <c r="AB2" s="261"/>
+      <c r="AC2" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="227"/>
-      <c r="AE2" s="227"/>
-      <c r="AF2" s="228"/>
-      <c r="AG2" s="270" t="str">
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="214"/>
+      <c r="AF2" s="215"/>
+      <c r="AG2" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="271"/>
-      <c r="AI2" s="272"/>
+      <c r="AH2" s="258"/>
+      <c r="AI2" s="259"/>
     </row>
     <row r="3" spans="1:35" s="97" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="258" t="s">
+      <c r="A3" s="260" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="259"/>
-      <c r="C3" s="259"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="214" t="str">
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="261"/>
+      <c r="E3" s="223" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="215"/>
-      <c r="M3" s="215"/>
-      <c r="N3" s="216"/>
-      <c r="O3" s="267"/>
-      <c r="P3" s="268"/>
-      <c r="Q3" s="268"/>
-      <c r="R3" s="269"/>
-      <c r="S3" s="223"/>
-      <c r="T3" s="224"/>
-      <c r="U3" s="224"/>
-      <c r="V3" s="224"/>
-      <c r="W3" s="224"/>
-      <c r="X3" s="224"/>
-      <c r="Y3" s="224"/>
-      <c r="Z3" s="225"/>
-      <c r="AA3" s="258"/>
-      <c r="AB3" s="260"/>
-      <c r="AC3" s="226" t="str">
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="224"/>
+      <c r="N3" s="225"/>
+      <c r="O3" s="270"/>
+      <c r="P3" s="271"/>
+      <c r="Q3" s="271"/>
+      <c r="R3" s="272"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="248"/>
+      <c r="U3" s="248"/>
+      <c r="V3" s="248"/>
+      <c r="W3" s="248"/>
+      <c r="X3" s="248"/>
+      <c r="Y3" s="248"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="260"/>
+      <c r="AB3" s="261"/>
+      <c r="AC3" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="227"/>
-      <c r="AE3" s="227"/>
-      <c r="AF3" s="228"/>
-      <c r="AG3" s="270" t="str">
+      <c r="AD3" s="214"/>
+      <c r="AE3" s="214"/>
+      <c r="AF3" s="215"/>
+      <c r="AG3" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="271"/>
-      <c r="AI3" s="272"/>
+      <c r="AH3" s="258"/>
+      <c r="AI3" s="259"/>
     </row>
     <row r="4" spans="1:35" s="74" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="72"/>
@@ -11887,13 +11887,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -11904,6 +11897,13 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <printOptions horizontalCentered="1"/>
@@ -11931,158 +11931,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="260" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="214" t="str">
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="223" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="216"/>
-      <c r="O1" s="261" t="s">
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="264" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="262"/>
-      <c r="Q1" s="262"/>
-      <c r="R1" s="263"/>
-      <c r="S1" s="257" t="str">
+      <c r="P1" s="265"/>
+      <c r="Q1" s="265"/>
+      <c r="R1" s="266"/>
+      <c r="S1" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(その他)
 B21AA01/ユーザ情報反映</v>
       </c>
-      <c r="T1" s="218"/>
-      <c r="U1" s="218"/>
-      <c r="V1" s="218"/>
-      <c r="W1" s="218"/>
-      <c r="X1" s="218"/>
-      <c r="Y1" s="218"/>
-      <c r="Z1" s="219"/>
-      <c r="AA1" s="258" t="s">
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="242"/>
+      <c r="W1" s="242"/>
+      <c r="X1" s="242"/>
+      <c r="Y1" s="242"/>
+      <c r="Z1" s="243"/>
+      <c r="AA1" s="260" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="260"/>
-      <c r="AC1" s="226" t="str">
+      <c r="AB1" s="261"/>
+      <c r="AC1" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="227"/>
-      <c r="AE1" s="227"/>
-      <c r="AF1" s="228"/>
-      <c r="AG1" s="270">
+      <c r="AD1" s="214"/>
+      <c r="AE1" s="214"/>
+      <c r="AF1" s="215"/>
+      <c r="AG1" s="257">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="271"/>
-      <c r="AI1" s="272"/>
+      <c r="AH1" s="258"/>
+      <c r="AI1" s="259"/>
     </row>
     <row r="2" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="260" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="259"/>
-      <c r="C2" s="259"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="214" t="str">
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="223" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="264"/>
-      <c r="P2" s="265"/>
-      <c r="Q2" s="265"/>
-      <c r="R2" s="266"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="221"/>
-      <c r="U2" s="221"/>
-      <c r="V2" s="221"/>
-      <c r="W2" s="221"/>
-      <c r="X2" s="221"/>
-      <c r="Y2" s="221"/>
-      <c r="Z2" s="222"/>
-      <c r="AA2" s="258" t="s">
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="225"/>
+      <c r="O2" s="267"/>
+      <c r="P2" s="268"/>
+      <c r="Q2" s="268"/>
+      <c r="R2" s="269"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="245"/>
+      <c r="W2" s="245"/>
+      <c r="X2" s="245"/>
+      <c r="Y2" s="245"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="260" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="260"/>
-      <c r="AC2" s="226" t="str">
+      <c r="AB2" s="261"/>
+      <c r="AC2" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="227"/>
-      <c r="AE2" s="227"/>
-      <c r="AF2" s="228"/>
-      <c r="AG2" s="270" t="str">
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="214"/>
+      <c r="AF2" s="215"/>
+      <c r="AG2" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="271"/>
-      <c r="AI2" s="272"/>
+      <c r="AH2" s="258"/>
+      <c r="AI2" s="259"/>
     </row>
     <row r="3" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="258" t="s">
+      <c r="A3" s="260" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="259"/>
-      <c r="C3" s="259"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="214" t="str">
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="261"/>
+      <c r="E3" s="223" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="215"/>
-      <c r="M3" s="215"/>
-      <c r="N3" s="216"/>
-      <c r="O3" s="267"/>
-      <c r="P3" s="268"/>
-      <c r="Q3" s="268"/>
-      <c r="R3" s="269"/>
-      <c r="S3" s="223"/>
-      <c r="T3" s="224"/>
-      <c r="U3" s="224"/>
-      <c r="V3" s="224"/>
-      <c r="W3" s="224"/>
-      <c r="X3" s="224"/>
-      <c r="Y3" s="224"/>
-      <c r="Z3" s="225"/>
-      <c r="AA3" s="258"/>
-      <c r="AB3" s="260"/>
-      <c r="AC3" s="226" t="str">
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="224"/>
+      <c r="N3" s="225"/>
+      <c r="O3" s="270"/>
+      <c r="P3" s="271"/>
+      <c r="Q3" s="271"/>
+      <c r="R3" s="272"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="248"/>
+      <c r="U3" s="248"/>
+      <c r="V3" s="248"/>
+      <c r="W3" s="248"/>
+      <c r="X3" s="248"/>
+      <c r="Y3" s="248"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="260"/>
+      <c r="AB3" s="261"/>
+      <c r="AC3" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="227"/>
-      <c r="AE3" s="227"/>
-      <c r="AF3" s="228"/>
-      <c r="AG3" s="270" t="str">
+      <c r="AD3" s="214"/>
+      <c r="AE3" s="214"/>
+      <c r="AF3" s="215"/>
+      <c r="AG3" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="271"/>
-      <c r="AI3" s="272"/>
+      <c r="AH3" s="258"/>
+      <c r="AI3" s="259"/>
     </row>
     <row r="4" spans="1:35" s="32" customFormat="1" ht="12" customHeight="1">
       <c r="AC4" s="44"/>
@@ -12107,9 +12107,9 @@
       <c r="A7" s="273" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="282"/>
-      <c r="C7" s="282"/>
-      <c r="D7" s="283"/>
+      <c r="B7" s="280"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="281"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -12122,82 +12122,82 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="284" t="s">
+      <c r="Q7" s="297" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="285"/>
-      <c r="S7" s="285"/>
-      <c r="T7" s="286"/>
-      <c r="U7" s="276" t="s">
+      <c r="R7" s="298"/>
+      <c r="S7" s="298"/>
+      <c r="T7" s="299"/>
+      <c r="U7" s="306" t="s">
         <v>91</v>
       </c>
-      <c r="V7" s="277"/>
-      <c r="W7" s="277"/>
-      <c r="X7" s="277"/>
-      <c r="Y7" s="277"/>
-      <c r="Z7" s="277"/>
-      <c r="AA7" s="277"/>
-      <c r="AB7" s="277"/>
-      <c r="AC7" s="277"/>
-      <c r="AD7" s="277"/>
-      <c r="AE7" s="277"/>
-      <c r="AF7" s="277"/>
-      <c r="AG7" s="277"/>
-      <c r="AH7" s="277"/>
-      <c r="AI7" s="278"/>
+      <c r="V7" s="307"/>
+      <c r="W7" s="307"/>
+      <c r="X7" s="307"/>
+      <c r="Y7" s="307"/>
+      <c r="Z7" s="307"/>
+      <c r="AA7" s="307"/>
+      <c r="AB7" s="307"/>
+      <c r="AC7" s="307"/>
+      <c r="AD7" s="307"/>
+      <c r="AE7" s="307"/>
+      <c r="AF7" s="307"/>
+      <c r="AG7" s="307"/>
+      <c r="AH7" s="307"/>
+      <c r="AI7" s="308"/>
     </row>
     <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="273" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="282"/>
-      <c r="C8" s="282"/>
-      <c r="D8" s="283"/>
-      <c r="E8" s="279" t="s">
+      <c r="B8" s="280"/>
+      <c r="C8" s="280"/>
+      <c r="D8" s="281"/>
+      <c r="E8" s="294" t="s">
         <v>200</v>
       </c>
-      <c r="F8" s="280"/>
-      <c r="G8" s="280"/>
-      <c r="H8" s="280"/>
-      <c r="I8" s="280"/>
-      <c r="J8" s="280"/>
-      <c r="K8" s="280"/>
-      <c r="L8" s="280"/>
-      <c r="M8" s="280"/>
-      <c r="N8" s="280"/>
-      <c r="O8" s="280"/>
-      <c r="P8" s="280"/>
+      <c r="F8" s="295"/>
+      <c r="G8" s="295"/>
+      <c r="H8" s="295"/>
+      <c r="I8" s="295"/>
+      <c r="J8" s="295"/>
+      <c r="K8" s="295"/>
+      <c r="L8" s="295"/>
+      <c r="M8" s="295"/>
+      <c r="N8" s="295"/>
+      <c r="O8" s="295"/>
+      <c r="P8" s="295"/>
       <c r="Q8" s="273" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="282"/>
-      <c r="S8" s="282"/>
-      <c r="T8" s="283"/>
-      <c r="U8" s="279" t="s">
+      <c r="R8" s="280"/>
+      <c r="S8" s="280"/>
+      <c r="T8" s="281"/>
+      <c r="U8" s="294" t="s">
         <v>92</v>
       </c>
-      <c r="V8" s="280"/>
-      <c r="W8" s="280"/>
-      <c r="X8" s="280"/>
-      <c r="Y8" s="280"/>
-      <c r="Z8" s="280"/>
-      <c r="AA8" s="280"/>
-      <c r="AB8" s="280"/>
-      <c r="AC8" s="280"/>
-      <c r="AD8" s="280"/>
-      <c r="AE8" s="280"/>
-      <c r="AF8" s="280"/>
-      <c r="AG8" s="280"/>
-      <c r="AH8" s="280"/>
-      <c r="AI8" s="281"/>
+      <c r="V8" s="295"/>
+      <c r="W8" s="295"/>
+      <c r="X8" s="295"/>
+      <c r="Y8" s="295"/>
+      <c r="Z8" s="295"/>
+      <c r="AA8" s="295"/>
+      <c r="AB8" s="295"/>
+      <c r="AC8" s="295"/>
+      <c r="AD8" s="295"/>
+      <c r="AE8" s="295"/>
+      <c r="AF8" s="295"/>
+      <c r="AG8" s="295"/>
+      <c r="AH8" s="295"/>
+      <c r="AI8" s="296"/>
     </row>
     <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="273" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="282"/>
-      <c r="C9" s="282"/>
-      <c r="D9" s="283"/>
+      <c r="B9" s="280"/>
+      <c r="C9" s="280"/>
+      <c r="D9" s="281"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -12532,12 +12532,12 @@
       <c r="AI17" s="41"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="287" t="s">
+      <c r="A18" s="291" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="288"/>
-      <c r="C18" s="288"/>
-      <c r="D18" s="289"/>
+      <c r="B18" s="292"/>
+      <c r="C18" s="292"/>
+      <c r="D18" s="293"/>
       <c r="E18" s="19"/>
       <c r="F18" s="23"/>
       <c r="G18" s="156"/>
@@ -12550,12 +12550,12 @@
       <c r="N18" s="156"/>
       <c r="O18" s="20"/>
       <c r="P18" s="156"/>
-      <c r="Q18" s="287" t="s">
+      <c r="Q18" s="291" t="s">
         <v>42</v>
       </c>
-      <c r="R18" s="288"/>
-      <c r="S18" s="288"/>
-      <c r="T18" s="289"/>
+      <c r="R18" s="292"/>
+      <c r="S18" s="292"/>
+      <c r="T18" s="293"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -12660,54 +12660,54 @@
       <c r="A21" s="273" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="282"/>
-      <c r="C21" s="282"/>
-      <c r="D21" s="283"/>
-      <c r="E21" s="293" t="s">
+      <c r="B21" s="280"/>
+      <c r="C21" s="280"/>
+      <c r="D21" s="281"/>
+      <c r="E21" s="303" t="s">
         <v>148</v>
       </c>
-      <c r="F21" s="294"/>
-      <c r="G21" s="294"/>
-      <c r="H21" s="294"/>
-      <c r="I21" s="294"/>
-      <c r="J21" s="294"/>
-      <c r="K21" s="294"/>
-      <c r="L21" s="294"/>
-      <c r="M21" s="294"/>
-      <c r="N21" s="294"/>
-      <c r="O21" s="294"/>
-      <c r="P21" s="295"/>
+      <c r="F21" s="304"/>
+      <c r="G21" s="304"/>
+      <c r="H21" s="304"/>
+      <c r="I21" s="304"/>
+      <c r="J21" s="304"/>
+      <c r="K21" s="304"/>
+      <c r="L21" s="304"/>
+      <c r="M21" s="304"/>
+      <c r="N21" s="304"/>
+      <c r="O21" s="304"/>
+      <c r="P21" s="305"/>
       <c r="Q21" s="273" t="s">
         <v>45</v>
       </c>
-      <c r="R21" s="282"/>
-      <c r="S21" s="282"/>
-      <c r="T21" s="283"/>
-      <c r="U21" s="279" t="s">
+      <c r="R21" s="280"/>
+      <c r="S21" s="280"/>
+      <c r="T21" s="281"/>
+      <c r="U21" s="294" t="s">
         <v>93</v>
       </c>
-      <c r="V21" s="280"/>
-      <c r="W21" s="280"/>
-      <c r="X21" s="280"/>
-      <c r="Y21" s="280"/>
-      <c r="Z21" s="280"/>
-      <c r="AA21" s="280"/>
-      <c r="AB21" s="280"/>
-      <c r="AC21" s="280"/>
-      <c r="AD21" s="280"/>
-      <c r="AE21" s="280"/>
-      <c r="AF21" s="280"/>
-      <c r="AG21" s="280"/>
-      <c r="AH21" s="280"/>
-      <c r="AI21" s="281"/>
+      <c r="V21" s="295"/>
+      <c r="W21" s="295"/>
+      <c r="X21" s="295"/>
+      <c r="Y21" s="295"/>
+      <c r="Z21" s="295"/>
+      <c r="AA21" s="295"/>
+      <c r="AB21" s="295"/>
+      <c r="AC21" s="295"/>
+      <c r="AD21" s="295"/>
+      <c r="AE21" s="295"/>
+      <c r="AF21" s="295"/>
+      <c r="AG21" s="295"/>
+      <c r="AH21" s="295"/>
+      <c r="AI21" s="296"/>
     </row>
     <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="284" t="s">
+      <c r="A22" s="297" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="285"/>
-      <c r="C22" s="285"/>
-      <c r="D22" s="286"/>
+      <c r="B22" s="298"/>
+      <c r="C22" s="298"/>
+      <c r="D22" s="299"/>
       <c r="E22" s="24"/>
       <c r="F22" s="25"/>
       <c r="G22" s="157"/>
@@ -12720,12 +12720,12 @@
       <c r="N22" s="157"/>
       <c r="O22" s="18"/>
       <c r="P22" s="157"/>
-      <c r="Q22" s="284" t="s">
+      <c r="Q22" s="297" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="285"/>
-      <c r="S22" s="285"/>
-      <c r="T22" s="286"/>
+      <c r="R22" s="298"/>
+      <c r="S22" s="298"/>
+      <c r="T22" s="299"/>
       <c r="U22" s="55"/>
       <c r="V22" s="157"/>
       <c r="W22" s="18"/>
@@ -12788,38 +12788,38 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="306" t="s">
+      <c r="A24" s="288" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="307"/>
-      <c r="C24" s="307"/>
-      <c r="D24" s="308"/>
-      <c r="E24" s="279" t="s">
+      <c r="B24" s="289"/>
+      <c r="C24" s="289"/>
+      <c r="D24" s="290"/>
+      <c r="E24" s="294" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="280"/>
-      <c r="G24" s="280"/>
-      <c r="H24" s="280"/>
-      <c r="I24" s="280"/>
-      <c r="J24" s="280"/>
-      <c r="K24" s="280"/>
-      <c r="L24" s="280"/>
-      <c r="M24" s="280"/>
-      <c r="N24" s="280"/>
-      <c r="O24" s="280"/>
-      <c r="P24" s="281"/>
-      <c r="Q24" s="290" t="s">
+      <c r="F24" s="295"/>
+      <c r="G24" s="295"/>
+      <c r="H24" s="295"/>
+      <c r="I24" s="295"/>
+      <c r="J24" s="295"/>
+      <c r="K24" s="295"/>
+      <c r="L24" s="295"/>
+      <c r="M24" s="295"/>
+      <c r="N24" s="295"/>
+      <c r="O24" s="295"/>
+      <c r="P24" s="296"/>
+      <c r="Q24" s="300" t="s">
         <v>48</v>
       </c>
-      <c r="R24" s="291"/>
-      <c r="S24" s="291"/>
-      <c r="T24" s="292"/>
-      <c r="U24" s="298">
+      <c r="R24" s="301"/>
+      <c r="S24" s="301"/>
+      <c r="T24" s="302"/>
+      <c r="U24" s="278">
         <v>905</v>
       </c>
-      <c r="V24" s="299"/>
-      <c r="W24" s="299"/>
-      <c r="X24" s="299"/>
+      <c r="V24" s="279"/>
+      <c r="W24" s="279"/>
+      <c r="X24" s="279"/>
       <c r="Y24" s="165" t="s">
         <v>49</v>
       </c>
@@ -12835,26 +12835,26 @@
       <c r="AI24" s="22"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="302" t="s">
+      <c r="A25" s="284" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="303"/>
-      <c r="C25" s="303"/>
-      <c r="D25" s="304"/>
+      <c r="B25" s="285"/>
+      <c r="C25" s="285"/>
+      <c r="D25" s="286"/>
       <c r="E25" s="24"/>
       <c r="F25" s="39"/>
       <c r="G25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="296"/>
-      <c r="I25" s="297"/>
-      <c r="J25" s="297"/>
-      <c r="K25" s="297"/>
-      <c r="L25" s="297"/>
-      <c r="M25" s="297"/>
-      <c r="N25" s="297"/>
-      <c r="O25" s="297"/>
-      <c r="P25" s="297"/>
+      <c r="H25" s="276"/>
+      <c r="I25" s="277"/>
+      <c r="J25" s="277"/>
+      <c r="K25" s="277"/>
+      <c r="L25" s="277"/>
+      <c r="M25" s="277"/>
+      <c r="N25" s="277"/>
+      <c r="O25" s="277"/>
+      <c r="P25" s="277"/>
       <c r="Q25" s="157" t="s">
         <v>7</v>
       </c>
@@ -12863,15 +12863,15 @@
       <c r="T25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="U25" s="305"/>
-      <c r="V25" s="305"/>
-      <c r="W25" s="305"/>
-      <c r="X25" s="305"/>
-      <c r="Y25" s="305"/>
-      <c r="Z25" s="305"/>
-      <c r="AA25" s="305"/>
-      <c r="AB25" s="305"/>
-      <c r="AC25" s="305"/>
+      <c r="U25" s="287"/>
+      <c r="V25" s="287"/>
+      <c r="W25" s="287"/>
+      <c r="X25" s="287"/>
+      <c r="Y25" s="287"/>
+      <c r="Z25" s="287"/>
+      <c r="AA25" s="287"/>
+      <c r="AB25" s="287"/>
+      <c r="AC25" s="287"/>
       <c r="AD25" s="157" t="s">
         <v>7</v>
       </c>
@@ -12891,15 +12891,15 @@
       <c r="G26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="301"/>
-      <c r="I26" s="301"/>
-      <c r="J26" s="301"/>
-      <c r="K26" s="301"/>
-      <c r="L26" s="301"/>
-      <c r="M26" s="301"/>
-      <c r="N26" s="301"/>
-      <c r="O26" s="301"/>
-      <c r="P26" s="301"/>
+      <c r="H26" s="283"/>
+      <c r="I26" s="283"/>
+      <c r="J26" s="283"/>
+      <c r="K26" s="283"/>
+      <c r="L26" s="283"/>
+      <c r="M26" s="283"/>
+      <c r="N26" s="283"/>
+      <c r="O26" s="283"/>
+      <c r="P26" s="283"/>
       <c r="Q26" s="156" t="s">
         <v>7</v>
       </c>
@@ -12908,15 +12908,15 @@
       <c r="T26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="301"/>
-      <c r="V26" s="301"/>
-      <c r="W26" s="301"/>
-      <c r="X26" s="301"/>
-      <c r="Y26" s="301"/>
-      <c r="Z26" s="301"/>
-      <c r="AA26" s="301"/>
-      <c r="AB26" s="301"/>
-      <c r="AC26" s="301"/>
+      <c r="U26" s="283"/>
+      <c r="V26" s="283"/>
+      <c r="W26" s="283"/>
+      <c r="X26" s="283"/>
+      <c r="Y26" s="283"/>
+      <c r="Z26" s="283"/>
+      <c r="AA26" s="283"/>
+      <c r="AB26" s="283"/>
+      <c r="AC26" s="283"/>
       <c r="AD26" s="156" t="s">
         <v>7</v>
       </c>
@@ -12936,15 +12936,15 @@
       <c r="G27" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="300"/>
-      <c r="I27" s="300"/>
-      <c r="J27" s="300"/>
-      <c r="K27" s="300"/>
-      <c r="L27" s="300"/>
-      <c r="M27" s="300"/>
-      <c r="N27" s="300"/>
-      <c r="O27" s="300"/>
-      <c r="P27" s="300"/>
+      <c r="H27" s="282"/>
+      <c r="I27" s="282"/>
+      <c r="J27" s="282"/>
+      <c r="K27" s="282"/>
+      <c r="L27" s="282"/>
+      <c r="M27" s="282"/>
+      <c r="N27" s="282"/>
+      <c r="O27" s="282"/>
+      <c r="P27" s="282"/>
       <c r="Q27" s="155" t="s">
         <v>7</v>
       </c>
@@ -12953,20 +12953,20 @@
       <c r="T27" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="U27" s="300"/>
-      <c r="V27" s="300"/>
-      <c r="W27" s="300"/>
-      <c r="X27" s="300"/>
-      <c r="Y27" s="300"/>
-      <c r="Z27" s="300"/>
-      <c r="AA27" s="300"/>
-      <c r="AB27" s="300"/>
-      <c r="AC27" s="300"/>
-      <c r="AD27" s="300"/>
-      <c r="AE27" s="300"/>
-      <c r="AF27" s="300"/>
-      <c r="AG27" s="300"/>
-      <c r="AH27" s="300"/>
+      <c r="U27" s="282"/>
+      <c r="V27" s="282"/>
+      <c r="W27" s="282"/>
+      <c r="X27" s="282"/>
+      <c r="Y27" s="282"/>
+      <c r="Z27" s="282"/>
+      <c r="AA27" s="282"/>
+      <c r="AB27" s="282"/>
+      <c r="AC27" s="282"/>
+      <c r="AD27" s="282"/>
+      <c r="AE27" s="282"/>
+      <c r="AF27" s="282"/>
+      <c r="AG27" s="282"/>
+      <c r="AH27" s="282"/>
       <c r="AI27" s="41" t="s">
         <v>7</v>
       </c>
@@ -13129,14 +13129,32 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="E21:P21"/>
+    <mergeCell ref="E24:P24"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -13149,32 +13167,14 @@
     <mergeCell ref="H26:P26"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="E21:P21"/>
-    <mergeCell ref="E24:P24"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -13849,158 +13849,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="260" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="214" t="str">
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="223" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="216"/>
-      <c r="O1" s="261" t="s">
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="264" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="262"/>
-      <c r="Q1" s="262"/>
-      <c r="R1" s="263"/>
-      <c r="S1" s="257" t="str">
+      <c r="P1" s="265"/>
+      <c r="Q1" s="265"/>
+      <c r="R1" s="266"/>
+      <c r="S1" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(その他)
 B21AA01/ユーザ情報反映</v>
       </c>
-      <c r="T1" s="218"/>
-      <c r="U1" s="218"/>
-      <c r="V1" s="218"/>
-      <c r="W1" s="218"/>
-      <c r="X1" s="218"/>
-      <c r="Y1" s="218"/>
-      <c r="Z1" s="219"/>
-      <c r="AA1" s="258" t="s">
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="242"/>
+      <c r="W1" s="242"/>
+      <c r="X1" s="242"/>
+      <c r="Y1" s="242"/>
+      <c r="Z1" s="243"/>
+      <c r="AA1" s="260" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="260"/>
-      <c r="AC1" s="226" t="str">
+      <c r="AB1" s="261"/>
+      <c r="AC1" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="227"/>
-      <c r="AE1" s="227"/>
-      <c r="AF1" s="228"/>
-      <c r="AG1" s="270">
+      <c r="AD1" s="214"/>
+      <c r="AE1" s="214"/>
+      <c r="AF1" s="215"/>
+      <c r="AG1" s="257">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="271"/>
-      <c r="AI1" s="272"/>
+      <c r="AH1" s="258"/>
+      <c r="AI1" s="259"/>
     </row>
     <row r="2" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="260" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="259"/>
-      <c r="C2" s="259"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="214" t="str">
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="223" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="264"/>
-      <c r="P2" s="265"/>
-      <c r="Q2" s="265"/>
-      <c r="R2" s="266"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="221"/>
-      <c r="U2" s="221"/>
-      <c r="V2" s="221"/>
-      <c r="W2" s="221"/>
-      <c r="X2" s="221"/>
-      <c r="Y2" s="221"/>
-      <c r="Z2" s="222"/>
-      <c r="AA2" s="258" t="s">
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="225"/>
+      <c r="O2" s="267"/>
+      <c r="P2" s="268"/>
+      <c r="Q2" s="268"/>
+      <c r="R2" s="269"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="245"/>
+      <c r="W2" s="245"/>
+      <c r="X2" s="245"/>
+      <c r="Y2" s="245"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="260" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="260"/>
-      <c r="AC2" s="226" t="str">
+      <c r="AB2" s="261"/>
+      <c r="AC2" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="227"/>
-      <c r="AE2" s="227"/>
-      <c r="AF2" s="228"/>
-      <c r="AG2" s="270" t="str">
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="214"/>
+      <c r="AF2" s="215"/>
+      <c r="AG2" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="271"/>
-      <c r="AI2" s="272"/>
+      <c r="AH2" s="258"/>
+      <c r="AI2" s="259"/>
     </row>
     <row r="3" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="258" t="s">
+      <c r="A3" s="260" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="259"/>
-      <c r="C3" s="259"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="214" t="str">
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="261"/>
+      <c r="E3" s="223" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="215"/>
-      <c r="M3" s="215"/>
-      <c r="N3" s="216"/>
-      <c r="O3" s="267"/>
-      <c r="P3" s="268"/>
-      <c r="Q3" s="268"/>
-      <c r="R3" s="269"/>
-      <c r="S3" s="223"/>
-      <c r="T3" s="224"/>
-      <c r="U3" s="224"/>
-      <c r="V3" s="224"/>
-      <c r="W3" s="224"/>
-      <c r="X3" s="224"/>
-      <c r="Y3" s="224"/>
-      <c r="Z3" s="225"/>
-      <c r="AA3" s="258"/>
-      <c r="AB3" s="260"/>
-      <c r="AC3" s="226" t="str">
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="224"/>
+      <c r="N3" s="225"/>
+      <c r="O3" s="270"/>
+      <c r="P3" s="271"/>
+      <c r="Q3" s="271"/>
+      <c r="R3" s="272"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="248"/>
+      <c r="U3" s="248"/>
+      <c r="V3" s="248"/>
+      <c r="W3" s="248"/>
+      <c r="X3" s="248"/>
+      <c r="Y3" s="248"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="260"/>
+      <c r="AB3" s="261"/>
+      <c r="AC3" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="227"/>
-      <c r="AE3" s="227"/>
-      <c r="AF3" s="228"/>
-      <c r="AG3" s="270" t="str">
+      <c r="AD3" s="214"/>
+      <c r="AE3" s="214"/>
+      <c r="AF3" s="215"/>
+      <c r="AG3" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="271"/>
-      <c r="AI3" s="272"/>
+      <c r="AH3" s="258"/>
+      <c r="AI3" s="259"/>
     </row>
     <row r="4" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="47"/>
@@ -14123,41 +14123,41 @@
       <c r="AU6" s="80"/>
     </row>
     <row r="7" spans="1:47">
-      <c r="A7" s="335" t="s">
+      <c r="A7" s="357" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="331"/>
-      <c r="C7" s="331"/>
-      <c r="D7" s="331"/>
-      <c r="E7" s="331"/>
-      <c r="F7" s="331"/>
-      <c r="G7" s="331"/>
-      <c r="H7" s="331"/>
-      <c r="I7" s="331"/>
-      <c r="J7" s="331"/>
-      <c r="K7" s="331"/>
-      <c r="L7" s="331"/>
-      <c r="M7" s="331"/>
-      <c r="N7" s="331"/>
-      <c r="O7" s="331"/>
-      <c r="P7" s="331"/>
-      <c r="Q7" s="331"/>
-      <c r="R7" s="331"/>
-      <c r="S7" s="331"/>
-      <c r="T7" s="331"/>
-      <c r="U7" s="331"/>
-      <c r="V7" s="331"/>
-      <c r="W7" s="331"/>
-      <c r="X7" s="331"/>
-      <c r="Y7" s="331"/>
-      <c r="Z7" s="331"/>
-      <c r="AA7" s="331"/>
-      <c r="AB7" s="336"/>
-      <c r="AC7" s="330" t="s">
+      <c r="B7" s="358"/>
+      <c r="C7" s="358"/>
+      <c r="D7" s="358"/>
+      <c r="E7" s="358"/>
+      <c r="F7" s="358"/>
+      <c r="G7" s="358"/>
+      <c r="H7" s="358"/>
+      <c r="I7" s="358"/>
+      <c r="J7" s="358"/>
+      <c r="K7" s="358"/>
+      <c r="L7" s="358"/>
+      <c r="M7" s="358"/>
+      <c r="N7" s="358"/>
+      <c r="O7" s="358"/>
+      <c r="P7" s="358"/>
+      <c r="Q7" s="358"/>
+      <c r="R7" s="358"/>
+      <c r="S7" s="358"/>
+      <c r="T7" s="358"/>
+      <c r="U7" s="358"/>
+      <c r="V7" s="358"/>
+      <c r="W7" s="358"/>
+      <c r="X7" s="358"/>
+      <c r="Y7" s="358"/>
+      <c r="Z7" s="358"/>
+      <c r="AA7" s="358"/>
+      <c r="AB7" s="359"/>
+      <c r="AC7" s="379" t="s">
         <v>51</v>
       </c>
-      <c r="AD7" s="331"/>
-      <c r="AE7" s="332"/>
+      <c r="AD7" s="358"/>
+      <c r="AE7" s="366"/>
       <c r="AF7" s="94"/>
       <c r="AG7" s="94"/>
       <c r="AH7" s="94"/>
@@ -14167,449 +14167,449 @@
       <c r="A8" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="335" t="s">
+      <c r="B8" s="357" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="335" t="s">
+      <c r="C8" s="254"/>
+      <c r="D8" s="254"/>
+      <c r="E8" s="254"/>
+      <c r="F8" s="255"/>
+      <c r="G8" s="357" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="331"/>
-      <c r="I8" s="332"/>
-      <c r="J8" s="335" t="s">
+      <c r="H8" s="358"/>
+      <c r="I8" s="366"/>
+      <c r="J8" s="357" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="331"/>
-      <c r="L8" s="331"/>
-      <c r="M8" s="331"/>
-      <c r="N8" s="331"/>
-      <c r="O8" s="331"/>
-      <c r="P8" s="332"/>
-      <c r="Q8" s="349" t="s">
+      <c r="K8" s="358"/>
+      <c r="L8" s="358"/>
+      <c r="M8" s="358"/>
+      <c r="N8" s="358"/>
+      <c r="O8" s="358"/>
+      <c r="P8" s="366"/>
+      <c r="Q8" s="373" t="s">
         <v>211</v>
       </c>
-      <c r="R8" s="351"/>
-      <c r="S8" s="349" t="s">
+      <c r="R8" s="375"/>
+      <c r="S8" s="373" t="s">
         <v>81</v>
       </c>
-      <c r="T8" s="350"/>
-      <c r="U8" s="351"/>
-      <c r="V8" s="335" t="s">
+      <c r="T8" s="374"/>
+      <c r="U8" s="375"/>
+      <c r="V8" s="357" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="331"/>
-      <c r="X8" s="331"/>
-      <c r="Y8" s="331"/>
-      <c r="Z8" s="331"/>
-      <c r="AA8" s="331"/>
-      <c r="AB8" s="336"/>
-      <c r="AC8" s="327" t="s">
+      <c r="W8" s="358"/>
+      <c r="X8" s="358"/>
+      <c r="Y8" s="358"/>
+      <c r="Z8" s="358"/>
+      <c r="AA8" s="358"/>
+      <c r="AB8" s="359"/>
+      <c r="AC8" s="376" t="s">
         <v>13</v>
       </c>
-      <c r="AD8" s="328"/>
-      <c r="AE8" s="328"/>
-      <c r="AF8" s="328"/>
-      <c r="AG8" s="328"/>
-      <c r="AH8" s="329" t="s">
+      <c r="AD8" s="377"/>
+      <c r="AE8" s="377"/>
+      <c r="AF8" s="377"/>
+      <c r="AG8" s="377"/>
+      <c r="AH8" s="378" t="s">
         <v>82</v>
       </c>
-      <c r="AI8" s="329"/>
+      <c r="AI8" s="378"/>
     </row>
     <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="91">
         <v>1</v>
       </c>
-      <c r="B9" s="323" t="s">
+      <c r="B9" s="311" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="324"/>
-      <c r="D9" s="324"/>
-      <c r="E9" s="324"/>
-      <c r="F9" s="325"/>
-      <c r="G9" s="323" t="s">
+      <c r="C9" s="312"/>
+      <c r="D9" s="312"/>
+      <c r="E9" s="312"/>
+      <c r="F9" s="313"/>
+      <c r="G9" s="311" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="324"/>
-      <c r="I9" s="325"/>
-      <c r="J9" s="323"/>
-      <c r="K9" s="362"/>
-      <c r="L9" s="362"/>
-      <c r="M9" s="362"/>
-      <c r="N9" s="362"/>
-      <c r="O9" s="362"/>
-      <c r="P9" s="363"/>
-      <c r="Q9" s="318" t="s">
+      <c r="H9" s="312"/>
+      <c r="I9" s="313"/>
+      <c r="J9" s="311"/>
+      <c r="K9" s="355"/>
+      <c r="L9" s="355"/>
+      <c r="M9" s="355"/>
+      <c r="N9" s="355"/>
+      <c r="O9" s="355"/>
+      <c r="P9" s="356"/>
+      <c r="Q9" s="349" t="s">
         <v>103</v>
       </c>
-      <c r="R9" s="319"/>
-      <c r="S9" s="318">
+      <c r="R9" s="351"/>
+      <c r="S9" s="349">
         <v>1</v>
       </c>
-      <c r="T9" s="357"/>
-      <c r="U9" s="319"/>
-      <c r="V9" s="346"/>
-      <c r="W9" s="347"/>
-      <c r="X9" s="347"/>
-      <c r="Y9" s="347"/>
-      <c r="Z9" s="347"/>
-      <c r="AA9" s="347"/>
-      <c r="AB9" s="348"/>
-      <c r="AC9" s="383" t="s">
+      <c r="T9" s="350"/>
+      <c r="U9" s="351"/>
+      <c r="V9" s="370"/>
+      <c r="W9" s="371"/>
+      <c r="X9" s="371"/>
+      <c r="Y9" s="371"/>
+      <c r="Z9" s="371"/>
+      <c r="AA9" s="371"/>
+      <c r="AB9" s="372"/>
+      <c r="AC9" s="346" t="s">
         <v>83</v>
       </c>
-      <c r="AD9" s="323"/>
-      <c r="AE9" s="324"/>
-      <c r="AF9" s="324"/>
-      <c r="AG9" s="325"/>
-      <c r="AH9" s="318"/>
-      <c r="AI9" s="319"/>
+      <c r="AD9" s="311"/>
+      <c r="AE9" s="312"/>
+      <c r="AF9" s="312"/>
+      <c r="AG9" s="313"/>
+      <c r="AH9" s="349"/>
+      <c r="AI9" s="351"/>
     </row>
     <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="91">
         <v>2</v>
       </c>
-      <c r="B10" s="320" t="s">
+      <c r="B10" s="314" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="321"/>
-      <c r="D10" s="321"/>
-      <c r="E10" s="321"/>
-      <c r="F10" s="326"/>
-      <c r="G10" s="337" t="s">
+      <c r="C10" s="315"/>
+      <c r="D10" s="315"/>
+      <c r="E10" s="315"/>
+      <c r="F10" s="316"/>
+      <c r="G10" s="360" t="s">
         <v>213</v>
       </c>
-      <c r="H10" s="338"/>
-      <c r="I10" s="339"/>
-      <c r="J10" s="320"/>
-      <c r="K10" s="352"/>
-      <c r="L10" s="352"/>
-      <c r="M10" s="352"/>
-      <c r="N10" s="352"/>
-      <c r="O10" s="352"/>
-      <c r="P10" s="353"/>
-      <c r="Q10" s="333" t="s">
+      <c r="H10" s="361"/>
+      <c r="I10" s="362"/>
+      <c r="J10" s="314"/>
+      <c r="K10" s="353"/>
+      <c r="L10" s="353"/>
+      <c r="M10" s="353"/>
+      <c r="N10" s="353"/>
+      <c r="O10" s="353"/>
+      <c r="P10" s="354"/>
+      <c r="Q10" s="309" t="s">
         <v>103</v>
       </c>
-      <c r="R10" s="334"/>
-      <c r="S10" s="333">
+      <c r="R10" s="310"/>
+      <c r="S10" s="309">
         <v>1</v>
       </c>
-      <c r="T10" s="358"/>
-      <c r="U10" s="334"/>
-      <c r="V10" s="343"/>
-      <c r="W10" s="344"/>
-      <c r="X10" s="344"/>
-      <c r="Y10" s="344"/>
-      <c r="Z10" s="344"/>
-      <c r="AA10" s="344"/>
-      <c r="AB10" s="345"/>
-      <c r="AC10" s="384"/>
-      <c r="AD10" s="320"/>
-      <c r="AE10" s="321"/>
-      <c r="AF10" s="321"/>
-      <c r="AG10" s="326"/>
-      <c r="AH10" s="333"/>
-      <c r="AI10" s="334"/>
+      <c r="T10" s="352"/>
+      <c r="U10" s="310"/>
+      <c r="V10" s="367"/>
+      <c r="W10" s="368"/>
+      <c r="X10" s="368"/>
+      <c r="Y10" s="368"/>
+      <c r="Z10" s="368"/>
+      <c r="AA10" s="368"/>
+      <c r="AB10" s="369"/>
+      <c r="AC10" s="347"/>
+      <c r="AD10" s="314"/>
+      <c r="AE10" s="315"/>
+      <c r="AF10" s="315"/>
+      <c r="AG10" s="316"/>
+      <c r="AH10" s="309"/>
+      <c r="AI10" s="310"/>
     </row>
     <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="91">
         <v>3</v>
       </c>
-      <c r="B11" s="320" t="s">
+      <c r="B11" s="314" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="321"/>
-      <c r="D11" s="321"/>
-      <c r="E11" s="321"/>
-      <c r="F11" s="326"/>
-      <c r="G11" s="340" t="s">
+      <c r="C11" s="315"/>
+      <c r="D11" s="315"/>
+      <c r="E11" s="315"/>
+      <c r="F11" s="316"/>
+      <c r="G11" s="363" t="s">
         <v>214</v>
       </c>
-      <c r="H11" s="341"/>
-      <c r="I11" s="342"/>
-      <c r="J11" s="320"/>
-      <c r="K11" s="352"/>
-      <c r="L11" s="352"/>
-      <c r="M11" s="352"/>
-      <c r="N11" s="352"/>
-      <c r="O11" s="352"/>
-      <c r="P11" s="353"/>
-      <c r="Q11" s="333">
+      <c r="H11" s="364"/>
+      <c r="I11" s="365"/>
+      <c r="J11" s="314"/>
+      <c r="K11" s="353"/>
+      <c r="L11" s="353"/>
+      <c r="M11" s="353"/>
+      <c r="N11" s="353"/>
+      <c r="O11" s="353"/>
+      <c r="P11" s="354"/>
+      <c r="Q11" s="309">
         <v>43</v>
       </c>
-      <c r="R11" s="334"/>
-      <c r="S11" s="333">
+      <c r="R11" s="310"/>
+      <c r="S11" s="309">
         <v>1</v>
       </c>
-      <c r="T11" s="358"/>
-      <c r="U11" s="334"/>
-      <c r="V11" s="343"/>
-      <c r="W11" s="344"/>
-      <c r="X11" s="344"/>
-      <c r="Y11" s="344"/>
-      <c r="Z11" s="344"/>
-      <c r="AA11" s="344"/>
-      <c r="AB11" s="345"/>
-      <c r="AC11" s="384"/>
-      <c r="AD11" s="312"/>
-      <c r="AE11" s="313"/>
-      <c r="AF11" s="313"/>
-      <c r="AG11" s="314"/>
-      <c r="AH11" s="333"/>
-      <c r="AI11" s="334"/>
+      <c r="T11" s="352"/>
+      <c r="U11" s="310"/>
+      <c r="V11" s="367"/>
+      <c r="W11" s="368"/>
+      <c r="X11" s="368"/>
+      <c r="Y11" s="368"/>
+      <c r="Z11" s="368"/>
+      <c r="AA11" s="368"/>
+      <c r="AB11" s="369"/>
+      <c r="AC11" s="347"/>
+      <c r="AD11" s="383"/>
+      <c r="AE11" s="384"/>
+      <c r="AF11" s="384"/>
+      <c r="AG11" s="385"/>
+      <c r="AH11" s="309"/>
+      <c r="AI11" s="310"/>
     </row>
     <row r="12" spans="1:47" ht="24" customHeight="1">
       <c r="A12" s="91">
         <v>4</v>
       </c>
-      <c r="B12" s="320" t="s">
+      <c r="B12" s="314" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="321"/>
-      <c r="D12" s="321"/>
-      <c r="E12" s="321"/>
-      <c r="F12" s="326"/>
-      <c r="G12" s="340" t="s">
+      <c r="C12" s="315"/>
+      <c r="D12" s="315"/>
+      <c r="E12" s="315"/>
+      <c r="F12" s="316"/>
+      <c r="G12" s="363" t="s">
         <v>212</v>
       </c>
-      <c r="H12" s="341"/>
-      <c r="I12" s="342"/>
-      <c r="J12" s="320"/>
-      <c r="K12" s="352"/>
-      <c r="L12" s="352"/>
-      <c r="M12" s="352"/>
-      <c r="N12" s="352"/>
-      <c r="O12" s="352"/>
-      <c r="P12" s="353"/>
-      <c r="Q12" s="333">
+      <c r="H12" s="364"/>
+      <c r="I12" s="365"/>
+      <c r="J12" s="314"/>
+      <c r="K12" s="353"/>
+      <c r="L12" s="353"/>
+      <c r="M12" s="353"/>
+      <c r="N12" s="353"/>
+      <c r="O12" s="353"/>
+      <c r="P12" s="354"/>
+      <c r="Q12" s="309">
         <v>862</v>
       </c>
-      <c r="R12" s="334"/>
-      <c r="S12" s="333">
+      <c r="R12" s="310"/>
+      <c r="S12" s="309">
         <v>1</v>
       </c>
-      <c r="T12" s="358"/>
-      <c r="U12" s="334"/>
-      <c r="V12" s="343"/>
-      <c r="W12" s="344"/>
-      <c r="X12" s="344"/>
-      <c r="Y12" s="344"/>
-      <c r="Z12" s="344"/>
-      <c r="AA12" s="344"/>
-      <c r="AB12" s="345"/>
-      <c r="AC12" s="384"/>
-      <c r="AD12" s="312"/>
-      <c r="AE12" s="313"/>
-      <c r="AF12" s="313"/>
-      <c r="AG12" s="314"/>
-      <c r="AH12" s="333"/>
-      <c r="AI12" s="334"/>
+      <c r="T12" s="352"/>
+      <c r="U12" s="310"/>
+      <c r="V12" s="367"/>
+      <c r="W12" s="368"/>
+      <c r="X12" s="368"/>
+      <c r="Y12" s="368"/>
+      <c r="Z12" s="368"/>
+      <c r="AA12" s="368"/>
+      <c r="AB12" s="369"/>
+      <c r="AC12" s="347"/>
+      <c r="AD12" s="383"/>
+      <c r="AE12" s="384"/>
+      <c r="AF12" s="384"/>
+      <c r="AG12" s="385"/>
+      <c r="AH12" s="309"/>
+      <c r="AI12" s="310"/>
     </row>
     <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="91">
         <v>5</v>
       </c>
-      <c r="B13" s="354"/>
-      <c r="C13" s="355"/>
-      <c r="D13" s="355"/>
-      <c r="E13" s="355"/>
-      <c r="F13" s="356"/>
-      <c r="G13" s="359"/>
-      <c r="H13" s="360"/>
-      <c r="I13" s="361"/>
-      <c r="J13" s="359"/>
-      <c r="K13" s="360"/>
-      <c r="L13" s="360"/>
-      <c r="M13" s="360"/>
-      <c r="N13" s="360"/>
-      <c r="O13" s="360"/>
-      <c r="P13" s="361"/>
-      <c r="Q13" s="315"/>
-      <c r="R13" s="317"/>
-      <c r="S13" s="315"/>
-      <c r="T13" s="316"/>
-      <c r="U13" s="317"/>
-      <c r="V13" s="320"/>
-      <c r="W13" s="321"/>
-      <c r="X13" s="321"/>
-      <c r="Y13" s="321"/>
-      <c r="Z13" s="321"/>
-      <c r="AA13" s="321"/>
-      <c r="AB13" s="322"/>
-      <c r="AC13" s="384"/>
-      <c r="AD13" s="312"/>
-      <c r="AE13" s="313"/>
-      <c r="AF13" s="313"/>
-      <c r="AG13" s="314"/>
-      <c r="AH13" s="333"/>
-      <c r="AI13" s="334"/>
+      <c r="B13" s="338"/>
+      <c r="C13" s="339"/>
+      <c r="D13" s="339"/>
+      <c r="E13" s="339"/>
+      <c r="F13" s="340"/>
+      <c r="G13" s="332"/>
+      <c r="H13" s="333"/>
+      <c r="I13" s="334"/>
+      <c r="J13" s="332"/>
+      <c r="K13" s="333"/>
+      <c r="L13" s="333"/>
+      <c r="M13" s="333"/>
+      <c r="N13" s="333"/>
+      <c r="O13" s="333"/>
+      <c r="P13" s="334"/>
+      <c r="Q13" s="329"/>
+      <c r="R13" s="331"/>
+      <c r="S13" s="329"/>
+      <c r="T13" s="330"/>
+      <c r="U13" s="331"/>
+      <c r="V13" s="314"/>
+      <c r="W13" s="315"/>
+      <c r="X13" s="315"/>
+      <c r="Y13" s="315"/>
+      <c r="Z13" s="315"/>
+      <c r="AA13" s="315"/>
+      <c r="AB13" s="320"/>
+      <c r="AC13" s="347"/>
+      <c r="AD13" s="383"/>
+      <c r="AE13" s="384"/>
+      <c r="AF13" s="384"/>
+      <c r="AG13" s="385"/>
+      <c r="AH13" s="309"/>
+      <c r="AI13" s="310"/>
     </row>
     <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="91">
         <v>6</v>
       </c>
-      <c r="B14" s="354"/>
-      <c r="C14" s="355"/>
-      <c r="D14" s="355"/>
-      <c r="E14" s="355"/>
-      <c r="F14" s="356"/>
-      <c r="G14" s="359"/>
-      <c r="H14" s="360"/>
-      <c r="I14" s="361"/>
-      <c r="J14" s="359"/>
-      <c r="K14" s="360"/>
-      <c r="L14" s="360"/>
-      <c r="M14" s="360"/>
-      <c r="N14" s="360"/>
-      <c r="O14" s="360"/>
-      <c r="P14" s="361"/>
-      <c r="Q14" s="315"/>
-      <c r="R14" s="317"/>
-      <c r="S14" s="315"/>
-      <c r="T14" s="316"/>
-      <c r="U14" s="317"/>
-      <c r="V14" s="320"/>
-      <c r="W14" s="321"/>
-      <c r="X14" s="321"/>
-      <c r="Y14" s="321"/>
-      <c r="Z14" s="321"/>
-      <c r="AA14" s="321"/>
-      <c r="AB14" s="322"/>
-      <c r="AC14" s="384"/>
-      <c r="AD14" s="312"/>
-      <c r="AE14" s="313"/>
-      <c r="AF14" s="313"/>
-      <c r="AG14" s="314"/>
-      <c r="AH14" s="333"/>
-      <c r="AI14" s="334"/>
+      <c r="B14" s="338"/>
+      <c r="C14" s="339"/>
+      <c r="D14" s="339"/>
+      <c r="E14" s="339"/>
+      <c r="F14" s="340"/>
+      <c r="G14" s="332"/>
+      <c r="H14" s="333"/>
+      <c r="I14" s="334"/>
+      <c r="J14" s="332"/>
+      <c r="K14" s="333"/>
+      <c r="L14" s="333"/>
+      <c r="M14" s="333"/>
+      <c r="N14" s="333"/>
+      <c r="O14" s="333"/>
+      <c r="P14" s="334"/>
+      <c r="Q14" s="329"/>
+      <c r="R14" s="331"/>
+      <c r="S14" s="329"/>
+      <c r="T14" s="330"/>
+      <c r="U14" s="331"/>
+      <c r="V14" s="314"/>
+      <c r="W14" s="315"/>
+      <c r="X14" s="315"/>
+      <c r="Y14" s="315"/>
+      <c r="Z14" s="315"/>
+      <c r="AA14" s="315"/>
+      <c r="AB14" s="320"/>
+      <c r="AC14" s="347"/>
+      <c r="AD14" s="383"/>
+      <c r="AE14" s="384"/>
+      <c r="AF14" s="384"/>
+      <c r="AG14" s="385"/>
+      <c r="AH14" s="309"/>
+      <c r="AI14" s="310"/>
     </row>
     <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="180">
         <v>7</v>
       </c>
-      <c r="B15" s="354"/>
-      <c r="C15" s="355"/>
-      <c r="D15" s="355"/>
-      <c r="E15" s="355"/>
-      <c r="F15" s="356"/>
-      <c r="G15" s="359"/>
-      <c r="H15" s="360"/>
-      <c r="I15" s="361"/>
-      <c r="J15" s="359"/>
-      <c r="K15" s="360"/>
-      <c r="L15" s="360"/>
-      <c r="M15" s="360"/>
-      <c r="N15" s="360"/>
-      <c r="O15" s="360"/>
-      <c r="P15" s="361"/>
-      <c r="Q15" s="315"/>
-      <c r="R15" s="317"/>
-      <c r="S15" s="315"/>
-      <c r="T15" s="316"/>
-      <c r="U15" s="317"/>
-      <c r="V15" s="320"/>
-      <c r="W15" s="321"/>
-      <c r="X15" s="321"/>
-      <c r="Y15" s="321"/>
-      <c r="Z15" s="321"/>
-      <c r="AA15" s="321"/>
-      <c r="AB15" s="322"/>
-      <c r="AC15" s="384"/>
-      <c r="AD15" s="312"/>
-      <c r="AE15" s="313"/>
-      <c r="AF15" s="313"/>
-      <c r="AG15" s="314"/>
-      <c r="AH15" s="333"/>
-      <c r="AI15" s="334"/>
+      <c r="B15" s="338"/>
+      <c r="C15" s="339"/>
+      <c r="D15" s="339"/>
+      <c r="E15" s="339"/>
+      <c r="F15" s="340"/>
+      <c r="G15" s="332"/>
+      <c r="H15" s="333"/>
+      <c r="I15" s="334"/>
+      <c r="J15" s="332"/>
+      <c r="K15" s="333"/>
+      <c r="L15" s="333"/>
+      <c r="M15" s="333"/>
+      <c r="N15" s="333"/>
+      <c r="O15" s="333"/>
+      <c r="P15" s="334"/>
+      <c r="Q15" s="329"/>
+      <c r="R15" s="331"/>
+      <c r="S15" s="329"/>
+      <c r="T15" s="330"/>
+      <c r="U15" s="331"/>
+      <c r="V15" s="314"/>
+      <c r="W15" s="315"/>
+      <c r="X15" s="315"/>
+      <c r="Y15" s="315"/>
+      <c r="Z15" s="315"/>
+      <c r="AA15" s="315"/>
+      <c r="AB15" s="320"/>
+      <c r="AC15" s="347"/>
+      <c r="AD15" s="383"/>
+      <c r="AE15" s="384"/>
+      <c r="AF15" s="384"/>
+      <c r="AG15" s="385"/>
+      <c r="AH15" s="309"/>
+      <c r="AI15" s="310"/>
     </row>
     <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="92">
         <v>8</v>
       </c>
-      <c r="B16" s="354"/>
-      <c r="C16" s="355"/>
-      <c r="D16" s="355"/>
-      <c r="E16" s="355"/>
-      <c r="F16" s="356"/>
-      <c r="G16" s="359"/>
-      <c r="H16" s="360"/>
-      <c r="I16" s="361"/>
-      <c r="J16" s="359"/>
-      <c r="K16" s="360"/>
-      <c r="L16" s="360"/>
-      <c r="M16" s="360"/>
-      <c r="N16" s="360"/>
-      <c r="O16" s="360"/>
-      <c r="P16" s="361"/>
-      <c r="Q16" s="315"/>
-      <c r="R16" s="317"/>
-      <c r="S16" s="315"/>
-      <c r="T16" s="316"/>
-      <c r="U16" s="317"/>
-      <c r="V16" s="320"/>
-      <c r="W16" s="321"/>
-      <c r="X16" s="321"/>
-      <c r="Y16" s="321"/>
-      <c r="Z16" s="321"/>
-      <c r="AA16" s="321"/>
-      <c r="AB16" s="322"/>
-      <c r="AC16" s="384"/>
-      <c r="AD16" s="312"/>
-      <c r="AE16" s="313"/>
-      <c r="AF16" s="313"/>
-      <c r="AG16" s="314"/>
-      <c r="AH16" s="333"/>
-      <c r="AI16" s="334"/>
+      <c r="B16" s="338"/>
+      <c r="C16" s="339"/>
+      <c r="D16" s="339"/>
+      <c r="E16" s="339"/>
+      <c r="F16" s="340"/>
+      <c r="G16" s="332"/>
+      <c r="H16" s="333"/>
+      <c r="I16" s="334"/>
+      <c r="J16" s="332"/>
+      <c r="K16" s="333"/>
+      <c r="L16" s="333"/>
+      <c r="M16" s="333"/>
+      <c r="N16" s="333"/>
+      <c r="O16" s="333"/>
+      <c r="P16" s="334"/>
+      <c r="Q16" s="329"/>
+      <c r="R16" s="331"/>
+      <c r="S16" s="329"/>
+      <c r="T16" s="330"/>
+      <c r="U16" s="331"/>
+      <c r="V16" s="314"/>
+      <c r="W16" s="315"/>
+      <c r="X16" s="315"/>
+      <c r="Y16" s="315"/>
+      <c r="Z16" s="315"/>
+      <c r="AA16" s="315"/>
+      <c r="AB16" s="320"/>
+      <c r="AC16" s="347"/>
+      <c r="AD16" s="383"/>
+      <c r="AE16" s="384"/>
+      <c r="AF16" s="384"/>
+      <c r="AG16" s="385"/>
+      <c r="AH16" s="309"/>
+      <c r="AI16" s="310"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="93">
         <v>9</v>
       </c>
-      <c r="B17" s="378"/>
-      <c r="C17" s="379"/>
-      <c r="D17" s="379"/>
-      <c r="E17" s="379"/>
-      <c r="F17" s="380"/>
-      <c r="G17" s="375"/>
-      <c r="H17" s="376"/>
-      <c r="I17" s="377"/>
-      <c r="J17" s="375"/>
-      <c r="K17" s="376"/>
-      <c r="L17" s="376"/>
-      <c r="M17" s="376"/>
-      <c r="N17" s="376"/>
-      <c r="O17" s="376"/>
-      <c r="P17" s="377"/>
-      <c r="Q17" s="372"/>
-      <c r="R17" s="374"/>
-      <c r="S17" s="372"/>
-      <c r="T17" s="373"/>
-      <c r="U17" s="374"/>
-      <c r="V17" s="367"/>
-      <c r="W17" s="368"/>
-      <c r="X17" s="368"/>
-      <c r="Y17" s="368"/>
-      <c r="Z17" s="368"/>
-      <c r="AA17" s="368"/>
-      <c r="AB17" s="369"/>
-      <c r="AC17" s="385"/>
-      <c r="AD17" s="309"/>
-      <c r="AE17" s="310"/>
-      <c r="AF17" s="310"/>
-      <c r="AG17" s="311"/>
-      <c r="AH17" s="381"/>
-      <c r="AI17" s="382"/>
+      <c r="B17" s="341"/>
+      <c r="C17" s="342"/>
+      <c r="D17" s="342"/>
+      <c r="E17" s="342"/>
+      <c r="F17" s="343"/>
+      <c r="G17" s="335"/>
+      <c r="H17" s="336"/>
+      <c r="I17" s="337"/>
+      <c r="J17" s="335"/>
+      <c r="K17" s="336"/>
+      <c r="L17" s="336"/>
+      <c r="M17" s="336"/>
+      <c r="N17" s="336"/>
+      <c r="O17" s="336"/>
+      <c r="P17" s="337"/>
+      <c r="Q17" s="326"/>
+      <c r="R17" s="328"/>
+      <c r="S17" s="326"/>
+      <c r="T17" s="327"/>
+      <c r="U17" s="328"/>
+      <c r="V17" s="321"/>
+      <c r="W17" s="322"/>
+      <c r="X17" s="322"/>
+      <c r="Y17" s="322"/>
+      <c r="Z17" s="322"/>
+      <c r="AA17" s="322"/>
+      <c r="AB17" s="323"/>
+      <c r="AC17" s="348"/>
+      <c r="AD17" s="380"/>
+      <c r="AE17" s="381"/>
+      <c r="AF17" s="381"/>
+      <c r="AG17" s="382"/>
+      <c r="AH17" s="344"/>
+      <c r="AI17" s="345"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="370"/>
-      <c r="B18" s="371"/>
-      <c r="C18" s="371"/>
-      <c r="D18" s="371"/>
-      <c r="E18" s="371"/>
-      <c r="F18" s="371"/>
+      <c r="A18" s="324"/>
+      <c r="B18" s="325"/>
+      <c r="C18" s="325"/>
+      <c r="D18" s="325"/>
+      <c r="E18" s="325"/>
+      <c r="F18" s="325"/>
       <c r="G18" s="167"/>
       <c r="H18" s="167"/>
       <c r="I18" s="167"/>
@@ -14633,23 +14633,23 @@
       <c r="AA18" s="167"/>
       <c r="AB18" s="167"/>
       <c r="AC18" s="44"/>
-      <c r="AD18" s="366"/>
-      <c r="AE18" s="366"/>
-      <c r="AF18" s="366"/>
-      <c r="AG18" s="366"/>
-      <c r="AH18" s="366"/>
+      <c r="AD18" s="319"/>
+      <c r="AE18" s="319"/>
+      <c r="AF18" s="319"/>
+      <c r="AG18" s="319"/>
+      <c r="AH18" s="319"/>
       <c r="AI18" s="81"/>
       <c r="AJ18" s="36"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="364" t="s">
+      <c r="A19" s="317" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="365"/>
-      <c r="C19" s="365"/>
-      <c r="D19" s="365"/>
-      <c r="E19" s="365"/>
-      <c r="F19" s="365"/>
+      <c r="B19" s="318"/>
+      <c r="C19" s="318"/>
+      <c r="D19" s="318"/>
+      <c r="E19" s="318"/>
+      <c r="F19" s="318"/>
       <c r="G19" s="166"/>
       <c r="H19" s="167"/>
       <c r="I19" s="167"/>
@@ -15280,6 +15280,85 @@
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="A7:AB7"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="V8:AB8"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="V11:AB11"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="V10:AB10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J13:P13"/>
     <mergeCell ref="AH11:AI11"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
@@ -15304,85 +15383,6 @@
     <mergeCell ref="AH17:AI17"/>
     <mergeCell ref="AC9:AC17"/>
     <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A7:AB7"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="V9:AB9"/>
-    <mergeCell ref="V10:AB10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="V14:AB14"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="2">
@@ -15423,167 +15423,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="260" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="214" t="str">
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="223" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="216"/>
-      <c r="O1" s="261" t="s">
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="264" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="262"/>
-      <c r="Q1" s="262"/>
-      <c r="R1" s="263"/>
-      <c r="S1" s="257" t="str">
+      <c r="P1" s="265"/>
+      <c r="Q1" s="265"/>
+      <c r="R1" s="266"/>
+      <c r="S1" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(その他)
 B21AA01/ユーザ情報反映</v>
       </c>
-      <c r="T1" s="218"/>
-      <c r="U1" s="218"/>
-      <c r="V1" s="218"/>
-      <c r="W1" s="218"/>
-      <c r="X1" s="218"/>
-      <c r="Y1" s="218"/>
-      <c r="Z1" s="219"/>
-      <c r="AA1" s="258" t="s">
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="242"/>
+      <c r="W1" s="242"/>
+      <c r="X1" s="242"/>
+      <c r="Y1" s="242"/>
+      <c r="Z1" s="243"/>
+      <c r="AA1" s="260" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="260"/>
-      <c r="AC1" s="226" t="str">
+      <c r="AB1" s="261"/>
+      <c r="AC1" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="227"/>
-      <c r="AE1" s="227"/>
-      <c r="AF1" s="228"/>
-      <c r="AG1" s="270">
+      <c r="AD1" s="214"/>
+      <c r="AE1" s="214"/>
+      <c r="AF1" s="215"/>
+      <c r="AG1" s="257">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="271"/>
-      <c r="AI1" s="272"/>
+      <c r="AH1" s="258"/>
+      <c r="AI1" s="259"/>
     </row>
     <row r="2" spans="1:40" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="260" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="259"/>
-      <c r="C2" s="259"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="214" t="str">
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="223" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="264"/>
-      <c r="P2" s="265"/>
-      <c r="Q2" s="265"/>
-      <c r="R2" s="266"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="221"/>
-      <c r="U2" s="221"/>
-      <c r="V2" s="221"/>
-      <c r="W2" s="221"/>
-      <c r="X2" s="221"/>
-      <c r="Y2" s="221"/>
-      <c r="Z2" s="222"/>
-      <c r="AA2" s="258" t="s">
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="225"/>
+      <c r="O2" s="267"/>
+      <c r="P2" s="268"/>
+      <c r="Q2" s="268"/>
+      <c r="R2" s="269"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="245"/>
+      <c r="W2" s="245"/>
+      <c r="X2" s="245"/>
+      <c r="Y2" s="245"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="260" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="260"/>
-      <c r="AC2" s="226" t="str">
+      <c r="AB2" s="261"/>
+      <c r="AC2" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="227"/>
-      <c r="AE2" s="227"/>
-      <c r="AF2" s="228"/>
-      <c r="AG2" s="270" t="str">
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="214"/>
+      <c r="AF2" s="215"/>
+      <c r="AG2" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="271"/>
-      <c r="AI2" s="272"/>
+      <c r="AH2" s="258"/>
+      <c r="AI2" s="259"/>
     </row>
     <row r="3" spans="1:40" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="258" t="s">
+      <c r="A3" s="260" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="259"/>
-      <c r="C3" s="259"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="214" t="str">
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="261"/>
+      <c r="E3" s="223" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="215"/>
-      <c r="M3" s="215"/>
-      <c r="N3" s="216"/>
-      <c r="O3" s="267"/>
-      <c r="P3" s="268"/>
-      <c r="Q3" s="268"/>
-      <c r="R3" s="269"/>
-      <c r="S3" s="223"/>
-      <c r="T3" s="224"/>
-      <c r="U3" s="224"/>
-      <c r="V3" s="224"/>
-      <c r="W3" s="224"/>
-      <c r="X3" s="224"/>
-      <c r="Y3" s="224"/>
-      <c r="Z3" s="225"/>
-      <c r="AA3" s="258"/>
-      <c r="AB3" s="260"/>
-      <c r="AC3" s="226" t="str">
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="224"/>
+      <c r="N3" s="225"/>
+      <c r="O3" s="270"/>
+      <c r="P3" s="271"/>
+      <c r="Q3" s="271"/>
+      <c r="R3" s="272"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="248"/>
+      <c r="U3" s="248"/>
+      <c r="V3" s="248"/>
+      <c r="W3" s="248"/>
+      <c r="X3" s="248"/>
+      <c r="Y3" s="248"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="260"/>
+      <c r="AB3" s="261"/>
+      <c r="AC3" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="227"/>
-      <c r="AE3" s="227"/>
-      <c r="AF3" s="228"/>
-      <c r="AG3" s="270" t="str">
+      <c r="AD3" s="214"/>
+      <c r="AE3" s="214"/>
+      <c r="AF3" s="215"/>
+      <c r="AG3" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="271"/>
-      <c r="AI3" s="272"/>
+      <c r="AH3" s="258"/>
+      <c r="AI3" s="259"/>
     </row>
     <row r="4" spans="1:40" ht="12" customHeight="1"/>
     <row r="5" spans="1:40" ht="15" customHeight="1">
-      <c r="A5" s="389" t="s">
+      <c r="A5" s="396" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="390"/>
-      <c r="C5" s="390"/>
-      <c r="D5" s="390"/>
+      <c r="B5" s="397"/>
+      <c r="C5" s="397"/>
+      <c r="D5" s="397"/>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1">
       <c r="A6" s="168"/>
@@ -15617,61 +15617,61 @@
       <c r="B13" s="193" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="386" t="s">
+      <c r="C13" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="387"/>
-      <c r="E13" s="387"/>
-      <c r="F13" s="387"/>
-      <c r="G13" s="388"/>
-      <c r="H13" s="386" t="s">
+      <c r="D13" s="405"/>
+      <c r="E13" s="405"/>
+      <c r="F13" s="405"/>
+      <c r="G13" s="406"/>
+      <c r="H13" s="404" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="387"/>
-      <c r="J13" s="387"/>
-      <c r="K13" s="387"/>
-      <c r="L13" s="388"/>
-      <c r="M13" s="386" t="s">
+      <c r="I13" s="405"/>
+      <c r="J13" s="405"/>
+      <c r="K13" s="405"/>
+      <c r="L13" s="406"/>
+      <c r="M13" s="404" t="s">
         <v>86</v>
       </c>
-      <c r="N13" s="387"/>
-      <c r="O13" s="387"/>
-      <c r="P13" s="387"/>
-      <c r="Q13" s="388"/>
+      <c r="N13" s="405"/>
+      <c r="O13" s="405"/>
+      <c r="P13" s="405"/>
+      <c r="Q13" s="406"/>
       <c r="R13" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="S13" s="386" t="s">
+      <c r="S13" s="404" t="s">
         <v>71</v>
       </c>
-      <c r="T13" s="387"/>
-      <c r="U13" s="387"/>
-      <c r="V13" s="388"/>
-      <c r="W13" s="386" t="s">
+      <c r="T13" s="405"/>
+      <c r="U13" s="405"/>
+      <c r="V13" s="406"/>
+      <c r="W13" s="404" t="s">
         <v>210</v>
       </c>
-      <c r="X13" s="388"/>
-      <c r="Y13" s="386" t="s">
+      <c r="X13" s="406"/>
+      <c r="Y13" s="404" t="s">
         <v>64</v>
       </c>
-      <c r="Z13" s="388"/>
-      <c r="AA13" s="386" t="s">
+      <c r="Z13" s="406"/>
+      <c r="AA13" s="404" t="s">
         <v>25</v>
       </c>
-      <c r="AB13" s="388"/>
-      <c r="AC13" s="386" t="s">
+      <c r="AB13" s="406"/>
+      <c r="AC13" s="404" t="s">
         <v>142</v>
       </c>
-      <c r="AD13" s="388"/>
-      <c r="AE13" s="386" t="s">
+      <c r="AD13" s="406"/>
+      <c r="AE13" s="404" t="s">
         <v>85</v>
       </c>
-      <c r="AF13" s="388"/>
-      <c r="AG13" s="386" t="s">
+      <c r="AF13" s="406"/>
+      <c r="AG13" s="404" t="s">
         <v>63</v>
       </c>
-      <c r="AH13" s="387"/>
-      <c r="AI13" s="388"/>
+      <c r="AH13" s="405"/>
+      <c r="AI13" s="406"/>
       <c r="AJ13" s="185" t="s">
         <v>62</v>
       </c>
@@ -15684,60 +15684,60 @@
       <c r="B14" s="182">
         <v>1</v>
       </c>
-      <c r="C14" s="391" t="s">
+      <c r="C14" s="398" t="s">
         <v>143</v>
       </c>
-      <c r="D14" s="392"/>
-      <c r="E14" s="392"/>
-      <c r="F14" s="392"/>
-      <c r="G14" s="393"/>
-      <c r="H14" s="394" t="s">
+      <c r="D14" s="399"/>
+      <c r="E14" s="399"/>
+      <c r="F14" s="399"/>
+      <c r="G14" s="400"/>
+      <c r="H14" s="389" t="s">
         <v>144</v>
       </c>
-      <c r="I14" s="395"/>
-      <c r="J14" s="395"/>
-      <c r="K14" s="395"/>
-      <c r="L14" s="396"/>
-      <c r="M14" s="397" t="s">
+      <c r="I14" s="390"/>
+      <c r="J14" s="390"/>
+      <c r="K14" s="390"/>
+      <c r="L14" s="391"/>
+      <c r="M14" s="386" t="s">
         <v>105</v>
       </c>
-      <c r="N14" s="398"/>
-      <c r="O14" s="398"/>
-      <c r="P14" s="398"/>
-      <c r="Q14" s="399"/>
+      <c r="N14" s="387"/>
+      <c r="O14" s="387"/>
+      <c r="P14" s="387"/>
+      <c r="Q14" s="388"/>
       <c r="R14" s="181" t="s">
         <v>104</v>
       </c>
-      <c r="S14" s="400" t="s">
+      <c r="S14" s="401" t="s">
         <v>145</v>
       </c>
-      <c r="T14" s="401"/>
-      <c r="U14" s="401"/>
-      <c r="V14" s="402"/>
-      <c r="W14" s="403">
+      <c r="T14" s="402"/>
+      <c r="U14" s="402"/>
+      <c r="V14" s="403"/>
+      <c r="W14" s="392">
         <v>8</v>
       </c>
-      <c r="X14" s="404"/>
-      <c r="Y14" s="405">
+      <c r="X14" s="393"/>
+      <c r="Y14" s="394">
         <v>1</v>
       </c>
-      <c r="Z14" s="406"/>
-      <c r="AA14" s="394" t="s">
+      <c r="Z14" s="395"/>
+      <c r="AA14" s="389" t="s">
         <v>146</v>
       </c>
-      <c r="AB14" s="396"/>
-      <c r="AC14" s="394"/>
-      <c r="AD14" s="396"/>
-      <c r="AE14" s="394"/>
-      <c r="AF14" s="396"/>
-      <c r="AG14" s="394"/>
-      <c r="AH14" s="395"/>
-      <c r="AI14" s="396"/>
-      <c r="AJ14" s="397"/>
-      <c r="AK14" s="398"/>
-      <c r="AL14" s="398"/>
-      <c r="AM14" s="398"/>
-      <c r="AN14" s="399"/>
+      <c r="AB14" s="391"/>
+      <c r="AC14" s="389"/>
+      <c r="AD14" s="391"/>
+      <c r="AE14" s="389"/>
+      <c r="AF14" s="391"/>
+      <c r="AG14" s="389"/>
+      <c r="AH14" s="390"/>
+      <c r="AI14" s="391"/>
+      <c r="AJ14" s="386"/>
+      <c r="AK14" s="387"/>
+      <c r="AL14" s="387"/>
+      <c r="AM14" s="387"/>
+      <c r="AN14" s="388"/>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1">
       <c r="A21" s="164"/>
@@ -15747,28 +15747,12 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AJ14:AN14"/>
-    <mergeCell ref="AG14:AI14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="AG13:AI13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="E2:N2"/>
@@ -15780,12 +15764,28 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG13:AI13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="AJ14:AN14"/>
+    <mergeCell ref="AG14:AI14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <dataValidations count="2">
@@ -15824,158 +15824,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:121" s="71" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="260" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="214" t="str">
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="223" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="216"/>
-      <c r="O1" s="261" t="s">
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="264" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="262"/>
-      <c r="Q1" s="262"/>
-      <c r="R1" s="263"/>
-      <c r="S1" s="257" t="str">
+      <c r="P1" s="265"/>
+      <c r="Q1" s="265"/>
+      <c r="R1" s="266"/>
+      <c r="S1" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(その他)
 B21AA01/ユーザ情報反映</v>
       </c>
-      <c r="T1" s="218"/>
-      <c r="U1" s="218"/>
-      <c r="V1" s="218"/>
-      <c r="W1" s="218"/>
-      <c r="X1" s="218"/>
-      <c r="Y1" s="218"/>
-      <c r="Z1" s="219"/>
-      <c r="AA1" s="258" t="s">
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="242"/>
+      <c r="W1" s="242"/>
+      <c r="X1" s="242"/>
+      <c r="Y1" s="242"/>
+      <c r="Z1" s="243"/>
+      <c r="AA1" s="260" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="260"/>
-      <c r="AC1" s="226" t="str">
+      <c r="AB1" s="261"/>
+      <c r="AC1" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="227"/>
-      <c r="AE1" s="227"/>
-      <c r="AF1" s="228"/>
-      <c r="AG1" s="270">
+      <c r="AD1" s="214"/>
+      <c r="AE1" s="214"/>
+      <c r="AF1" s="215"/>
+      <c r="AG1" s="257">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="271"/>
-      <c r="AI1" s="272"/>
+      <c r="AH1" s="258"/>
+      <c r="AI1" s="259"/>
     </row>
     <row r="2" spans="1:121" s="71" customFormat="1" ht="11.25">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="260" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="259"/>
-      <c r="C2" s="259"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="214" t="str">
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="223" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="264"/>
-      <c r="P2" s="265"/>
-      <c r="Q2" s="265"/>
-      <c r="R2" s="266"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="221"/>
-      <c r="U2" s="221"/>
-      <c r="V2" s="221"/>
-      <c r="W2" s="221"/>
-      <c r="X2" s="221"/>
-      <c r="Y2" s="221"/>
-      <c r="Z2" s="222"/>
-      <c r="AA2" s="258" t="s">
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="225"/>
+      <c r="O2" s="267"/>
+      <c r="P2" s="268"/>
+      <c r="Q2" s="268"/>
+      <c r="R2" s="269"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="245"/>
+      <c r="W2" s="245"/>
+      <c r="X2" s="245"/>
+      <c r="Y2" s="245"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="260" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="260"/>
-      <c r="AC2" s="226" t="str">
+      <c r="AB2" s="261"/>
+      <c r="AC2" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="227"/>
-      <c r="AE2" s="227"/>
-      <c r="AF2" s="228"/>
-      <c r="AG2" s="270" t="str">
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="214"/>
+      <c r="AF2" s="215"/>
+      <c r="AG2" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="271"/>
-      <c r="AI2" s="272"/>
+      <c r="AH2" s="258"/>
+      <c r="AI2" s="259"/>
     </row>
     <row r="3" spans="1:121" s="71" customFormat="1" ht="11.25">
-      <c r="A3" s="258" t="s">
+      <c r="A3" s="260" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="259"/>
-      <c r="C3" s="259"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="214" t="str">
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="261"/>
+      <c r="E3" s="223" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="215"/>
-      <c r="M3" s="215"/>
-      <c r="N3" s="216"/>
-      <c r="O3" s="267"/>
-      <c r="P3" s="268"/>
-      <c r="Q3" s="268"/>
-      <c r="R3" s="269"/>
-      <c r="S3" s="223"/>
-      <c r="T3" s="224"/>
-      <c r="U3" s="224"/>
-      <c r="V3" s="224"/>
-      <c r="W3" s="224"/>
-      <c r="X3" s="224"/>
-      <c r="Y3" s="224"/>
-      <c r="Z3" s="225"/>
-      <c r="AA3" s="258"/>
-      <c r="AB3" s="260"/>
-      <c r="AC3" s="226" t="str">
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="224"/>
+      <c r="N3" s="225"/>
+      <c r="O3" s="270"/>
+      <c r="P3" s="271"/>
+      <c r="Q3" s="271"/>
+      <c r="R3" s="272"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="248"/>
+      <c r="U3" s="248"/>
+      <c r="V3" s="248"/>
+      <c r="W3" s="248"/>
+      <c r="X3" s="248"/>
+      <c r="Y3" s="248"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="260"/>
+      <c r="AB3" s="261"/>
+      <c r="AC3" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="227"/>
-      <c r="AE3" s="227"/>
-      <c r="AF3" s="228"/>
-      <c r="AG3" s="270" t="str">
+      <c r="AD3" s="214"/>
+      <c r="AE3" s="214"/>
+      <c r="AF3" s="215"/>
+      <c r="AG3" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="271"/>
-      <c r="AI3" s="272"/>
+      <c r="AH3" s="258"/>
+      <c r="AI3" s="259"/>
     </row>
     <row r="4" spans="1:121" ht="11.25"/>
     <row r="5" spans="1:121" ht="11.25">
@@ -15996,69 +15996,69 @@
       <c r="A7" s="193" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="386" t="s">
+      <c r="B7" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="387"/>
-      <c r="D7" s="387"/>
-      <c r="E7" s="387"/>
-      <c r="F7" s="388"/>
-      <c r="G7" s="386" t="s">
+      <c r="C7" s="405"/>
+      <c r="D7" s="405"/>
+      <c r="E7" s="405"/>
+      <c r="F7" s="406"/>
+      <c r="G7" s="404" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="387"/>
-      <c r="I7" s="387"/>
-      <c r="J7" s="387"/>
-      <c r="K7" s="388"/>
-      <c r="L7" s="386" t="s">
+      <c r="H7" s="405"/>
+      <c r="I7" s="405"/>
+      <c r="J7" s="405"/>
+      <c r="K7" s="406"/>
+      <c r="L7" s="404" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="387"/>
-      <c r="N7" s="387"/>
-      <c r="O7" s="387"/>
-      <c r="P7" s="388"/>
+      <c r="M7" s="405"/>
+      <c r="N7" s="405"/>
+      <c r="O7" s="405"/>
+      <c r="P7" s="406"/>
       <c r="Q7" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="410" t="s">
+      <c r="R7" s="407" t="s">
         <v>71</v>
       </c>
-      <c r="S7" s="410"/>
-      <c r="T7" s="410"/>
-      <c r="U7" s="410"/>
-      <c r="V7" s="410" t="s">
+      <c r="S7" s="407"/>
+      <c r="T7" s="407"/>
+      <c r="U7" s="407"/>
+      <c r="V7" s="407" t="s">
         <v>209</v>
       </c>
-      <c r="W7" s="410"/>
-      <c r="X7" s="386" t="s">
+      <c r="W7" s="407"/>
+      <c r="X7" s="404" t="s">
         <v>64</v>
       </c>
-      <c r="Y7" s="388"/>
-      <c r="Z7" s="386" t="s">
+      <c r="Y7" s="406"/>
+      <c r="Z7" s="404" t="s">
         <v>25</v>
       </c>
-      <c r="AA7" s="388"/>
-      <c r="AB7" s="386" t="s">
+      <c r="AA7" s="406"/>
+      <c r="AB7" s="404" t="s">
         <v>84</v>
       </c>
-      <c r="AC7" s="388"/>
-      <c r="AD7" s="386" t="s">
+      <c r="AC7" s="406"/>
+      <c r="AD7" s="404" t="s">
         <v>85</v>
       </c>
-      <c r="AE7" s="388"/>
-      <c r="AF7" s="386" t="s">
+      <c r="AE7" s="406"/>
+      <c r="AF7" s="404" t="s">
         <v>63</v>
       </c>
-      <c r="AG7" s="387"/>
-      <c r="AH7" s="388"/>
-      <c r="AI7" s="386" t="s">
+      <c r="AG7" s="405"/>
+      <c r="AH7" s="406"/>
+      <c r="AI7" s="404" t="s">
         <v>62</v>
       </c>
-      <c r="AJ7" s="387"/>
-      <c r="AK7" s="387"/>
-      <c r="AL7" s="387"/>
-      <c r="AM7" s="387"/>
-      <c r="AN7" s="388"/>
+      <c r="AJ7" s="405"/>
+      <c r="AK7" s="405"/>
+      <c r="AL7" s="405"/>
+      <c r="AM7" s="405"/>
+      <c r="AN7" s="406"/>
       <c r="BN7" s="188"/>
       <c r="BO7" s="188"/>
       <c r="BP7" s="188"/>
@@ -16120,61 +16120,61 @@
       <c r="A8" s="183">
         <v>1</v>
       </c>
-      <c r="B8" s="397" t="s">
+      <c r="B8" s="386" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="398"/>
-      <c r="D8" s="398"/>
-      <c r="E8" s="398"/>
-      <c r="F8" s="399"/>
-      <c r="G8" s="397" t="s">
+      <c r="C8" s="387"/>
+      <c r="D8" s="387"/>
+      <c r="E8" s="387"/>
+      <c r="F8" s="388"/>
+      <c r="G8" s="386" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="398"/>
-      <c r="I8" s="398"/>
-      <c r="J8" s="398"/>
-      <c r="K8" s="399"/>
-      <c r="L8" s="397" t="s">
+      <c r="H8" s="387"/>
+      <c r="I8" s="387"/>
+      <c r="J8" s="387"/>
+      <c r="K8" s="388"/>
+      <c r="L8" s="386" t="s">
         <v>110</v>
       </c>
-      <c r="M8" s="398"/>
-      <c r="N8" s="398"/>
-      <c r="O8" s="398"/>
-      <c r="P8" s="399"/>
+      <c r="M8" s="387"/>
+      <c r="N8" s="387"/>
+      <c r="O8" s="387"/>
+      <c r="P8" s="388"/>
       <c r="Q8" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R8" s="407" t="s">
+      <c r="R8" s="408" t="s">
         <v>123</v>
       </c>
-      <c r="S8" s="408"/>
-      <c r="T8" s="408"/>
-      <c r="U8" s="409"/>
-      <c r="V8" s="403">
+      <c r="S8" s="409"/>
+      <c r="T8" s="409"/>
+      <c r="U8" s="410"/>
+      <c r="V8" s="392">
         <v>1</v>
       </c>
-      <c r="W8" s="404"/>
-      <c r="X8" s="403">
+      <c r="W8" s="393"/>
+      <c r="X8" s="392">
         <v>1</v>
       </c>
-      <c r="Y8" s="404"/>
-      <c r="Z8" s="394"/>
-      <c r="AA8" s="396"/>
-      <c r="AB8" s="394"/>
-      <c r="AC8" s="396"/>
-      <c r="AD8" s="394"/>
-      <c r="AE8" s="396"/>
-      <c r="AF8" s="394"/>
-      <c r="AG8" s="395"/>
-      <c r="AH8" s="396"/>
-      <c r="AI8" s="397" t="s">
+      <c r="Y8" s="393"/>
+      <c r="Z8" s="389"/>
+      <c r="AA8" s="391"/>
+      <c r="AB8" s="389"/>
+      <c r="AC8" s="391"/>
+      <c r="AD8" s="389"/>
+      <c r="AE8" s="391"/>
+      <c r="AF8" s="389"/>
+      <c r="AG8" s="390"/>
+      <c r="AH8" s="391"/>
+      <c r="AI8" s="386" t="s">
         <v>129</v>
       </c>
-      <c r="AJ8" s="398"/>
-      <c r="AK8" s="398"/>
-      <c r="AL8" s="398"/>
-      <c r="AM8" s="398"/>
-      <c r="AN8" s="399"/>
+      <c r="AJ8" s="387"/>
+      <c r="AK8" s="387"/>
+      <c r="AL8" s="387"/>
+      <c r="AM8" s="387"/>
+      <c r="AN8" s="388"/>
       <c r="AR8" s="164"/>
       <c r="AS8" s="137"/>
       <c r="AT8" s="137"/>
@@ -16243,62 +16243,62 @@
       <c r="A9" s="183">
         <v>2</v>
       </c>
-      <c r="B9" s="397" t="s">
+      <c r="B9" s="386" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="398"/>
-      <c r="D9" s="398"/>
-      <c r="E9" s="398"/>
-      <c r="F9" s="399"/>
-      <c r="G9" s="397" t="s">
+      <c r="C9" s="387"/>
+      <c r="D9" s="387"/>
+      <c r="E9" s="387"/>
+      <c r="F9" s="388"/>
+      <c r="G9" s="386" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="398"/>
-      <c r="I9" s="398"/>
-      <c r="J9" s="398"/>
-      <c r="K9" s="399"/>
-      <c r="L9" s="397" t="s">
+      <c r="H9" s="387"/>
+      <c r="I9" s="387"/>
+      <c r="J9" s="387"/>
+      <c r="K9" s="388"/>
+      <c r="L9" s="386" t="s">
         <v>111</v>
       </c>
-      <c r="M9" s="398"/>
-      <c r="N9" s="398"/>
-      <c r="O9" s="398"/>
-      <c r="P9" s="399"/>
+      <c r="M9" s="387"/>
+      <c r="N9" s="387"/>
+      <c r="O9" s="387"/>
+      <c r="P9" s="388"/>
       <c r="Q9" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R9" s="407" t="s">
+      <c r="R9" s="408" t="s">
         <v>124</v>
       </c>
-      <c r="S9" s="408"/>
-      <c r="T9" s="408"/>
-      <c r="U9" s="409"/>
-      <c r="V9" s="403">
+      <c r="S9" s="409"/>
+      <c r="T9" s="409"/>
+      <c r="U9" s="410"/>
+      <c r="V9" s="392">
         <v>10</v>
       </c>
-      <c r="W9" s="404"/>
-      <c r="X9" s="403">
+      <c r="W9" s="393"/>
+      <c r="X9" s="392">
         <f>X8+V8</f>
         <v>2</v>
       </c>
-      <c r="Y9" s="404"/>
-      <c r="Z9" s="394"/>
-      <c r="AA9" s="396"/>
-      <c r="AB9" s="394" t="s">
+      <c r="Y9" s="393"/>
+      <c r="Z9" s="389"/>
+      <c r="AA9" s="391"/>
+      <c r="AB9" s="389" t="s">
         <v>127</v>
       </c>
-      <c r="AC9" s="396"/>
-      <c r="AD9" s="394"/>
-      <c r="AE9" s="396"/>
-      <c r="AF9" s="394"/>
-      <c r="AG9" s="395"/>
-      <c r="AH9" s="396"/>
-      <c r="AI9" s="397"/>
-      <c r="AJ9" s="398"/>
-      <c r="AK9" s="398"/>
-      <c r="AL9" s="398"/>
-      <c r="AM9" s="398"/>
-      <c r="AN9" s="399"/>
+      <c r="AC9" s="391"/>
+      <c r="AD9" s="389"/>
+      <c r="AE9" s="391"/>
+      <c r="AF9" s="389"/>
+      <c r="AG9" s="390"/>
+      <c r="AH9" s="391"/>
+      <c r="AI9" s="386"/>
+      <c r="AJ9" s="387"/>
+      <c r="AK9" s="387"/>
+      <c r="AL9" s="387"/>
+      <c r="AM9" s="387"/>
+      <c r="AN9" s="388"/>
       <c r="AR9" s="137"/>
       <c r="AS9" s="137"/>
       <c r="AT9" s="137"/>
@@ -16367,62 +16367,62 @@
       <c r="A10" s="183">
         <v>3</v>
       </c>
-      <c r="B10" s="397" t="s">
+      <c r="B10" s="386" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="398"/>
-      <c r="D10" s="398"/>
-      <c r="E10" s="398"/>
-      <c r="F10" s="399"/>
-      <c r="G10" s="397" t="s">
+      <c r="C10" s="387"/>
+      <c r="D10" s="387"/>
+      <c r="E10" s="387"/>
+      <c r="F10" s="388"/>
+      <c r="G10" s="386" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="398"/>
-      <c r="I10" s="398"/>
-      <c r="J10" s="398"/>
-      <c r="K10" s="399"/>
-      <c r="L10" s="397" t="s">
+      <c r="H10" s="387"/>
+      <c r="I10" s="387"/>
+      <c r="J10" s="387"/>
+      <c r="K10" s="388"/>
+      <c r="L10" s="386" t="s">
         <v>112</v>
       </c>
-      <c r="M10" s="398"/>
-      <c r="N10" s="398"/>
-      <c r="O10" s="398"/>
-      <c r="P10" s="399"/>
+      <c r="M10" s="387"/>
+      <c r="N10" s="387"/>
+      <c r="O10" s="387"/>
+      <c r="P10" s="388"/>
       <c r="Q10" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R10" s="407" t="s">
+      <c r="R10" s="408" t="s">
         <v>125</v>
       </c>
-      <c r="S10" s="408"/>
-      <c r="T10" s="408"/>
-      <c r="U10" s="409"/>
-      <c r="V10" s="403">
+      <c r="S10" s="409"/>
+      <c r="T10" s="409"/>
+      <c r="U10" s="410"/>
+      <c r="V10" s="392">
         <v>1</v>
       </c>
-      <c r="W10" s="404"/>
-      <c r="X10" s="403">
+      <c r="W10" s="393"/>
+      <c r="X10" s="392">
         <f>X9+V9</f>
         <v>12</v>
       </c>
-      <c r="Y10" s="404"/>
-      <c r="Z10" s="394"/>
-      <c r="AA10" s="396"/>
-      <c r="AB10" s="394"/>
-      <c r="AC10" s="396"/>
-      <c r="AD10" s="394"/>
-      <c r="AE10" s="396"/>
-      <c r="AF10" s="394"/>
-      <c r="AG10" s="395"/>
-      <c r="AH10" s="396"/>
-      <c r="AI10" s="397" t="s">
+      <c r="Y10" s="393"/>
+      <c r="Z10" s="389"/>
+      <c r="AA10" s="391"/>
+      <c r="AB10" s="389"/>
+      <c r="AC10" s="391"/>
+      <c r="AD10" s="389"/>
+      <c r="AE10" s="391"/>
+      <c r="AF10" s="389"/>
+      <c r="AG10" s="390"/>
+      <c r="AH10" s="391"/>
+      <c r="AI10" s="386" t="s">
         <v>130</v>
       </c>
-      <c r="AJ10" s="398"/>
-      <c r="AK10" s="398"/>
-      <c r="AL10" s="398"/>
-      <c r="AM10" s="398"/>
-      <c r="AN10" s="399"/>
+      <c r="AJ10" s="387"/>
+      <c r="AK10" s="387"/>
+      <c r="AL10" s="387"/>
+      <c r="AM10" s="387"/>
+      <c r="AN10" s="388"/>
       <c r="AR10" s="137"/>
       <c r="AS10" s="137"/>
       <c r="AT10" s="137"/>
@@ -16491,64 +16491,64 @@
       <c r="A11" s="183">
         <v>4</v>
       </c>
-      <c r="B11" s="397" t="s">
+      <c r="B11" s="386" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="398"/>
-      <c r="D11" s="398"/>
-      <c r="E11" s="398"/>
-      <c r="F11" s="399"/>
-      <c r="G11" s="397" t="s">
+      <c r="C11" s="387"/>
+      <c r="D11" s="387"/>
+      <c r="E11" s="387"/>
+      <c r="F11" s="388"/>
+      <c r="G11" s="386" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="398"/>
-      <c r="I11" s="398"/>
-      <c r="J11" s="398"/>
-      <c r="K11" s="399"/>
-      <c r="L11" s="397" t="s">
+      <c r="H11" s="387"/>
+      <c r="I11" s="387"/>
+      <c r="J11" s="387"/>
+      <c r="K11" s="388"/>
+      <c r="L11" s="386" t="s">
         <v>122</v>
       </c>
-      <c r="M11" s="398"/>
-      <c r="N11" s="398"/>
-      <c r="O11" s="398"/>
-      <c r="P11" s="399"/>
+      <c r="M11" s="387"/>
+      <c r="N11" s="387"/>
+      <c r="O11" s="387"/>
+      <c r="P11" s="388"/>
       <c r="Q11" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R11" s="407" t="s">
+      <c r="R11" s="408" t="s">
         <v>126</v>
       </c>
-      <c r="S11" s="408"/>
-      <c r="T11" s="408"/>
-      <c r="U11" s="409"/>
-      <c r="V11" s="403">
+      <c r="S11" s="409"/>
+      <c r="T11" s="409"/>
+      <c r="U11" s="410"/>
+      <c r="V11" s="392">
         <v>8</v>
       </c>
-      <c r="W11" s="404"/>
-      <c r="X11" s="403">
+      <c r="W11" s="393"/>
+      <c r="X11" s="392">
         <f>X10+V10</f>
         <v>13</v>
       </c>
-      <c r="Y11" s="404"/>
-      <c r="Z11" s="394"/>
-      <c r="AA11" s="396"/>
-      <c r="AB11" s="394"/>
-      <c r="AC11" s="396"/>
-      <c r="AD11" s="394"/>
-      <c r="AE11" s="396"/>
-      <c r="AF11" s="397" t="s">
+      <c r="Y11" s="393"/>
+      <c r="Z11" s="389"/>
+      <c r="AA11" s="391"/>
+      <c r="AB11" s="389"/>
+      <c r="AC11" s="391"/>
+      <c r="AD11" s="389"/>
+      <c r="AE11" s="391"/>
+      <c r="AF11" s="386" t="s">
         <v>128</v>
       </c>
-      <c r="AG11" s="398"/>
-      <c r="AH11" s="399"/>
-      <c r="AI11" s="397" t="s">
+      <c r="AG11" s="387"/>
+      <c r="AH11" s="388"/>
+      <c r="AI11" s="386" t="s">
         <v>131</v>
       </c>
-      <c r="AJ11" s="398"/>
-      <c r="AK11" s="398"/>
-      <c r="AL11" s="398"/>
-      <c r="AM11" s="398"/>
-      <c r="AN11" s="399"/>
+      <c r="AJ11" s="387"/>
+      <c r="AK11" s="387"/>
+      <c r="AL11" s="387"/>
+      <c r="AM11" s="387"/>
+      <c r="AN11" s="388"/>
       <c r="AR11" s="164"/>
       <c r="AS11" s="137"/>
       <c r="AT11" s="137"/>
@@ -16617,64 +16617,64 @@
       <c r="A12" s="183">
         <v>5</v>
       </c>
-      <c r="B12" s="397" t="s">
+      <c r="B12" s="386" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="398"/>
-      <c r="D12" s="398"/>
-      <c r="E12" s="398"/>
-      <c r="F12" s="399"/>
-      <c r="G12" s="397" t="s">
+      <c r="C12" s="387"/>
+      <c r="D12" s="387"/>
+      <c r="E12" s="387"/>
+      <c r="F12" s="388"/>
+      <c r="G12" s="386" t="s">
         <v>120</v>
       </c>
-      <c r="H12" s="398"/>
-      <c r="I12" s="398"/>
-      <c r="J12" s="398"/>
-      <c r="K12" s="399"/>
-      <c r="L12" s="397" t="s">
+      <c r="H12" s="387"/>
+      <c r="I12" s="387"/>
+      <c r="J12" s="387"/>
+      <c r="K12" s="388"/>
+      <c r="L12" s="386" t="s">
         <v>122</v>
       </c>
-      <c r="M12" s="398"/>
-      <c r="N12" s="398"/>
-      <c r="O12" s="398"/>
-      <c r="P12" s="399"/>
+      <c r="M12" s="387"/>
+      <c r="N12" s="387"/>
+      <c r="O12" s="387"/>
+      <c r="P12" s="388"/>
       <c r="Q12" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R12" s="407" t="s">
+      <c r="R12" s="408" t="s">
         <v>124</v>
       </c>
-      <c r="S12" s="408"/>
-      <c r="T12" s="408"/>
-      <c r="U12" s="409"/>
-      <c r="V12" s="403">
+      <c r="S12" s="409"/>
+      <c r="T12" s="409"/>
+      <c r="U12" s="410"/>
+      <c r="V12" s="392">
         <v>8</v>
       </c>
-      <c r="W12" s="404"/>
-      <c r="X12" s="403">
+      <c r="W12" s="393"/>
+      <c r="X12" s="392">
         <f>X11+V11</f>
         <v>21</v>
       </c>
-      <c r="Y12" s="404"/>
-      <c r="Z12" s="394"/>
-      <c r="AA12" s="396"/>
-      <c r="AB12" s="394"/>
-      <c r="AC12" s="396"/>
-      <c r="AD12" s="394"/>
-      <c r="AE12" s="396"/>
-      <c r="AF12" s="397" t="s">
+      <c r="Y12" s="393"/>
+      <c r="Z12" s="389"/>
+      <c r="AA12" s="391"/>
+      <c r="AB12" s="389"/>
+      <c r="AC12" s="391"/>
+      <c r="AD12" s="389"/>
+      <c r="AE12" s="391"/>
+      <c r="AF12" s="386" t="s">
         <v>128</v>
       </c>
-      <c r="AG12" s="398"/>
-      <c r="AH12" s="399"/>
-      <c r="AI12" s="397" t="s">
+      <c r="AG12" s="387"/>
+      <c r="AH12" s="388"/>
+      <c r="AI12" s="386" t="s">
         <v>132</v>
       </c>
-      <c r="AJ12" s="398"/>
-      <c r="AK12" s="398"/>
-      <c r="AL12" s="398"/>
-      <c r="AM12" s="398"/>
-      <c r="AN12" s="399"/>
+      <c r="AJ12" s="387"/>
+      <c r="AK12" s="387"/>
+      <c r="AL12" s="387"/>
+      <c r="AM12" s="387"/>
+      <c r="AN12" s="388"/>
       <c r="AR12" s="164"/>
       <c r="AS12" s="137"/>
       <c r="AT12" s="137"/>
@@ -16743,56 +16743,56 @@
       <c r="A13" s="183">
         <v>6</v>
       </c>
-      <c r="B13" s="397" t="s">
+      <c r="B13" s="386" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="398"/>
-      <c r="D13" s="398"/>
-      <c r="E13" s="398"/>
-      <c r="F13" s="399"/>
-      <c r="G13" s="397" t="s">
+      <c r="C13" s="387"/>
+      <c r="D13" s="387"/>
+      <c r="E13" s="387"/>
+      <c r="F13" s="388"/>
+      <c r="G13" s="386" t="s">
         <v>121</v>
       </c>
-      <c r="H13" s="398"/>
-      <c r="I13" s="398"/>
-      <c r="J13" s="398"/>
-      <c r="K13" s="399"/>
-      <c r="L13" s="394"/>
-      <c r="M13" s="395"/>
-      <c r="N13" s="395"/>
-      <c r="O13" s="395"/>
-      <c r="P13" s="396"/>
+      <c r="H13" s="387"/>
+      <c r="I13" s="387"/>
+      <c r="J13" s="387"/>
+      <c r="K13" s="388"/>
+      <c r="L13" s="389"/>
+      <c r="M13" s="390"/>
+      <c r="N13" s="390"/>
+      <c r="O13" s="390"/>
+      <c r="P13" s="391"/>
       <c r="Q13" s="184"/>
-      <c r="R13" s="407" t="s">
+      <c r="R13" s="408" t="s">
         <v>123</v>
       </c>
-      <c r="S13" s="408"/>
-      <c r="T13" s="408"/>
-      <c r="U13" s="409"/>
-      <c r="V13" s="403">
+      <c r="S13" s="409"/>
+      <c r="T13" s="409"/>
+      <c r="U13" s="410"/>
+      <c r="V13" s="392">
         <v>15</v>
       </c>
-      <c r="W13" s="404"/>
-      <c r="X13" s="403">
+      <c r="W13" s="393"/>
+      <c r="X13" s="392">
         <f>X12+V12</f>
         <v>29</v>
       </c>
-      <c r="Y13" s="404"/>
-      <c r="Z13" s="394"/>
-      <c r="AA13" s="396"/>
-      <c r="AB13" s="394"/>
-      <c r="AC13" s="396"/>
-      <c r="AD13" s="394"/>
-      <c r="AE13" s="396"/>
-      <c r="AF13" s="394"/>
-      <c r="AG13" s="395"/>
-      <c r="AH13" s="396"/>
-      <c r="AI13" s="397"/>
-      <c r="AJ13" s="398"/>
-      <c r="AK13" s="398"/>
-      <c r="AL13" s="398"/>
-      <c r="AM13" s="398"/>
-      <c r="AN13" s="399"/>
+      <c r="Y13" s="393"/>
+      <c r="Z13" s="389"/>
+      <c r="AA13" s="391"/>
+      <c r="AB13" s="389"/>
+      <c r="AC13" s="391"/>
+      <c r="AD13" s="389"/>
+      <c r="AE13" s="391"/>
+      <c r="AF13" s="389"/>
+      <c r="AG13" s="390"/>
+      <c r="AH13" s="391"/>
+      <c r="AI13" s="386"/>
+      <c r="AJ13" s="387"/>
+      <c r="AK13" s="387"/>
+      <c r="AL13" s="387"/>
+      <c r="AM13" s="387"/>
+      <c r="AN13" s="388"/>
       <c r="AR13" s="164"/>
       <c r="AS13" s="137"/>
       <c r="AT13" s="137"/>
@@ -16963,6 +16963,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="AI11:AN11"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AN12"/>
+    <mergeCell ref="AI13:AN13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="AI8:AN8"/>
+    <mergeCell ref="AI10:AN10"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AI9:AN9"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="V7:W7"/>
@@ -16979,84 +17057,6 @@
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G7:K7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AI8:AN8"/>
-    <mergeCell ref="AI10:AN10"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AI9:AN9"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="AI11:AN11"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AN12"/>
-    <mergeCell ref="AI13:AN13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <dataValidations count="2">
@@ -17095,158 +17095,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:121" s="71" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="260" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="214" t="str">
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="223" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="216"/>
-      <c r="O1" s="261" t="s">
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="264" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="262"/>
-      <c r="Q1" s="262"/>
-      <c r="R1" s="263"/>
-      <c r="S1" s="257" t="str">
+      <c r="P1" s="265"/>
+      <c r="Q1" s="265"/>
+      <c r="R1" s="266"/>
+      <c r="S1" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(その他)
 B21AA01/ユーザ情報反映</v>
       </c>
-      <c r="T1" s="218"/>
-      <c r="U1" s="218"/>
-      <c r="V1" s="218"/>
-      <c r="W1" s="218"/>
-      <c r="X1" s="218"/>
-      <c r="Y1" s="218"/>
-      <c r="Z1" s="219"/>
-      <c r="AA1" s="258" t="s">
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="242"/>
+      <c r="W1" s="242"/>
+      <c r="X1" s="242"/>
+      <c r="Y1" s="242"/>
+      <c r="Z1" s="243"/>
+      <c r="AA1" s="260" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="260"/>
-      <c r="AC1" s="226" t="str">
+      <c r="AB1" s="261"/>
+      <c r="AC1" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="227"/>
-      <c r="AE1" s="227"/>
-      <c r="AF1" s="228"/>
-      <c r="AG1" s="270">
+      <c r="AD1" s="214"/>
+      <c r="AE1" s="214"/>
+      <c r="AF1" s="215"/>
+      <c r="AG1" s="257">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="271"/>
-      <c r="AI1" s="272"/>
+      <c r="AH1" s="258"/>
+      <c r="AI1" s="259"/>
     </row>
     <row r="2" spans="1:121" s="71" customFormat="1" ht="11.25">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="260" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="259"/>
-      <c r="C2" s="259"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="214" t="str">
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="223" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="264"/>
-      <c r="P2" s="265"/>
-      <c r="Q2" s="265"/>
-      <c r="R2" s="266"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="221"/>
-      <c r="U2" s="221"/>
-      <c r="V2" s="221"/>
-      <c r="W2" s="221"/>
-      <c r="X2" s="221"/>
-      <c r="Y2" s="221"/>
-      <c r="Z2" s="222"/>
-      <c r="AA2" s="258" t="s">
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="225"/>
+      <c r="O2" s="267"/>
+      <c r="P2" s="268"/>
+      <c r="Q2" s="268"/>
+      <c r="R2" s="269"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="245"/>
+      <c r="W2" s="245"/>
+      <c r="X2" s="245"/>
+      <c r="Y2" s="245"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="260" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="260"/>
-      <c r="AC2" s="226" t="str">
+      <c r="AB2" s="261"/>
+      <c r="AC2" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="227"/>
-      <c r="AE2" s="227"/>
-      <c r="AF2" s="228"/>
-      <c r="AG2" s="270" t="str">
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="214"/>
+      <c r="AF2" s="215"/>
+      <c r="AG2" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="271"/>
-      <c r="AI2" s="272"/>
+      <c r="AH2" s="258"/>
+      <c r="AI2" s="259"/>
     </row>
     <row r="3" spans="1:121" s="71" customFormat="1" ht="11.25">
-      <c r="A3" s="258" t="s">
+      <c r="A3" s="260" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="259"/>
-      <c r="C3" s="259"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="214" t="str">
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="261"/>
+      <c r="E3" s="223" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="215"/>
-      <c r="M3" s="215"/>
-      <c r="N3" s="216"/>
-      <c r="O3" s="267"/>
-      <c r="P3" s="268"/>
-      <c r="Q3" s="268"/>
-      <c r="R3" s="269"/>
-      <c r="S3" s="223"/>
-      <c r="T3" s="224"/>
-      <c r="U3" s="224"/>
-      <c r="V3" s="224"/>
-      <c r="W3" s="224"/>
-      <c r="X3" s="224"/>
-      <c r="Y3" s="224"/>
-      <c r="Z3" s="225"/>
-      <c r="AA3" s="258"/>
-      <c r="AB3" s="260"/>
-      <c r="AC3" s="226" t="str">
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="224"/>
+      <c r="N3" s="225"/>
+      <c r="O3" s="270"/>
+      <c r="P3" s="271"/>
+      <c r="Q3" s="271"/>
+      <c r="R3" s="272"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="248"/>
+      <c r="U3" s="248"/>
+      <c r="V3" s="248"/>
+      <c r="W3" s="248"/>
+      <c r="X3" s="248"/>
+      <c r="Y3" s="248"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="260"/>
+      <c r="AB3" s="261"/>
+      <c r="AC3" s="213" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="227"/>
-      <c r="AE3" s="227"/>
-      <c r="AF3" s="228"/>
-      <c r="AG3" s="270" t="str">
+      <c r="AD3" s="214"/>
+      <c r="AE3" s="214"/>
+      <c r="AF3" s="215"/>
+      <c r="AG3" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="271"/>
-      <c r="AI3" s="272"/>
+      <c r="AH3" s="258"/>
+      <c r="AI3" s="259"/>
     </row>
     <row r="4" spans="1:121" ht="11.25"/>
     <row r="5" spans="1:121" ht="11.25">
@@ -17267,69 +17267,69 @@
       <c r="A7" s="190" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="386" t="s">
+      <c r="B7" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="387"/>
-      <c r="D7" s="387"/>
-      <c r="E7" s="387"/>
-      <c r="F7" s="388"/>
-      <c r="G7" s="386" t="s">
+      <c r="C7" s="405"/>
+      <c r="D7" s="405"/>
+      <c r="E7" s="405"/>
+      <c r="F7" s="406"/>
+      <c r="G7" s="404" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="387"/>
-      <c r="I7" s="387"/>
-      <c r="J7" s="387"/>
-      <c r="K7" s="388"/>
-      <c r="L7" s="386" t="s">
+      <c r="H7" s="405"/>
+      <c r="I7" s="405"/>
+      <c r="J7" s="405"/>
+      <c r="K7" s="406"/>
+      <c r="L7" s="404" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="387"/>
-      <c r="N7" s="387"/>
-      <c r="O7" s="387"/>
-      <c r="P7" s="388"/>
+      <c r="M7" s="405"/>
+      <c r="N7" s="405"/>
+      <c r="O7" s="405"/>
+      <c r="P7" s="406"/>
       <c r="Q7" s="192" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="410" t="s">
+      <c r="R7" s="407" t="s">
         <v>71</v>
       </c>
-      <c r="S7" s="410"/>
-      <c r="T7" s="410"/>
-      <c r="U7" s="410"/>
-      <c r="V7" s="411" t="s">
+      <c r="S7" s="407"/>
+      <c r="T7" s="407"/>
+      <c r="U7" s="407"/>
+      <c r="V7" s="417" t="s">
         <v>219</v>
       </c>
-      <c r="W7" s="411"/>
-      <c r="X7" s="412" t="s">
+      <c r="W7" s="417"/>
+      <c r="X7" s="418" t="s">
         <v>64</v>
       </c>
-      <c r="Y7" s="413"/>
-      <c r="Z7" s="386" t="s">
+      <c r="Y7" s="419"/>
+      <c r="Z7" s="404" t="s">
         <v>25</v>
       </c>
-      <c r="AA7" s="388"/>
-      <c r="AB7" s="386" t="s">
+      <c r="AA7" s="406"/>
+      <c r="AB7" s="404" t="s">
         <v>84</v>
       </c>
-      <c r="AC7" s="388"/>
-      <c r="AD7" s="386" t="s">
+      <c r="AC7" s="406"/>
+      <c r="AD7" s="404" t="s">
         <v>85</v>
       </c>
-      <c r="AE7" s="388"/>
-      <c r="AF7" s="386" t="s">
+      <c r="AE7" s="406"/>
+      <c r="AF7" s="404" t="s">
         <v>63</v>
       </c>
-      <c r="AG7" s="387"/>
-      <c r="AH7" s="388"/>
-      <c r="AI7" s="386" t="s">
+      <c r="AG7" s="405"/>
+      <c r="AH7" s="406"/>
+      <c r="AI7" s="404" t="s">
         <v>62</v>
       </c>
-      <c r="AJ7" s="387"/>
-      <c r="AK7" s="387"/>
-      <c r="AL7" s="387"/>
-      <c r="AM7" s="387"/>
-      <c r="AN7" s="388"/>
+      <c r="AJ7" s="405"/>
+      <c r="AK7" s="405"/>
+      <c r="AL7" s="405"/>
+      <c r="AM7" s="405"/>
+      <c r="AN7" s="406"/>
       <c r="BN7" s="188"/>
       <c r="BO7" s="188"/>
       <c r="BP7" s="188"/>
@@ -17405,45 +17405,45 @@
       <c r="I8" s="414"/>
       <c r="J8" s="414"/>
       <c r="K8" s="414"/>
-      <c r="L8" s="397" t="s">
+      <c r="L8" s="386" t="s">
         <v>151</v>
       </c>
-      <c r="M8" s="398"/>
-      <c r="N8" s="398"/>
-      <c r="O8" s="398"/>
-      <c r="P8" s="399"/>
+      <c r="M8" s="387"/>
+      <c r="N8" s="387"/>
+      <c r="O8" s="387"/>
+      <c r="P8" s="388"/>
       <c r="Q8" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R8" s="397" t="s">
+      <c r="R8" s="386" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="398"/>
-      <c r="T8" s="398"/>
-      <c r="U8" s="399"/>
-      <c r="V8" s="403">
+      <c r="S8" s="387"/>
+      <c r="T8" s="387"/>
+      <c r="U8" s="388"/>
+      <c r="V8" s="392">
         <v>20</v>
       </c>
-      <c r="W8" s="404"/>
-      <c r="X8" s="403">
+      <c r="W8" s="393"/>
+      <c r="X8" s="392">
         <v>1</v>
       </c>
-      <c r="Y8" s="404"/>
-      <c r="Z8" s="394"/>
-      <c r="AA8" s="396"/>
-      <c r="AB8" s="394"/>
-      <c r="AC8" s="396"/>
-      <c r="AD8" s="394"/>
-      <c r="AE8" s="396"/>
-      <c r="AF8" s="394"/>
-      <c r="AG8" s="395"/>
-      <c r="AH8" s="396"/>
-      <c r="AI8" s="415"/>
-      <c r="AJ8" s="416"/>
-      <c r="AK8" s="416"/>
-      <c r="AL8" s="416"/>
-      <c r="AM8" s="416"/>
-      <c r="AN8" s="417"/>
+      <c r="Y8" s="393"/>
+      <c r="Z8" s="389"/>
+      <c r="AA8" s="391"/>
+      <c r="AB8" s="389"/>
+      <c r="AC8" s="391"/>
+      <c r="AD8" s="389"/>
+      <c r="AE8" s="391"/>
+      <c r="AF8" s="389"/>
+      <c r="AG8" s="390"/>
+      <c r="AH8" s="391"/>
+      <c r="AI8" s="411"/>
+      <c r="AJ8" s="412"/>
+      <c r="AK8" s="412"/>
+      <c r="AL8" s="412"/>
+      <c r="AM8" s="412"/>
+      <c r="AN8" s="413"/>
       <c r="AR8" s="172"/>
       <c r="AS8" s="137"/>
       <c r="AT8" s="137"/>
@@ -17526,46 +17526,46 @@
       <c r="I9" s="414"/>
       <c r="J9" s="414"/>
       <c r="K9" s="414"/>
-      <c r="L9" s="397" t="s">
+      <c r="L9" s="386" t="s">
         <v>154</v>
       </c>
-      <c r="M9" s="398"/>
-      <c r="N9" s="398"/>
-      <c r="O9" s="398"/>
-      <c r="P9" s="399"/>
+      <c r="M9" s="387"/>
+      <c r="N9" s="387"/>
+      <c r="O9" s="387"/>
+      <c r="P9" s="388"/>
       <c r="Q9" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R9" s="397" t="s">
+      <c r="R9" s="386" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="398"/>
-      <c r="T9" s="398"/>
-      <c r="U9" s="399"/>
-      <c r="V9" s="403">
+      <c r="S9" s="387"/>
+      <c r="T9" s="387"/>
+      <c r="U9" s="388"/>
+      <c r="V9" s="392">
         <v>50</v>
       </c>
-      <c r="W9" s="404"/>
-      <c r="X9" s="403">
+      <c r="W9" s="393"/>
+      <c r="X9" s="392">
         <f>X8+V8</f>
         <v>21</v>
       </c>
-      <c r="Y9" s="404"/>
-      <c r="Z9" s="394"/>
-      <c r="AA9" s="396"/>
-      <c r="AB9" s="394"/>
-      <c r="AC9" s="396"/>
-      <c r="AD9" s="394"/>
-      <c r="AE9" s="396"/>
-      <c r="AF9" s="394"/>
-      <c r="AG9" s="395"/>
-      <c r="AH9" s="396"/>
-      <c r="AI9" s="415"/>
-      <c r="AJ9" s="416"/>
-      <c r="AK9" s="416"/>
-      <c r="AL9" s="416"/>
-      <c r="AM9" s="416"/>
-      <c r="AN9" s="417"/>
+      <c r="Y9" s="393"/>
+      <c r="Z9" s="389"/>
+      <c r="AA9" s="391"/>
+      <c r="AB9" s="389"/>
+      <c r="AC9" s="391"/>
+      <c r="AD9" s="389"/>
+      <c r="AE9" s="391"/>
+      <c r="AF9" s="389"/>
+      <c r="AG9" s="390"/>
+      <c r="AH9" s="391"/>
+      <c r="AI9" s="411"/>
+      <c r="AJ9" s="412"/>
+      <c r="AK9" s="412"/>
+      <c r="AL9" s="412"/>
+      <c r="AM9" s="412"/>
+      <c r="AN9" s="413"/>
       <c r="AR9" s="137"/>
       <c r="AS9" s="137"/>
       <c r="AT9" s="137"/>
@@ -17648,46 +17648,46 @@
       <c r="I10" s="414"/>
       <c r="J10" s="414"/>
       <c r="K10" s="414"/>
-      <c r="L10" s="397" t="s">
+      <c r="L10" s="386" t="s">
         <v>157</v>
       </c>
-      <c r="M10" s="398"/>
-      <c r="N10" s="398"/>
-      <c r="O10" s="398"/>
-      <c r="P10" s="399"/>
+      <c r="M10" s="387"/>
+      <c r="N10" s="387"/>
+      <c r="O10" s="387"/>
+      <c r="P10" s="388"/>
       <c r="Q10" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R10" s="397" t="s">
+      <c r="R10" s="386" t="s">
         <v>34</v>
       </c>
-      <c r="S10" s="398"/>
-      <c r="T10" s="398"/>
-      <c r="U10" s="399"/>
-      <c r="V10" s="403">
+      <c r="S10" s="387"/>
+      <c r="T10" s="387"/>
+      <c r="U10" s="388"/>
+      <c r="V10" s="392">
         <v>50</v>
       </c>
-      <c r="W10" s="404"/>
-      <c r="X10" s="403">
+      <c r="W10" s="393"/>
+      <c r="X10" s="392">
         <f>X9+V9</f>
         <v>71</v>
       </c>
-      <c r="Y10" s="404"/>
-      <c r="Z10" s="394"/>
-      <c r="AA10" s="396"/>
-      <c r="AB10" s="394"/>
-      <c r="AC10" s="396"/>
-      <c r="AD10" s="394"/>
-      <c r="AE10" s="396"/>
-      <c r="AF10" s="394"/>
-      <c r="AG10" s="395"/>
-      <c r="AH10" s="396"/>
-      <c r="AI10" s="415"/>
-      <c r="AJ10" s="416"/>
-      <c r="AK10" s="416"/>
-      <c r="AL10" s="416"/>
-      <c r="AM10" s="416"/>
-      <c r="AN10" s="417"/>
+      <c r="Y10" s="393"/>
+      <c r="Z10" s="389"/>
+      <c r="AA10" s="391"/>
+      <c r="AB10" s="389"/>
+      <c r="AC10" s="391"/>
+      <c r="AD10" s="389"/>
+      <c r="AE10" s="391"/>
+      <c r="AF10" s="389"/>
+      <c r="AG10" s="390"/>
+      <c r="AH10" s="391"/>
+      <c r="AI10" s="411"/>
+      <c r="AJ10" s="412"/>
+      <c r="AK10" s="412"/>
+      <c r="AL10" s="412"/>
+      <c r="AM10" s="412"/>
+      <c r="AN10" s="413"/>
       <c r="AR10" s="137"/>
       <c r="AS10" s="137"/>
       <c r="AT10" s="137"/>
@@ -17770,48 +17770,48 @@
       <c r="I11" s="414"/>
       <c r="J11" s="414"/>
       <c r="K11" s="414"/>
-      <c r="L11" s="397" t="s">
+      <c r="L11" s="386" t="s">
         <v>160</v>
       </c>
-      <c r="M11" s="398"/>
-      <c r="N11" s="398"/>
-      <c r="O11" s="398"/>
-      <c r="P11" s="399"/>
+      <c r="M11" s="387"/>
+      <c r="N11" s="387"/>
+      <c r="O11" s="387"/>
+      <c r="P11" s="388"/>
       <c r="Q11" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R11" s="397" t="s">
+      <c r="R11" s="386" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="398"/>
-      <c r="T11" s="398"/>
-      <c r="U11" s="399"/>
-      <c r="V11" s="403">
+      <c r="S11" s="387"/>
+      <c r="T11" s="387"/>
+      <c r="U11" s="388"/>
+      <c r="V11" s="392">
         <v>8</v>
       </c>
-      <c r="W11" s="404"/>
-      <c r="X11" s="403">
+      <c r="W11" s="393"/>
+      <c r="X11" s="392">
         <f>X10+V10</f>
         <v>121</v>
       </c>
-      <c r="Y11" s="404"/>
-      <c r="Z11" s="394"/>
-      <c r="AA11" s="396"/>
-      <c r="AB11" s="394"/>
-      <c r="AC11" s="396"/>
-      <c r="AD11" s="394"/>
-      <c r="AE11" s="396"/>
-      <c r="AF11" s="415" t="s">
+      <c r="Y11" s="393"/>
+      <c r="Z11" s="389"/>
+      <c r="AA11" s="391"/>
+      <c r="AB11" s="389"/>
+      <c r="AC11" s="391"/>
+      <c r="AD11" s="389"/>
+      <c r="AE11" s="391"/>
+      <c r="AF11" s="411" t="s">
         <v>128</v>
       </c>
-      <c r="AG11" s="416"/>
-      <c r="AH11" s="417"/>
-      <c r="AI11" s="415"/>
-      <c r="AJ11" s="416"/>
-      <c r="AK11" s="416"/>
-      <c r="AL11" s="416"/>
-      <c r="AM11" s="416"/>
-      <c r="AN11" s="417"/>
+      <c r="AG11" s="412"/>
+      <c r="AH11" s="413"/>
+      <c r="AI11" s="411"/>
+      <c r="AJ11" s="412"/>
+      <c r="AK11" s="412"/>
+      <c r="AL11" s="412"/>
+      <c r="AM11" s="412"/>
+      <c r="AN11" s="413"/>
       <c r="AR11" s="172"/>
       <c r="AS11" s="137"/>
       <c r="AT11" s="137"/>
@@ -17894,46 +17894,46 @@
       <c r="I12" s="414"/>
       <c r="J12" s="414"/>
       <c r="K12" s="414"/>
-      <c r="L12" s="397" t="s">
+      <c r="L12" s="386" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="398"/>
-      <c r="N12" s="398"/>
-      <c r="O12" s="398"/>
-      <c r="P12" s="399"/>
+      <c r="M12" s="387"/>
+      <c r="N12" s="387"/>
+      <c r="O12" s="387"/>
+      <c r="P12" s="388"/>
       <c r="Q12" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R12" s="397" t="s">
+      <c r="R12" s="386" t="s">
         <v>33</v>
       </c>
-      <c r="S12" s="398"/>
-      <c r="T12" s="398"/>
-      <c r="U12" s="399"/>
-      <c r="V12" s="403">
+      <c r="S12" s="387"/>
+      <c r="T12" s="387"/>
+      <c r="U12" s="388"/>
+      <c r="V12" s="392">
         <v>2</v>
       </c>
-      <c r="W12" s="404"/>
-      <c r="X12" s="403">
+      <c r="W12" s="393"/>
+      <c r="X12" s="392">
         <f>X11+V11</f>
         <v>129</v>
       </c>
-      <c r="Y12" s="404"/>
-      <c r="Z12" s="394"/>
-      <c r="AA12" s="396"/>
-      <c r="AB12" s="394"/>
-      <c r="AC12" s="396"/>
-      <c r="AD12" s="394"/>
-      <c r="AE12" s="396"/>
-      <c r="AF12" s="415"/>
-      <c r="AG12" s="416"/>
-      <c r="AH12" s="417"/>
-      <c r="AI12" s="415"/>
-      <c r="AJ12" s="416"/>
-      <c r="AK12" s="416"/>
-      <c r="AL12" s="416"/>
-      <c r="AM12" s="416"/>
-      <c r="AN12" s="417"/>
+      <c r="Y12" s="393"/>
+      <c r="Z12" s="389"/>
+      <c r="AA12" s="391"/>
+      <c r="AB12" s="389"/>
+      <c r="AC12" s="391"/>
+      <c r="AD12" s="389"/>
+      <c r="AE12" s="391"/>
+      <c r="AF12" s="411"/>
+      <c r="AG12" s="412"/>
+      <c r="AH12" s="413"/>
+      <c r="AI12" s="411"/>
+      <c r="AJ12" s="412"/>
+      <c r="AK12" s="412"/>
+      <c r="AL12" s="412"/>
+      <c r="AM12" s="412"/>
+      <c r="AN12" s="413"/>
       <c r="AR12" s="172"/>
       <c r="AS12" s="137"/>
       <c r="AT12" s="137"/>
@@ -18016,48 +18016,48 @@
       <c r="I13" s="414"/>
       <c r="J13" s="414"/>
       <c r="K13" s="414"/>
-      <c r="L13" s="397" t="s">
+      <c r="L13" s="386" t="s">
         <v>166</v>
       </c>
-      <c r="M13" s="398"/>
-      <c r="N13" s="398"/>
-      <c r="O13" s="398"/>
-      <c r="P13" s="399"/>
+      <c r="M13" s="387"/>
+      <c r="N13" s="387"/>
+      <c r="O13" s="387"/>
+      <c r="P13" s="388"/>
       <c r="Q13" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R13" s="397" t="s">
+      <c r="R13" s="386" t="s">
         <v>33</v>
       </c>
-      <c r="S13" s="398"/>
-      <c r="T13" s="398"/>
-      <c r="U13" s="399"/>
-      <c r="V13" s="403">
+      <c r="S13" s="387"/>
+      <c r="T13" s="387"/>
+      <c r="U13" s="388"/>
+      <c r="V13" s="392">
         <v>7</v>
       </c>
-      <c r="W13" s="404"/>
-      <c r="X13" s="403">
+      <c r="W13" s="393"/>
+      <c r="X13" s="392">
         <f>X12+V12</f>
         <v>131</v>
       </c>
-      <c r="Y13" s="404"/>
-      <c r="Z13" s="394"/>
-      <c r="AA13" s="396"/>
-      <c r="AB13" s="394"/>
-      <c r="AC13" s="396"/>
-      <c r="AD13" s="394"/>
-      <c r="AE13" s="396"/>
-      <c r="AF13" s="394" t="s">
+      <c r="Y13" s="393"/>
+      <c r="Z13" s="389"/>
+      <c r="AA13" s="391"/>
+      <c r="AB13" s="389"/>
+      <c r="AC13" s="391"/>
+      <c r="AD13" s="389"/>
+      <c r="AE13" s="391"/>
+      <c r="AF13" s="389" t="s">
         <v>201</v>
       </c>
-      <c r="AG13" s="395"/>
-      <c r="AH13" s="396"/>
-      <c r="AI13" s="415"/>
-      <c r="AJ13" s="416"/>
-      <c r="AK13" s="416"/>
-      <c r="AL13" s="416"/>
-      <c r="AM13" s="416"/>
-      <c r="AN13" s="417"/>
+      <c r="AG13" s="390"/>
+      <c r="AH13" s="391"/>
+      <c r="AI13" s="411"/>
+      <c r="AJ13" s="412"/>
+      <c r="AK13" s="412"/>
+      <c r="AL13" s="412"/>
+      <c r="AM13" s="412"/>
+      <c r="AN13" s="413"/>
       <c r="AR13" s="172"/>
       <c r="AS13" s="137"/>
       <c r="AT13" s="137"/>
@@ -18140,48 +18140,48 @@
       <c r="I14" s="414"/>
       <c r="J14" s="414"/>
       <c r="K14" s="414"/>
-      <c r="L14" s="397" t="s">
+      <c r="L14" s="386" t="s">
         <v>169</v>
       </c>
-      <c r="M14" s="398"/>
-      <c r="N14" s="398"/>
-      <c r="O14" s="398"/>
-      <c r="P14" s="399"/>
+      <c r="M14" s="387"/>
+      <c r="N14" s="387"/>
+      <c r="O14" s="387"/>
+      <c r="P14" s="388"/>
       <c r="Q14" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R14" s="397" t="s">
+      <c r="R14" s="386" t="s">
         <v>32</v>
       </c>
-      <c r="S14" s="398"/>
-      <c r="T14" s="398"/>
-      <c r="U14" s="399"/>
-      <c r="V14" s="403">
+      <c r="S14" s="387"/>
+      <c r="T14" s="387"/>
+      <c r="U14" s="388"/>
+      <c r="V14" s="392">
         <v>10</v>
       </c>
-      <c r="W14" s="404"/>
-      <c r="X14" s="403">
+      <c r="W14" s="393"/>
+      <c r="X14" s="392">
         <f t="shared" ref="X14:X24" si="0">X13+V13</f>
         <v>138</v>
       </c>
-      <c r="Y14" s="404"/>
-      <c r="Z14" s="394"/>
-      <c r="AA14" s="396"/>
-      <c r="AB14" s="394"/>
-      <c r="AC14" s="396"/>
-      <c r="AD14" s="394"/>
-      <c r="AE14" s="396"/>
-      <c r="AF14" s="394" t="s">
+      <c r="Y14" s="393"/>
+      <c r="Z14" s="389"/>
+      <c r="AA14" s="391"/>
+      <c r="AB14" s="389"/>
+      <c r="AC14" s="391"/>
+      <c r="AD14" s="389"/>
+      <c r="AE14" s="391"/>
+      <c r="AF14" s="389" t="s">
         <v>201</v>
       </c>
-      <c r="AG14" s="395"/>
-      <c r="AH14" s="396"/>
-      <c r="AI14" s="415"/>
-      <c r="AJ14" s="416"/>
-      <c r="AK14" s="416"/>
-      <c r="AL14" s="416"/>
-      <c r="AM14" s="416"/>
-      <c r="AN14" s="417"/>
+      <c r="AG14" s="390"/>
+      <c r="AH14" s="391"/>
+      <c r="AI14" s="411"/>
+      <c r="AJ14" s="412"/>
+      <c r="AK14" s="412"/>
+      <c r="AL14" s="412"/>
+      <c r="AM14" s="412"/>
+      <c r="AN14" s="413"/>
     </row>
     <row r="15" spans="1:121" ht="15" customHeight="1">
       <c r="A15" s="183">
@@ -18201,46 +18201,46 @@
       <c r="I15" s="414"/>
       <c r="J15" s="414"/>
       <c r="K15" s="414"/>
-      <c r="L15" s="397" t="s">
+      <c r="L15" s="386" t="s">
         <v>172</v>
       </c>
-      <c r="M15" s="398"/>
-      <c r="N15" s="398"/>
-      <c r="O15" s="398"/>
-      <c r="P15" s="399"/>
+      <c r="M15" s="387"/>
+      <c r="N15" s="387"/>
+      <c r="O15" s="387"/>
+      <c r="P15" s="388"/>
       <c r="Q15" s="184"/>
-      <c r="R15" s="397" t="s">
+      <c r="R15" s="386" t="s">
         <v>38</v>
       </c>
-      <c r="S15" s="398"/>
-      <c r="T15" s="398"/>
-      <c r="U15" s="399"/>
-      <c r="V15" s="403">
+      <c r="S15" s="387"/>
+      <c r="T15" s="387"/>
+      <c r="U15" s="388"/>
+      <c r="V15" s="392">
         <v>3</v>
       </c>
-      <c r="W15" s="404"/>
-      <c r="X15" s="403">
+      <c r="W15" s="393"/>
+      <c r="X15" s="392">
         <f t="shared" si="0"/>
         <v>148</v>
       </c>
-      <c r="Y15" s="404"/>
-      <c r="Z15" s="394"/>
-      <c r="AA15" s="396"/>
-      <c r="AB15" s="394"/>
-      <c r="AC15" s="396"/>
-      <c r="AD15" s="394">
+      <c r="Y15" s="393"/>
+      <c r="Z15" s="389"/>
+      <c r="AA15" s="391"/>
+      <c r="AB15" s="389"/>
+      <c r="AC15" s="391"/>
+      <c r="AD15" s="389">
         <v>9.99</v>
       </c>
-      <c r="AE15" s="396"/>
-      <c r="AF15" s="394"/>
-      <c r="AG15" s="395"/>
-      <c r="AH15" s="396"/>
-      <c r="AI15" s="415"/>
-      <c r="AJ15" s="416"/>
-      <c r="AK15" s="416"/>
-      <c r="AL15" s="416"/>
-      <c r="AM15" s="416"/>
-      <c r="AN15" s="417"/>
+      <c r="AE15" s="391"/>
+      <c r="AF15" s="389"/>
+      <c r="AG15" s="390"/>
+      <c r="AH15" s="391"/>
+      <c r="AI15" s="411"/>
+      <c r="AJ15" s="412"/>
+      <c r="AK15" s="412"/>
+      <c r="AL15" s="412"/>
+      <c r="AM15" s="412"/>
+      <c r="AN15" s="413"/>
     </row>
     <row r="16" spans="1:121" ht="15" customHeight="1">
       <c r="A16" s="183">
@@ -18260,46 +18260,46 @@
       <c r="I16" s="414"/>
       <c r="J16" s="414"/>
       <c r="K16" s="414"/>
-      <c r="L16" s="397" t="s">
+      <c r="L16" s="386" t="s">
         <v>175</v>
       </c>
-      <c r="M16" s="398"/>
-      <c r="N16" s="398"/>
-      <c r="O16" s="398"/>
-      <c r="P16" s="399"/>
+      <c r="M16" s="387"/>
+      <c r="N16" s="387"/>
+      <c r="O16" s="387"/>
+      <c r="P16" s="388"/>
       <c r="Q16" s="184"/>
-      <c r="R16" s="397" t="s">
+      <c r="R16" s="386" t="s">
         <v>38</v>
       </c>
-      <c r="S16" s="398"/>
-      <c r="T16" s="398"/>
-      <c r="U16" s="399"/>
-      <c r="V16" s="403">
+      <c r="S16" s="387"/>
+      <c r="T16" s="387"/>
+      <c r="U16" s="388"/>
+      <c r="V16" s="392">
         <v>6</v>
       </c>
-      <c r="W16" s="404"/>
-      <c r="X16" s="403">
+      <c r="W16" s="393"/>
+      <c r="X16" s="392">
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
-      <c r="Y16" s="404"/>
-      <c r="Z16" s="394"/>
-      <c r="AA16" s="396"/>
-      <c r="AB16" s="394"/>
-      <c r="AC16" s="396"/>
-      <c r="AD16" s="394">
+      <c r="Y16" s="393"/>
+      <c r="Z16" s="389"/>
+      <c r="AA16" s="391"/>
+      <c r="AB16" s="389"/>
+      <c r="AC16" s="391"/>
+      <c r="AD16" s="389">
         <v>999.99900000000002</v>
       </c>
-      <c r="AE16" s="396"/>
-      <c r="AF16" s="394"/>
-      <c r="AG16" s="395"/>
-      <c r="AH16" s="396"/>
-      <c r="AI16" s="415"/>
-      <c r="AJ16" s="416"/>
-      <c r="AK16" s="416"/>
-      <c r="AL16" s="416"/>
-      <c r="AM16" s="416"/>
-      <c r="AN16" s="417"/>
+      <c r="AE16" s="391"/>
+      <c r="AF16" s="389"/>
+      <c r="AG16" s="390"/>
+      <c r="AH16" s="391"/>
+      <c r="AI16" s="411"/>
+      <c r="AJ16" s="412"/>
+      <c r="AK16" s="412"/>
+      <c r="AL16" s="412"/>
+      <c r="AM16" s="412"/>
+      <c r="AN16" s="413"/>
     </row>
     <row r="17" spans="1:40" ht="15" customHeight="1">
       <c r="A17" s="183">
@@ -18319,46 +18319,46 @@
       <c r="I17" s="414"/>
       <c r="J17" s="414"/>
       <c r="K17" s="414"/>
-      <c r="L17" s="397" t="s">
+      <c r="L17" s="386" t="s">
         <v>178</v>
       </c>
-      <c r="M17" s="398"/>
-      <c r="N17" s="398"/>
-      <c r="O17" s="398"/>
-      <c r="P17" s="399"/>
+      <c r="M17" s="387"/>
+      <c r="N17" s="387"/>
+      <c r="O17" s="387"/>
+      <c r="P17" s="388"/>
       <c r="Q17" s="184"/>
-      <c r="R17" s="397" t="s">
+      <c r="R17" s="386" t="s">
         <v>38</v>
       </c>
-      <c r="S17" s="398"/>
-      <c r="T17" s="398"/>
-      <c r="U17" s="399"/>
-      <c r="V17" s="403">
+      <c r="S17" s="387"/>
+      <c r="T17" s="387"/>
+      <c r="U17" s="388"/>
+      <c r="V17" s="392">
         <v>6</v>
       </c>
-      <c r="W17" s="404"/>
-      <c r="X17" s="403">
+      <c r="W17" s="393"/>
+      <c r="X17" s="392">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="Y17" s="404"/>
-      <c r="Z17" s="394"/>
-      <c r="AA17" s="396"/>
-      <c r="AB17" s="394"/>
-      <c r="AC17" s="396"/>
-      <c r="AD17" s="394">
+      <c r="Y17" s="393"/>
+      <c r="Z17" s="389"/>
+      <c r="AA17" s="391"/>
+      <c r="AB17" s="389"/>
+      <c r="AC17" s="391"/>
+      <c r="AD17" s="389">
         <v>999.99900000000002</v>
       </c>
-      <c r="AE17" s="396"/>
-      <c r="AF17" s="394"/>
-      <c r="AG17" s="395"/>
-      <c r="AH17" s="396"/>
-      <c r="AI17" s="415"/>
-      <c r="AJ17" s="416"/>
-      <c r="AK17" s="416"/>
-      <c r="AL17" s="416"/>
-      <c r="AM17" s="416"/>
-      <c r="AN17" s="417"/>
+      <c r="AE17" s="391"/>
+      <c r="AF17" s="389"/>
+      <c r="AG17" s="390"/>
+      <c r="AH17" s="391"/>
+      <c r="AI17" s="411"/>
+      <c r="AJ17" s="412"/>
+      <c r="AK17" s="412"/>
+      <c r="AL17" s="412"/>
+      <c r="AM17" s="412"/>
+      <c r="AN17" s="413"/>
     </row>
     <row r="18" spans="1:40" ht="15" customHeight="1">
       <c r="A18" s="183">
@@ -18378,44 +18378,44 @@
       <c r="I18" s="414"/>
       <c r="J18" s="414"/>
       <c r="K18" s="414"/>
-      <c r="L18" s="397" t="s">
+      <c r="L18" s="386" t="s">
         <v>181</v>
       </c>
-      <c r="M18" s="398"/>
-      <c r="N18" s="398"/>
-      <c r="O18" s="398"/>
-      <c r="P18" s="399"/>
+      <c r="M18" s="387"/>
+      <c r="N18" s="387"/>
+      <c r="O18" s="387"/>
+      <c r="P18" s="388"/>
       <c r="Q18" s="184"/>
-      <c r="R18" s="397" t="s">
+      <c r="R18" s="386" t="s">
         <v>58</v>
       </c>
-      <c r="S18" s="398"/>
-      <c r="T18" s="398"/>
-      <c r="U18" s="399"/>
-      <c r="V18" s="403">
+      <c r="S18" s="387"/>
+      <c r="T18" s="387"/>
+      <c r="U18" s="388"/>
+      <c r="V18" s="392">
         <v>100</v>
       </c>
-      <c r="W18" s="404"/>
-      <c r="X18" s="403">
+      <c r="W18" s="393"/>
+      <c r="X18" s="392">
         <f t="shared" si="0"/>
         <v>163</v>
       </c>
-      <c r="Y18" s="404"/>
-      <c r="Z18" s="394"/>
-      <c r="AA18" s="396"/>
-      <c r="AB18" s="394"/>
-      <c r="AC18" s="396"/>
-      <c r="AD18" s="394"/>
-      <c r="AE18" s="396"/>
-      <c r="AF18" s="394"/>
-      <c r="AG18" s="395"/>
-      <c r="AH18" s="396"/>
-      <c r="AI18" s="415"/>
-      <c r="AJ18" s="416"/>
-      <c r="AK18" s="416"/>
-      <c r="AL18" s="416"/>
-      <c r="AM18" s="416"/>
-      <c r="AN18" s="417"/>
+      <c r="Y18" s="393"/>
+      <c r="Z18" s="389"/>
+      <c r="AA18" s="391"/>
+      <c r="AB18" s="389"/>
+      <c r="AC18" s="391"/>
+      <c r="AD18" s="389"/>
+      <c r="AE18" s="391"/>
+      <c r="AF18" s="389"/>
+      <c r="AG18" s="390"/>
+      <c r="AH18" s="391"/>
+      <c r="AI18" s="411"/>
+      <c r="AJ18" s="412"/>
+      <c r="AK18" s="412"/>
+      <c r="AL18" s="412"/>
+      <c r="AM18" s="412"/>
+      <c r="AN18" s="413"/>
     </row>
     <row r="19" spans="1:40" ht="15" customHeight="1">
       <c r="A19" s="183">
@@ -18435,46 +18435,46 @@
       <c r="I19" s="414"/>
       <c r="J19" s="414"/>
       <c r="K19" s="414"/>
-      <c r="L19" s="397" t="s">
+      <c r="L19" s="386" t="s">
         <v>184</v>
       </c>
-      <c r="M19" s="398"/>
-      <c r="N19" s="398"/>
-      <c r="O19" s="398"/>
-      <c r="P19" s="399"/>
+      <c r="M19" s="387"/>
+      <c r="N19" s="387"/>
+      <c r="O19" s="387"/>
+      <c r="P19" s="388"/>
       <c r="Q19" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R19" s="397" t="s">
+      <c r="R19" s="386" t="s">
         <v>33</v>
       </c>
-      <c r="S19" s="398"/>
-      <c r="T19" s="398"/>
-      <c r="U19" s="399"/>
-      <c r="V19" s="403">
+      <c r="S19" s="387"/>
+      <c r="T19" s="387"/>
+      <c r="U19" s="388"/>
+      <c r="V19" s="392">
         <v>100</v>
       </c>
-      <c r="W19" s="404"/>
-      <c r="X19" s="403">
+      <c r="W19" s="393"/>
+      <c r="X19" s="392">
         <f t="shared" si="0"/>
         <v>263</v>
       </c>
-      <c r="Y19" s="404"/>
-      <c r="Z19" s="394"/>
-      <c r="AA19" s="396"/>
-      <c r="AB19" s="394"/>
-      <c r="AC19" s="396"/>
-      <c r="AD19" s="394"/>
-      <c r="AE19" s="396"/>
-      <c r="AF19" s="394"/>
-      <c r="AG19" s="395"/>
-      <c r="AH19" s="396"/>
-      <c r="AI19" s="415"/>
-      <c r="AJ19" s="416"/>
-      <c r="AK19" s="416"/>
-      <c r="AL19" s="416"/>
-      <c r="AM19" s="416"/>
-      <c r="AN19" s="417"/>
+      <c r="Y19" s="393"/>
+      <c r="Z19" s="389"/>
+      <c r="AA19" s="391"/>
+      <c r="AB19" s="389"/>
+      <c r="AC19" s="391"/>
+      <c r="AD19" s="389"/>
+      <c r="AE19" s="391"/>
+      <c r="AF19" s="389"/>
+      <c r="AG19" s="390"/>
+      <c r="AH19" s="391"/>
+      <c r="AI19" s="411"/>
+      <c r="AJ19" s="412"/>
+      <c r="AK19" s="412"/>
+      <c r="AL19" s="412"/>
+      <c r="AM19" s="412"/>
+      <c r="AN19" s="413"/>
     </row>
     <row r="20" spans="1:40" ht="15" customHeight="1">
       <c r="A20" s="183">
@@ -18494,46 +18494,46 @@
       <c r="I20" s="414"/>
       <c r="J20" s="414"/>
       <c r="K20" s="414"/>
-      <c r="L20" s="397" t="s">
+      <c r="L20" s="386" t="s">
         <v>187</v>
       </c>
-      <c r="M20" s="398"/>
-      <c r="N20" s="398"/>
-      <c r="O20" s="398"/>
-      <c r="P20" s="399"/>
+      <c r="M20" s="387"/>
+      <c r="N20" s="387"/>
+      <c r="O20" s="387"/>
+      <c r="P20" s="388"/>
       <c r="Q20" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R20" s="397" t="s">
+      <c r="R20" s="386" t="s">
         <v>33</v>
       </c>
-      <c r="S20" s="398"/>
-      <c r="T20" s="398"/>
-      <c r="U20" s="399"/>
-      <c r="V20" s="403">
+      <c r="S20" s="387"/>
+      <c r="T20" s="387"/>
+      <c r="U20" s="388"/>
+      <c r="V20" s="392">
         <v>100</v>
       </c>
-      <c r="W20" s="404"/>
-      <c r="X20" s="403">
+      <c r="W20" s="393"/>
+      <c r="X20" s="392">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="Y20" s="404"/>
-      <c r="Z20" s="394"/>
-      <c r="AA20" s="396"/>
-      <c r="AB20" s="394"/>
-      <c r="AC20" s="396"/>
-      <c r="AD20" s="394"/>
-      <c r="AE20" s="396"/>
-      <c r="AF20" s="394"/>
-      <c r="AG20" s="395"/>
-      <c r="AH20" s="396"/>
-      <c r="AI20" s="415"/>
-      <c r="AJ20" s="416"/>
-      <c r="AK20" s="416"/>
-      <c r="AL20" s="416"/>
-      <c r="AM20" s="416"/>
-      <c r="AN20" s="417"/>
+      <c r="Y20" s="393"/>
+      <c r="Z20" s="389"/>
+      <c r="AA20" s="391"/>
+      <c r="AB20" s="389"/>
+      <c r="AC20" s="391"/>
+      <c r="AD20" s="389"/>
+      <c r="AE20" s="391"/>
+      <c r="AF20" s="389"/>
+      <c r="AG20" s="390"/>
+      <c r="AH20" s="391"/>
+      <c r="AI20" s="411"/>
+      <c r="AJ20" s="412"/>
+      <c r="AK20" s="412"/>
+      <c r="AL20" s="412"/>
+      <c r="AM20" s="412"/>
+      <c r="AN20" s="413"/>
     </row>
     <row r="21" spans="1:40" ht="15" customHeight="1">
       <c r="A21" s="183">
@@ -18553,46 +18553,46 @@
       <c r="I21" s="414"/>
       <c r="J21" s="414"/>
       <c r="K21" s="414"/>
-      <c r="L21" s="397" t="s">
+      <c r="L21" s="386" t="s">
         <v>190</v>
       </c>
-      <c r="M21" s="398"/>
-      <c r="N21" s="398"/>
-      <c r="O21" s="398"/>
-      <c r="P21" s="399"/>
+      <c r="M21" s="387"/>
+      <c r="N21" s="387"/>
+      <c r="O21" s="387"/>
+      <c r="P21" s="388"/>
       <c r="Q21" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R21" s="397" t="s">
+      <c r="R21" s="386" t="s">
         <v>33</v>
       </c>
-      <c r="S21" s="398"/>
-      <c r="T21" s="398"/>
-      <c r="U21" s="399"/>
-      <c r="V21" s="403">
+      <c r="S21" s="387"/>
+      <c r="T21" s="387"/>
+      <c r="U21" s="388"/>
+      <c r="V21" s="392">
         <v>100</v>
       </c>
-      <c r="W21" s="404"/>
-      <c r="X21" s="403">
+      <c r="W21" s="393"/>
+      <c r="X21" s="392">
         <f t="shared" si="0"/>
         <v>463</v>
       </c>
-      <c r="Y21" s="404"/>
-      <c r="Z21" s="394"/>
-      <c r="AA21" s="396"/>
-      <c r="AB21" s="394"/>
-      <c r="AC21" s="396"/>
-      <c r="AD21" s="394"/>
-      <c r="AE21" s="396"/>
-      <c r="AF21" s="394"/>
-      <c r="AG21" s="395"/>
-      <c r="AH21" s="396"/>
-      <c r="AI21" s="415"/>
-      <c r="AJ21" s="416"/>
-      <c r="AK21" s="416"/>
-      <c r="AL21" s="416"/>
-      <c r="AM21" s="416"/>
-      <c r="AN21" s="417"/>
+      <c r="Y21" s="393"/>
+      <c r="Z21" s="389"/>
+      <c r="AA21" s="391"/>
+      <c r="AB21" s="389"/>
+      <c r="AC21" s="391"/>
+      <c r="AD21" s="389"/>
+      <c r="AE21" s="391"/>
+      <c r="AF21" s="389"/>
+      <c r="AG21" s="390"/>
+      <c r="AH21" s="391"/>
+      <c r="AI21" s="411"/>
+      <c r="AJ21" s="412"/>
+      <c r="AK21" s="412"/>
+      <c r="AL21" s="412"/>
+      <c r="AM21" s="412"/>
+      <c r="AN21" s="413"/>
     </row>
     <row r="22" spans="1:40" ht="15" customHeight="1">
       <c r="A22" s="183">
@@ -18605,53 +18605,53 @@
       <c r="D22" s="414"/>
       <c r="E22" s="414"/>
       <c r="F22" s="414"/>
-      <c r="G22" s="419" t="s">
+      <c r="G22" s="416" t="s">
         <v>192</v>
       </c>
-      <c r="H22" s="419"/>
-      <c r="I22" s="419"/>
-      <c r="J22" s="419"/>
-      <c r="K22" s="419"/>
-      <c r="L22" s="397" t="s">
+      <c r="H22" s="416"/>
+      <c r="I22" s="416"/>
+      <c r="J22" s="416"/>
+      <c r="K22" s="416"/>
+      <c r="L22" s="386" t="s">
         <v>193</v>
       </c>
-      <c r="M22" s="398"/>
-      <c r="N22" s="398"/>
-      <c r="O22" s="398"/>
-      <c r="P22" s="399"/>
+      <c r="M22" s="387"/>
+      <c r="N22" s="387"/>
+      <c r="O22" s="387"/>
+      <c r="P22" s="388"/>
       <c r="Q22" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R22" s="397" t="s">
+      <c r="R22" s="386" t="s">
         <v>34</v>
       </c>
-      <c r="S22" s="398"/>
-      <c r="T22" s="398"/>
-      <c r="U22" s="399"/>
-      <c r="V22" s="403">
+      <c r="S22" s="387"/>
+      <c r="T22" s="387"/>
+      <c r="U22" s="388"/>
+      <c r="V22" s="392">
         <v>100</v>
       </c>
-      <c r="W22" s="404"/>
-      <c r="X22" s="403">
+      <c r="W22" s="393"/>
+      <c r="X22" s="392">
         <f t="shared" si="0"/>
         <v>563</v>
       </c>
-      <c r="Y22" s="404"/>
-      <c r="Z22" s="394"/>
-      <c r="AA22" s="396"/>
-      <c r="AB22" s="394"/>
-      <c r="AC22" s="396"/>
-      <c r="AD22" s="394"/>
-      <c r="AE22" s="396"/>
-      <c r="AF22" s="394"/>
-      <c r="AG22" s="395"/>
-      <c r="AH22" s="396"/>
-      <c r="AI22" s="415"/>
-      <c r="AJ22" s="416"/>
-      <c r="AK22" s="416"/>
-      <c r="AL22" s="416"/>
-      <c r="AM22" s="416"/>
-      <c r="AN22" s="417"/>
+      <c r="Y22" s="393"/>
+      <c r="Z22" s="389"/>
+      <c r="AA22" s="391"/>
+      <c r="AB22" s="389"/>
+      <c r="AC22" s="391"/>
+      <c r="AD22" s="389"/>
+      <c r="AE22" s="391"/>
+      <c r="AF22" s="389"/>
+      <c r="AG22" s="390"/>
+      <c r="AH22" s="391"/>
+      <c r="AI22" s="411"/>
+      <c r="AJ22" s="412"/>
+      <c r="AK22" s="412"/>
+      <c r="AL22" s="412"/>
+      <c r="AM22" s="412"/>
+      <c r="AN22" s="413"/>
     </row>
     <row r="23" spans="1:40" ht="15" customHeight="1">
       <c r="A23" s="183">
@@ -18664,53 +18664,53 @@
       <c r="D23" s="414"/>
       <c r="E23" s="414"/>
       <c r="F23" s="414"/>
-      <c r="G23" s="419" t="s">
+      <c r="G23" s="416" t="s">
         <v>195</v>
       </c>
-      <c r="H23" s="419"/>
-      <c r="I23" s="419"/>
-      <c r="J23" s="419"/>
-      <c r="K23" s="419"/>
-      <c r="L23" s="397" t="s">
+      <c r="H23" s="416"/>
+      <c r="I23" s="416"/>
+      <c r="J23" s="416"/>
+      <c r="K23" s="416"/>
+      <c r="L23" s="386" t="s">
         <v>196</v>
       </c>
-      <c r="M23" s="398"/>
-      <c r="N23" s="398"/>
-      <c r="O23" s="398"/>
-      <c r="P23" s="399"/>
+      <c r="M23" s="387"/>
+      <c r="N23" s="387"/>
+      <c r="O23" s="387"/>
+      <c r="P23" s="388"/>
       <c r="Q23" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R23" s="397" t="s">
+      <c r="R23" s="386" t="s">
         <v>34</v>
       </c>
-      <c r="S23" s="398"/>
-      <c r="T23" s="398"/>
-      <c r="U23" s="399"/>
-      <c r="V23" s="403">
+      <c r="S23" s="387"/>
+      <c r="T23" s="387"/>
+      <c r="U23" s="388"/>
+      <c r="V23" s="392">
         <v>100</v>
       </c>
-      <c r="W23" s="404"/>
-      <c r="X23" s="403">
+      <c r="W23" s="393"/>
+      <c r="X23" s="392">
         <f t="shared" si="0"/>
         <v>663</v>
       </c>
-      <c r="Y23" s="404"/>
-      <c r="Z23" s="394"/>
-      <c r="AA23" s="396"/>
-      <c r="AB23" s="394"/>
-      <c r="AC23" s="396"/>
-      <c r="AD23" s="394"/>
-      <c r="AE23" s="396"/>
-      <c r="AF23" s="394"/>
-      <c r="AG23" s="395"/>
-      <c r="AH23" s="396"/>
-      <c r="AI23" s="415"/>
-      <c r="AJ23" s="416"/>
-      <c r="AK23" s="416"/>
-      <c r="AL23" s="416"/>
-      <c r="AM23" s="416"/>
-      <c r="AN23" s="417"/>
+      <c r="Y23" s="393"/>
+      <c r="Z23" s="389"/>
+      <c r="AA23" s="391"/>
+      <c r="AB23" s="389"/>
+      <c r="AC23" s="391"/>
+      <c r="AD23" s="389"/>
+      <c r="AE23" s="391"/>
+      <c r="AF23" s="389"/>
+      <c r="AG23" s="390"/>
+      <c r="AH23" s="391"/>
+      <c r="AI23" s="411"/>
+      <c r="AJ23" s="412"/>
+      <c r="AK23" s="412"/>
+      <c r="AL23" s="412"/>
+      <c r="AM23" s="412"/>
+      <c r="AN23" s="413"/>
     </row>
     <row r="24" spans="1:40" ht="15" customHeight="1">
       <c r="A24" s="183">
@@ -18723,134 +18723,169 @@
       <c r="D24" s="414"/>
       <c r="E24" s="414"/>
       <c r="F24" s="414"/>
-      <c r="G24" s="418" t="s">
+      <c r="G24" s="415" t="s">
         <v>198</v>
       </c>
-      <c r="H24" s="418"/>
-      <c r="I24" s="418"/>
-      <c r="J24" s="418"/>
-      <c r="K24" s="418"/>
-      <c r="L24" s="397" t="s">
+      <c r="H24" s="415"/>
+      <c r="I24" s="415"/>
+      <c r="J24" s="415"/>
+      <c r="K24" s="415"/>
+      <c r="L24" s="386" t="s">
         <v>199</v>
       </c>
-      <c r="M24" s="398"/>
-      <c r="N24" s="398"/>
-      <c r="O24" s="398"/>
-      <c r="P24" s="399"/>
+      <c r="M24" s="387"/>
+      <c r="N24" s="387"/>
+      <c r="O24" s="387"/>
+      <c r="P24" s="388"/>
       <c r="Q24" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="R24" s="397" t="s">
+      <c r="R24" s="386" t="s">
         <v>34</v>
       </c>
-      <c r="S24" s="398"/>
-      <c r="T24" s="398"/>
-      <c r="U24" s="399"/>
-      <c r="V24" s="403">
+      <c r="S24" s="387"/>
+      <c r="T24" s="387"/>
+      <c r="U24" s="388"/>
+      <c r="V24" s="392">
         <v>100</v>
       </c>
-      <c r="W24" s="404"/>
-      <c r="X24" s="403">
+      <c r="W24" s="393"/>
+      <c r="X24" s="392">
         <f t="shared" si="0"/>
         <v>763</v>
       </c>
-      <c r="Y24" s="404"/>
-      <c r="Z24" s="394"/>
-      <c r="AA24" s="396"/>
-      <c r="AB24" s="394"/>
-      <c r="AC24" s="396"/>
-      <c r="AD24" s="394"/>
-      <c r="AE24" s="396"/>
-      <c r="AF24" s="394"/>
-      <c r="AG24" s="395"/>
-      <c r="AH24" s="396"/>
-      <c r="AI24" s="415"/>
-      <c r="AJ24" s="416"/>
-      <c r="AK24" s="416"/>
-      <c r="AL24" s="416"/>
-      <c r="AM24" s="416"/>
-      <c r="AN24" s="417"/>
+      <c r="Y24" s="393"/>
+      <c r="Z24" s="389"/>
+      <c r="AA24" s="391"/>
+      <c r="AB24" s="389"/>
+      <c r="AC24" s="391"/>
+      <c r="AD24" s="389"/>
+      <c r="AE24" s="391"/>
+      <c r="AF24" s="389"/>
+      <c r="AG24" s="390"/>
+      <c r="AH24" s="391"/>
+      <c r="AI24" s="411"/>
+      <c r="AJ24" s="412"/>
+      <c r="AK24" s="412"/>
+      <c r="AL24" s="412"/>
+      <c r="AM24" s="412"/>
+      <c r="AN24" s="413"/>
     </row>
   </sheetData>
   <mergeCells count="215">
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="AI23:AN23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AF24:AH24"/>
-    <mergeCell ref="AI24:AN24"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AF23:AH23"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="AI21:AN21"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AF22:AH22"/>
-    <mergeCell ref="AI22:AN22"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AF19:AH19"/>
-    <mergeCell ref="AI19:AN19"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AF20:AH20"/>
-    <mergeCell ref="AI20:AN20"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="AI17:AN17"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AF18:AH18"/>
-    <mergeCell ref="AI18:AN18"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="AI15:AN15"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="AI16:AN16"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AI7:AN7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="AI8:AN8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="AI9:AN9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="AI11:AN11"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AN10"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AN12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="AI13:AN13"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="AI14:AN14"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="G24:K24"/>
     <mergeCell ref="L24:P24"/>
@@ -18875,119 +18910,84 @@
     <mergeCell ref="G19:K19"/>
     <mergeCell ref="L19:P19"/>
     <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="AI13:AN13"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="AI14:AN14"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AN12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="AI11:AN11"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AN10"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="AI9:AN9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AI7:AN7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="AI8:AN8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="AI15:AN15"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="AI16:AN16"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="AI17:AN17"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AF18:AH18"/>
+    <mergeCell ref="AI18:AN18"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AF19:AH19"/>
+    <mergeCell ref="AI19:AN19"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AF20:AH20"/>
+    <mergeCell ref="AI20:AN20"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="AI21:AN21"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AF22:AH22"/>
+    <mergeCell ref="AI22:AN22"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="AI23:AN23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AF24:AH24"/>
+    <mergeCell ref="AI24:AN24"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AF23:AH23"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <dataValidations count="2">
